--- a/BackTest/2020-01-16 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-16 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77.56999999999999</v>
+        <v>77.44</v>
       </c>
       <c r="C2" t="n">
-        <v>77.56999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D2" t="n">
-        <v>77.56999999999999</v>
+        <v>77.44</v>
       </c>
       <c r="E2" t="n">
-        <v>77.56999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>50177.6422</v>
       </c>
       <c r="G2" t="n">
-        <v>77.57483333333332</v>
+        <v>77.61849999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>77.56999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>8293.752399999999</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>77.54433333333331</v>
+        <v>77.57483333333332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>76.3</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>76.3</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>76.3</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>76.3</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>3151.8896</v>
+        <v>8293.752399999999</v>
       </c>
       <c r="G4" t="n">
-        <v>77.48116666666665</v>
+        <v>77.54433333333331</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>76.3</v>
       </c>
       <c r="F5" t="n">
-        <v>4329.6842</v>
+        <v>3151.8896</v>
       </c>
       <c r="G5" t="n">
-        <v>77.44599999999998</v>
+        <v>77.48116666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77.56999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C6" t="n">
-        <v>77.56999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D6" t="n">
-        <v>77.56999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E6" t="n">
-        <v>77.56999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2426.2476</v>
+        <v>4329.6842</v>
       </c>
       <c r="G6" t="n">
-        <v>77.43016666666664</v>
+        <v>77.44599999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77.67</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>77.67</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>77.67</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>77.67</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>3926.2564</v>
+        <v>2426.2476</v>
       </c>
       <c r="G7" t="n">
-        <v>77.41949999999997</v>
+        <v>77.43016666666664</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77.77</v>
+        <v>77.67</v>
       </c>
       <c r="C8" t="n">
-        <v>77.77</v>
+        <v>77.67</v>
       </c>
       <c r="D8" t="n">
-        <v>77.77</v>
+        <v>77.67</v>
       </c>
       <c r="E8" t="n">
-        <v>77.77</v>
+        <v>77.67</v>
       </c>
       <c r="F8" t="n">
-        <v>797.1457</v>
+        <v>3926.2564</v>
       </c>
       <c r="G8" t="n">
-        <v>77.41016666666664</v>
+        <v>77.41949999999997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77.79000000000001</v>
+        <v>77.77</v>
       </c>
       <c r="C9" t="n">
-        <v>77.92</v>
+        <v>77.77</v>
       </c>
       <c r="D9" t="n">
-        <v>77.92</v>
+        <v>77.77</v>
       </c>
       <c r="E9" t="n">
-        <v>77.79000000000001</v>
+        <v>77.77</v>
       </c>
       <c r="F9" t="n">
-        <v>752.3869999999999</v>
+        <v>797.1457</v>
       </c>
       <c r="G9" t="n">
-        <v>77.40016666666664</v>
+        <v>77.41016666666664</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77.56999999999999</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>77.56999999999999</v>
+        <v>77.92</v>
       </c>
       <c r="D10" t="n">
-        <v>77.56999999999999</v>
+        <v>77.92</v>
       </c>
       <c r="E10" t="n">
-        <v>77.56999999999999</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>6922.3357</v>
+        <v>752.3869999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>77.38433333333329</v>
+        <v>77.40016666666664</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77.61</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>77.58</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>77.61</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>77.58</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>77024.5971</v>
+        <v>6922.3357</v>
       </c>
       <c r="G11" t="n">
-        <v>77.36866666666661</v>
+        <v>77.38433333333329</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77.81999999999999</v>
+        <v>77.61</v>
       </c>
       <c r="C12" t="n">
-        <v>77.81999999999999</v>
+        <v>77.58</v>
       </c>
       <c r="D12" t="n">
-        <v>77.81999999999999</v>
+        <v>77.61</v>
       </c>
       <c r="E12" t="n">
-        <v>77.81999999999999</v>
+        <v>77.58</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>77024.5971</v>
       </c>
       <c r="G12" t="n">
-        <v>77.35699999999994</v>
+        <v>77.36866666666661</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>77.81999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>77.34899999999993</v>
+        <v>77.35699999999994</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>77.92</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>77.92</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>77.92</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>77.92</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>440.4539</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>77.33166666666661</v>
+        <v>77.34899999999993</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>77.92</v>
       </c>
       <c r="C15" t="n">
-        <v>79</v>
+        <v>77.92</v>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>77.92</v>
       </c>
       <c r="E15" t="n">
         <v>77.92</v>
       </c>
       <c r="F15" t="n">
-        <v>14848.9597</v>
+        <v>440.4539</v>
       </c>
       <c r="G15" t="n">
-        <v>77.34333333333326</v>
+        <v>77.33166666666661</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>77.92</v>
+      </c>
+      <c r="C16" t="n">
         <v>79</v>
       </c>
-      <c r="C16" t="n">
-        <v>79.04000000000001</v>
-      </c>
       <c r="D16" t="n">
-        <v>79.04000000000001</v>
+        <v>79</v>
       </c>
       <c r="E16" t="n">
-        <v>77.8</v>
+        <v>77.92</v>
       </c>
       <c r="F16" t="n">
-        <v>56794.1091</v>
+        <v>14848.9597</v>
       </c>
       <c r="G16" t="n">
-        <v>77.33999999999993</v>
+        <v>77.34333333333326</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>79</v>
       </c>
       <c r="C17" t="n">
-        <v>79</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>79</v>
+        <v>77.8</v>
       </c>
       <c r="F17" t="n">
-        <v>9360.6821</v>
+        <v>56794.1091</v>
       </c>
       <c r="G17" t="n">
-        <v>77.3386666666666</v>
+        <v>77.33999999999993</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>79</v>
       </c>
       <c r="F18" t="n">
-        <v>462.1162</v>
+        <v>9360.6821</v>
       </c>
       <c r="G18" t="n">
-        <v>77.33783333333326</v>
+        <v>77.3386666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>79</v>
       </c>
       <c r="C19" t="n">
-        <v>80.19</v>
+        <v>79</v>
       </c>
       <c r="D19" t="n">
-        <v>80.19</v>
+        <v>79</v>
       </c>
       <c r="E19" t="n">
         <v>79</v>
       </c>
       <c r="F19" t="n">
-        <v>107223.2109</v>
+        <v>462.1162</v>
       </c>
       <c r="G19" t="n">
-        <v>77.37633333333325</v>
+        <v>77.33783333333326</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>78.63</v>
+        <v>79</v>
       </c>
       <c r="C20" t="n">
-        <v>78.62</v>
+        <v>80.19</v>
       </c>
       <c r="D20" t="n">
-        <v>78.63</v>
+        <v>80.19</v>
       </c>
       <c r="E20" t="n">
-        <v>78.62</v>
+        <v>79</v>
       </c>
       <c r="F20" t="n">
-        <v>48344.1396</v>
+        <v>107223.2109</v>
       </c>
       <c r="G20" t="n">
-        <v>77.38816666666659</v>
+        <v>77.37633333333325</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>79.89</v>
+        <v>78.63</v>
       </c>
       <c r="C21" t="n">
-        <v>80.23</v>
+        <v>78.62</v>
       </c>
       <c r="D21" t="n">
-        <v>80.23</v>
+        <v>78.63</v>
       </c>
       <c r="E21" t="n">
-        <v>79.89</v>
+        <v>78.62</v>
       </c>
       <c r="F21" t="n">
-        <v>10152.66312631185</v>
+        <v>48344.1396</v>
       </c>
       <c r="G21" t="n">
-        <v>77.41716666666659</v>
+        <v>77.38816666666659</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>80.79000000000001</v>
+        <v>79.89</v>
       </c>
       <c r="C22" t="n">
-        <v>80.79000000000001</v>
+        <v>80.23</v>
       </c>
       <c r="D22" t="n">
-        <v>80.79000000000001</v>
+        <v>80.23</v>
       </c>
       <c r="E22" t="n">
-        <v>80.79000000000001</v>
+        <v>79.89</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>10152.66312631185</v>
       </c>
       <c r="G22" t="n">
-        <v>77.46533333333326</v>
+        <v>77.41716666666659</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1168,28 +1168,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>79.55</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>79.55</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>79.55</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>79.55</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="F23" t="n">
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>77.49449999999993</v>
+        <v>77.46533333333326</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>79.65000000000001</v>
+        <v>79.55</v>
       </c>
       <c r="C24" t="n">
         <v>79.55</v>
       </c>
       <c r="D24" t="n">
-        <v>79.65000000000001</v>
+        <v>79.55</v>
       </c>
       <c r="E24" t="n">
         <v>79.55</v>
       </c>
       <c r="F24" t="n">
-        <v>9542.705599999999</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>77.5156666666666</v>
+        <v>77.49449999999993</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>80.20999999999999</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>80.20999999999999</v>
+        <v>79.55</v>
       </c>
       <c r="D25" t="n">
-        <v>80.20999999999999</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>80.20999999999999</v>
+        <v>79.55</v>
       </c>
       <c r="F25" t="n">
-        <v>4587.8822</v>
+        <v>9542.705599999999</v>
       </c>
       <c r="G25" t="n">
-        <v>77.56499999999993</v>
+        <v>77.5156666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>80.33</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>80.34</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>80.34</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>80.33</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>12428.5407549166</v>
+        <v>4587.8822</v>
       </c>
       <c r="G26" t="n">
-        <v>77.61649999999993</v>
+        <v>77.56499999999993</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>81</v>
+        <v>80.33</v>
       </c>
       <c r="C27" t="n">
-        <v>81</v>
+        <v>80.34</v>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>80.34</v>
       </c>
       <c r="E27" t="n">
-        <v>81</v>
+        <v>80.33</v>
       </c>
       <c r="F27" t="n">
-        <v>5638.4485</v>
+        <v>12428.5407549166</v>
       </c>
       <c r="G27" t="n">
-        <v>77.68316666666661</v>
+        <v>77.61649999999993</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>81.06</v>
+        <v>81</v>
       </c>
       <c r="C28" t="n">
-        <v>81.06999999999999</v>
+        <v>81</v>
       </c>
       <c r="D28" t="n">
-        <v>81.17</v>
+        <v>81</v>
       </c>
       <c r="E28" t="n">
-        <v>81.06</v>
+        <v>81</v>
       </c>
       <c r="F28" t="n">
-        <v>50137.4453</v>
+        <v>5638.4485</v>
       </c>
       <c r="G28" t="n">
-        <v>77.75433333333326</v>
+        <v>77.68316666666661</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>81</v>
+        <v>81.06</v>
       </c>
       <c r="C29" t="n">
-        <v>81</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>81.17</v>
       </c>
       <c r="E29" t="n">
-        <v>81</v>
+        <v>81.06</v>
       </c>
       <c r="F29" t="n">
-        <v>1623.6333</v>
+        <v>50137.4453</v>
       </c>
       <c r="G29" t="n">
-        <v>77.82683333333327</v>
+        <v>77.75433333333326</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>81.06</v>
+        <v>81</v>
       </c>
       <c r="C30" t="n">
-        <v>81.17</v>
+        <v>81</v>
       </c>
       <c r="D30" t="n">
-        <v>81.17</v>
+        <v>81</v>
       </c>
       <c r="E30" t="n">
-        <v>81.06</v>
+        <v>81</v>
       </c>
       <c r="F30" t="n">
-        <v>46167.7839</v>
+        <v>1623.6333</v>
       </c>
       <c r="G30" t="n">
-        <v>77.90449999999993</v>
+        <v>77.82683333333327</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>81.18000000000001</v>
+        <v>81.06</v>
       </c>
       <c r="C31" t="n">
-        <v>81.18000000000001</v>
+        <v>81.17</v>
       </c>
       <c r="D31" t="n">
-        <v>81.18000000000001</v>
+        <v>81.17</v>
       </c>
       <c r="E31" t="n">
-        <v>81.09999999999999</v>
+        <v>81.06</v>
       </c>
       <c r="F31" t="n">
-        <v>34625.1146</v>
+        <v>46167.7839</v>
       </c>
       <c r="G31" t="n">
-        <v>77.97749999999994</v>
+        <v>77.90449999999993</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1492,13 +1492,13 @@
         <v>81.18000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>81.18000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>1067.5187</v>
+        <v>34625.1146</v>
       </c>
       <c r="G32" t="n">
-        <v>78.05049999999993</v>
+        <v>77.97749999999994</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>81.25</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>81.5</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>81.5</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>81.25</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>11267.094</v>
+        <v>1067.5187</v>
       </c>
       <c r="G33" t="n">
-        <v>78.13616666666661</v>
+        <v>78.05049999999993</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>82</v>
+        <v>81.25</v>
       </c>
       <c r="C34" t="n">
-        <v>82.81</v>
+        <v>81.5</v>
       </c>
       <c r="D34" t="n">
-        <v>82.81</v>
+        <v>81.5</v>
       </c>
       <c r="E34" t="n">
-        <v>82</v>
+        <v>81.25</v>
       </c>
       <c r="F34" t="n">
-        <v>21738.93338254546</v>
+        <v>11267.094</v>
       </c>
       <c r="G34" t="n">
-        <v>78.23633333333328</v>
+        <v>78.13616666666661</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>82</v>
+      </c>
+      <c r="C35" t="n">
         <v>82.81</v>
       </c>
-      <c r="C35" t="n">
-        <v>83.84999999999999</v>
-      </c>
       <c r="D35" t="n">
-        <v>83.84999999999999</v>
+        <v>82.81</v>
       </c>
       <c r="E35" t="n">
-        <v>82.81</v>
+        <v>82</v>
       </c>
       <c r="F35" t="n">
-        <v>12647.00411745455</v>
+        <v>21738.93338254546</v>
       </c>
       <c r="G35" t="n">
-        <v>78.35383333333328</v>
+        <v>78.23633333333328</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83.95</v>
+        <v>82.81</v>
       </c>
       <c r="C36" t="n">
-        <v>84.8</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>84.8</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>83.95</v>
+        <v>82.81</v>
       </c>
       <c r="F36" t="n">
-        <v>14241.1387</v>
+        <v>12647.00411745455</v>
       </c>
       <c r="G36" t="n">
-        <v>78.48716666666661</v>
+        <v>78.35383333333328</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84.7</v>
+        <v>83.95</v>
       </c>
       <c r="C37" t="n">
-        <v>85</v>
+        <v>84.8</v>
       </c>
       <c r="D37" t="n">
-        <v>85</v>
+        <v>84.8</v>
       </c>
       <c r="E37" t="n">
-        <v>84.7</v>
+        <v>83.95</v>
       </c>
       <c r="F37" t="n">
-        <v>39763.1169</v>
+        <v>14241.1387</v>
       </c>
       <c r="G37" t="n">
-        <v>78.60599999999995</v>
+        <v>78.48716666666661</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>85</v>
+        <v>84.7</v>
       </c>
       <c r="C38" t="n">
         <v>85</v>
       </c>
       <c r="D38" t="n">
-        <v>85.78</v>
+        <v>85</v>
       </c>
       <c r="E38" t="n">
-        <v>85</v>
+        <v>84.7</v>
       </c>
       <c r="F38" t="n">
-        <v>78137.4859</v>
+        <v>39763.1169</v>
       </c>
       <c r="G38" t="n">
-        <v>78.72883333333328</v>
+        <v>78.60599999999995</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,28 +1728,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>85.79000000000001</v>
+        <v>85</v>
       </c>
       <c r="C39" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39" t="n">
-        <v>85.79000000000001</v>
+        <v>85.78</v>
       </c>
       <c r="E39" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" t="n">
-        <v>5669.3928</v>
+        <v>78137.4859</v>
       </c>
       <c r="G39" t="n">
-        <v>78.8431666666666</v>
+        <v>78.72883333333328</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1763,28 +1763,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83.06999999999999</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>84</v>
       </c>
       <c r="D40" t="n">
+        <v>85.79000000000001</v>
+      </c>
+      <c r="E40" t="n">
         <v>84</v>
       </c>
-      <c r="E40" t="n">
-        <v>83.06999999999999</v>
-      </c>
       <c r="F40" t="n">
-        <v>21573.6391</v>
+        <v>5669.3928</v>
       </c>
       <c r="G40" t="n">
-        <v>78.96316666666661</v>
+        <v>78.8431666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1798,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="C41" t="n">
         <v>84</v>
@@ -1807,19 +1807,19 @@
         <v>84</v>
       </c>
       <c r="E41" t="n">
-        <v>84</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>16239.3372</v>
+        <v>21573.6391</v>
       </c>
       <c r="G41" t="n">
-        <v>79.09349999999993</v>
+        <v>78.96316666666661</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1833,28 +1833,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83.23</v>
+        <v>84</v>
       </c>
       <c r="C42" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" t="n">
-        <v>83.23</v>
+        <v>84</v>
       </c>
       <c r="E42" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F42" t="n">
-        <v>51522.0801</v>
+        <v>16239.3372</v>
       </c>
       <c r="G42" t="n">
-        <v>79.20716666666659</v>
+        <v>79.09349999999993</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>83.23</v>
+      </c>
+      <c r="C43" t="n">
         <v>83</v>
       </c>
-      <c r="C43" t="n">
-        <v>85.53</v>
-      </c>
       <c r="D43" t="n">
-        <v>85.53</v>
+        <v>83.23</v>
       </c>
       <c r="E43" t="n">
         <v>83</v>
       </c>
       <c r="F43" t="n">
-        <v>101859.7627</v>
+        <v>51522.0801</v>
       </c>
       <c r="G43" t="n">
-        <v>79.34866666666659</v>
+        <v>79.20716666666659</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83.04000000000001</v>
+        <v>83</v>
       </c>
       <c r="C44" t="n">
-        <v>83.04000000000001</v>
+        <v>85.53</v>
       </c>
       <c r="D44" t="n">
-        <v>84.04000000000001</v>
+        <v>85.53</v>
       </c>
       <c r="E44" t="n">
-        <v>83.04000000000001</v>
+        <v>83</v>
       </c>
       <c r="F44" t="n">
-        <v>38841.0644</v>
+        <v>101859.7627</v>
       </c>
       <c r="G44" t="n">
-        <v>79.44699999999992</v>
+        <v>79.34866666666659</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>82.90000000000001</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>81.7</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>82.90000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>81.7</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>45351.9508</v>
+        <v>38841.0644</v>
       </c>
       <c r="G45" t="n">
-        <v>79.52299999999991</v>
+        <v>79.44699999999992</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>81.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>82.09999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="D46" t="n">
-        <v>82.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="F46" t="n">
-        <v>4001.8583</v>
+        <v>45351.9508</v>
       </c>
       <c r="G46" t="n">
-        <v>79.60566666666658</v>
+        <v>79.52299999999991</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>82.20999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="C47" t="n">
-        <v>82.20999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>82.20999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>82.20999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="F47" t="n">
-        <v>1756.8662</v>
+        <v>4001.8583</v>
       </c>
       <c r="G47" t="n">
-        <v>79.67933333333325</v>
+        <v>79.60566666666658</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>82.69</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>82.69</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>82.79000000000001</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>82.69</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>33245.1999</v>
+        <v>1756.8662</v>
       </c>
       <c r="G48" t="n">
-        <v>79.77166666666658</v>
+        <v>79.67933333333325</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>83.40000000000001</v>
+        <v>82.69</v>
       </c>
       <c r="C49" t="n">
-        <v>83.40000000000001</v>
+        <v>82.69</v>
       </c>
       <c r="D49" t="n">
-        <v>83.40000000000001</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>83.40000000000001</v>
+        <v>82.69</v>
       </c>
       <c r="F49" t="n">
-        <v>3793.8974</v>
+        <v>33245.1999</v>
       </c>
       <c r="G49" t="n">
-        <v>79.87583333333325</v>
+        <v>79.77166666666658</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>83.40000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>11644.6167</v>
+        <v>3793.8974</v>
       </c>
       <c r="G50" t="n">
-        <v>79.97999999999992</v>
+        <v>79.87583333333325</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C51" t="n">
         <v>83.40000000000001</v>
@@ -2157,13 +2157,13 @@
         <v>83.40000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>3597.1224</v>
+        <v>11644.6167</v>
       </c>
       <c r="G51" t="n">
-        <v>80.07366666666658</v>
+        <v>79.97999999999992</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>82.37</v>
+        <v>83.3</v>
       </c>
       <c r="C52" t="n">
-        <v>82.25</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>82.37</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>82.25</v>
+        <v>83.3</v>
       </c>
       <c r="F52" t="n">
-        <v>8265.0479</v>
+        <v>3597.1224</v>
       </c>
       <c r="G52" t="n">
-        <v>80.1574999999999</v>
+        <v>80.07366666666658</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>83.18000000000001</v>
+        <v>82.37</v>
       </c>
       <c r="C53" t="n">
-        <v>83.5</v>
+        <v>82.25</v>
       </c>
       <c r="D53" t="n">
-        <v>83.5</v>
+        <v>82.37</v>
       </c>
       <c r="E53" t="n">
-        <v>83.18000000000001</v>
+        <v>82.25</v>
       </c>
       <c r="F53" t="n">
-        <v>13654.8076</v>
+        <v>8265.0479</v>
       </c>
       <c r="G53" t="n">
-        <v>80.25433333333325</v>
+        <v>80.1574999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>83.18000000000001</v>
+      </c>
+      <c r="C54" t="n">
         <v>83.5</v>
       </c>
-      <c r="C54" t="n">
-        <v>84.09999999999999</v>
-      </c>
       <c r="D54" t="n">
-        <v>84.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="E54" t="n">
-        <v>83.5</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>3758.0553</v>
+        <v>13654.8076</v>
       </c>
       <c r="G54" t="n">
-        <v>80.36116666666659</v>
+        <v>80.25433333333325</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>82.5</v>
+        <v>83.5</v>
       </c>
       <c r="C55" t="n">
-        <v>82.25</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>82.5</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>82.25</v>
+        <v>83.5</v>
       </c>
       <c r="F55" t="n">
-        <v>10643.1519</v>
+        <v>3758.0553</v>
       </c>
       <c r="G55" t="n">
-        <v>80.44533333333327</v>
+        <v>80.36116666666659</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="C56" t="n">
         <v>82.25</v>
       </c>
-      <c r="C56" t="n">
-        <v>83.3</v>
-      </c>
       <c r="D56" t="n">
-        <v>83.3</v>
+        <v>82.5</v>
       </c>
       <c r="E56" t="n">
         <v>82.25</v>
       </c>
       <c r="F56" t="n">
-        <v>75807.2801</v>
+        <v>10643.1519</v>
       </c>
       <c r="G56" t="n">
-        <v>80.56399999999992</v>
+        <v>80.44533333333327</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>82.31</v>
+        <v>82.25</v>
       </c>
       <c r="C57" t="n">
-        <v>82.3</v>
+        <v>83.3</v>
       </c>
       <c r="D57" t="n">
-        <v>82.31</v>
+        <v>83.3</v>
       </c>
       <c r="E57" t="n">
-        <v>82.3</v>
+        <v>82.25</v>
       </c>
       <c r="F57" t="n">
-        <v>15541.1866</v>
+        <v>75807.2801</v>
       </c>
       <c r="G57" t="n">
-        <v>80.66599999999993</v>
+        <v>80.56399999999992</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="C58" t="n">
         <v>82.3</v>
       </c>
-      <c r="C58" t="n">
-        <v>82.98</v>
-      </c>
       <c r="D58" t="n">
-        <v>82.98</v>
+        <v>82.31</v>
       </c>
       <c r="E58" t="n">
         <v>82.3</v>
       </c>
       <c r="F58" t="n">
-        <v>64754.6617</v>
+        <v>15541.1866</v>
       </c>
       <c r="G58" t="n">
-        <v>80.77933333333324</v>
+        <v>80.66599999999993</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>82.67</v>
+        <v>82.3</v>
       </c>
       <c r="C59" t="n">
-        <v>82.98999999999999</v>
+        <v>82.98</v>
       </c>
       <c r="D59" t="n">
-        <v>82.98999999999999</v>
+        <v>82.98</v>
       </c>
       <c r="E59" t="n">
-        <v>82.67</v>
+        <v>82.3</v>
       </c>
       <c r="F59" t="n">
-        <v>54100.4155</v>
+        <v>64754.6617</v>
       </c>
       <c r="G59" t="n">
-        <v>80.89283333333324</v>
+        <v>80.77933333333324</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>82.3</v>
+        <v>82.67</v>
       </c>
       <c r="C60" t="n">
-        <v>82.3</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>82.3</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>82.3</v>
+        <v>82.67</v>
       </c>
       <c r="F60" t="n">
-        <v>11102.8264</v>
+        <v>54100.4155</v>
       </c>
       <c r="G60" t="n">
-        <v>80.9699999999999</v>
+        <v>80.89283333333324</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="C61" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="D61" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="E61" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="F61" t="n">
-        <v>5421.6894</v>
+        <v>11102.8264</v>
       </c>
       <c r="G61" t="n">
-        <v>81.05499999999989</v>
+        <v>80.9699999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>82.31999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>82.31999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>82.31999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>82.31999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>5421.6894</v>
       </c>
       <c r="G62" t="n">
-        <v>81.13416666666656</v>
+        <v>81.05499999999989</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>82.33</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>82.33</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>82.33</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>82.33</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="F63" t="n">
         <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>81.2134999999999</v>
+        <v>81.13416666666656</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>82.31999999999999</v>
+        <v>82.33</v>
       </c>
       <c r="C64" t="n">
-        <v>82.2</v>
+        <v>82.33</v>
       </c>
       <c r="D64" t="n">
-        <v>82.31999999999999</v>
+        <v>82.33</v>
       </c>
       <c r="E64" t="n">
-        <v>82.2</v>
+        <v>82.33</v>
       </c>
       <c r="F64" t="n">
-        <v>463.2864</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>81.31183333333323</v>
+        <v>81.2134999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>82.2</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="C65" t="n">
         <v>82.2</v>
       </c>
       <c r="D65" t="n">
-        <v>82.2</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>82.2</v>
       </c>
       <c r="F65" t="n">
-        <v>3299.9563</v>
+        <v>463.2864</v>
       </c>
       <c r="G65" t="n">
-        <v>81.41016666666656</v>
+        <v>81.31183333333323</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>82.2</v>
       </c>
       <c r="F66" t="n">
-        <v>5876</v>
+        <v>3299.9563</v>
       </c>
       <c r="G66" t="n">
-        <v>81.48733333333323</v>
+        <v>81.41016666666656</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>82.2</v>
       </c>
       <c r="F67" t="n">
-        <v>2012.9604</v>
+        <v>5876</v>
       </c>
       <c r="G67" t="n">
-        <v>81.56283333333322</v>
+        <v>81.48733333333323</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>81.42</v>
+        <v>82.2</v>
       </c>
       <c r="C68" t="n">
-        <v>81.42</v>
+        <v>82.2</v>
       </c>
       <c r="D68" t="n">
-        <v>81.42</v>
+        <v>82.2</v>
       </c>
       <c r="E68" t="n">
-        <v>81.42</v>
+        <v>82.2</v>
       </c>
       <c r="F68" t="n">
-        <v>5894.633</v>
+        <v>2012.9604</v>
       </c>
       <c r="G68" t="n">
-        <v>81.62366666666655</v>
+        <v>81.56283333333322</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>81.19</v>
+        <v>81.42</v>
       </c>
       <c r="C69" t="n">
-        <v>81.18000000000001</v>
+        <v>81.42</v>
       </c>
       <c r="D69" t="n">
-        <v>81.2</v>
+        <v>81.42</v>
       </c>
       <c r="E69" t="n">
-        <v>81.18000000000001</v>
+        <v>81.42</v>
       </c>
       <c r="F69" t="n">
-        <v>8819.8488</v>
+        <v>5894.633</v>
       </c>
       <c r="G69" t="n">
-        <v>81.67799999999988</v>
+        <v>81.62366666666655</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>81.31</v>
+        <v>81.19</v>
       </c>
       <c r="C70" t="n">
-        <v>81.31</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>81.31</v>
+        <v>81.2</v>
       </c>
       <c r="E70" t="n">
-        <v>81.31</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>1550</v>
+        <v>8819.8488</v>
       </c>
       <c r="G70" t="n">
-        <v>81.74033333333323</v>
+        <v>81.67799999999988</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,31 +2848,35 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>81.69</v>
+        <v>81.31</v>
       </c>
       <c r="C71" t="n">
-        <v>81.69</v>
+        <v>81.31</v>
       </c>
       <c r="D71" t="n">
-        <v>81.69</v>
+        <v>81.31</v>
       </c>
       <c r="E71" t="n">
-        <v>81.69</v>
+        <v>81.31</v>
       </c>
       <c r="F71" t="n">
-        <v>1469</v>
+        <v>1550</v>
       </c>
       <c r="G71" t="n">
-        <v>81.80883333333323</v>
+        <v>81.74033333333323</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="K71" t="n">
+        <v>81.18000000000001</v>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
@@ -2883,32 +2887,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>81.5</v>
+        <v>81.69</v>
       </c>
       <c r="C72" t="n">
-        <v>81.5</v>
+        <v>81.69</v>
       </c>
       <c r="D72" t="n">
-        <v>81.5</v>
+        <v>81.69</v>
       </c>
       <c r="E72" t="n">
-        <v>81.5</v>
+        <v>81.69</v>
       </c>
       <c r="F72" t="n">
-        <v>1190.0186</v>
+        <v>1469</v>
       </c>
       <c r="G72" t="n">
-        <v>81.87016666666656</v>
+        <v>81.80883333333323</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>81.31</v>
+      </c>
+      <c r="K72" t="n">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +2930,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>81.59</v>
+        <v>81.5</v>
       </c>
       <c r="C73" t="n">
-        <v>81.59</v>
+        <v>81.5</v>
       </c>
       <c r="D73" t="n">
-        <v>81.59</v>
+        <v>81.5</v>
       </c>
       <c r="E73" t="n">
-        <v>81.59</v>
+        <v>81.5</v>
       </c>
       <c r="F73" t="n">
-        <v>636</v>
+        <v>1190.0186</v>
       </c>
       <c r="G73" t="n">
-        <v>81.93299999999991</v>
+        <v>81.87016666666656</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +2954,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>81.18000000000001</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>82.28</v>
+        <v>81.59</v>
       </c>
       <c r="C74" t="n">
-        <v>82.19</v>
+        <v>81.59</v>
       </c>
       <c r="D74" t="n">
-        <v>82.28</v>
+        <v>81.59</v>
       </c>
       <c r="E74" t="n">
-        <v>82.19</v>
+        <v>81.59</v>
       </c>
       <c r="F74" t="n">
-        <v>3383.5756</v>
+        <v>636</v>
       </c>
       <c r="G74" t="n">
-        <v>82.00416666666656</v>
+        <v>81.93299999999991</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3006,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>81.5</v>
+        <v>82.28</v>
       </c>
       <c r="C75" t="n">
-        <v>80.7</v>
+        <v>82.19</v>
       </c>
       <c r="D75" t="n">
-        <v>81.5</v>
+        <v>82.28</v>
       </c>
       <c r="E75" t="n">
-        <v>80.7</v>
+        <v>82.19</v>
       </c>
       <c r="F75" t="n">
-        <v>31378.9931</v>
+        <v>3383.5756</v>
       </c>
       <c r="G75" t="n">
-        <v>82.03249999999989</v>
+        <v>82.00416666666656</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3041,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C76" t="n">
         <v>80.7</v>
       </c>
-      <c r="C76" t="n">
-        <v>81.86</v>
-      </c>
       <c r="D76" t="n">
-        <v>81.86</v>
+        <v>81.5</v>
       </c>
       <c r="E76" t="n">
         <v>80.7</v>
       </c>
       <c r="F76" t="n">
-        <v>413.5043</v>
+        <v>31378.9931</v>
       </c>
       <c r="G76" t="n">
-        <v>82.07949999999988</v>
+        <v>82.03249999999989</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>81.28</v>
+        <v>80.7</v>
       </c>
       <c r="C77" t="n">
-        <v>81.39</v>
+        <v>81.86</v>
       </c>
       <c r="D77" t="n">
-        <v>81.39</v>
+        <v>81.86</v>
       </c>
       <c r="E77" t="n">
-        <v>81.28</v>
+        <v>80.7</v>
       </c>
       <c r="F77" t="n">
-        <v>13608.418</v>
+        <v>413.5043</v>
       </c>
       <c r="G77" t="n">
-        <v>82.11933333333323</v>
+        <v>82.07949999999988</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>81.5</v>
+        <v>81.28</v>
       </c>
       <c r="C78" t="n">
-        <v>81.5</v>
+        <v>81.39</v>
       </c>
       <c r="D78" t="n">
-        <v>81.5</v>
+        <v>81.39</v>
       </c>
       <c r="E78" t="n">
-        <v>81.5</v>
+        <v>81.28</v>
       </c>
       <c r="F78" t="n">
-        <v>13629.5986</v>
+        <v>13608.418</v>
       </c>
       <c r="G78" t="n">
-        <v>82.16099999999989</v>
+        <v>82.11933333333323</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>81.48999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="C79" t="n">
-        <v>81.48999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="D79" t="n">
-        <v>81.48999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="E79" t="n">
-        <v>81.48999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="F79" t="n">
-        <v>1469</v>
+        <v>13629.5986</v>
       </c>
       <c r="G79" t="n">
-        <v>82.18266666666656</v>
+        <v>82.16099999999989</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3181,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>81.3</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>81.3</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>81.3</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>81.3</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>21568</v>
+        <v>1469</v>
       </c>
       <c r="G80" t="n">
-        <v>82.22733333333323</v>
+        <v>82.18266666666656</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3228,10 @@
         <v>81.3</v>
       </c>
       <c r="F81" t="n">
-        <v>1768</v>
+        <v>21568</v>
       </c>
       <c r="G81" t="n">
-        <v>82.24516666666658</v>
+        <v>82.22733333333323</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3254,19 @@
         <v>81.3</v>
       </c>
       <c r="C82" t="n">
-        <v>80.61</v>
+        <v>81.3</v>
       </c>
       <c r="D82" t="n">
         <v>81.3</v>
       </c>
       <c r="E82" t="n">
-        <v>80.61</v>
+        <v>81.3</v>
       </c>
       <c r="F82" t="n">
-        <v>2819.8822</v>
+        <v>1768</v>
       </c>
       <c r="G82" t="n">
-        <v>82.24216666666658</v>
+        <v>82.24516666666658</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>80.83</v>
+        <v>81.3</v>
       </c>
       <c r="C83" t="n">
-        <v>80.83</v>
+        <v>80.61</v>
       </c>
       <c r="D83" t="n">
-        <v>80.83</v>
+        <v>81.3</v>
       </c>
       <c r="E83" t="n">
-        <v>80.83</v>
+        <v>80.61</v>
       </c>
       <c r="F83" t="n">
-        <v>6565.206</v>
+        <v>2819.8822</v>
       </c>
       <c r="G83" t="n">
-        <v>82.26349999999989</v>
+        <v>82.24216666666658</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>80.62</v>
+        <v>80.83</v>
       </c>
       <c r="C84" t="n">
-        <v>79.51000000000001</v>
+        <v>80.83</v>
       </c>
       <c r="D84" t="n">
-        <v>80.62</v>
+        <v>80.83</v>
       </c>
       <c r="E84" t="n">
-        <v>79.51000000000001</v>
+        <v>80.83</v>
       </c>
       <c r="F84" t="n">
-        <v>40343.2832</v>
+        <v>6565.206</v>
       </c>
       <c r="G84" t="n">
-        <v>82.26283333333323</v>
+        <v>82.26349999999989</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>79.81</v>
+        <v>80.62</v>
       </c>
       <c r="C85" t="n">
-        <v>78.73</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>79.81</v>
+        <v>80.62</v>
       </c>
       <c r="E85" t="n">
-        <v>78.73</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>41454.4221</v>
+        <v>40343.2832</v>
       </c>
       <c r="G85" t="n">
-        <v>82.23816666666656</v>
+        <v>82.26283333333323</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>79.7</v>
+        <v>79.81</v>
       </c>
       <c r="C86" t="n">
-        <v>79.7</v>
+        <v>78.73</v>
       </c>
       <c r="D86" t="n">
-        <v>79.7</v>
+        <v>79.81</v>
       </c>
       <c r="E86" t="n">
-        <v>79.7</v>
+        <v>78.73</v>
       </c>
       <c r="F86" t="n">
-        <v>163.8079</v>
+        <v>41454.4221</v>
       </c>
       <c r="G86" t="n">
-        <v>82.22749999999989</v>
+        <v>82.23816666666656</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,19 +3438,23 @@
         <v>79.7</v>
       </c>
       <c r="F87" t="n">
-        <v>441.9847</v>
+        <v>163.8079</v>
       </c>
       <c r="G87" t="n">
-        <v>82.20583333333322</v>
+        <v>82.22749999999989</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>78.73</v>
+      </c>
+      <c r="K87" t="n">
+        <v>78.73</v>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
@@ -3455,20 +3477,28 @@
         <v>79.7</v>
       </c>
       <c r="F88" t="n">
-        <v>33956.3023</v>
+        <v>441.9847</v>
       </c>
       <c r="G88" t="n">
-        <v>82.18299999999989</v>
+        <v>82.20583333333322</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="K88" t="n">
+        <v>78.73</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3490,20 +3520,28 @@
         <v>79.7</v>
       </c>
       <c r="F89" t="n">
-        <v>6070.7258</v>
+        <v>33956.3023</v>
       </c>
       <c r="G89" t="n">
-        <v>82.16133333333322</v>
+        <v>82.18299999999989</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="K89" t="n">
+        <v>78.73</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3563,10 @@
         <v>79.7</v>
       </c>
       <c r="F90" t="n">
-        <v>713.6952</v>
+        <v>6070.7258</v>
       </c>
       <c r="G90" t="n">
-        <v>82.13683333333321</v>
+        <v>82.16133333333322</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3586,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>79.70999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="C91" t="n">
         <v>79.7</v>
       </c>
       <c r="D91" t="n">
-        <v>79.70999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="E91" t="n">
         <v>79.7</v>
       </c>
       <c r="F91" t="n">
-        <v>2000</v>
+        <v>713.6952</v>
       </c>
       <c r="G91" t="n">
-        <v>82.11216666666654</v>
+        <v>82.13683333333321</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3621,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>80.42</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>80.42</v>
+        <v>79.7</v>
       </c>
       <c r="D92" t="n">
-        <v>80.42</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>80.42</v>
+        <v>79.7</v>
       </c>
       <c r="F92" t="n">
-        <v>376.0274</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="n">
-        <v>82.09949999999986</v>
+        <v>82.11216666666654</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3656,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>80.68000000000001</v>
+        <v>80.42</v>
       </c>
       <c r="C93" t="n">
-        <v>80.68000000000001</v>
+        <v>80.42</v>
       </c>
       <c r="D93" t="n">
-        <v>80.68000000000001</v>
+        <v>80.42</v>
       </c>
       <c r="E93" t="n">
-        <v>80.68000000000001</v>
+        <v>80.42</v>
       </c>
       <c r="F93" t="n">
-        <v>119.3261</v>
+        <v>376.0274</v>
       </c>
       <c r="G93" t="n">
-        <v>82.08583333333321</v>
+        <v>82.09949999999986</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3691,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>80.42</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>80.70999999999999</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>80.70999999999999</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>80.42</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>621.4373000000001</v>
+        <v>119.3261</v>
       </c>
       <c r="G94" t="n">
-        <v>82.0508333333332</v>
+        <v>82.08583333333321</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3726,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>81.38</v>
+        <v>80.42</v>
       </c>
       <c r="C95" t="n">
-        <v>81.38</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>81.38</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>81.38</v>
+        <v>80.42</v>
       </c>
       <c r="F95" t="n">
-        <v>1494.8151</v>
+        <v>621.4373000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>82.00966666666653</v>
+        <v>82.0508333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3761,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>81.40000000000001</v>
+        <v>81.38</v>
       </c>
       <c r="C96" t="n">
-        <v>81.67</v>
+        <v>81.38</v>
       </c>
       <c r="D96" t="n">
-        <v>81.67</v>
+        <v>81.38</v>
       </c>
       <c r="E96" t="n">
-        <v>81.40000000000001</v>
+        <v>81.38</v>
       </c>
       <c r="F96" t="n">
-        <v>22916.8218</v>
+        <v>1494.8151</v>
       </c>
       <c r="G96" t="n">
-        <v>81.95749999999985</v>
+        <v>82.00966666666653</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3796,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>81.77</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C97" t="n">
         <v>81.67</v>
       </c>
       <c r="D97" t="n">
-        <v>81.77</v>
+        <v>81.67</v>
       </c>
       <c r="E97" t="n">
-        <v>81.67</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>1243.6952</v>
+        <v>22916.8218</v>
       </c>
       <c r="G97" t="n">
-        <v>81.90199999999986</v>
+        <v>81.95749999999985</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,35 +3831,31 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>81.67</v>
+        <v>81.77</v>
       </c>
       <c r="C98" t="n">
         <v>81.67</v>
       </c>
       <c r="D98" t="n">
-        <v>81.67</v>
+        <v>81.77</v>
       </c>
       <c r="E98" t="n">
         <v>81.67</v>
       </c>
       <c r="F98" t="n">
-        <v>25599.8182</v>
+        <v>1243.6952</v>
       </c>
       <c r="G98" t="n">
-        <v>81.84649999999986</v>
+        <v>81.90199999999986</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>81.67</v>
-      </c>
-      <c r="K98" t="n">
-        <v>81.67</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
@@ -3844,10 +3878,10 @@
         <v>81.67</v>
       </c>
       <c r="F99" t="n">
-        <v>6692.1496</v>
+        <v>25599.8182</v>
       </c>
       <c r="G99" t="n">
-        <v>81.80766666666653</v>
+        <v>81.84649999999986</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3856,14 +3890,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>81.67</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3873,22 +3901,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>81.94</v>
+        <v>81.67</v>
       </c>
       <c r="C100" t="n">
-        <v>81.94</v>
+        <v>81.67</v>
       </c>
       <c r="D100" t="n">
-        <v>81.94</v>
+        <v>81.67</v>
       </c>
       <c r="E100" t="n">
-        <v>81.94</v>
+        <v>81.67</v>
       </c>
       <c r="F100" t="n">
-        <v>5633.547</v>
+        <v>6692.1496</v>
       </c>
       <c r="G100" t="n">
-        <v>81.77333333333318</v>
+        <v>81.80766666666653</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3897,14 +3925,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>81.67</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +3936,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>82.12</v>
+        <v>81.94</v>
       </c>
       <c r="C101" t="n">
-        <v>82.12</v>
+        <v>81.94</v>
       </c>
       <c r="D101" t="n">
-        <v>82.12</v>
+        <v>81.94</v>
       </c>
       <c r="E101" t="n">
-        <v>82.12</v>
+        <v>81.94</v>
       </c>
       <c r="F101" t="n">
-        <v>1527.057</v>
+        <v>5633.547</v>
       </c>
       <c r="G101" t="n">
-        <v>81.74199999999986</v>
+        <v>81.77333333333318</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3949,22 +3971,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>82</v>
+        <v>82.12</v>
       </c>
       <c r="C102" t="n">
-        <v>82</v>
+        <v>82.12</v>
       </c>
       <c r="D102" t="n">
-        <v>82</v>
+        <v>82.12</v>
       </c>
       <c r="E102" t="n">
-        <v>82</v>
+        <v>82.12</v>
       </c>
       <c r="F102" t="n">
-        <v>1648</v>
+        <v>1527.057</v>
       </c>
       <c r="G102" t="n">
-        <v>81.72533333333318</v>
+        <v>81.74199999999986</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3996,10 +4018,10 @@
         <v>82</v>
       </c>
       <c r="F103" t="n">
-        <v>2816.7735</v>
+        <v>1648</v>
       </c>
       <c r="G103" t="n">
-        <v>81.66649999999986</v>
+        <v>81.72533333333318</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4031,10 +4053,10 @@
         <v>82</v>
       </c>
       <c r="F104" t="n">
-        <v>282.5588</v>
+        <v>2816.7735</v>
       </c>
       <c r="G104" t="n">
-        <v>81.64916666666653</v>
+        <v>81.66649999999986</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4054,22 +4076,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="C105" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="D105" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="E105" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="F105" t="n">
-        <v>5350.988</v>
+        <v>282.5588</v>
       </c>
       <c r="G105" t="n">
-        <v>81.64866666666653</v>
+        <v>81.64916666666653</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4089,22 +4111,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>82</v>
+        <v>81.67</v>
       </c>
       <c r="C106" t="n">
-        <v>82</v>
+        <v>81.67</v>
       </c>
       <c r="D106" t="n">
-        <v>82</v>
+        <v>81.67</v>
       </c>
       <c r="E106" t="n">
-        <v>82</v>
+        <v>81.67</v>
       </c>
       <c r="F106" t="n">
-        <v>1259.7094</v>
+        <v>5350.988</v>
       </c>
       <c r="G106" t="n">
-        <v>81.64699999999986</v>
+        <v>81.64866666666653</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4127,19 +4149,19 @@
         <v>82</v>
       </c>
       <c r="C107" t="n">
-        <v>82.23</v>
+        <v>82</v>
       </c>
       <c r="D107" t="n">
-        <v>82.23</v>
+        <v>82</v>
       </c>
       <c r="E107" t="n">
         <v>82</v>
       </c>
       <c r="F107" t="n">
-        <v>1644.6513</v>
+        <v>1259.7094</v>
       </c>
       <c r="G107" t="n">
-        <v>81.64733333333318</v>
+        <v>81.64699999999986</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4159,22 +4181,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>82.45</v>
+        <v>82</v>
       </c>
       <c r="C108" t="n">
-        <v>82.45</v>
+        <v>82.23</v>
       </c>
       <c r="D108" t="n">
-        <v>82.45</v>
+        <v>82.23</v>
       </c>
       <c r="E108" t="n">
-        <v>82.45</v>
+        <v>82</v>
       </c>
       <c r="F108" t="n">
-        <v>820.3555</v>
+        <v>1644.6513</v>
       </c>
       <c r="G108" t="n">
-        <v>81.64333333333319</v>
+        <v>81.64733333333318</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4194,22 +4216,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>82.23</v>
+        <v>82.45</v>
       </c>
       <c r="C109" t="n">
-        <v>82.23</v>
+        <v>82.45</v>
       </c>
       <c r="D109" t="n">
-        <v>82.23</v>
+        <v>82.45</v>
       </c>
       <c r="E109" t="n">
-        <v>82.23</v>
+        <v>82.45</v>
       </c>
       <c r="F109" t="n">
-        <v>1469</v>
+        <v>820.3555</v>
       </c>
       <c r="G109" t="n">
-        <v>81.62383333333318</v>
+        <v>81.64333333333319</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4232,19 +4254,19 @@
         <v>82.23</v>
       </c>
       <c r="C110" t="n">
-        <v>82</v>
+        <v>82.23</v>
       </c>
       <c r="D110" t="n">
         <v>82.23</v>
       </c>
       <c r="E110" t="n">
-        <v>82</v>
+        <v>82.23</v>
       </c>
       <c r="F110" t="n">
-        <v>3720.7386</v>
+        <v>1469</v>
       </c>
       <c r="G110" t="n">
-        <v>81.60049999999985</v>
+        <v>81.62383333333318</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4264,22 +4286,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>82.23</v>
+      </c>
+      <c r="C111" t="n">
         <v>82</v>
       </c>
-      <c r="C111" t="n">
-        <v>81.67</v>
-      </c>
       <c r="D111" t="n">
+        <v>82.23</v>
+      </c>
+      <c r="E111" t="n">
         <v>82</v>
       </c>
-      <c r="E111" t="n">
-        <v>81.67</v>
-      </c>
       <c r="F111" t="n">
-        <v>9756.869699999999</v>
+        <v>3720.7386</v>
       </c>
       <c r="G111" t="n">
-        <v>81.57166666666653</v>
+        <v>81.60049999999985</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4299,22 +4321,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="C112" t="n">
         <v>81.67</v>
       </c>
       <c r="D112" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="E112" t="n">
         <v>81.67</v>
       </c>
       <c r="F112" t="n">
-        <v>7600</v>
+        <v>9756.869699999999</v>
       </c>
       <c r="G112" t="n">
-        <v>81.56199999999987</v>
+        <v>81.57166666666653</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4334,22 +4356,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>81.89</v>
+        <v>81.67</v>
       </c>
       <c r="C113" t="n">
-        <v>81.89</v>
+        <v>81.67</v>
       </c>
       <c r="D113" t="n">
-        <v>81.89</v>
+        <v>81.67</v>
       </c>
       <c r="E113" t="n">
-        <v>81.89</v>
+        <v>81.67</v>
       </c>
       <c r="F113" t="n">
-        <v>3173.5164</v>
+        <v>7600</v>
       </c>
       <c r="G113" t="n">
-        <v>81.53516666666654</v>
+        <v>81.56199999999987</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4369,22 +4391,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>81.78</v>
+        <v>81.89</v>
       </c>
       <c r="C114" t="n">
-        <v>81.79000000000001</v>
+        <v>81.89</v>
       </c>
       <c r="D114" t="n">
-        <v>81.79000000000001</v>
+        <v>81.89</v>
       </c>
       <c r="E114" t="n">
-        <v>81.78</v>
+        <v>81.89</v>
       </c>
       <c r="F114" t="n">
-        <v>8934.732400000001</v>
+        <v>3173.5164</v>
       </c>
       <c r="G114" t="n">
-        <v>81.49666666666653</v>
+        <v>81.53516666666654</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4404,22 +4426,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>81.68000000000001</v>
+        <v>81.78</v>
       </c>
       <c r="C115" t="n">
-        <v>81.67</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>81.68000000000001</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>81.67</v>
+        <v>81.78</v>
       </c>
       <c r="F115" t="n">
-        <v>3339.8888</v>
+        <v>8934.732400000001</v>
       </c>
       <c r="G115" t="n">
-        <v>81.48699999999987</v>
+        <v>81.49666666666653</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4439,22 +4461,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>82</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>82</v>
+        <v>81.67</v>
       </c>
       <c r="D116" t="n">
-        <v>82</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>82</v>
+        <v>81.67</v>
       </c>
       <c r="F116" t="n">
-        <v>1371.4388</v>
+        <v>3339.8888</v>
       </c>
       <c r="G116" t="n">
-        <v>81.46533333333319</v>
+        <v>81.48699999999987</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4474,22 +4496,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>81.98</v>
+        <v>82</v>
       </c>
       <c r="C117" t="n">
-        <v>81.88</v>
+        <v>82</v>
       </c>
       <c r="D117" t="n">
-        <v>81.98</v>
+        <v>82</v>
       </c>
       <c r="E117" t="n">
-        <v>81.88</v>
+        <v>82</v>
       </c>
       <c r="F117" t="n">
-        <v>44843.4137</v>
+        <v>1371.4388</v>
       </c>
       <c r="G117" t="n">
-        <v>81.4583333333332</v>
+        <v>81.46533333333319</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4509,22 +4531,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>81.7</v>
+        <v>81.98</v>
       </c>
       <c r="C118" t="n">
-        <v>81.67</v>
+        <v>81.88</v>
       </c>
       <c r="D118" t="n">
-        <v>81.7</v>
+        <v>81.98</v>
       </c>
       <c r="E118" t="n">
-        <v>81.67</v>
+        <v>81.88</v>
       </c>
       <c r="F118" t="n">
-        <v>1592.9476</v>
+        <v>44843.4137</v>
       </c>
       <c r="G118" t="n">
-        <v>81.43649999999987</v>
+        <v>81.4583333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4544,22 +4566,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>81.67</v>
+        <v>81.7</v>
       </c>
       <c r="C119" t="n">
         <v>81.67</v>
       </c>
       <c r="D119" t="n">
-        <v>81.67</v>
+        <v>81.7</v>
       </c>
       <c r="E119" t="n">
         <v>81.67</v>
       </c>
       <c r="F119" t="n">
-        <v>2277.8975</v>
+        <v>1592.9476</v>
       </c>
       <c r="G119" t="n">
-        <v>81.41449999999988</v>
+        <v>81.43649999999987</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4579,22 +4601,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>81.2</v>
+        <v>81.67</v>
       </c>
       <c r="C120" t="n">
-        <v>81.2</v>
+        <v>81.67</v>
       </c>
       <c r="D120" t="n">
-        <v>81.3</v>
+        <v>81.67</v>
       </c>
       <c r="E120" t="n">
-        <v>81.2</v>
+        <v>81.67</v>
       </c>
       <c r="F120" t="n">
-        <v>4407</v>
+        <v>2277.8975</v>
       </c>
       <c r="G120" t="n">
-        <v>81.39616666666653</v>
+        <v>81.41449999999988</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4614,22 +4636,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="C121" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="D121" t="n">
         <v>81.3</v>
       </c>
       <c r="E121" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="F121" t="n">
-        <v>1462</v>
+        <v>4407</v>
       </c>
       <c r="G121" t="n">
-        <v>81.37783333333321</v>
+        <v>81.39616666666653</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4649,22 +4671,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="C122" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="D122" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="E122" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="F122" t="n">
-        <v>25518.1748</v>
+        <v>1462</v>
       </c>
       <c r="G122" t="n">
-        <v>81.35916666666655</v>
+        <v>81.37783333333321</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4696,10 +4718,10 @@
         <v>81.2</v>
       </c>
       <c r="F123" t="n">
-        <v>8212.713100000001</v>
+        <v>25518.1748</v>
       </c>
       <c r="G123" t="n">
-        <v>81.34033333333322</v>
+        <v>81.35916666666655</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4731,10 +4753,10 @@
         <v>81.2</v>
       </c>
       <c r="F124" t="n">
-        <v>8520</v>
+        <v>8212.713100000001</v>
       </c>
       <c r="G124" t="n">
-        <v>81.32366666666654</v>
+        <v>81.34033333333322</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4766,10 +4788,10 @@
         <v>81.2</v>
       </c>
       <c r="F125" t="n">
-        <v>700.6964</v>
+        <v>8520</v>
       </c>
       <c r="G125" t="n">
-        <v>81.30699999999987</v>
+        <v>81.32366666666654</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4801,10 +4823,10 @@
         <v>81.2</v>
       </c>
       <c r="F126" t="n">
-        <v>2370.9841</v>
+        <v>700.6964</v>
       </c>
       <c r="G126" t="n">
-        <v>81.29033333333321</v>
+        <v>81.30699999999987</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4824,22 +4846,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>80.7</v>
+        <v>81.2</v>
       </c>
       <c r="C127" t="n">
-        <v>80.7</v>
+        <v>81.2</v>
       </c>
       <c r="D127" t="n">
-        <v>80.7</v>
+        <v>81.2</v>
       </c>
       <c r="E127" t="n">
-        <v>80.7</v>
+        <v>81.2</v>
       </c>
       <c r="F127" t="n">
-        <v>3057.3171</v>
+        <v>2370.9841</v>
       </c>
       <c r="G127" t="n">
-        <v>81.26533333333322</v>
+        <v>81.29033333333321</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4859,22 +4881,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>80.72</v>
+        <v>80.7</v>
       </c>
       <c r="C128" t="n">
-        <v>80.72</v>
+        <v>80.7</v>
       </c>
       <c r="D128" t="n">
-        <v>80.72</v>
+        <v>80.7</v>
       </c>
       <c r="E128" t="n">
-        <v>80.72</v>
+        <v>80.7</v>
       </c>
       <c r="F128" t="n">
-        <v>8276.4254</v>
+        <v>3057.3171</v>
       </c>
       <c r="G128" t="n">
-        <v>81.25366666666655</v>
+        <v>81.26533333333322</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4894,22 +4916,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>81.2</v>
+        <v>80.72</v>
       </c>
       <c r="C129" t="n">
-        <v>81.2</v>
+        <v>80.72</v>
       </c>
       <c r="D129" t="n">
-        <v>81.2</v>
+        <v>80.72</v>
       </c>
       <c r="E129" t="n">
-        <v>81.2</v>
+        <v>80.72</v>
       </c>
       <c r="F129" t="n">
-        <v>642.3264</v>
+        <v>8276.4254</v>
       </c>
       <c r="G129" t="n">
-        <v>81.25399999999988</v>
+        <v>81.25366666666655</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4929,22 +4951,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>80.73</v>
+        <v>81.2</v>
       </c>
       <c r="C130" t="n">
-        <v>80.73</v>
+        <v>81.2</v>
       </c>
       <c r="D130" t="n">
-        <v>80.73</v>
+        <v>81.2</v>
       </c>
       <c r="E130" t="n">
-        <v>80.73</v>
+        <v>81.2</v>
       </c>
       <c r="F130" t="n">
-        <v>3453.8559</v>
+        <v>642.3264</v>
       </c>
       <c r="G130" t="n">
-        <v>81.24433333333319</v>
+        <v>81.25399999999988</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4976,10 +4998,10 @@
         <v>80.73</v>
       </c>
       <c r="F131" t="n">
-        <v>55640</v>
+        <v>3453.8559</v>
       </c>
       <c r="G131" t="n">
-        <v>81.2283333333332</v>
+        <v>81.24433333333319</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4999,22 +5021,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>80.72</v>
+        <v>80.73</v>
       </c>
       <c r="C132" t="n">
-        <v>80.72</v>
+        <v>80.73</v>
       </c>
       <c r="D132" t="n">
-        <v>80.72</v>
+        <v>80.73</v>
       </c>
       <c r="E132" t="n">
-        <v>80.72</v>
+        <v>80.73</v>
       </c>
       <c r="F132" t="n">
-        <v>176.0795</v>
+        <v>55640</v>
       </c>
       <c r="G132" t="n">
-        <v>81.21533333333319</v>
+        <v>81.2283333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5046,10 +5068,10 @@
         <v>80.72</v>
       </c>
       <c r="F133" t="n">
-        <v>587.9391000000001</v>
+        <v>176.0795</v>
       </c>
       <c r="G133" t="n">
-        <v>81.20083333333319</v>
+        <v>81.21533333333319</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5069,22 +5091,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>81</v>
+        <v>80.72</v>
       </c>
       <c r="C134" t="n">
-        <v>81</v>
+        <v>80.72</v>
       </c>
       <c r="D134" t="n">
-        <v>81</v>
+        <v>80.72</v>
       </c>
       <c r="E134" t="n">
-        <v>81</v>
+        <v>80.72</v>
       </c>
       <c r="F134" t="n">
-        <v>9677.210800000001</v>
+        <v>587.9391000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>81.18099999999987</v>
+        <v>81.20083333333319</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5104,22 +5126,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="C135" t="n">
-        <v>81.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D135" t="n">
-        <v>81.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="E135" t="n">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="F135" t="n">
-        <v>5677.4584</v>
+        <v>9677.210800000001</v>
       </c>
       <c r="G135" t="n">
-        <v>81.20099999999987</v>
+        <v>81.18099999999987</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5142,19 +5164,19 @@
         <v>81.8</v>
       </c>
       <c r="C136" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E136" t="n">
         <v>81.8</v>
       </c>
       <c r="F136" t="n">
-        <v>2940</v>
+        <v>5677.4584</v>
       </c>
       <c r="G136" t="n">
-        <v>81.19999999999987</v>
+        <v>81.20099999999987</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5174,22 +5196,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="C137" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="D137" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="E137" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="F137" t="n">
-        <v>4410</v>
+        <v>2940</v>
       </c>
       <c r="G137" t="n">
-        <v>81.20849999999987</v>
+        <v>81.19999999999987</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5221,10 +5243,10 @@
         <v>81.90000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>17</v>
+        <v>4410</v>
       </c>
       <c r="G138" t="n">
-        <v>81.21516666666653</v>
+        <v>81.20849999999987</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5247,19 +5269,19 @@
         <v>81.90000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E139" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>4333</v>
+        <v>17</v>
       </c>
       <c r="G139" t="n">
-        <v>81.22366666666653</v>
+        <v>81.21516666666653</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5282,19 +5304,19 @@
         <v>81.90000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>82.06</v>
+        <v>82</v>
       </c>
       <c r="D140" t="n">
-        <v>82.06</v>
+        <v>82</v>
       </c>
       <c r="E140" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>17762.4076</v>
+        <v>4333</v>
       </c>
       <c r="G140" t="n">
-        <v>81.23633333333321</v>
+        <v>81.22366666666653</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5314,22 +5336,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="C141" t="n">
         <v>82.06</v>
-      </c>
-      <c r="C141" t="n">
-        <v>82.05</v>
       </c>
       <c r="D141" t="n">
         <v>82.06</v>
       </c>
       <c r="E141" t="n">
-        <v>82.05</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>25212.6278</v>
+        <v>17762.4076</v>
       </c>
       <c r="G141" t="n">
-        <v>81.2488333333332</v>
+        <v>81.23633333333321</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5349,10 +5371,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>82.06</v>
+      </c>
+      <c r="C142" t="n">
         <v>82.05</v>
-      </c>
-      <c r="C142" t="n">
-        <v>82.06</v>
       </c>
       <c r="D142" t="n">
         <v>82.06</v>
@@ -5361,10 +5383,10 @@
         <v>82.05</v>
       </c>
       <c r="F142" t="n">
-        <v>10984.2981</v>
+        <v>25212.6278</v>
       </c>
       <c r="G142" t="n">
-        <v>81.27299999999988</v>
+        <v>81.2488333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5387,19 +5409,19 @@
         <v>82.05</v>
       </c>
       <c r="C143" t="n">
-        <v>82.44</v>
+        <v>82.06</v>
       </c>
       <c r="D143" t="n">
-        <v>82.44</v>
+        <v>82.06</v>
       </c>
       <c r="E143" t="n">
         <v>82.05</v>
       </c>
       <c r="F143" t="n">
-        <v>16209.2908</v>
+        <v>10984.2981</v>
       </c>
       <c r="G143" t="n">
-        <v>81.29983333333321</v>
+        <v>81.27299999999988</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5419,22 +5441,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>82.40000000000001</v>
+        <v>82.05</v>
       </c>
       <c r="C144" t="n">
-        <v>82.03</v>
+        <v>82.44</v>
       </c>
       <c r="D144" t="n">
-        <v>82.40000000000001</v>
+        <v>82.44</v>
       </c>
       <c r="E144" t="n">
-        <v>82.03</v>
+        <v>82.05</v>
       </c>
       <c r="F144" t="n">
-        <v>8212.7132</v>
+        <v>16209.2908</v>
       </c>
       <c r="G144" t="n">
-        <v>81.3418333333332</v>
+        <v>81.29983333333321</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5454,22 +5476,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>82.53</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>82.95999999999999</v>
+        <v>82.03</v>
       </c>
       <c r="D145" t="n">
-        <v>82.95999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>82.53</v>
+        <v>82.03</v>
       </c>
       <c r="F145" t="n">
-        <v>14870.68074549195</v>
+        <v>8212.7132</v>
       </c>
       <c r="G145" t="n">
-        <v>81.41233333333321</v>
+        <v>81.3418333333332</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5489,22 +5511,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>82.95999999999999</v>
+        <v>82.53</v>
       </c>
       <c r="C146" t="n">
         <v>82.95999999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>82.97</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>82.95999999999999</v>
+        <v>82.53</v>
       </c>
       <c r="F146" t="n">
-        <v>5698.750711413764</v>
+        <v>14870.68074549195</v>
       </c>
       <c r="G146" t="n">
-        <v>81.46666666666654</v>
+        <v>81.41233333333321</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5530,16 +5552,16 @@
         <v>82.95999999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>82.95999999999999</v>
+        <v>82.97</v>
       </c>
       <c r="E147" t="n">
         <v>82.95999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>7.714561234329699e-05</v>
+        <v>5698.750711413764</v>
       </c>
       <c r="G147" t="n">
-        <v>81.52099999999989</v>
+        <v>81.46666666666654</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5559,22 +5581,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>82.95</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>82.95</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>82.95</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>82.95</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>2411.091018685956</v>
+        <v>7.714561234329699e-05</v>
       </c>
       <c r="G148" t="n">
-        <v>81.57516666666655</v>
+        <v>81.52099999999989</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5594,22 +5616,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>82.23999999999999</v>
+        <v>82.95</v>
       </c>
       <c r="C149" t="n">
-        <v>81.90000000000001</v>
+        <v>82.95</v>
       </c>
       <c r="D149" t="n">
-        <v>82.23999999999999</v>
+        <v>82.95</v>
       </c>
       <c r="E149" t="n">
-        <v>81.90000000000001</v>
+        <v>82.95</v>
       </c>
       <c r="F149" t="n">
-        <v>3439.5514</v>
+        <v>2411.091018685956</v>
       </c>
       <c r="G149" t="n">
-        <v>81.61183333333321</v>
+        <v>81.57516666666655</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5629,22 +5651,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>82.73999999999999</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>82.73999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>82.73999999999999</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>82.73999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>120.8605269518975</v>
+        <v>3439.5514</v>
       </c>
       <c r="G150" t="n">
-        <v>81.66249999999988</v>
+        <v>81.61183333333321</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5664,22 +5686,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>82</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>82</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>82</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>82</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="F151" t="n">
-        <v>12300</v>
+        <v>120.8605269518975</v>
       </c>
       <c r="G151" t="n">
-        <v>81.70083333333322</v>
+        <v>81.66249999999988</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5699,22 +5721,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="C152" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="D152" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="E152" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="F152" t="n">
-        <v>11793.1054</v>
+        <v>12300</v>
       </c>
       <c r="G152" t="n">
-        <v>81.73216666666654</v>
+        <v>81.70083333333322</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5734,22 +5756,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="C153" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="D153" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E153" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="F153" t="n">
-        <v>5896</v>
+        <v>11793.1054</v>
       </c>
       <c r="G153" t="n">
-        <v>81.75583333333321</v>
+        <v>81.73216666666654</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5781,10 +5803,10 @@
         <v>82.09999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>15500</v>
+        <v>5896</v>
       </c>
       <c r="G154" t="n">
-        <v>81.7789999999999</v>
+        <v>81.75583333333321</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5816,10 +5838,10 @@
         <v>82.09999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>61000</v>
+        <v>15500</v>
       </c>
       <c r="G155" t="n">
-        <v>81.7909999999999</v>
+        <v>81.7789999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5839,22 +5861,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>81.81</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D156" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>81.81</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F156" t="n">
-        <v>12300</v>
+        <v>61000</v>
       </c>
       <c r="G156" t="n">
-        <v>81.79333333333324</v>
+        <v>81.7909999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5874,22 +5896,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>82.51000000000001</v>
+        <v>82</v>
       </c>
       <c r="C157" t="n">
-        <v>82.62</v>
+        <v>81.81</v>
       </c>
       <c r="D157" t="n">
-        <v>82.62</v>
+        <v>82</v>
       </c>
       <c r="E157" t="n">
-        <v>82.51000000000001</v>
+        <v>81.81</v>
       </c>
       <c r="F157" t="n">
-        <v>3711.3629</v>
+        <v>12300</v>
       </c>
       <c r="G157" t="n">
-        <v>81.80916666666657</v>
+        <v>81.79333333333324</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5909,22 +5931,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>82.17</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>82.17</v>
+        <v>82.62</v>
       </c>
       <c r="D158" t="n">
-        <v>82.17</v>
+        <v>82.62</v>
       </c>
       <c r="E158" t="n">
-        <v>82.17</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>3144.691</v>
+        <v>3711.3629</v>
       </c>
       <c r="G158" t="n">
-        <v>81.8174999999999</v>
+        <v>81.80916666666657</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5956,10 +5978,10 @@
         <v>82.17</v>
       </c>
       <c r="F159" t="n">
-        <v>2938</v>
+        <v>3144.691</v>
       </c>
       <c r="G159" t="n">
-        <v>81.82583333333324</v>
+        <v>81.8174999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5991,10 +6013,10 @@
         <v>82.17</v>
       </c>
       <c r="F160" t="n">
-        <v>2913.9973</v>
+        <v>2938</v>
       </c>
       <c r="G160" t="n">
-        <v>81.82966666666657</v>
+        <v>81.82583333333324</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6026,10 +6048,10 @@
         <v>82.17</v>
       </c>
       <c r="F161" t="n">
-        <v>2363.6471</v>
+        <v>2913.9973</v>
       </c>
       <c r="G161" t="n">
-        <v>81.8304999999999</v>
+        <v>81.82966666666657</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6049,22 +6071,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>82.09999999999999</v>
+        <v>82.17</v>
       </c>
       <c r="C162" t="n">
-        <v>81.81</v>
+        <v>82.17</v>
       </c>
       <c r="D162" t="n">
-        <v>82.09999999999999</v>
+        <v>82.17</v>
       </c>
       <c r="E162" t="n">
-        <v>81.81</v>
+        <v>82.17</v>
       </c>
       <c r="F162" t="n">
-        <v>12300</v>
+        <v>2363.6471</v>
       </c>
       <c r="G162" t="n">
-        <v>81.82733333333324</v>
+        <v>81.8304999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6084,22 +6106,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>81.81999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C163" t="n">
         <v>81.81</v>
       </c>
       <c r="D163" t="n">
-        <v>81.81999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E163" t="n">
         <v>81.81</v>
       </c>
       <c r="F163" t="n">
-        <v>9441.909600000001</v>
+        <v>12300</v>
       </c>
       <c r="G163" t="n">
-        <v>81.82416666666659</v>
+        <v>81.82733333333324</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6119,22 +6141,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>81.81</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="C164" t="n">
         <v>81.81</v>
       </c>
       <c r="D164" t="n">
-        <v>81.81</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="E164" t="n">
         <v>81.81</v>
       </c>
       <c r="F164" t="n">
-        <v>36355.3684</v>
+        <v>9441.909600000001</v>
       </c>
       <c r="G164" t="n">
-        <v>81.82099999999993</v>
+        <v>81.82416666666659</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6166,10 +6188,10 @@
         <v>81.81</v>
       </c>
       <c r="F165" t="n">
-        <v>7252.5791</v>
+        <v>36355.3684</v>
       </c>
       <c r="G165" t="n">
-        <v>81.82333333333327</v>
+        <v>81.82099999999993</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6189,22 +6211,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>81.33</v>
+        <v>81.81</v>
       </c>
       <c r="C166" t="n">
-        <v>81.33</v>
+        <v>81.81</v>
       </c>
       <c r="D166" t="n">
-        <v>81.33</v>
+        <v>81.81</v>
       </c>
       <c r="E166" t="n">
-        <v>81.33</v>
+        <v>81.81</v>
       </c>
       <c r="F166" t="n">
-        <v>12300</v>
+        <v>7252.5791</v>
       </c>
       <c r="G166" t="n">
-        <v>81.8121666666666</v>
+        <v>81.82333333333327</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6224,22 +6246,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>81.22</v>
+        <v>81.33</v>
       </c>
       <c r="C167" t="n">
-        <v>81.11</v>
+        <v>81.33</v>
       </c>
       <c r="D167" t="n">
-        <v>81.22</v>
+        <v>81.33</v>
       </c>
       <c r="E167" t="n">
-        <v>81.11</v>
+        <v>81.33</v>
       </c>
       <c r="F167" t="n">
-        <v>12350</v>
+        <v>12300</v>
       </c>
       <c r="G167" t="n">
-        <v>81.79349999999994</v>
+        <v>81.8121666666666</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6259,22 +6281,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>81.81</v>
+        <v>81.22</v>
       </c>
       <c r="C168" t="n">
-        <v>81.81</v>
+        <v>81.11</v>
       </c>
       <c r="D168" t="n">
-        <v>81.81</v>
+        <v>81.22</v>
       </c>
       <c r="E168" t="n">
-        <v>81.81</v>
+        <v>81.11</v>
       </c>
       <c r="F168" t="n">
-        <v>366.7033370003667</v>
+        <v>12350</v>
       </c>
       <c r="G168" t="n">
-        <v>81.78283333333327</v>
+        <v>81.79349999999994</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6294,22 +6316,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>81.45999999999999</v>
+        <v>81.81</v>
       </c>
       <c r="C169" t="n">
-        <v>81.14</v>
+        <v>81.81</v>
       </c>
       <c r="D169" t="n">
-        <v>81.45999999999999</v>
+        <v>81.81</v>
       </c>
       <c r="E169" t="n">
-        <v>81.14</v>
+        <v>81.81</v>
       </c>
       <c r="F169" t="n">
-        <v>13500</v>
+        <v>366.7033370003667</v>
       </c>
       <c r="G169" t="n">
-        <v>81.76466666666663</v>
+        <v>81.78283333333327</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6329,22 +6351,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>81.70999999999999</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="C170" t="n">
-        <v>81.81</v>
+        <v>81.14</v>
       </c>
       <c r="D170" t="n">
-        <v>81.81</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="E170" t="n">
-        <v>81.70999999999999</v>
+        <v>81.14</v>
       </c>
       <c r="F170" t="n">
-        <v>11660.6856</v>
+        <v>13500</v>
       </c>
       <c r="G170" t="n">
-        <v>81.76149999999997</v>
+        <v>81.76466666666663</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6364,7 +6386,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>81.81</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C171" t="n">
         <v>81.81</v>
@@ -6373,13 +6395,13 @@
         <v>81.81</v>
       </c>
       <c r="E171" t="n">
-        <v>81.81</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="F171" t="n">
-        <v>12040.09289817871</v>
+        <v>11660.6856</v>
       </c>
       <c r="G171" t="n">
-        <v>81.7638333333333</v>
+        <v>81.76149999999997</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6402,19 +6424,19 @@
         <v>81.81</v>
       </c>
       <c r="C172" t="n">
-        <v>82.12</v>
+        <v>81.81</v>
       </c>
       <c r="D172" t="n">
-        <v>82.12</v>
+        <v>81.81</v>
       </c>
       <c r="E172" t="n">
         <v>81.81</v>
       </c>
       <c r="F172" t="n">
-        <v>15739.18326482093</v>
+        <v>12040.09289817871</v>
       </c>
       <c r="G172" t="n">
-        <v>81.7713333333333</v>
+        <v>81.7638333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6434,22 +6456,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="C173" t="n">
         <v>82.12</v>
       </c>
-      <c r="C173" t="n">
-        <v>82.17</v>
-      </c>
       <c r="D173" t="n">
-        <v>82.22</v>
+        <v>82.12</v>
       </c>
       <c r="E173" t="n">
-        <v>82.12</v>
+        <v>81.81</v>
       </c>
       <c r="F173" t="n">
-        <v>11854.3367</v>
+        <v>15739.18326482093</v>
       </c>
       <c r="G173" t="n">
-        <v>81.77599999999997</v>
+        <v>81.7713333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6469,22 +6491,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>82.63</v>
+        <v>82.12</v>
       </c>
       <c r="C174" t="n">
-        <v>82.63</v>
+        <v>82.17</v>
       </c>
       <c r="D174" t="n">
-        <v>82.63</v>
+        <v>82.22</v>
       </c>
       <c r="E174" t="n">
-        <v>82.63</v>
+        <v>82.12</v>
       </c>
       <c r="F174" t="n">
-        <v>2993</v>
+        <v>11854.3367</v>
       </c>
       <c r="G174" t="n">
-        <v>81.78999999999996</v>
+        <v>81.77599999999997</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6504,22 +6526,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>82.28</v>
+        <v>82.63</v>
       </c>
       <c r="C175" t="n">
-        <v>82.29000000000001</v>
+        <v>82.63</v>
       </c>
       <c r="D175" t="n">
-        <v>82.29000000000001</v>
+        <v>82.63</v>
       </c>
       <c r="E175" t="n">
-        <v>82.28</v>
+        <v>82.63</v>
       </c>
       <c r="F175" t="n">
-        <v>2612</v>
+        <v>2993</v>
       </c>
       <c r="G175" t="n">
-        <v>81.8003333333333</v>
+        <v>81.78999999999996</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6539,22 +6561,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>82.20999999999999</v>
+        <v>82.28</v>
       </c>
       <c r="C176" t="n">
-        <v>81.54000000000001</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>82.20999999999999</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>81.54000000000001</v>
+        <v>82.28</v>
       </c>
       <c r="F176" t="n">
-        <v>40651.4049</v>
+        <v>2612</v>
       </c>
       <c r="G176" t="n">
-        <v>81.79266666666663</v>
+        <v>81.8003333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6574,22 +6596,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="C177" t="n">
         <v>81.54000000000001</v>
       </c>
-      <c r="C177" t="n">
-        <v>81.73</v>
-      </c>
       <c r="D177" t="n">
-        <v>81.73</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E177" t="n">
         <v>81.54000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>406.1069</v>
+        <v>40651.4049</v>
       </c>
       <c r="G177" t="n">
-        <v>81.79016666666662</v>
+        <v>81.79266666666663</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6609,22 +6631,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>81.59999999999999</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="C178" t="n">
-        <v>81.59999999999999</v>
+        <v>81.73</v>
       </c>
       <c r="D178" t="n">
-        <v>81.59999999999999</v>
+        <v>81.73</v>
       </c>
       <c r="E178" t="n">
-        <v>81.59999999999999</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="F178" t="n">
-        <v>33592.5097</v>
+        <v>406.1069</v>
       </c>
       <c r="G178" t="n">
-        <v>81.78899999999996</v>
+        <v>81.79016666666662</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6644,22 +6666,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>82.29000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C179" t="n">
-        <v>82.97</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>82.97</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E179" t="n">
-        <v>82.18000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>28155.4881</v>
+        <v>33592.5097</v>
       </c>
       <c r="G179" t="n">
-        <v>81.81066666666662</v>
+        <v>81.78899999999996</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6679,22 +6701,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>82.87</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C180" t="n">
-        <v>83.66</v>
+        <v>82.97</v>
       </c>
       <c r="D180" t="n">
-        <v>83.66</v>
+        <v>82.97</v>
       </c>
       <c r="E180" t="n">
-        <v>82.87</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="F180" t="n">
-        <v>69886.86948761527</v>
+        <v>28155.4881</v>
       </c>
       <c r="G180" t="n">
-        <v>81.85166666666663</v>
+        <v>81.81066666666662</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6714,22 +6736,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>82.81</v>
+        <v>82.87</v>
       </c>
       <c r="C181" t="n">
-        <v>82.81</v>
+        <v>83.66</v>
       </c>
       <c r="D181" t="n">
-        <v>82.81</v>
+        <v>83.66</v>
       </c>
       <c r="E181" t="n">
-        <v>82.81</v>
+        <v>82.87</v>
       </c>
       <c r="F181" t="n">
-        <v>1568.2131</v>
+        <v>69886.86948761527</v>
       </c>
       <c r="G181" t="n">
-        <v>81.87683333333329</v>
+        <v>81.85166666666663</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6749,22 +6771,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>83.16</v>
+        <v>82.81</v>
       </c>
       <c r="C182" t="n">
-        <v>83.16</v>
+        <v>82.81</v>
       </c>
       <c r="D182" t="n">
-        <v>83.16</v>
+        <v>82.81</v>
       </c>
       <c r="E182" t="n">
-        <v>83.16</v>
+        <v>82.81</v>
       </c>
       <c r="F182" t="n">
-        <v>2645</v>
+        <v>1568.2131</v>
       </c>
       <c r="G182" t="n">
-        <v>81.90949999999997</v>
+        <v>81.87683333333329</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6784,7 +6806,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>83.15000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="C183" t="n">
         <v>83.16</v>
@@ -6793,13 +6815,13 @@
         <v>83.16</v>
       </c>
       <c r="E183" t="n">
-        <v>83.15000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="F183" t="n">
-        <v>2938</v>
+        <v>2645</v>
       </c>
       <c r="G183" t="n">
-        <v>81.94216666666664</v>
+        <v>81.90949999999997</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6819,7 +6841,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>83.16</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="C184" t="n">
         <v>83.16</v>
@@ -6828,13 +6850,13 @@
         <v>83.16</v>
       </c>
       <c r="E184" t="n">
-        <v>83.16</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="F184" t="n">
-        <v>10000</v>
+        <v>2938</v>
       </c>
       <c r="G184" t="n">
-        <v>81.97483333333329</v>
+        <v>81.94216666666664</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6866,10 +6888,10 @@
         <v>83.16</v>
       </c>
       <c r="F185" t="n">
-        <v>5362.8135</v>
+        <v>10000</v>
       </c>
       <c r="G185" t="n">
-        <v>82.00749999999996</v>
+        <v>81.97483333333329</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6892,19 +6914,19 @@
         <v>83.16</v>
       </c>
       <c r="C186" t="n">
-        <v>82.93000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="D186" t="n">
         <v>83.16</v>
       </c>
       <c r="E186" t="n">
-        <v>82.93000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="F186" t="n">
-        <v>3865.9194</v>
+        <v>5362.8135</v>
       </c>
       <c r="G186" t="n">
-        <v>82.0363333333333</v>
+        <v>82.00749999999996</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6924,22 +6946,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>82.95</v>
+        <v>83.16</v>
       </c>
       <c r="C187" t="n">
-        <v>83.04000000000001</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="D187" t="n">
-        <v>83.04000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="E187" t="n">
-        <v>82.95</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="F187" t="n">
-        <v>13280.4231</v>
+        <v>3865.9194</v>
       </c>
       <c r="G187" t="n">
-        <v>82.0753333333333</v>
+        <v>82.0363333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6959,22 +6981,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>83.29000000000001</v>
+        <v>82.95</v>
       </c>
       <c r="C188" t="n">
-        <v>83.29000000000001</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="D188" t="n">
-        <v>83.29000000000001</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="E188" t="n">
-        <v>83.29000000000001</v>
+        <v>82.95</v>
       </c>
       <c r="F188" t="n">
-        <v>1469</v>
+        <v>13280.4231</v>
       </c>
       <c r="G188" t="n">
-        <v>82.11816666666664</v>
+        <v>82.0753333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6994,22 +7016,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>83.04000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>83.40000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>83.40000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="E189" t="n">
-        <v>83.04000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="F189" t="n">
-        <v>52177</v>
+        <v>1469</v>
       </c>
       <c r="G189" t="n">
-        <v>82.1548333333333</v>
+        <v>82.11816666666664</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7029,22 +7051,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>83.69</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="C190" t="n">
-        <v>83.75</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D190" t="n">
-        <v>83.75</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E190" t="n">
-        <v>83.69</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>17209.3915</v>
+        <v>52177</v>
       </c>
       <c r="G190" t="n">
-        <v>82.20516666666664</v>
+        <v>82.1548333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7064,22 +7086,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>83.89</v>
+        <v>83.69</v>
       </c>
       <c r="C191" t="n">
-        <v>82.98999999999999</v>
+        <v>83.75</v>
       </c>
       <c r="D191" t="n">
-        <v>84.81</v>
+        <v>83.75</v>
       </c>
       <c r="E191" t="n">
-        <v>82.98999999999999</v>
+        <v>83.69</v>
       </c>
       <c r="F191" t="n">
-        <v>80652.8003</v>
+        <v>17209.3915</v>
       </c>
       <c r="G191" t="n">
-        <v>82.24283333333331</v>
+        <v>82.20516666666664</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7099,22 +7121,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>84.70999999999999</v>
+        <v>83.89</v>
       </c>
       <c r="C192" t="n">
-        <v>84</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="D192" t="n">
-        <v>84.70999999999999</v>
+        <v>84.81</v>
       </c>
       <c r="E192" t="n">
-        <v>83</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="F192" t="n">
-        <v>17151.911</v>
+        <v>80652.8003</v>
       </c>
       <c r="G192" t="n">
-        <v>82.29749999999997</v>
+        <v>82.24283333333331</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7134,22 +7156,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>84</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="C193" t="n">
         <v>84</v>
       </c>
       <c r="D193" t="n">
-        <v>84</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F193" t="n">
-        <v>2256.25</v>
+        <v>17151.911</v>
       </c>
       <c r="G193" t="n">
-        <v>82.35216666666663</v>
+        <v>82.29749999999997</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7169,22 +7191,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="C194" t="n">
-        <v>84.61</v>
+        <v>84</v>
       </c>
       <c r="D194" t="n">
-        <v>84.61</v>
+        <v>84</v>
       </c>
       <c r="E194" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="F194" t="n">
-        <v>827.8916</v>
+        <v>2256.25</v>
       </c>
       <c r="G194" t="n">
-        <v>82.41233333333329</v>
+        <v>82.35216666666663</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7204,7 +7226,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>84.51000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C195" t="n">
         <v>84.61</v>
@@ -7213,13 +7235,13 @@
         <v>84.61</v>
       </c>
       <c r="E195" t="n">
-        <v>84.51000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F195" t="n">
-        <v>799.2003</v>
+        <v>827.8916</v>
       </c>
       <c r="G195" t="n">
-        <v>82.45749999999997</v>
+        <v>82.41233333333329</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7239,22 +7261,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="C196" t="n">
         <v>84.61</v>
       </c>
-      <c r="C196" t="n">
-        <v>85</v>
-      </c>
       <c r="D196" t="n">
-        <v>85</v>
+        <v>84.61</v>
       </c>
       <c r="E196" t="n">
-        <v>84.61</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="F196" t="n">
-        <v>33781.3916</v>
+        <v>799.2003</v>
       </c>
       <c r="G196" t="n">
-        <v>82.5108333333333</v>
+        <v>82.45749999999997</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7274,22 +7296,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>84.61</v>
+      </c>
+      <c r="C197" t="n">
         <v>85</v>
       </c>
-      <c r="C197" t="n">
-        <v>85.58</v>
-      </c>
       <c r="D197" t="n">
-        <v>85.58</v>
+        <v>85</v>
       </c>
       <c r="E197" t="n">
-        <v>85</v>
+        <v>84.61</v>
       </c>
       <c r="F197" t="n">
-        <v>2769.3082</v>
+        <v>33781.3916</v>
       </c>
       <c r="G197" t="n">
-        <v>82.57216666666663</v>
+        <v>82.5108333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7309,7 +7331,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>85.01000000000001</v>
+        <v>85</v>
       </c>
       <c r="C198" t="n">
         <v>85.58</v>
@@ -7318,13 +7340,13 @@
         <v>85.58</v>
       </c>
       <c r="E198" t="n">
-        <v>85.01000000000001</v>
+        <v>85</v>
       </c>
       <c r="F198" t="n">
-        <v>631.79</v>
+        <v>2769.3082</v>
       </c>
       <c r="G198" t="n">
-        <v>82.63349999999997</v>
+        <v>82.57216666666663</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7344,22 +7366,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>85.48</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="C199" t="n">
-        <v>85.36</v>
+        <v>85.58</v>
       </c>
       <c r="D199" t="n">
         <v>85.58</v>
       </c>
       <c r="E199" t="n">
-        <v>84.11</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="F199" t="n">
-        <v>23566.3582</v>
+        <v>631.79</v>
       </c>
       <c r="G199" t="n">
-        <v>82.68949999999997</v>
+        <v>82.63349999999997</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7379,22 +7401,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>84.92</v>
+        <v>85.48</v>
       </c>
       <c r="C200" t="n">
-        <v>85.45</v>
+        <v>85.36</v>
       </c>
       <c r="D200" t="n">
-        <v>85.45</v>
+        <v>85.58</v>
       </c>
       <c r="E200" t="n">
-        <v>84.92</v>
+        <v>84.11</v>
       </c>
       <c r="F200" t="n">
-        <v>21438.891</v>
+        <v>23566.3582</v>
       </c>
       <c r="G200" t="n">
-        <v>82.74599999999995</v>
+        <v>82.68949999999997</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7414,22 +7436,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
+        <v>84.92</v>
+      </c>
+      <c r="C201" t="n">
         <v>85.45</v>
-      </c>
-      <c r="C201" t="n">
-        <v>84.90000000000001</v>
       </c>
       <c r="D201" t="n">
         <v>85.45</v>
       </c>
       <c r="E201" t="n">
-        <v>84.90000000000001</v>
+        <v>84.92</v>
       </c>
       <c r="F201" t="n">
-        <v>1411.9596</v>
+        <v>21438.891</v>
       </c>
       <c r="G201" t="n">
-        <v>82.79349999999995</v>
+        <v>82.74599999999995</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7449,22 +7471,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>85.34999999999999</v>
+        <v>85.45</v>
       </c>
       <c r="C202" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="D202" t="n">
-        <v>85.34999999999999</v>
+        <v>85.45</v>
       </c>
       <c r="E202" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>562.3627</v>
+        <v>1411.9596</v>
       </c>
       <c r="G202" t="n">
-        <v>82.84083333333326</v>
+        <v>82.79349999999995</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7484,22 +7506,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>84.90000000000001</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C203" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="D203" t="n">
-        <v>84.90000000000001</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="E203" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="F203" t="n">
-        <v>79.0883</v>
+        <v>562.3627</v>
       </c>
       <c r="G203" t="n">
-        <v>82.88183333333328</v>
+        <v>82.84083333333326</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7531,10 +7553,10 @@
         <v>84.90000000000001</v>
       </c>
       <c r="F204" t="n">
-        <v>1372</v>
+        <v>79.0883</v>
       </c>
       <c r="G204" t="n">
-        <v>82.92966666666661</v>
+        <v>82.88183333333328</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7566,10 +7588,10 @@
         <v>84.90000000000001</v>
       </c>
       <c r="F205" t="n">
-        <v>2624.4219</v>
+        <v>1372</v>
       </c>
       <c r="G205" t="n">
-        <v>82.96199999999993</v>
+        <v>82.92966666666661</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7601,10 +7623,10 @@
         <v>84.90000000000001</v>
       </c>
       <c r="F206" t="n">
-        <v>11252.6316</v>
+        <v>2624.4219</v>
       </c>
       <c r="G206" t="n">
-        <v>82.99433333333326</v>
+        <v>82.96199999999993</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7619,6 +7641,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="C207" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D207" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E207" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F207" t="n">
+        <v>11252.6316</v>
+      </c>
+      <c r="G207" t="n">
+        <v>82.99433333333326</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-16 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:N217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>50177.6422</v>
       </c>
       <c r="G2" t="n">
+        <v>77.1006666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>77.61849999999998</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>77.08600000000003</v>
+      </c>
+      <c r="H3" t="n">
         <v>77.57483333333332</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>8293.752399999999</v>
       </c>
       <c r="G4" t="n">
+        <v>77.11400000000002</v>
+      </c>
+      <c r="H4" t="n">
         <v>77.54433333333331</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>3151.8896</v>
       </c>
       <c r="G5" t="n">
+        <v>77.05733333333335</v>
+      </c>
+      <c r="H5" t="n">
         <v>77.48116666666665</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>4329.6842</v>
       </c>
       <c r="G6" t="n">
+        <v>77.00066666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>77.44599999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>2426.2476</v>
       </c>
       <c r="G7" t="n">
+        <v>76.98666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>77.43016666666664</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,27 @@
         <v>3926.2564</v>
       </c>
       <c r="G8" t="n">
+        <v>77.01666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>77.41949999999997</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +757,25 @@
         <v>797.1457</v>
       </c>
       <c r="G9" t="n">
+        <v>77.02199999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>77.41016666666664</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="L9" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,29 @@
         <v>752.3869999999999</v>
       </c>
       <c r="G10" t="n">
+        <v>77.03733333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>77.40016666666664</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>77.77</v>
+      </c>
+      <c r="L10" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +845,29 @@
         <v>6922.3357</v>
       </c>
       <c r="G11" t="n">
+        <v>77.06199999999998</v>
+      </c>
+      <c r="H11" t="n">
         <v>77.38433333333329</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>77.92</v>
+      </c>
+      <c r="L11" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +891,21 @@
         <v>77024.5971</v>
       </c>
       <c r="G12" t="n">
+        <v>77.15533333333332</v>
+      </c>
+      <c r="H12" t="n">
         <v>77.36866666666661</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +929,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
+        <v>77.26466666666664</v>
+      </c>
+      <c r="H13" t="n">
         <v>77.35699999999994</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +967,21 @@
         <v>7</v>
       </c>
       <c r="G14" t="n">
+        <v>77.37399999999997</v>
+      </c>
+      <c r="H14" t="n">
         <v>77.34899999999993</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1005,21 @@
         <v>440.4539</v>
       </c>
       <c r="G15" t="n">
+        <v>77.48999999999997</v>
+      </c>
+      <c r="H15" t="n">
         <v>77.33166666666661</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1043,21 @@
         <v>14848.9597</v>
       </c>
       <c r="G16" t="n">
+        <v>77.57866666666662</v>
+      </c>
+      <c r="H16" t="n">
         <v>77.34333333333326</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1081,27 @@
         <v>56794.1091</v>
       </c>
       <c r="G17" t="n">
+        <v>77.69466666666662</v>
+      </c>
+      <c r="H17" t="n">
         <v>77.33999999999993</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1125,25 @@
         <v>9360.6821</v>
       </c>
       <c r="G18" t="n">
+        <v>77.78999999999996</v>
+      </c>
+      <c r="H18" t="n">
         <v>77.3386666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1167,25 @@
         <v>462.1162</v>
       </c>
       <c r="G19" t="n">
+        <v>77.88533333333331</v>
+      </c>
+      <c r="H19" t="n">
         <v>77.33783333333326</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1209,25 @@
         <v>107223.2109</v>
       </c>
       <c r="G20" t="n">
+        <v>78.14466666666664</v>
+      </c>
+      <c r="H20" t="n">
         <v>77.37633333333325</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1251,25 @@
         <v>48344.1396</v>
       </c>
       <c r="G21" t="n">
+        <v>78.29933333333331</v>
+      </c>
+      <c r="H21" t="n">
         <v>77.38816666666659</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1293,25 @@
         <v>10152.66312631185</v>
       </c>
       <c r="G22" t="n">
+        <v>78.47666666666665</v>
+      </c>
+      <c r="H22" t="n">
         <v>77.41716666666659</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1335,25 @@
         <v>11</v>
       </c>
       <c r="G23" t="n">
+        <v>78.68466666666663</v>
+      </c>
+      <c r="H23" t="n">
         <v>77.46533333333326</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1377,25 @@
         <v>11</v>
       </c>
       <c r="G24" t="n">
+        <v>78.8033333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>77.49449999999993</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1419,25 @@
         <v>9542.705599999999</v>
       </c>
       <c r="G25" t="n">
+        <v>78.91199999999996</v>
+      </c>
+      <c r="H25" t="n">
         <v>77.5156666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1461,25 @@
         <v>4587.8822</v>
       </c>
       <c r="G26" t="n">
+        <v>79.08799999999997</v>
+      </c>
+      <c r="H26" t="n">
         <v>77.56499999999993</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1503,25 @@
         <v>12428.5407549166</v>
       </c>
       <c r="G27" t="n">
+        <v>79.27199999999996</v>
+      </c>
+      <c r="H27" t="n">
         <v>77.61649999999993</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1545,25 @@
         <v>5638.4485</v>
       </c>
       <c r="G28" t="n">
+        <v>79.48399999999997</v>
+      </c>
+      <c r="H28" t="n">
         <v>77.68316666666661</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1587,25 @@
         <v>50137.4453</v>
       </c>
       <c r="G29" t="n">
+        <v>79.70066666666663</v>
+      </c>
+      <c r="H29" t="n">
         <v>77.75433333333326</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1629,25 @@
         <v>1623.6333</v>
       </c>
       <c r="G30" t="n">
+        <v>79.90599999999996</v>
+      </c>
+      <c r="H30" t="n">
         <v>77.82683333333327</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1671,25 @@
         <v>46167.7839</v>
       </c>
       <c r="G31" t="n">
+        <v>80.05066666666663</v>
+      </c>
+      <c r="H31" t="n">
         <v>77.90449999999993</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1713,25 @@
         <v>34625.1146</v>
       </c>
       <c r="G32" t="n">
+        <v>80.19333333333331</v>
+      </c>
+      <c r="H32" t="n">
         <v>77.97749999999994</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1755,25 @@
         <v>1067.5187</v>
       </c>
       <c r="G33" t="n">
+        <v>80.33866666666664</v>
+      </c>
+      <c r="H33" t="n">
         <v>78.05049999999993</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1797,25 @@
         <v>11267.094</v>
       </c>
       <c r="G34" t="n">
+        <v>80.50533333333331</v>
+      </c>
+      <c r="H34" t="n">
         <v>78.13616666666661</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1839,25 @@
         <v>21738.93338254546</v>
       </c>
       <c r="G35" t="n">
+        <v>80.67999999999998</v>
+      </c>
+      <c r="H35" t="n">
         <v>78.23633333333328</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1881,25 @@
         <v>12647.00411745455</v>
       </c>
       <c r="G36" t="n">
+        <v>81.02866666666662</v>
+      </c>
+      <c r="H36" t="n">
         <v>78.35383333333328</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1923,25 @@
         <v>14241.1387</v>
       </c>
       <c r="G37" t="n">
+        <v>81.33333333333329</v>
+      </c>
+      <c r="H37" t="n">
         <v>78.48716666666661</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1965,25 @@
         <v>39763.1169</v>
       </c>
       <c r="G38" t="n">
+        <v>81.61399999999996</v>
+      </c>
+      <c r="H38" t="n">
         <v>78.60599999999995</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2007,25 @@
         <v>78137.4859</v>
       </c>
       <c r="G39" t="n">
+        <v>81.97733333333329</v>
+      </c>
+      <c r="H39" t="n">
         <v>78.72883333333328</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2049,25 @@
         <v>5669.3928</v>
       </c>
       <c r="G40" t="n">
+        <v>82.27399999999996</v>
+      </c>
+      <c r="H40" t="n">
         <v>78.8431666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2091,25 @@
         <v>21573.6391</v>
       </c>
       <c r="G41" t="n">
+        <v>82.52666666666663</v>
+      </c>
+      <c r="H41" t="n">
         <v>78.96316666666661</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2133,25 @@
         <v>16239.3372</v>
       </c>
       <c r="G42" t="n">
+        <v>82.77066666666663</v>
+      </c>
+      <c r="H42" t="n">
         <v>79.09349999999993</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2175,25 @@
         <v>51522.0801</v>
       </c>
       <c r="G43" t="n">
+        <v>82.90399999999997</v>
+      </c>
+      <c r="H43" t="n">
         <v>79.20716666666659</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2217,25 @@
         <v>101859.7627</v>
       </c>
       <c r="G44" t="n">
+        <v>83.2013333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>79.34866666666659</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2259,25 @@
         <v>38841.0644</v>
       </c>
       <c r="G45" t="n">
+        <v>83.33733333333331</v>
+      </c>
+      <c r="H45" t="n">
         <v>79.44699999999992</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2301,25 @@
         <v>45351.9508</v>
       </c>
       <c r="G46" t="n">
+        <v>83.37266666666663</v>
+      </c>
+      <c r="H46" t="n">
         <v>79.52299999999991</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2343,25 @@
         <v>4001.8583</v>
       </c>
       <c r="G47" t="n">
+        <v>83.43399999999995</v>
+      </c>
+      <c r="H47" t="n">
         <v>79.60566666666658</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2385,25 @@
         <v>1756.8662</v>
       </c>
       <c r="G48" t="n">
+        <v>83.50266666666661</v>
+      </c>
+      <c r="H48" t="n">
         <v>79.67933333333325</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2427,25 @@
         <v>33245.1999</v>
       </c>
       <c r="G49" t="n">
+        <v>83.58199999999995</v>
+      </c>
+      <c r="H49" t="n">
         <v>79.77166666666658</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2469,25 @@
         <v>3793.8974</v>
       </c>
       <c r="G50" t="n">
+        <v>83.6213333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>79.87583333333325</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2511,25 @@
         <v>11644.6167</v>
       </c>
       <c r="G51" t="n">
+        <v>83.59133333333331</v>
+      </c>
+      <c r="H51" t="n">
         <v>79.97999999999992</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2553,25 @@
         <v>3597.1224</v>
       </c>
       <c r="G52" t="n">
+        <v>83.49799999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>80.07366666666658</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2595,25 @@
         <v>8265.0479</v>
       </c>
       <c r="G53" t="n">
+        <v>83.31466666666665</v>
+      </c>
+      <c r="H53" t="n">
         <v>80.1574999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2637,25 @@
         <v>13654.8076</v>
       </c>
       <c r="G54" t="n">
+        <v>83.21466666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>80.25433333333325</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2679,25 @@
         <v>3758.0553</v>
       </c>
       <c r="G55" t="n">
+        <v>83.22133333333332</v>
+      </c>
+      <c r="H55" t="n">
         <v>80.36116666666659</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2721,25 @@
         <v>10643.1519</v>
       </c>
       <c r="G56" t="n">
+        <v>83.10466666666665</v>
+      </c>
+      <c r="H56" t="n">
         <v>80.44533333333327</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2763,25 @@
         <v>75807.2801</v>
       </c>
       <c r="G57" t="n">
+        <v>83.05799999999998</v>
+      </c>
+      <c r="H57" t="n">
         <v>80.56399999999992</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2805,25 @@
         <v>15541.1866</v>
       </c>
       <c r="G58" t="n">
+        <v>83.01133333333331</v>
+      </c>
+      <c r="H58" t="n">
         <v>80.66599999999993</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2847,25 @@
         <v>64754.6617</v>
       </c>
       <c r="G59" t="n">
+        <v>82.84133333333331</v>
+      </c>
+      <c r="H59" t="n">
         <v>80.77933333333324</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2889,25 @@
         <v>54100.4155</v>
       </c>
       <c r="G60" t="n">
+        <v>82.83799999999998</v>
+      </c>
+      <c r="H60" t="n">
         <v>80.89283333333324</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2931,25 @@
         <v>11102.8264</v>
       </c>
       <c r="G61" t="n">
+        <v>82.87799999999997</v>
+      </c>
+      <c r="H61" t="n">
         <v>80.9699999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2973,25 @@
         <v>5421.6894</v>
       </c>
       <c r="G62" t="n">
+        <v>82.89799999999998</v>
+      </c>
+      <c r="H62" t="n">
         <v>81.05499999999989</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3015,25 @@
         <v>100</v>
       </c>
       <c r="G63" t="n">
+        <v>82.90533333333332</v>
+      </c>
+      <c r="H63" t="n">
         <v>81.13416666666656</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3057,25 @@
         <v>100</v>
       </c>
       <c r="G64" t="n">
+        <v>82.8813333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>81.2134999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3099,25 @@
         <v>463.2864</v>
       </c>
       <c r="G65" t="n">
+        <v>82.8013333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>81.31183333333323</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3141,25 @@
         <v>3299.9563</v>
       </c>
       <c r="G66" t="n">
+        <v>82.72133333333331</v>
+      </c>
+      <c r="H66" t="n">
         <v>81.41016666666656</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3183,25 @@
         <v>5876</v>
       </c>
       <c r="G67" t="n">
+        <v>82.64133333333329</v>
+      </c>
+      <c r="H67" t="n">
         <v>81.48733333333323</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3225,25 @@
         <v>2012.9604</v>
       </c>
       <c r="G68" t="n">
+        <v>82.63799999999996</v>
+      </c>
+      <c r="H68" t="n">
         <v>81.56283333333322</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3267,25 @@
         <v>5894.633</v>
       </c>
       <c r="G69" t="n">
+        <v>82.4993333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>81.62366666666655</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3309,25 @@
         <v>8819.8488</v>
       </c>
       <c r="G70" t="n">
+        <v>82.30466666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>81.67799999999988</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,22 +3351,25 @@
         <v>1550</v>
       </c>
       <c r="G71" t="n">
+        <v>82.24199999999998</v>
+      </c>
+      <c r="H71" t="n">
         <v>81.74033333333323</v>
       </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>81.18000000000001</v>
-      </c>
-      <c r="K71" t="n">
-        <v>81.18000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2902,26 +3393,25 @@
         <v>1469</v>
       </c>
       <c r="G72" t="n">
+        <v>82.13466666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>81.80883333333323</v>
       </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="K72" t="n">
-        <v>81.18000000000001</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,24 +3435,25 @@
         <v>1190.0186</v>
       </c>
       <c r="G73" t="n">
+        <v>82.08133333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>81.87016666666656</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>81.18000000000001</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3477,25 @@
         <v>636</v>
       </c>
       <c r="G74" t="n">
+        <v>81.98866666666665</v>
+      </c>
+      <c r="H74" t="n">
         <v>81.93299999999991</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3519,25 @@
         <v>3383.5756</v>
       </c>
       <c r="G75" t="n">
+        <v>81.93533333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>82.00416666666656</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3561,25 @@
         <v>31378.9931</v>
       </c>
       <c r="G76" t="n">
+        <v>81.82866666666665</v>
+      </c>
+      <c r="H76" t="n">
         <v>82.03249999999989</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3603,25 @@
         <v>413.5043</v>
       </c>
       <c r="G77" t="n">
+        <v>81.79266666666665</v>
+      </c>
+      <c r="H77" t="n">
         <v>82.07949999999988</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3645,25 @@
         <v>13608.418</v>
       </c>
       <c r="G78" t="n">
+        <v>81.73066666666665</v>
+      </c>
+      <c r="H78" t="n">
         <v>82.11933333333323</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3687,25 @@
         <v>13629.5986</v>
       </c>
       <c r="G79" t="n">
+        <v>81.67533333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>82.16099999999989</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3729,25 @@
         <v>1469</v>
       </c>
       <c r="G80" t="n">
+        <v>81.62799999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>82.18266666666656</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3771,25 @@
         <v>21568</v>
       </c>
       <c r="G81" t="n">
+        <v>81.56799999999998</v>
+      </c>
+      <c r="H81" t="n">
         <v>82.22733333333323</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3813,25 @@
         <v>1768</v>
       </c>
       <c r="G82" t="n">
+        <v>81.50799999999998</v>
+      </c>
+      <c r="H82" t="n">
         <v>82.24516666666658</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3855,25 @@
         <v>2819.8822</v>
       </c>
       <c r="G83" t="n">
+        <v>81.40199999999997</v>
+      </c>
+      <c r="H83" t="n">
         <v>82.24216666666658</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3897,25 @@
         <v>6565.206</v>
       </c>
       <c r="G84" t="n">
+        <v>81.36266666666663</v>
+      </c>
+      <c r="H84" t="n">
         <v>82.26349999999989</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3939,25 @@
         <v>40343.2832</v>
       </c>
       <c r="G85" t="n">
+        <v>81.25133333333329</v>
+      </c>
+      <c r="H85" t="n">
         <v>82.26283333333323</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3981,25 @@
         <v>41454.4221</v>
       </c>
       <c r="G86" t="n">
+        <v>81.0793333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>82.23816666666656</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,22 +4023,25 @@
         <v>163.8079</v>
       </c>
       <c r="G87" t="n">
+        <v>80.94666666666663</v>
+      </c>
+      <c r="H87" t="n">
         <v>82.22749999999989</v>
       </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>78.73</v>
-      </c>
-      <c r="K87" t="n">
-        <v>78.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,26 +4065,25 @@
         <v>441.9847</v>
       </c>
       <c r="G88" t="n">
+        <v>80.82666666666663</v>
+      </c>
+      <c r="H88" t="n">
         <v>82.20583333333322</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="K88" t="n">
-        <v>78.73</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3523,26 +4107,25 @@
         <v>33956.3023</v>
       </c>
       <c r="G89" t="n">
+        <v>80.70066666666663</v>
+      </c>
+      <c r="H89" t="n">
         <v>82.18299999999989</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="K89" t="n">
-        <v>78.73</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,18 +4149,25 @@
         <v>6070.7258</v>
       </c>
       <c r="G90" t="n">
+        <v>80.53466666666664</v>
+      </c>
+      <c r="H90" t="n">
         <v>82.16133333333322</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,18 +4191,25 @@
         <v>713.6952</v>
       </c>
       <c r="G91" t="n">
+        <v>80.46799999999998</v>
+      </c>
+      <c r="H91" t="n">
         <v>82.13683333333321</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,18 +4233,25 @@
         <v>2000</v>
       </c>
       <c r="G92" t="n">
+        <v>80.32399999999998</v>
+      </c>
+      <c r="H92" t="n">
         <v>82.11216666666654</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3671,18 +4275,25 @@
         <v>376.0274</v>
       </c>
       <c r="G93" t="n">
+        <v>80.25933333333332</v>
+      </c>
+      <c r="H93" t="n">
         <v>82.09949999999986</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,18 +4317,25 @@
         <v>119.3261</v>
       </c>
       <c r="G94" t="n">
+        <v>80.20466666666665</v>
+      </c>
+      <c r="H94" t="n">
         <v>82.08583333333321</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3741,18 +4359,25 @@
         <v>621.4373000000001</v>
       </c>
       <c r="G95" t="n">
+        <v>80.15266666666665</v>
+      </c>
+      <c r="H95" t="n">
         <v>82.0508333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,18 +4401,25 @@
         <v>1494.8151</v>
       </c>
       <c r="G96" t="n">
+        <v>80.15799999999997</v>
+      </c>
+      <c r="H96" t="n">
         <v>82.00966666666653</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,18 +4443,25 @@
         <v>22916.8218</v>
       </c>
       <c r="G97" t="n">
+        <v>80.18266666666665</v>
+      </c>
+      <c r="H97" t="n">
         <v>81.95749999999985</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,18 +4485,25 @@
         <v>1243.6952</v>
       </c>
       <c r="G98" t="n">
+        <v>80.25333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>81.90199999999986</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,18 +4527,25 @@
         <v>25599.8182</v>
       </c>
       <c r="G99" t="n">
+        <v>80.30933333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>81.84649999999986</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,18 +4569,25 @@
         <v>6692.1496</v>
       </c>
       <c r="G100" t="n">
+        <v>80.45333333333335</v>
+      </c>
+      <c r="H100" t="n">
         <v>81.80766666666653</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3951,18 +4611,25 @@
         <v>5633.547</v>
       </c>
       <c r="G101" t="n">
+        <v>80.66733333333335</v>
+      </c>
+      <c r="H101" t="n">
         <v>81.77333333333318</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,18 +4653,25 @@
         <v>1527.057</v>
       </c>
       <c r="G102" t="n">
+        <v>80.82866666666668</v>
+      </c>
+      <c r="H102" t="n">
         <v>81.74199999999986</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4021,18 +4695,25 @@
         <v>1648</v>
       </c>
       <c r="G103" t="n">
+        <v>80.982</v>
+      </c>
+      <c r="H103" t="n">
         <v>81.72533333333318</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,18 +4737,25 @@
         <v>2816.7735</v>
       </c>
       <c r="G104" t="n">
+        <v>81.13533333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>81.66649999999986</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,18 +4779,25 @@
         <v>282.5588</v>
       </c>
       <c r="G105" t="n">
+        <v>81.28866666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>81.64916666666653</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,18 +4821,25 @@
         <v>5350.988</v>
       </c>
       <c r="G106" t="n">
+        <v>81.42</v>
+      </c>
+      <c r="H106" t="n">
         <v>81.64866666666653</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4161,18 +4863,25 @@
         <v>1259.7094</v>
       </c>
       <c r="G107" t="n">
+        <v>81.57333333333332</v>
+      </c>
+      <c r="H107" t="n">
         <v>81.64699999999986</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,18 +4905,25 @@
         <v>1644.6513</v>
       </c>
       <c r="G108" t="n">
+        <v>81.69399999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>81.64733333333318</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,18 +4947,25 @@
         <v>820.3555</v>
       </c>
       <c r="G109" t="n">
+        <v>81.81199999999998</v>
+      </c>
+      <c r="H109" t="n">
         <v>81.64333333333319</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,18 +4989,25 @@
         <v>1469</v>
       </c>
       <c r="G110" t="n">
+        <v>81.91333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>81.62383333333318</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,18 +5031,25 @@
         <v>3720.7386</v>
       </c>
       <c r="G111" t="n">
+        <v>81.95466666666665</v>
+      </c>
+      <c r="H111" t="n">
         <v>81.60049999999985</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,18 +5073,25 @@
         <v>9756.869699999999</v>
       </c>
       <c r="G112" t="n">
+        <v>81.95466666666665</v>
+      </c>
+      <c r="H112" t="n">
         <v>81.57166666666653</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4371,18 +5115,25 @@
         <v>7600</v>
       </c>
       <c r="G113" t="n">
+        <v>81.95466666666665</v>
+      </c>
+      <c r="H113" t="n">
         <v>81.56199999999987</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,18 +5157,25 @@
         <v>3173.5164</v>
       </c>
       <c r="G114" t="n">
+        <v>81.96933333333331</v>
+      </c>
+      <c r="H114" t="n">
         <v>81.53516666666654</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4441,18 +5199,25 @@
         <v>8934.732400000001</v>
       </c>
       <c r="G115" t="n">
+        <v>81.97733333333331</v>
+      </c>
+      <c r="H115" t="n">
         <v>81.49666666666653</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,18 +5241,25 @@
         <v>3339.8888</v>
       </c>
       <c r="G116" t="n">
+        <v>81.9593333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>81.48699999999987</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,18 +5283,25 @@
         <v>1371.4388</v>
       </c>
       <c r="G117" t="n">
+        <v>81.9513333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>81.46533333333319</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,18 +5325,25 @@
         <v>44843.4137</v>
       </c>
       <c r="G118" t="n">
+        <v>81.94333333333331</v>
+      </c>
+      <c r="H118" t="n">
         <v>81.4583333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,18 +5367,25 @@
         <v>1592.9476</v>
       </c>
       <c r="G119" t="n">
+        <v>81.92133333333331</v>
+      </c>
+      <c r="H119" t="n">
         <v>81.43649999999987</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,18 +5409,25 @@
         <v>2277.8975</v>
       </c>
       <c r="G120" t="n">
+        <v>81.89933333333332</v>
+      </c>
+      <c r="H120" t="n">
         <v>81.41449999999988</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,18 +5451,25 @@
         <v>4407</v>
       </c>
       <c r="G121" t="n">
+        <v>81.86799999999998</v>
+      </c>
+      <c r="H121" t="n">
         <v>81.39616666666653</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,18 +5493,25 @@
         <v>1462</v>
       </c>
       <c r="G122" t="n">
+        <v>81.82133333333331</v>
+      </c>
+      <c r="H122" t="n">
         <v>81.37783333333321</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4721,18 +5535,25 @@
         <v>25518.1748</v>
       </c>
       <c r="G123" t="n">
+        <v>81.75266666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>81.35916666666655</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,18 +5577,25 @@
         <v>8212.713100000001</v>
       </c>
       <c r="G124" t="n">
+        <v>81.66933333333331</v>
+      </c>
+      <c r="H124" t="n">
         <v>81.34033333333322</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,18 +5619,25 @@
         <v>8520</v>
       </c>
       <c r="G125" t="n">
+        <v>81.60066666666665</v>
+      </c>
+      <c r="H125" t="n">
         <v>81.32366666666654</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,18 +5661,25 @@
         <v>700.6964</v>
       </c>
       <c r="G126" t="n">
+        <v>81.54733333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>81.30699999999987</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4861,18 +5703,25 @@
         <v>2370.9841</v>
       </c>
       <c r="G127" t="n">
+        <v>81.51599999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>81.29033333333321</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,18 +5745,25 @@
         <v>3057.3171</v>
       </c>
       <c r="G128" t="n">
+        <v>81.45133333333332</v>
+      </c>
+      <c r="H128" t="n">
         <v>81.26533333333322</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4931,18 +5787,25 @@
         <v>8276.4254</v>
       </c>
       <c r="G129" t="n">
+        <v>81.37333333333331</v>
+      </c>
+      <c r="H129" t="n">
         <v>81.25366666666655</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,18 +5829,25 @@
         <v>642.3264</v>
       </c>
       <c r="G130" t="n">
+        <v>81.33399999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>81.25399999999988</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,18 +5871,25 @@
         <v>3453.8559</v>
       </c>
       <c r="G131" t="n">
+        <v>81.27133333333332</v>
+      </c>
+      <c r="H131" t="n">
         <v>81.24433333333319</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,18 +5913,25 @@
         <v>55640</v>
       </c>
       <c r="G132" t="n">
+        <v>81.18666666666665</v>
+      </c>
+      <c r="H132" t="n">
         <v>81.2283333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5071,18 +5955,25 @@
         <v>176.0795</v>
       </c>
       <c r="G133" t="n">
+        <v>81.10933333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>81.21533333333319</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,18 +5997,25 @@
         <v>587.9391000000001</v>
       </c>
       <c r="G134" t="n">
+        <v>81.04599999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>81.20083333333319</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5141,18 +6039,25 @@
         <v>9677.210800000001</v>
       </c>
       <c r="G135" t="n">
+        <v>81.00133333333332</v>
+      </c>
+      <c r="H135" t="n">
         <v>81.18099999999987</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,18 +6081,25 @@
         <v>5677.4584</v>
       </c>
       <c r="G136" t="n">
+        <v>81.04799999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>81.20099999999987</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5211,18 +6123,25 @@
         <v>2940</v>
       </c>
       <c r="G137" t="n">
+        <v>81.08133333333332</v>
+      </c>
+      <c r="H137" t="n">
         <v>81.19999999999987</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,18 +6165,25 @@
         <v>4410</v>
       </c>
       <c r="G138" t="n">
+        <v>81.12799999999999</v>
+      </c>
+      <c r="H138" t="n">
         <v>81.20849999999987</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5281,18 +6207,25 @@
         <v>17</v>
       </c>
       <c r="G139" t="n">
+        <v>81.17466666666665</v>
+      </c>
+      <c r="H139" t="n">
         <v>81.21516666666653</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5316,18 +6249,25 @@
         <v>4333</v>
       </c>
       <c r="G140" t="n">
+        <v>81.22799999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>81.22366666666653</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5351,18 +6291,25 @@
         <v>17762.4076</v>
       </c>
       <c r="G141" t="n">
+        <v>81.28533333333331</v>
+      </c>
+      <c r="H141" t="n">
         <v>81.23633333333321</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,18 +6333,25 @@
         <v>25212.6278</v>
       </c>
       <c r="G142" t="n">
+        <v>81.34199999999997</v>
+      </c>
+      <c r="H142" t="n">
         <v>81.2488333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5421,18 +6375,25 @@
         <v>10984.2981</v>
       </c>
       <c r="G143" t="n">
+        <v>81.43266666666663</v>
+      </c>
+      <c r="H143" t="n">
         <v>81.27299999999988</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,18 +6417,25 @@
         <v>16209.2908</v>
       </c>
       <c r="G144" t="n">
+        <v>81.5473333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>81.29983333333321</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5491,18 +6459,25 @@
         <v>8212.7132</v>
       </c>
       <c r="G145" t="n">
+        <v>81.60266666666664</v>
+      </c>
+      <c r="H145" t="n">
         <v>81.3418333333332</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5526,18 +6501,25 @@
         <v>14870.68074549195</v>
       </c>
       <c r="G146" t="n">
+        <v>81.75133333333331</v>
+      </c>
+      <c r="H146" t="n">
         <v>81.41233333333321</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,18 +6543,25 @@
         <v>5698.750711413764</v>
       </c>
       <c r="G147" t="n">
+        <v>81.89999999999996</v>
+      </c>
+      <c r="H147" t="n">
         <v>81.46666666666654</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,18 +6585,25 @@
         <v>7.714561234329699e-05</v>
       </c>
       <c r="G148" t="n">
+        <v>82.04933333333331</v>
+      </c>
+      <c r="H148" t="n">
         <v>81.52099999999989</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5631,18 +6627,25 @@
         <v>2411.091018685956</v>
       </c>
       <c r="G149" t="n">
+        <v>82.19799999999996</v>
+      </c>
+      <c r="H149" t="n">
         <v>81.57516666666655</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,18 +6669,25 @@
         <v>3439.5514</v>
       </c>
       <c r="G150" t="n">
+        <v>82.25799999999998</v>
+      </c>
+      <c r="H150" t="n">
         <v>81.61183333333321</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,18 +6711,25 @@
         <v>120.8605269518975</v>
       </c>
       <c r="G151" t="n">
+        <v>82.31399999999998</v>
+      </c>
+      <c r="H151" t="n">
         <v>81.66249999999988</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,18 +6753,25 @@
         <v>12300</v>
       </c>
       <c r="G152" t="n">
+        <v>82.32733333333331</v>
+      </c>
+      <c r="H152" t="n">
         <v>81.70083333333322</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5771,18 +6795,25 @@
         <v>11793.1054</v>
       </c>
       <c r="G153" t="n">
+        <v>82.35399999999997</v>
+      </c>
+      <c r="H153" t="n">
         <v>81.73216666666654</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5806,18 +6837,25 @@
         <v>5896</v>
       </c>
       <c r="G154" t="n">
+        <v>82.36733333333329</v>
+      </c>
+      <c r="H154" t="n">
         <v>81.75583333333321</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5841,18 +6879,25 @@
         <v>15500</v>
       </c>
       <c r="G155" t="n">
+        <v>82.37399999999995</v>
+      </c>
+      <c r="H155" t="n">
         <v>81.7789999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5876,18 +6921,25 @@
         <v>61000</v>
       </c>
       <c r="G156" t="n">
+        <v>82.37666666666661</v>
+      </c>
+      <c r="H156" t="n">
         <v>81.7909999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5911,18 +6963,25 @@
         <v>12300</v>
       </c>
       <c r="G157" t="n">
+        <v>82.36066666666662</v>
+      </c>
+      <c r="H157" t="n">
         <v>81.79333333333324</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5946,18 +7005,25 @@
         <v>3711.3629</v>
       </c>
       <c r="G158" t="n">
+        <v>82.39799999999995</v>
+      </c>
+      <c r="H158" t="n">
         <v>81.80916666666657</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5981,18 +7047,25 @@
         <v>3144.691</v>
       </c>
       <c r="G159" t="n">
+        <v>82.37999999999995</v>
+      </c>
+      <c r="H159" t="n">
         <v>81.8174999999999</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,18 +7089,25 @@
         <v>2938</v>
       </c>
       <c r="G160" t="n">
+        <v>82.3893333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>81.82583333333324</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6051,18 +7131,25 @@
         <v>2913.9973</v>
       </c>
       <c r="G161" t="n">
+        <v>82.33666666666663</v>
+      </c>
+      <c r="H161" t="n">
         <v>81.82966666666657</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6086,18 +7173,25 @@
         <v>2363.6471</v>
       </c>
       <c r="G162" t="n">
+        <v>82.28399999999996</v>
+      </c>
+      <c r="H162" t="n">
         <v>81.8304999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6121,18 +7215,25 @@
         <v>12300</v>
       </c>
       <c r="G163" t="n">
+        <v>82.2073333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>81.82733333333324</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,18 +7257,25 @@
         <v>9441.909600000001</v>
       </c>
       <c r="G164" t="n">
+        <v>82.13133333333329</v>
+      </c>
+      <c r="H164" t="n">
         <v>81.82416666666659</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6191,18 +7299,25 @@
         <v>36355.3684</v>
       </c>
       <c r="G165" t="n">
+        <v>82.12533333333327</v>
+      </c>
+      <c r="H165" t="n">
         <v>81.82099999999993</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6226,18 +7341,25 @@
         <v>7252.5791</v>
       </c>
       <c r="G166" t="n">
+        <v>82.06333333333328</v>
+      </c>
+      <c r="H166" t="n">
         <v>81.82333333333327</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6261,18 +7383,25 @@
         <v>12300</v>
       </c>
       <c r="G167" t="n">
+        <v>82.0186666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>81.8121666666666</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,18 +7425,25 @@
         <v>12350</v>
       </c>
       <c r="G168" t="n">
+        <v>81.93933333333327</v>
+      </c>
+      <c r="H168" t="n">
         <v>81.79349999999994</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6331,18 +7467,25 @@
         <v>366.7033370003667</v>
       </c>
       <c r="G169" t="n">
+        <v>81.91999999999993</v>
+      </c>
+      <c r="H169" t="n">
         <v>81.78283333333327</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6366,18 +7509,25 @@
         <v>13500</v>
       </c>
       <c r="G170" t="n">
+        <v>81.85599999999995</v>
+      </c>
+      <c r="H170" t="n">
         <v>81.76466666666663</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6401,18 +7551,25 @@
         <v>11660.6856</v>
       </c>
       <c r="G171" t="n">
+        <v>81.83666666666662</v>
+      </c>
+      <c r="H171" t="n">
         <v>81.76149999999997</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6436,18 +7593,25 @@
         <v>12040.09289817871</v>
       </c>
       <c r="G172" t="n">
+        <v>81.83666666666662</v>
+      </c>
+      <c r="H172" t="n">
         <v>81.7638333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6471,18 +7635,25 @@
         <v>15739.18326482093</v>
       </c>
       <c r="G173" t="n">
+        <v>81.80333333333328</v>
+      </c>
+      <c r="H173" t="n">
         <v>81.7713333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6506,18 +7677,25 @@
         <v>11854.3367</v>
       </c>
       <c r="G174" t="n">
+        <v>81.80333333333328</v>
+      </c>
+      <c r="H174" t="n">
         <v>81.77599999999997</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6541,18 +7719,25 @@
         <v>2993</v>
       </c>
       <c r="G175" t="n">
+        <v>81.83399999999996</v>
+      </c>
+      <c r="H175" t="n">
         <v>81.78999999999996</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6576,18 +7761,25 @@
         <v>2612</v>
       </c>
       <c r="G176" t="n">
+        <v>81.84199999999994</v>
+      </c>
+      <c r="H176" t="n">
         <v>81.8003333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6611,18 +7803,25 @@
         <v>40651.4049</v>
       </c>
       <c r="G177" t="n">
+        <v>81.79999999999994</v>
+      </c>
+      <c r="H177" t="n">
         <v>81.79266666666663</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6646,18 +7845,25 @@
         <v>406.1069</v>
       </c>
       <c r="G178" t="n">
+        <v>81.79466666666661</v>
+      </c>
+      <c r="H178" t="n">
         <v>81.79016666666662</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6681,18 +7887,25 @@
         <v>33592.5097</v>
       </c>
       <c r="G179" t="n">
+        <v>81.7806666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>81.78899999999996</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6716,18 +7929,25 @@
         <v>28155.4881</v>
       </c>
       <c r="G180" t="n">
+        <v>81.85799999999995</v>
+      </c>
+      <c r="H180" t="n">
         <v>81.81066666666662</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6751,18 +7971,25 @@
         <v>69886.86948761527</v>
       </c>
       <c r="G181" t="n">
+        <v>81.9813333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>81.85166666666663</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6786,18 +8013,25 @@
         <v>1568.2131</v>
       </c>
       <c r="G182" t="n">
+        <v>82.07999999999996</v>
+      </c>
+      <c r="H182" t="n">
         <v>81.87683333333329</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6821,18 +8055,25 @@
         <v>2645</v>
       </c>
       <c r="G183" t="n">
+        <v>82.21666666666664</v>
+      </c>
+      <c r="H183" t="n">
         <v>81.90949999999997</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6856,18 +8097,25 @@
         <v>2938</v>
       </c>
       <c r="G184" t="n">
+        <v>82.30666666666664</v>
+      </c>
+      <c r="H184" t="n">
         <v>81.94216666666664</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6891,18 +8139,25 @@
         <v>10000</v>
       </c>
       <c r="G185" t="n">
+        <v>82.4413333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>81.97483333333329</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6926,18 +8181,25 @@
         <v>5362.8135</v>
       </c>
       <c r="G186" t="n">
+        <v>82.53133333333332</v>
+      </c>
+      <c r="H186" t="n">
         <v>82.00749999999996</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6961,18 +8223,25 @@
         <v>3865.9194</v>
       </c>
       <c r="G187" t="n">
+        <v>82.60599999999999</v>
+      </c>
+      <c r="H187" t="n">
         <v>82.0363333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6996,18 +8265,25 @@
         <v>13280.4231</v>
       </c>
       <c r="G188" t="n">
+        <v>82.66733333333332</v>
+      </c>
+      <c r="H188" t="n">
         <v>82.0753333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7031,18 +8307,25 @@
         <v>1469</v>
       </c>
       <c r="G189" t="n">
+        <v>82.74199999999998</v>
+      </c>
+      <c r="H189" t="n">
         <v>82.11816666666664</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7066,18 +8349,25 @@
         <v>52177</v>
       </c>
       <c r="G190" t="n">
+        <v>82.79333333333331</v>
+      </c>
+      <c r="H190" t="n">
         <v>82.1548333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7101,18 +8391,25 @@
         <v>17209.3915</v>
       </c>
       <c r="G191" t="n">
+        <v>82.89066666666665</v>
+      </c>
+      <c r="H191" t="n">
         <v>82.20516666666664</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7136,18 +8433,25 @@
         <v>80652.8003</v>
       </c>
       <c r="G192" t="n">
+        <v>82.98733333333331</v>
+      </c>
+      <c r="H192" t="n">
         <v>82.24283333333331</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7171,18 +8475,25 @@
         <v>17151.911</v>
       </c>
       <c r="G193" t="n">
+        <v>83.13866666666665</v>
+      </c>
+      <c r="H193" t="n">
         <v>82.29749999999997</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7206,18 +8517,25 @@
         <v>2256.25</v>
       </c>
       <c r="G194" t="n">
+        <v>83.29866666666665</v>
+      </c>
+      <c r="H194" t="n">
         <v>82.35216666666663</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7241,18 +8559,25 @@
         <v>827.8916</v>
       </c>
       <c r="G195" t="n">
+        <v>83.40799999999997</v>
+      </c>
+      <c r="H195" t="n">
         <v>82.41233333333329</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7276,18 +8601,25 @@
         <v>799.2003</v>
       </c>
       <c r="G196" t="n">
+        <v>83.47133333333331</v>
+      </c>
+      <c r="H196" t="n">
         <v>82.45749999999997</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7311,18 +8643,25 @@
         <v>33781.3916</v>
       </c>
       <c r="G197" t="n">
+        <v>83.61733333333331</v>
+      </c>
+      <c r="H197" t="n">
         <v>82.5108333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7346,18 +8685,25 @@
         <v>2769.3082</v>
       </c>
       <c r="G198" t="n">
+        <v>83.77866666666662</v>
+      </c>
+      <c r="H198" t="n">
         <v>82.57216666666663</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7381,18 +8727,25 @@
         <v>631.79</v>
       </c>
       <c r="G199" t="n">
+        <v>83.93999999999996</v>
+      </c>
+      <c r="H199" t="n">
         <v>82.63349999999997</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7416,18 +8769,25 @@
         <v>23566.3582</v>
       </c>
       <c r="G200" t="n">
+        <v>84.0866666666666</v>
+      </c>
+      <c r="H200" t="n">
         <v>82.68949999999997</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7451,18 +8811,25 @@
         <v>21438.891</v>
       </c>
       <c r="G201" t="n">
+        <v>84.23933333333326</v>
+      </c>
+      <c r="H201" t="n">
         <v>82.74599999999995</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,18 +8853,25 @@
         <v>1411.9596</v>
       </c>
       <c r="G202" t="n">
+        <v>84.37066666666661</v>
+      </c>
+      <c r="H202" t="n">
         <v>82.79349999999995</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7521,18 +8895,25 @@
         <v>562.3627</v>
       </c>
       <c r="G203" t="n">
+        <v>84.49466666666662</v>
+      </c>
+      <c r="H203" t="n">
         <v>82.84083333333326</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7556,18 +8937,25 @@
         <v>79.0883</v>
       </c>
       <c r="G204" t="n">
+        <v>84.60199999999995</v>
+      </c>
+      <c r="H204" t="n">
         <v>82.88183333333328</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7591,18 +8979,25 @@
         <v>1372</v>
       </c>
       <c r="G205" t="n">
+        <v>84.70199999999996</v>
+      </c>
+      <c r="H205" t="n">
         <v>82.92966666666661</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7626,18 +9021,25 @@
         <v>2624.4219</v>
       </c>
       <c r="G206" t="n">
+        <v>84.77866666666662</v>
+      </c>
+      <c r="H206" t="n">
         <v>82.96199999999993</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7661,18 +9063,411 @@
         <v>11252.6316</v>
       </c>
       <c r="G207" t="n">
+        <v>84.90599999999996</v>
+      </c>
+      <c r="H207" t="n">
         <v>82.99433333333326</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>85</v>
+      </c>
+      <c r="C208" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="D208" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="E208" t="n">
+        <v>85</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26687.326</v>
+      </c>
+      <c r="G208" t="n">
+        <v>84.9993333333333</v>
+      </c>
+      <c r="H208" t="n">
+        <v>83.03499999999991</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="C209" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="D209" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="E209" t="n">
+        <v>84.22</v>
+      </c>
+      <c r="F209" t="n">
+        <v>53946.0602</v>
+      </c>
+      <c r="G209" t="n">
+        <v>85.09599999999998</v>
+      </c>
+      <c r="H209" t="n">
+        <v>83.07666666666658</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="C210" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="D210" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="E210" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="F210" t="n">
+        <v>15288.2441</v>
+      </c>
+      <c r="G210" t="n">
+        <v>85.07199999999997</v>
+      </c>
+      <c r="H210" t="n">
+        <v>83.11583333333326</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="C211" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="D211" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="E211" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="F211" t="n">
+        <v>15934.40703594389</v>
+      </c>
+      <c r="G211" t="n">
+        <v>85.12933333333332</v>
+      </c>
+      <c r="H211" t="n">
+        <v>83.16133333333326</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="C212" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="D212" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="E212" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="F212" t="n">
+        <v>7557.94</v>
+      </c>
+      <c r="G212" t="n">
+        <v>85.16066666666666</v>
+      </c>
+      <c r="H212" t="n">
+        <v>83.2191666666666</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="C213" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="D213" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="E213" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7292.483664056108</v>
+      </c>
+      <c r="G213" t="n">
+        <v>85.172</v>
+      </c>
+      <c r="H213" t="n">
+        <v>83.2766666666666</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="C214" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="D214" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="E214" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="F214" t="n">
+        <v>10552.72203594389</v>
+      </c>
+      <c r="G214" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="H214" t="n">
+        <v>83.33416666666659</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="D215" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="E215" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="F215" t="n">
+        <v>12700.0562</v>
+      </c>
+      <c r="G215" t="n">
+        <v>85.19933333333333</v>
+      </c>
+      <c r="H215" t="n">
+        <v>83.39583333333326</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="C216" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="D216" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="E216" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="F216" t="n">
+        <v>21669.0867</v>
+      </c>
+      <c r="G216" t="n">
+        <v>85.17666666666666</v>
+      </c>
+      <c r="H216" t="n">
+        <v>83.44599999999991</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="C217" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="D217" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="E217" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="F217" t="n">
+        <v>6202.795</v>
+      </c>
+      <c r="G217" t="n">
+        <v>85.23466666666666</v>
+      </c>
+      <c r="H217" t="n">
+        <v>83.51199999999992</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-16 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76.8</v>
+        <v>77.92</v>
       </c>
       <c r="C2" t="n">
-        <v>76.8</v>
+        <v>77.92</v>
       </c>
       <c r="D2" t="n">
-        <v>76.8</v>
+        <v>77.92</v>
       </c>
       <c r="E2" t="n">
-        <v>76.8</v>
+        <v>77.92</v>
       </c>
       <c r="F2" t="n">
-        <v>15249.9961</v>
+        <v>440.4539</v>
       </c>
       <c r="G2" t="n">
-        <v>-36704.47619693395</v>
+        <v>-196889.1197255329</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,133 +467,155 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>76.55</v>
+        <v>77.92</v>
       </c>
       <c r="C3" t="n">
-        <v>76.36</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
-        <v>76.55</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>76.36</v>
+        <v>77.92</v>
       </c>
       <c r="F3" t="n">
-        <v>18484</v>
+        <v>14848.9597</v>
       </c>
       <c r="G3" t="n">
-        <v>-55188.47619693395</v>
+        <v>-182040.1600255329</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>77.92</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>76.8</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>76.8</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>76.8</v>
+        <v>77.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2638.1771</v>
+        <v>56794.1091</v>
       </c>
       <c r="G4" t="n">
-        <v>-52550.29909693394</v>
+        <v>-125246.0509255329</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>79</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="F5" t="n">
-        <v>67248.6235</v>
+        <v>9360.6821</v>
       </c>
       <c r="G5" t="n">
-        <v>-52550.29909693394</v>
+        <v>-134606.7330255329</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>79.04000000000001</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="C6" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="F6" t="n">
-        <v>188.3856</v>
+        <v>462.1162</v>
       </c>
       <c r="G6" t="n">
-        <v>-52550.29909693394</v>
+        <v>-134606.7330255329</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,73 +625,77 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n">
-        <v>77.87</v>
+        <v>80.19</v>
       </c>
       <c r="D7" t="n">
-        <v>77.87</v>
+        <v>80.19</v>
       </c>
       <c r="E7" t="n">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="F7" t="n">
-        <v>6624.262171401053</v>
+        <v>107223.2109</v>
       </c>
       <c r="G7" t="n">
-        <v>-45926.03692553289</v>
+        <v>-27383.52212553291</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>76.8</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77.63</v>
+        <v>78.63</v>
       </c>
       <c r="C8" t="n">
-        <v>77.63</v>
+        <v>78.62</v>
       </c>
       <c r="D8" t="n">
-        <v>77.63</v>
+        <v>78.63</v>
       </c>
       <c r="E8" t="n">
-        <v>77.63</v>
+        <v>78.62</v>
       </c>
       <c r="F8" t="n">
-        <v>58.4969</v>
+        <v>48344.1396</v>
       </c>
       <c r="G8" t="n">
-        <v>-45984.53382553289</v>
+        <v>-75727.6617255329</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -682,28 +713,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77.14</v>
+        <v>79.89</v>
       </c>
       <c r="C9" t="n">
-        <v>77.14</v>
+        <v>80.23</v>
       </c>
       <c r="D9" t="n">
-        <v>77.14</v>
+        <v>80.23</v>
       </c>
       <c r="E9" t="n">
-        <v>77.14</v>
+        <v>79.89</v>
       </c>
       <c r="F9" t="n">
-        <v>8340.7628</v>
+        <v>10152.66312631185</v>
       </c>
       <c r="G9" t="n">
-        <v>-54325.29662553289</v>
+        <v>-65574.99859922106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -721,28 +753,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77.14</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>76.8</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>77.14</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>76.79000000000001</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>26344.2345</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>-80669.5311255329</v>
+        <v>-65563.99859922106</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,28 +793,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76.8</v>
+        <v>79.55</v>
       </c>
       <c r="C11" t="n">
-        <v>76.18000000000001</v>
+        <v>79.55</v>
       </c>
       <c r="D11" t="n">
-        <v>76.8</v>
+        <v>79.55</v>
       </c>
       <c r="E11" t="n">
-        <v>76.18000000000001</v>
+        <v>79.55</v>
       </c>
       <c r="F11" t="n">
-        <v>76532.4767</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>-157202.0078255329</v>
+        <v>-65574.99859922106</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -799,28 +833,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76.2</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>76.18000000000001</v>
+        <v>79.55</v>
       </c>
       <c r="D12" t="n">
-        <v>76.2</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>76.18000000000001</v>
+        <v>79.55</v>
       </c>
       <c r="F12" t="n">
-        <v>18110.9517</v>
+        <v>9542.705599999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-157202.0078255329</v>
+        <v>-65574.99859922106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -838,28 +873,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>77.04000000000001</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>77.04000000000001</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>77.04000000000001</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>77.04000000000001</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>4587.8822</v>
       </c>
       <c r="G13" t="n">
-        <v>-157152.0078255329</v>
+        <v>-60987.11639922106</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -877,28 +913,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>77.14</v>
+        <v>80.33</v>
       </c>
       <c r="C14" t="n">
-        <v>77.14</v>
+        <v>80.34</v>
       </c>
       <c r="D14" t="n">
-        <v>77.14</v>
+        <v>80.34</v>
       </c>
       <c r="E14" t="n">
-        <v>77.14</v>
+        <v>80.33</v>
       </c>
       <c r="F14" t="n">
-        <v>11269.0417</v>
+        <v>12428.5407549166</v>
       </c>
       <c r="G14" t="n">
-        <v>-145882.9661255329</v>
+        <v>-48558.57564430446</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -916,28 +953,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>77.14</v>
+        <v>81</v>
       </c>
       <c r="C15" t="n">
-        <v>77.14</v>
+        <v>81</v>
       </c>
       <c r="D15" t="n">
-        <v>77.14</v>
+        <v>81</v>
       </c>
       <c r="E15" t="n">
-        <v>77.14</v>
+        <v>81</v>
       </c>
       <c r="F15" t="n">
-        <v>409.9847</v>
+        <v>5638.4485</v>
       </c>
       <c r="G15" t="n">
-        <v>-145882.9661255329</v>
+        <v>-42920.12714430446</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -955,28 +993,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>77.14</v>
+        <v>81.06</v>
       </c>
       <c r="C16" t="n">
-        <v>77.14</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>77.14</v>
+        <v>81.17</v>
       </c>
       <c r="E16" t="n">
-        <v>77.14</v>
+        <v>81.06</v>
       </c>
       <c r="F16" t="n">
-        <v>413.9414</v>
+        <v>50137.4453</v>
       </c>
       <c r="G16" t="n">
-        <v>-145882.9661255329</v>
+        <v>7217.318155695539</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -994,28 +1033,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>77.79000000000001</v>
+        <v>81</v>
       </c>
       <c r="C17" t="n">
-        <v>77.79000000000001</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>77.79000000000001</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
-        <v>77.79000000000001</v>
+        <v>81</v>
       </c>
       <c r="F17" t="n">
-        <v>310.9302</v>
+        <v>1623.6333</v>
       </c>
       <c r="G17" t="n">
-        <v>-145572.0359255329</v>
+        <v>5593.684855695539</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1033,28 +1073,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77.16</v>
+        <v>81.06</v>
       </c>
       <c r="C18" t="n">
-        <v>77.15000000000001</v>
+        <v>81.17</v>
       </c>
       <c r="D18" t="n">
-        <v>77.16</v>
+        <v>81.17</v>
       </c>
       <c r="E18" t="n">
-        <v>77.15000000000001</v>
+        <v>81.06</v>
       </c>
       <c r="F18" t="n">
-        <v>2000</v>
+        <v>46167.7839</v>
       </c>
       <c r="G18" t="n">
-        <v>-147572.0359255329</v>
+        <v>51761.46875569554</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1072,28 +1113,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>77.16</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>77.15000000000001</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>77.16</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>77.15000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>34625.1146</v>
       </c>
       <c r="G19" t="n">
-        <v>-147572.0359255329</v>
+        <v>86386.58335569553</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1111,28 +1153,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>77.15000000000001</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>77.15000000000001</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>77.15000000000001</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>77.15000000000001</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>10308.7026</v>
+        <v>1067.5187</v>
       </c>
       <c r="G20" t="n">
-        <v>-147572.0359255329</v>
+        <v>86386.58335569553</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1150,28 +1193,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>77.78</v>
+        <v>81.25</v>
       </c>
       <c r="C21" t="n">
-        <v>77.78</v>
+        <v>81.5</v>
       </c>
       <c r="D21" t="n">
-        <v>77.78</v>
+        <v>81.5</v>
       </c>
       <c r="E21" t="n">
-        <v>77.78</v>
+        <v>81.25</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>11267.094</v>
       </c>
       <c r="G21" t="n">
-        <v>-147522.0359255329</v>
+        <v>97653.67735569553</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1189,28 +1233,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>77.22</v>
+        <v>82</v>
       </c>
       <c r="C22" t="n">
-        <v>77.22</v>
+        <v>82.81</v>
       </c>
       <c r="D22" t="n">
-        <v>77.22</v>
+        <v>82.81</v>
       </c>
       <c r="E22" t="n">
-        <v>77.22</v>
+        <v>82</v>
       </c>
       <c r="F22" t="n">
-        <v>13000</v>
+        <v>21738.93338254546</v>
       </c>
       <c r="G22" t="n">
-        <v>-160522.0359255329</v>
+        <v>119392.610738241</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1228,28 +1273,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>77.69</v>
+        <v>82.81</v>
       </c>
       <c r="C23" t="n">
-        <v>77.69</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>77.69</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>77.69</v>
+        <v>82.81</v>
       </c>
       <c r="F23" t="n">
-        <v>5396.8707</v>
+        <v>12647.00411745455</v>
       </c>
       <c r="G23" t="n">
-        <v>-155125.1652255329</v>
+        <v>132039.6148556955</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1267,28 +1313,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>77.69</v>
+        <v>83.95</v>
       </c>
       <c r="C24" t="n">
-        <v>77.69</v>
+        <v>84.8</v>
       </c>
       <c r="D24" t="n">
-        <v>77.69</v>
+        <v>84.8</v>
       </c>
       <c r="E24" t="n">
-        <v>77.69</v>
+        <v>83.95</v>
       </c>
       <c r="F24" t="n">
-        <v>632.5177</v>
+        <v>14241.1387</v>
       </c>
       <c r="G24" t="n">
-        <v>-155125.1652255329</v>
+        <v>146280.7535556956</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1306,28 +1353,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>77.48999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="C25" t="n">
-        <v>77.2</v>
+        <v>85</v>
       </c>
       <c r="D25" t="n">
-        <v>77.48999999999999</v>
+        <v>85</v>
       </c>
       <c r="E25" t="n">
-        <v>77.2</v>
+        <v>84.7</v>
       </c>
       <c r="F25" t="n">
-        <v>65513.9285</v>
+        <v>39763.1169</v>
       </c>
       <c r="G25" t="n">
-        <v>-220639.0937255329</v>
+        <v>186043.8704556955</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1345,28 +1393,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>76.18000000000001</v>
+        <v>85</v>
       </c>
       <c r="C26" t="n">
-        <v>76.18000000000001</v>
+        <v>85</v>
       </c>
       <c r="D26" t="n">
-        <v>76.18000000000001</v>
+        <v>85.78</v>
       </c>
       <c r="E26" t="n">
-        <v>76.18000000000001</v>
+        <v>85</v>
       </c>
       <c r="F26" t="n">
-        <v>1435.2462</v>
+        <v>78137.4859</v>
       </c>
       <c r="G26" t="n">
-        <v>-222074.3399255329</v>
+        <v>186043.8704556955</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1384,28 +1433,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>76.18000000000001</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>76.18000000000001</v>
+        <v>84</v>
       </c>
       <c r="D27" t="n">
-        <v>76.18000000000001</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>76.18000000000001</v>
+        <v>84</v>
       </c>
       <c r="F27" t="n">
-        <v>2030.2029</v>
+        <v>5669.3928</v>
       </c>
       <c r="G27" t="n">
-        <v>-222074.3399255329</v>
+        <v>180374.4776556955</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1423,28 +1473,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>76.18000000000001</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>76.18000000000001</v>
+        <v>84</v>
       </c>
       <c r="D28" t="n">
-        <v>76.18000000000001</v>
+        <v>84</v>
       </c>
       <c r="E28" t="n">
-        <v>76.18000000000001</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>6431.4954</v>
+        <v>21573.6391</v>
       </c>
       <c r="G28" t="n">
-        <v>-222074.3399255329</v>
+        <v>180374.4776556955</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1462,28 +1513,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>76.18000000000001</v>
+        <v>84</v>
       </c>
       <c r="C29" t="n">
-        <v>76.18000000000001</v>
+        <v>84</v>
       </c>
       <c r="D29" t="n">
-        <v>76.18000000000001</v>
+        <v>84</v>
       </c>
       <c r="E29" t="n">
-        <v>76.18000000000001</v>
+        <v>84</v>
       </c>
       <c r="F29" t="n">
-        <v>13659.235</v>
+        <v>16239.3372</v>
       </c>
       <c r="G29" t="n">
-        <v>-222074.3399255329</v>
+        <v>180374.4776556955</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1501,28 +1553,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>77.67</v>
+        <v>83.23</v>
       </c>
       <c r="C30" t="n">
-        <v>77.67</v>
+        <v>83</v>
       </c>
       <c r="D30" t="n">
-        <v>77.67</v>
+        <v>83.23</v>
       </c>
       <c r="E30" t="n">
-        <v>77.67</v>
+        <v>83</v>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>51522.0801</v>
       </c>
       <c r="G30" t="n">
-        <v>-222024.3399255329</v>
+        <v>128852.3975556956</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1540,28 +1593,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>77.44</v>
+        <v>83</v>
       </c>
       <c r="C31" t="n">
-        <v>77.3</v>
+        <v>85.53</v>
       </c>
       <c r="D31" t="n">
-        <v>77.44</v>
+        <v>85.53</v>
       </c>
       <c r="E31" t="n">
-        <v>77.3</v>
+        <v>83</v>
       </c>
       <c r="F31" t="n">
-        <v>50177.6422</v>
+        <v>101859.7627</v>
       </c>
       <c r="G31" t="n">
-        <v>-272201.9821255329</v>
+        <v>230712.1602556956</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1579,28 +1633,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>77.56999999999999</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>77.56999999999999</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>77.56999999999999</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>77.56999999999999</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>38841.0644</v>
       </c>
       <c r="G32" t="n">
-        <v>-272191.9821255329</v>
+        <v>191871.0958556956</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1618,28 +1673,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>77.56999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>77.56999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="D33" t="n">
-        <v>77.56999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>77.56999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="F33" t="n">
-        <v>8293.752399999999</v>
+        <v>45351.9508</v>
       </c>
       <c r="G33" t="n">
-        <v>-272191.9821255329</v>
+        <v>146519.1450556956</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1657,28 +1713,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>76.3</v>
+        <v>81.8</v>
       </c>
       <c r="C34" t="n">
-        <v>76.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>76.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>76.3</v>
+        <v>81.8</v>
       </c>
       <c r="F34" t="n">
-        <v>3151.8896</v>
+        <v>4001.8583</v>
       </c>
       <c r="G34" t="n">
-        <v>-275343.8717255329</v>
+        <v>150521.0033556956</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1696,28 +1753,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>76.3</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>76.3</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>76.3</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>76.3</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>4329.6842</v>
+        <v>1756.8662</v>
       </c>
       <c r="G35" t="n">
-        <v>-275343.8717255329</v>
+        <v>152277.8695556956</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1735,28 +1793,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>77.56999999999999</v>
+        <v>82.69</v>
       </c>
       <c r="C36" t="n">
-        <v>77.56999999999999</v>
+        <v>82.69</v>
       </c>
       <c r="D36" t="n">
-        <v>77.56999999999999</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>77.56999999999999</v>
+        <v>82.69</v>
       </c>
       <c r="F36" t="n">
-        <v>2426.2476</v>
+        <v>33245.1999</v>
       </c>
       <c r="G36" t="n">
-        <v>-272917.6241255329</v>
+        <v>185523.0694556956</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1774,28 +1833,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>77.67</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>77.67</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>77.67</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>77.67</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>3926.2564</v>
+        <v>3793.8974</v>
       </c>
       <c r="G37" t="n">
-        <v>-268991.3677255329</v>
+        <v>189316.9668556956</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1813,28 +1873,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.77</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>77.77</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>77.77</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>77.77</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>797.1457</v>
+        <v>11644.6167</v>
       </c>
       <c r="G38" t="n">
-        <v>-268194.2220255329</v>
+        <v>189316.9668556956</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1852,28 +1913,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.79000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="C39" t="n">
-        <v>77.92</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>77.92</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>77.79000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="F39" t="n">
-        <v>752.3869999999999</v>
+        <v>3597.1224</v>
       </c>
       <c r="G39" t="n">
-        <v>-267441.8350255329</v>
+        <v>189316.9668556956</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1891,28 +1953,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>77.56999999999999</v>
+        <v>82.37</v>
       </c>
       <c r="C40" t="n">
-        <v>77.56999999999999</v>
+        <v>82.25</v>
       </c>
       <c r="D40" t="n">
-        <v>77.56999999999999</v>
+        <v>82.37</v>
       </c>
       <c r="E40" t="n">
-        <v>77.56999999999999</v>
+        <v>82.25</v>
       </c>
       <c r="F40" t="n">
-        <v>6922.3357</v>
+        <v>8265.0479</v>
       </c>
       <c r="G40" t="n">
-        <v>-274364.1707255329</v>
+        <v>181051.9189556956</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1930,28 +1993,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>77.61</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>77.58</v>
+        <v>83.5</v>
       </c>
       <c r="D41" t="n">
-        <v>77.61</v>
+        <v>83.5</v>
       </c>
       <c r="E41" t="n">
-        <v>77.58</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>77024.5971</v>
+        <v>13654.8076</v>
       </c>
       <c r="G41" t="n">
-        <v>-197339.5736255329</v>
+        <v>194706.7265556956</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1969,28 +2033,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>77.81999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="C42" t="n">
-        <v>77.81999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>77.81999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>77.81999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>3758.0553</v>
       </c>
       <c r="G42" t="n">
-        <v>-197329.5736255329</v>
+        <v>198464.7818556956</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2008,28 +2073,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>77.81999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="C43" t="n">
-        <v>77.81999999999999</v>
+        <v>82.25</v>
       </c>
       <c r="D43" t="n">
-        <v>77.81999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="E43" t="n">
-        <v>77.81999999999999</v>
+        <v>82.25</v>
       </c>
       <c r="F43" t="n">
-        <v>7</v>
+        <v>10643.1519</v>
       </c>
       <c r="G43" t="n">
-        <v>-197329.5736255329</v>
+        <v>187821.6299556956</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2047,28 +2113,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>77.92</v>
+        <v>82.25</v>
       </c>
       <c r="C44" t="n">
-        <v>77.92</v>
+        <v>83.3</v>
       </c>
       <c r="D44" t="n">
-        <v>77.92</v>
+        <v>83.3</v>
       </c>
       <c r="E44" t="n">
-        <v>77.92</v>
+        <v>82.25</v>
       </c>
       <c r="F44" t="n">
-        <v>440.4539</v>
+        <v>75807.2801</v>
       </c>
       <c r="G44" t="n">
-        <v>-196889.1197255329</v>
+        <v>263628.9100556956</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2086,28 +2153,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>77.92</v>
+        <v>82.31</v>
       </c>
       <c r="C45" t="n">
-        <v>79</v>
+        <v>82.3</v>
       </c>
       <c r="D45" t="n">
-        <v>79</v>
+        <v>82.31</v>
       </c>
       <c r="E45" t="n">
-        <v>77.92</v>
+        <v>82.3</v>
       </c>
       <c r="F45" t="n">
-        <v>14848.9597</v>
+        <v>15541.1866</v>
       </c>
       <c r="G45" t="n">
-        <v>-182040.1600255329</v>
+        <v>248087.7234556956</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2125,28 +2193,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>79</v>
+        <v>82.3</v>
       </c>
       <c r="C46" t="n">
-        <v>79.04000000000001</v>
+        <v>82.98</v>
       </c>
       <c r="D46" t="n">
-        <v>79.04000000000001</v>
+        <v>82.98</v>
       </c>
       <c r="E46" t="n">
-        <v>77.8</v>
+        <v>82.3</v>
       </c>
       <c r="F46" t="n">
-        <v>56794.1091</v>
+        <v>64754.6617</v>
       </c>
       <c r="G46" t="n">
-        <v>-125246.0509255329</v>
+        <v>312842.3851556955</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2164,28 +2233,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>79</v>
+        <v>82.67</v>
       </c>
       <c r="C47" t="n">
-        <v>79</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>79</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>79</v>
+        <v>82.67</v>
       </c>
       <c r="F47" t="n">
-        <v>9360.6821</v>
+        <v>54100.4155</v>
       </c>
       <c r="G47" t="n">
-        <v>-134606.7330255329</v>
+        <v>366942.8006556956</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2203,28 +2273,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>79</v>
+        <v>82.3</v>
       </c>
       <c r="C48" t="n">
-        <v>79</v>
+        <v>82.3</v>
       </c>
       <c r="D48" t="n">
-        <v>79</v>
+        <v>82.3</v>
       </c>
       <c r="E48" t="n">
-        <v>79</v>
+        <v>82.3</v>
       </c>
       <c r="F48" t="n">
-        <v>462.1162</v>
+        <v>11102.8264</v>
       </c>
       <c r="G48" t="n">
-        <v>-134606.7330255329</v>
+        <v>355839.9742556955</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2242,28 +2313,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>79</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>80.19</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>80.19</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>79</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>107223.2109</v>
+        <v>5421.6894</v>
       </c>
       <c r="G49" t="n">
-        <v>-27383.52212553291</v>
+        <v>361261.6636556955</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2281,28 +2353,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>78.63</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>78.62</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>78.63</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>78.62</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>48344.1396</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>-75727.6617255329</v>
+        <v>361161.6636556955</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2320,28 +2393,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>79.89</v>
+        <v>82.33</v>
       </c>
       <c r="C51" t="n">
-        <v>80.23</v>
+        <v>82.33</v>
       </c>
       <c r="D51" t="n">
-        <v>80.23</v>
+        <v>82.33</v>
       </c>
       <c r="E51" t="n">
-        <v>79.89</v>
+        <v>82.33</v>
       </c>
       <c r="F51" t="n">
-        <v>10152.66312631185</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>-65574.99859922106</v>
+        <v>361261.6636556955</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2359,28 +2433,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>80.79000000000001</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>80.79000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="D52" t="n">
-        <v>80.79000000000001</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>80.79000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>463.2864</v>
       </c>
       <c r="G52" t="n">
-        <v>-65563.99859922106</v>
+        <v>360798.3772556955</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2398,28 +2473,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>79.55</v>
+        <v>82.2</v>
       </c>
       <c r="C53" t="n">
-        <v>79.55</v>
+        <v>82.2</v>
       </c>
       <c r="D53" t="n">
-        <v>79.55</v>
+        <v>82.2</v>
       </c>
       <c r="E53" t="n">
-        <v>79.55</v>
+        <v>82.2</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>3299.9563</v>
       </c>
       <c r="G53" t="n">
-        <v>-65574.99859922106</v>
+        <v>360798.3772556955</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2437,28 +2513,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>79.65000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C54" t="n">
-        <v>79.55</v>
+        <v>82.2</v>
       </c>
       <c r="D54" t="n">
-        <v>79.65000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="E54" t="n">
-        <v>79.55</v>
+        <v>82.2</v>
       </c>
       <c r="F54" t="n">
-        <v>9542.705599999999</v>
+        <v>5876</v>
       </c>
       <c r="G54" t="n">
-        <v>-65574.99859922106</v>
+        <v>360798.3772556955</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2476,28 +2553,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>80.20999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="C55" t="n">
-        <v>80.20999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="D55" t="n">
-        <v>80.20999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="E55" t="n">
-        <v>80.20999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="F55" t="n">
-        <v>4587.8822</v>
+        <v>2012.9604</v>
       </c>
       <c r="G55" t="n">
-        <v>-60987.11639922106</v>
+        <v>360798.3772556955</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2515,28 +2593,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>80.33</v>
+        <v>81.42</v>
       </c>
       <c r="C56" t="n">
-        <v>80.34</v>
+        <v>81.42</v>
       </c>
       <c r="D56" t="n">
-        <v>80.34</v>
+        <v>81.42</v>
       </c>
       <c r="E56" t="n">
-        <v>80.33</v>
+        <v>81.42</v>
       </c>
       <c r="F56" t="n">
-        <v>12428.5407549166</v>
+        <v>5894.633</v>
       </c>
       <c r="G56" t="n">
-        <v>-48558.57564430446</v>
+        <v>354903.7442556956</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2554,28 +2633,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>81</v>
+        <v>81.19</v>
       </c>
       <c r="C57" t="n">
-        <v>81</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="E57" t="n">
-        <v>81</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>5638.4485</v>
+        <v>8819.8488</v>
       </c>
       <c r="G57" t="n">
-        <v>-42920.12714430446</v>
+        <v>346083.8954556956</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2593,28 +2673,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>81.06</v>
+        <v>81.31</v>
       </c>
       <c r="C58" t="n">
-        <v>81.06999999999999</v>
+        <v>81.31</v>
       </c>
       <c r="D58" t="n">
-        <v>81.17</v>
+        <v>81.31</v>
       </c>
       <c r="E58" t="n">
-        <v>81.06</v>
+        <v>81.31</v>
       </c>
       <c r="F58" t="n">
-        <v>50137.4453</v>
+        <v>1550</v>
       </c>
       <c r="G58" t="n">
-        <v>7217.318155695539</v>
+        <v>347633.8954556956</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2632,28 +2713,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>81</v>
+        <v>81.69</v>
       </c>
       <c r="C59" t="n">
-        <v>81</v>
+        <v>81.69</v>
       </c>
       <c r="D59" t="n">
-        <v>81</v>
+        <v>81.69</v>
       </c>
       <c r="E59" t="n">
-        <v>81</v>
+        <v>81.69</v>
       </c>
       <c r="F59" t="n">
-        <v>1623.6333</v>
+        <v>1469</v>
       </c>
       <c r="G59" t="n">
-        <v>5593.684855695539</v>
+        <v>349102.8954556956</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2671,28 +2753,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>81.06</v>
+        <v>81.5</v>
       </c>
       <c r="C60" t="n">
-        <v>81.17</v>
+        <v>81.5</v>
       </c>
       <c r="D60" t="n">
-        <v>81.17</v>
+        <v>81.5</v>
       </c>
       <c r="E60" t="n">
-        <v>81.06</v>
+        <v>81.5</v>
       </c>
       <c r="F60" t="n">
-        <v>46167.7839</v>
+        <v>1190.0186</v>
       </c>
       <c r="G60" t="n">
-        <v>51761.46875569554</v>
+        <v>347912.8768556956</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2710,28 +2793,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>81.18000000000001</v>
+        <v>81.59</v>
       </c>
       <c r="C61" t="n">
-        <v>81.18000000000001</v>
+        <v>81.59</v>
       </c>
       <c r="D61" t="n">
-        <v>81.18000000000001</v>
+        <v>81.59</v>
       </c>
       <c r="E61" t="n">
-        <v>81.09999999999999</v>
+        <v>81.59</v>
       </c>
       <c r="F61" t="n">
-        <v>34625.1146</v>
+        <v>636</v>
       </c>
       <c r="G61" t="n">
-        <v>86386.58335569553</v>
+        <v>348548.8768556956</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2749,28 +2833,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>81.18000000000001</v>
+        <v>82.28</v>
       </c>
       <c r="C62" t="n">
-        <v>81.18000000000001</v>
+        <v>82.19</v>
       </c>
       <c r="D62" t="n">
-        <v>81.18000000000001</v>
+        <v>82.28</v>
       </c>
       <c r="E62" t="n">
-        <v>81.18000000000001</v>
+        <v>82.19</v>
       </c>
       <c r="F62" t="n">
-        <v>1067.5187</v>
+        <v>3383.5756</v>
       </c>
       <c r="G62" t="n">
-        <v>86386.58335569553</v>
+        <v>351932.4524556955</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2788,28 +2873,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>81.25</v>
+        <v>81.5</v>
       </c>
       <c r="C63" t="n">
-        <v>81.5</v>
+        <v>80.7</v>
       </c>
       <c r="D63" t="n">
         <v>81.5</v>
       </c>
       <c r="E63" t="n">
-        <v>81.25</v>
+        <v>80.7</v>
       </c>
       <c r="F63" t="n">
-        <v>11267.094</v>
+        <v>31378.9931</v>
       </c>
       <c r="G63" t="n">
-        <v>97653.67735569553</v>
+        <v>320553.4593556955</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2827,28 +2913,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>82</v>
+        <v>80.7</v>
       </c>
       <c r="C64" t="n">
-        <v>82.81</v>
+        <v>81.86</v>
       </c>
       <c r="D64" t="n">
-        <v>82.81</v>
+        <v>81.86</v>
       </c>
       <c r="E64" t="n">
-        <v>82</v>
+        <v>80.7</v>
       </c>
       <c r="F64" t="n">
-        <v>21738.93338254546</v>
+        <v>413.5043</v>
       </c>
       <c r="G64" t="n">
-        <v>119392.610738241</v>
+        <v>320966.9636556955</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2866,28 +2953,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>82.81</v>
+        <v>81.28</v>
       </c>
       <c r="C65" t="n">
-        <v>83.84999999999999</v>
+        <v>81.39</v>
       </c>
       <c r="D65" t="n">
-        <v>83.84999999999999</v>
+        <v>81.39</v>
       </c>
       <c r="E65" t="n">
-        <v>82.81</v>
+        <v>81.28</v>
       </c>
       <c r="F65" t="n">
-        <v>12647.00411745455</v>
+        <v>13608.418</v>
       </c>
       <c r="G65" t="n">
-        <v>132039.6148556955</v>
+        <v>307358.5456556955</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2905,28 +2993,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>83.95</v>
+        <v>81.5</v>
       </c>
       <c r="C66" t="n">
-        <v>84.8</v>
+        <v>81.5</v>
       </c>
       <c r="D66" t="n">
-        <v>84.8</v>
+        <v>81.5</v>
       </c>
       <c r="E66" t="n">
-        <v>83.95</v>
+        <v>81.5</v>
       </c>
       <c r="F66" t="n">
-        <v>14241.1387</v>
+        <v>13629.5986</v>
       </c>
       <c r="G66" t="n">
-        <v>146280.7535556956</v>
+        <v>320988.1442556955</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2944,28 +3033,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>84.7</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>85</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>85</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>84.7</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>39763.1169</v>
+        <v>1469</v>
       </c>
       <c r="G67" t="n">
-        <v>186043.8704556955</v>
+        <v>319519.1442556955</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2983,28 +3073,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>85</v>
+        <v>81.3</v>
       </c>
       <c r="C68" t="n">
-        <v>85</v>
+        <v>81.3</v>
       </c>
       <c r="D68" t="n">
-        <v>85.78</v>
+        <v>81.3</v>
       </c>
       <c r="E68" t="n">
-        <v>85</v>
+        <v>81.3</v>
       </c>
       <c r="F68" t="n">
-        <v>78137.4859</v>
+        <v>21568</v>
       </c>
       <c r="G68" t="n">
-        <v>186043.8704556955</v>
+        <v>297951.1442556955</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3022,28 +3113,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>85.79000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="C69" t="n">
-        <v>84</v>
+        <v>81.3</v>
       </c>
       <c r="D69" t="n">
-        <v>85.79000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="E69" t="n">
-        <v>84</v>
+        <v>81.3</v>
       </c>
       <c r="F69" t="n">
-        <v>5669.3928</v>
+        <v>1768</v>
       </c>
       <c r="G69" t="n">
-        <v>180374.4776556955</v>
+        <v>297951.1442556955</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3061,28 +3153,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>83.06999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="C70" t="n">
-        <v>84</v>
+        <v>80.61</v>
       </c>
       <c r="D70" t="n">
-        <v>84</v>
+        <v>81.3</v>
       </c>
       <c r="E70" t="n">
-        <v>83.06999999999999</v>
+        <v>80.61</v>
       </c>
       <c r="F70" t="n">
-        <v>21573.6391</v>
+        <v>2819.8822</v>
       </c>
       <c r="G70" t="n">
-        <v>180374.4776556955</v>
+        <v>295131.2620556955</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3100,28 +3193,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>84</v>
+        <v>80.83</v>
       </c>
       <c r="C71" t="n">
-        <v>84</v>
+        <v>80.83</v>
       </c>
       <c r="D71" t="n">
-        <v>84</v>
+        <v>80.83</v>
       </c>
       <c r="E71" t="n">
-        <v>84</v>
+        <v>80.83</v>
       </c>
       <c r="F71" t="n">
-        <v>16239.3372</v>
+        <v>6565.206</v>
       </c>
       <c r="G71" t="n">
-        <v>180374.4776556955</v>
+        <v>301696.4680556955</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3139,28 +3233,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>83.23</v>
+        <v>80.62</v>
       </c>
       <c r="C72" t="n">
-        <v>83</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>83.23</v>
+        <v>80.62</v>
       </c>
       <c r="E72" t="n">
-        <v>83</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>51522.0801</v>
+        <v>40343.2832</v>
       </c>
       <c r="G72" t="n">
-        <v>128852.3975556956</v>
+        <v>261353.1848556955</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3178,28 +3273,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>83</v>
+        <v>79.81</v>
       </c>
       <c r="C73" t="n">
-        <v>85.53</v>
+        <v>78.73</v>
       </c>
       <c r="D73" t="n">
-        <v>85.53</v>
+        <v>79.81</v>
       </c>
       <c r="E73" t="n">
-        <v>83</v>
+        <v>78.73</v>
       </c>
       <c r="F73" t="n">
-        <v>101859.7627</v>
+        <v>41454.4221</v>
       </c>
       <c r="G73" t="n">
-        <v>230712.1602556956</v>
+        <v>219898.7627556955</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3217,28 +3313,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>83.04000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="C74" t="n">
-        <v>83.04000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="D74" t="n">
-        <v>84.04000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="E74" t="n">
-        <v>83.04000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="F74" t="n">
-        <v>38841.0644</v>
+        <v>163.8079</v>
       </c>
       <c r="G74" t="n">
-        <v>191871.0958556956</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3256,28 +3353,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>82.90000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="C75" t="n">
-        <v>81.7</v>
+        <v>79.7</v>
       </c>
       <c r="D75" t="n">
-        <v>82.90000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="E75" t="n">
-        <v>81.7</v>
+        <v>79.7</v>
       </c>
       <c r="F75" t="n">
-        <v>45351.9508</v>
+        <v>441.9847</v>
       </c>
       <c r="G75" t="n">
-        <v>146519.1450556956</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3295,28 +3393,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>81.8</v>
+        <v>79.7</v>
       </c>
       <c r="C76" t="n">
-        <v>82.09999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="D76" t="n">
-        <v>82.09999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="E76" t="n">
-        <v>81.8</v>
+        <v>79.7</v>
       </c>
       <c r="F76" t="n">
-        <v>4001.8583</v>
+        <v>33956.3023</v>
       </c>
       <c r="G76" t="n">
-        <v>150521.0033556956</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3334,28 +3433,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>82.20999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="C77" t="n">
-        <v>82.20999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="D77" t="n">
-        <v>82.20999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="E77" t="n">
-        <v>82.20999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="F77" t="n">
-        <v>1756.8662</v>
+        <v>6070.7258</v>
       </c>
       <c r="G77" t="n">
-        <v>152277.8695556956</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3373,28 +3473,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>82.69</v>
+        <v>79.7</v>
       </c>
       <c r="C78" t="n">
-        <v>82.69</v>
+        <v>79.7</v>
       </c>
       <c r="D78" t="n">
-        <v>82.79000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="E78" t="n">
-        <v>82.69</v>
+        <v>79.7</v>
       </c>
       <c r="F78" t="n">
-        <v>33245.1999</v>
+        <v>713.6952</v>
       </c>
       <c r="G78" t="n">
-        <v>185523.0694556956</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3412,28 +3513,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>83.40000000000001</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>83.40000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="D79" t="n">
-        <v>83.40000000000001</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>83.40000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="F79" t="n">
-        <v>3793.8974</v>
+        <v>2000</v>
       </c>
       <c r="G79" t="n">
-        <v>189316.9668556956</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3451,28 +3553,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>83.40000000000001</v>
+        <v>80.42</v>
       </c>
       <c r="C80" t="n">
-        <v>83.40000000000001</v>
+        <v>80.42</v>
       </c>
       <c r="D80" t="n">
-        <v>83.40000000000001</v>
+        <v>80.42</v>
       </c>
       <c r="E80" t="n">
-        <v>83.40000000000001</v>
+        <v>80.42</v>
       </c>
       <c r="F80" t="n">
-        <v>11644.6167</v>
+        <v>376.0274</v>
       </c>
       <c r="G80" t="n">
-        <v>189316.9668556956</v>
+        <v>220438.5980556955</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3490,28 +3593,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>83.3</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>83.40000000000001</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>83.40000000000001</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>83.3</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>3597.1224</v>
+        <v>119.3261</v>
       </c>
       <c r="G81" t="n">
-        <v>189316.9668556956</v>
+        <v>220557.9241556955</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3529,28 +3633,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>82.37</v>
+        <v>80.42</v>
       </c>
       <c r="C82" t="n">
-        <v>82.25</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>82.37</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>82.25</v>
+        <v>80.42</v>
       </c>
       <c r="F82" t="n">
-        <v>8265.0479</v>
+        <v>621.4373000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>181051.9189556956</v>
+        <v>221179.3614556955</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3568,28 +3673,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>83.18000000000001</v>
+        <v>81.38</v>
       </c>
       <c r="C83" t="n">
-        <v>83.5</v>
+        <v>81.38</v>
       </c>
       <c r="D83" t="n">
-        <v>83.5</v>
+        <v>81.38</v>
       </c>
       <c r="E83" t="n">
-        <v>83.18000000000001</v>
+        <v>81.38</v>
       </c>
       <c r="F83" t="n">
-        <v>13654.8076</v>
+        <v>1494.8151</v>
       </c>
       <c r="G83" t="n">
-        <v>194706.7265556956</v>
+        <v>222674.1765556955</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3607,28 +3713,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>83.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>84.09999999999999</v>
+        <v>81.67</v>
       </c>
       <c r="D84" t="n">
-        <v>84.09999999999999</v>
+        <v>81.67</v>
       </c>
       <c r="E84" t="n">
-        <v>83.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>3758.0553</v>
+        <v>22916.8218</v>
       </c>
       <c r="G84" t="n">
-        <v>198464.7818556956</v>
+        <v>245590.9983556955</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3646,28 +3753,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>82.5</v>
+        <v>81.77</v>
       </c>
       <c r="C85" t="n">
-        <v>82.25</v>
+        <v>81.67</v>
       </c>
       <c r="D85" t="n">
-        <v>82.5</v>
+        <v>81.77</v>
       </c>
       <c r="E85" t="n">
-        <v>82.25</v>
+        <v>81.67</v>
       </c>
       <c r="F85" t="n">
-        <v>10643.1519</v>
+        <v>1243.6952</v>
       </c>
       <c r="G85" t="n">
-        <v>187821.6299556956</v>
+        <v>245590.9983556955</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3685,28 +3793,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>82.25</v>
+        <v>81.67</v>
       </c>
       <c r="C86" t="n">
-        <v>83.3</v>
+        <v>81.67</v>
       </c>
       <c r="D86" t="n">
-        <v>83.3</v>
+        <v>81.67</v>
       </c>
       <c r="E86" t="n">
-        <v>82.25</v>
+        <v>81.67</v>
       </c>
       <c r="F86" t="n">
-        <v>75807.2801</v>
+        <v>25599.8182</v>
       </c>
       <c r="G86" t="n">
-        <v>263628.9100556956</v>
+        <v>245590.9983556955</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3724,28 +3833,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>82.31</v>
+        <v>81.67</v>
       </c>
       <c r="C87" t="n">
-        <v>82.3</v>
+        <v>81.67</v>
       </c>
       <c r="D87" t="n">
-        <v>82.31</v>
+        <v>81.67</v>
       </c>
       <c r="E87" t="n">
-        <v>82.3</v>
+        <v>81.67</v>
       </c>
       <c r="F87" t="n">
-        <v>15541.1866</v>
+        <v>6692.1496</v>
       </c>
       <c r="G87" t="n">
-        <v>248087.7234556956</v>
+        <v>245590.9983556955</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3763,28 +3873,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>82.3</v>
+        <v>81.94</v>
       </c>
       <c r="C88" t="n">
-        <v>82.98</v>
+        <v>81.94</v>
       </c>
       <c r="D88" t="n">
-        <v>82.98</v>
+        <v>81.94</v>
       </c>
       <c r="E88" t="n">
-        <v>82.3</v>
+        <v>81.94</v>
       </c>
       <c r="F88" t="n">
-        <v>64754.6617</v>
+        <v>5633.547</v>
       </c>
       <c r="G88" t="n">
-        <v>312842.3851556955</v>
+        <v>251224.5453556955</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3802,28 +3913,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>82.67</v>
+        <v>82.12</v>
       </c>
       <c r="C89" t="n">
-        <v>82.98999999999999</v>
+        <v>82.12</v>
       </c>
       <c r="D89" t="n">
-        <v>82.98999999999999</v>
+        <v>82.12</v>
       </c>
       <c r="E89" t="n">
-        <v>82.67</v>
+        <v>82.12</v>
       </c>
       <c r="F89" t="n">
-        <v>54100.4155</v>
+        <v>1527.057</v>
       </c>
       <c r="G89" t="n">
-        <v>366942.8006556956</v>
+        <v>252751.6023556955</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3841,28 +3953,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="C90" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="D90" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="E90" t="n">
-        <v>82.3</v>
+        <v>82</v>
       </c>
       <c r="F90" t="n">
-        <v>11102.8264</v>
+        <v>1648</v>
       </c>
       <c r="G90" t="n">
-        <v>355839.9742556955</v>
+        <v>251103.6023556955</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3880,28 +3993,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>82.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="C91" t="n">
-        <v>82.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="D91" t="n">
-        <v>82.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="E91" t="n">
-        <v>82.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="F91" t="n">
-        <v>5421.6894</v>
+        <v>2816.7735</v>
       </c>
       <c r="G91" t="n">
-        <v>361261.6636556955</v>
+        <v>251103.6023556955</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3919,28 +4033,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>82.31999999999999</v>
+        <v>82</v>
       </c>
       <c r="C92" t="n">
-        <v>82.31999999999999</v>
+        <v>82</v>
       </c>
       <c r="D92" t="n">
-        <v>82.31999999999999</v>
+        <v>82</v>
       </c>
       <c r="E92" t="n">
-        <v>82.31999999999999</v>
+        <v>82</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>282.5588</v>
       </c>
       <c r="G92" t="n">
-        <v>361161.6636556955</v>
+        <v>251103.6023556955</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3958,28 +4073,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>82.33</v>
+        <v>81.67</v>
       </c>
       <c r="C93" t="n">
-        <v>82.33</v>
+        <v>81.67</v>
       </c>
       <c r="D93" t="n">
-        <v>82.33</v>
+        <v>81.67</v>
       </c>
       <c r="E93" t="n">
-        <v>82.33</v>
+        <v>81.67</v>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>5350.988</v>
       </c>
       <c r="G93" t="n">
-        <v>361261.6636556955</v>
+        <v>245752.6143556955</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3997,28 +4113,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>82.31999999999999</v>
+        <v>82</v>
       </c>
       <c r="C94" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="D94" t="n">
-        <v>82.31999999999999</v>
+        <v>82</v>
       </c>
       <c r="E94" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="F94" t="n">
-        <v>463.2864</v>
+        <v>1259.7094</v>
       </c>
       <c r="G94" t="n">
-        <v>360798.3772556955</v>
+        <v>247012.3237556955</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4036,28 +4153,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="C95" t="n">
-        <v>82.2</v>
+        <v>82.23</v>
       </c>
       <c r="D95" t="n">
-        <v>82.2</v>
+        <v>82.23</v>
       </c>
       <c r="E95" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="F95" t="n">
-        <v>3299.9563</v>
+        <v>1644.6513</v>
       </c>
       <c r="G95" t="n">
-        <v>360798.3772556955</v>
+        <v>248656.9750556955</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4075,28 +4193,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>82.2</v>
+        <v>82.45</v>
       </c>
       <c r="C96" t="n">
-        <v>82.2</v>
+        <v>82.45</v>
       </c>
       <c r="D96" t="n">
-        <v>82.2</v>
+        <v>82.45</v>
       </c>
       <c r="E96" t="n">
-        <v>82.2</v>
+        <v>82.45</v>
       </c>
       <c r="F96" t="n">
-        <v>5876</v>
+        <v>820.3555</v>
       </c>
       <c r="G96" t="n">
-        <v>360798.3772556955</v>
+        <v>249477.3305556955</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4114,28 +4233,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>82.2</v>
+        <v>82.23</v>
       </c>
       <c r="C97" t="n">
-        <v>82.2</v>
+        <v>82.23</v>
       </c>
       <c r="D97" t="n">
-        <v>82.2</v>
+        <v>82.23</v>
       </c>
       <c r="E97" t="n">
-        <v>82.2</v>
+        <v>82.23</v>
       </c>
       <c r="F97" t="n">
-        <v>2012.9604</v>
+        <v>1469</v>
       </c>
       <c r="G97" t="n">
-        <v>360798.3772556955</v>
+        <v>248008.3305556955</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4153,28 +4273,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>81.42</v>
+        <v>82.23</v>
       </c>
       <c r="C98" t="n">
-        <v>81.42</v>
+        <v>82</v>
       </c>
       <c r="D98" t="n">
-        <v>81.42</v>
+        <v>82.23</v>
       </c>
       <c r="E98" t="n">
-        <v>81.42</v>
+        <v>82</v>
       </c>
       <c r="F98" t="n">
-        <v>5894.633</v>
+        <v>3720.7386</v>
       </c>
       <c r="G98" t="n">
-        <v>354903.7442556956</v>
+        <v>244287.5919556955</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4192,28 +4313,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>81.19</v>
+        <v>82</v>
       </c>
       <c r="C99" t="n">
-        <v>81.18000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="D99" t="n">
-        <v>81.2</v>
+        <v>82</v>
       </c>
       <c r="E99" t="n">
-        <v>81.18000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="F99" t="n">
-        <v>8819.8488</v>
+        <v>9756.869699999999</v>
       </c>
       <c r="G99" t="n">
-        <v>346083.8954556956</v>
+        <v>234530.7222556955</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4231,28 +4353,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>81.31</v>
+        <v>81.67</v>
       </c>
       <c r="C100" t="n">
-        <v>81.31</v>
+        <v>81.67</v>
       </c>
       <c r="D100" t="n">
-        <v>81.31</v>
+        <v>81.67</v>
       </c>
       <c r="E100" t="n">
-        <v>81.31</v>
+        <v>81.67</v>
       </c>
       <c r="F100" t="n">
-        <v>1550</v>
+        <v>7600</v>
       </c>
       <c r="G100" t="n">
-        <v>347633.8954556956</v>
+        <v>234530.7222556955</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4270,28 +4393,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>81.69</v>
+        <v>81.89</v>
       </c>
       <c r="C101" t="n">
-        <v>81.69</v>
+        <v>81.89</v>
       </c>
       <c r="D101" t="n">
-        <v>81.69</v>
+        <v>81.89</v>
       </c>
       <c r="E101" t="n">
-        <v>81.69</v>
+        <v>81.89</v>
       </c>
       <c r="F101" t="n">
-        <v>1469</v>
+        <v>3173.5164</v>
       </c>
       <c r="G101" t="n">
-        <v>349102.8954556956</v>
+        <v>237704.2386556955</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4309,28 +4433,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>81.5</v>
+        <v>81.78</v>
       </c>
       <c r="C102" t="n">
-        <v>81.5</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>81.5</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>81.5</v>
+        <v>81.78</v>
       </c>
       <c r="F102" t="n">
-        <v>1190.0186</v>
+        <v>8934.732400000001</v>
       </c>
       <c r="G102" t="n">
-        <v>347912.8768556956</v>
+        <v>228769.5062556955</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4348,28 +4473,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>81.59</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>81.59</v>
+        <v>81.67</v>
       </c>
       <c r="D103" t="n">
-        <v>81.59</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>81.59</v>
+        <v>81.67</v>
       </c>
       <c r="F103" t="n">
-        <v>636</v>
+        <v>3339.8888</v>
       </c>
       <c r="G103" t="n">
-        <v>348548.8768556956</v>
+        <v>225429.6174556955</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4387,28 +4513,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>82.28</v>
+        <v>82</v>
       </c>
       <c r="C104" t="n">
-        <v>82.19</v>
+        <v>82</v>
       </c>
       <c r="D104" t="n">
-        <v>82.28</v>
+        <v>82</v>
       </c>
       <c r="E104" t="n">
-        <v>82.19</v>
+        <v>82</v>
       </c>
       <c r="F104" t="n">
-        <v>3383.5756</v>
+        <v>1371.4388</v>
       </c>
       <c r="G104" t="n">
-        <v>351932.4524556955</v>
+        <v>226801.0562556955</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4426,28 +4553,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>81.5</v>
+        <v>81.98</v>
       </c>
       <c r="C105" t="n">
-        <v>80.7</v>
+        <v>81.88</v>
       </c>
       <c r="D105" t="n">
-        <v>81.5</v>
+        <v>81.98</v>
       </c>
       <c r="E105" t="n">
-        <v>80.7</v>
+        <v>81.88</v>
       </c>
       <c r="F105" t="n">
-        <v>31378.9931</v>
+        <v>44843.4137</v>
       </c>
       <c r="G105" t="n">
-        <v>320553.4593556955</v>
+        <v>181957.6425556955</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4465,28 +4593,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>80.7</v>
+        <v>81.7</v>
       </c>
       <c r="C106" t="n">
-        <v>81.86</v>
+        <v>81.67</v>
       </c>
       <c r="D106" t="n">
-        <v>81.86</v>
+        <v>81.7</v>
       </c>
       <c r="E106" t="n">
-        <v>80.7</v>
+        <v>81.67</v>
       </c>
       <c r="F106" t="n">
-        <v>413.5043</v>
+        <v>1592.9476</v>
       </c>
       <c r="G106" t="n">
-        <v>320966.9636556955</v>
+        <v>180364.6949556955</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4504,28 +4633,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>81.28</v>
+        <v>81.67</v>
       </c>
       <c r="C107" t="n">
-        <v>81.39</v>
+        <v>81.67</v>
       </c>
       <c r="D107" t="n">
-        <v>81.39</v>
+        <v>81.67</v>
       </c>
       <c r="E107" t="n">
-        <v>81.28</v>
+        <v>81.67</v>
       </c>
       <c r="F107" t="n">
-        <v>13608.418</v>
+        <v>2277.8975</v>
       </c>
       <c r="G107" t="n">
-        <v>307358.5456556955</v>
+        <v>180364.6949556955</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4543,28 +4673,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>81.5</v>
+        <v>81.2</v>
       </c>
       <c r="C108" t="n">
-        <v>81.5</v>
+        <v>81.2</v>
       </c>
       <c r="D108" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="E108" t="n">
-        <v>81.5</v>
+        <v>81.2</v>
       </c>
       <c r="F108" t="n">
-        <v>13629.5986</v>
+        <v>4407</v>
       </c>
       <c r="G108" t="n">
-        <v>320988.1442556955</v>
+        <v>175957.6949556955</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4582,28 +4713,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>81.48999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="C109" t="n">
-        <v>81.48999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="D109" t="n">
-        <v>81.48999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="E109" t="n">
-        <v>81.48999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="F109" t="n">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="G109" t="n">
-        <v>319519.1442556955</v>
+        <v>177419.6949556955</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4621,28 +4753,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="C110" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="D110" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="E110" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="F110" t="n">
-        <v>21568</v>
+        <v>25518.1748</v>
       </c>
       <c r="G110" t="n">
-        <v>297951.1442556955</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4660,28 +4793,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="C111" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="D111" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="E111" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="F111" t="n">
-        <v>1768</v>
+        <v>8212.713100000001</v>
       </c>
       <c r="G111" t="n">
-        <v>297951.1442556955</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4699,28 +4833,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="C112" t="n">
-        <v>80.61</v>
+        <v>81.2</v>
       </c>
       <c r="D112" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="E112" t="n">
-        <v>80.61</v>
+        <v>81.2</v>
       </c>
       <c r="F112" t="n">
-        <v>2819.8822</v>
+        <v>8520</v>
       </c>
       <c r="G112" t="n">
-        <v>295131.2620556955</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4738,28 +4873,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>80.83</v>
+        <v>81.2</v>
       </c>
       <c r="C113" t="n">
-        <v>80.83</v>
+        <v>81.2</v>
       </c>
       <c r="D113" t="n">
-        <v>80.83</v>
+        <v>81.2</v>
       </c>
       <c r="E113" t="n">
-        <v>80.83</v>
+        <v>81.2</v>
       </c>
       <c r="F113" t="n">
-        <v>6565.206</v>
+        <v>700.6964</v>
       </c>
       <c r="G113" t="n">
-        <v>301696.4680556955</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4777,28 +4913,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>80.62</v>
+        <v>81.2</v>
       </c>
       <c r="C114" t="n">
-        <v>79.51000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="D114" t="n">
-        <v>80.62</v>
+        <v>81.2</v>
       </c>
       <c r="E114" t="n">
-        <v>79.51000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="F114" t="n">
-        <v>40343.2832</v>
+        <v>2370.9841</v>
       </c>
       <c r="G114" t="n">
-        <v>261353.1848556955</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4816,28 +4953,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>79.81</v>
+        <v>80.7</v>
       </c>
       <c r="C115" t="n">
-        <v>78.73</v>
+        <v>80.7</v>
       </c>
       <c r="D115" t="n">
-        <v>79.81</v>
+        <v>80.7</v>
       </c>
       <c r="E115" t="n">
-        <v>78.73</v>
+        <v>80.7</v>
       </c>
       <c r="F115" t="n">
-        <v>41454.4221</v>
+        <v>3057.3171</v>
       </c>
       <c r="G115" t="n">
-        <v>219898.7627556955</v>
+        <v>148844.2030556955</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4855,28 +4993,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="C116" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="D116" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="E116" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="F116" t="n">
-        <v>163.8079</v>
+        <v>8276.4254</v>
       </c>
       <c r="G116" t="n">
-        <v>220062.5706556955</v>
+        <v>157120.6284556955</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4894,28 +5033,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>79.7</v>
+        <v>81.2</v>
       </c>
       <c r="C117" t="n">
-        <v>79.7</v>
+        <v>81.2</v>
       </c>
       <c r="D117" t="n">
-        <v>79.7</v>
+        <v>81.2</v>
       </c>
       <c r="E117" t="n">
-        <v>79.7</v>
+        <v>81.2</v>
       </c>
       <c r="F117" t="n">
-        <v>441.9847</v>
+        <v>642.3264</v>
       </c>
       <c r="G117" t="n">
-        <v>220062.5706556955</v>
+        <v>157762.9548556955</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4933,28 +5073,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>79.7</v>
+        <v>80.73</v>
       </c>
       <c r="C118" t="n">
-        <v>79.7</v>
+        <v>80.73</v>
       </c>
       <c r="D118" t="n">
-        <v>79.7</v>
+        <v>80.73</v>
       </c>
       <c r="E118" t="n">
-        <v>79.7</v>
+        <v>80.73</v>
       </c>
       <c r="F118" t="n">
-        <v>33956.3023</v>
+        <v>3453.8559</v>
       </c>
       <c r="G118" t="n">
-        <v>220062.5706556955</v>
+        <v>154309.0989556955</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4972,28 +5113,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>79.7</v>
+        <v>80.73</v>
       </c>
       <c r="C119" t="n">
-        <v>79.7</v>
+        <v>80.73</v>
       </c>
       <c r="D119" t="n">
-        <v>79.7</v>
+        <v>80.73</v>
       </c>
       <c r="E119" t="n">
-        <v>79.7</v>
+        <v>80.73</v>
       </c>
       <c r="F119" t="n">
-        <v>6070.7258</v>
+        <v>55640</v>
       </c>
       <c r="G119" t="n">
-        <v>220062.5706556955</v>
+        <v>154309.0989556955</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5011,28 +5153,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="C120" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="D120" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="E120" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="F120" t="n">
-        <v>713.6952</v>
+        <v>176.0795</v>
       </c>
       <c r="G120" t="n">
-        <v>220062.5706556955</v>
+        <v>154133.0194556955</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5050,28 +5193,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>79.70999999999999</v>
+        <v>80.72</v>
       </c>
       <c r="C121" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="D121" t="n">
-        <v>79.70999999999999</v>
+        <v>80.72</v>
       </c>
       <c r="E121" t="n">
-        <v>79.7</v>
+        <v>80.72</v>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>587.9391000000001</v>
       </c>
       <c r="G121" t="n">
-        <v>220062.5706556955</v>
+        <v>154133.0194556955</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5089,28 +5233,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>80.42</v>
+        <v>81</v>
       </c>
       <c r="C122" t="n">
-        <v>80.42</v>
+        <v>81</v>
       </c>
       <c r="D122" t="n">
-        <v>80.42</v>
+        <v>81</v>
       </c>
       <c r="E122" t="n">
-        <v>80.42</v>
+        <v>81</v>
       </c>
       <c r="F122" t="n">
-        <v>376.0274</v>
+        <v>9677.210800000001</v>
       </c>
       <c r="G122" t="n">
-        <v>220438.5980556955</v>
+        <v>163810.2302556955</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5128,28 +5273,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>80.68000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="C123" t="n">
-        <v>80.68000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>80.68000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>80.68000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="F123" t="n">
-        <v>119.3261</v>
+        <v>5677.4584</v>
       </c>
       <c r="G123" t="n">
-        <v>220557.9241556955</v>
+        <v>169487.6886556955</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5167,28 +5313,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>80.42</v>
+        <v>81.8</v>
       </c>
       <c r="C124" t="n">
-        <v>80.70999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="D124" t="n">
-        <v>80.70999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="E124" t="n">
-        <v>80.42</v>
+        <v>81.8</v>
       </c>
       <c r="F124" t="n">
-        <v>621.4373000000001</v>
+        <v>2940</v>
       </c>
       <c r="G124" t="n">
-        <v>221179.3614556955</v>
+        <v>166547.6886556955</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5206,28 +5353,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>81.38</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>81.38</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>81.38</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>81.38</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>1494.8151</v>
+        <v>4410</v>
       </c>
       <c r="G125" t="n">
-        <v>222674.1765556955</v>
+        <v>170957.6886556955</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5245,28 +5393,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>81.67</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>81.67</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>81.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>22916.8218</v>
+        <v>17</v>
       </c>
       <c r="G126" t="n">
-        <v>245590.9983556955</v>
+        <v>170957.6886556955</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5284,28 +5433,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>81.77</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="D127" t="n">
-        <v>81.77</v>
+        <v>82</v>
       </c>
       <c r="E127" t="n">
-        <v>81.67</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>1243.6952</v>
+        <v>4333</v>
       </c>
       <c r="G127" t="n">
-        <v>245590.9983556955</v>
+        <v>175290.6886556955</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5323,28 +5473,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>81.67</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>81.67</v>
+        <v>82.06</v>
       </c>
       <c r="D128" t="n">
-        <v>81.67</v>
+        <v>82.06</v>
       </c>
       <c r="E128" t="n">
-        <v>81.67</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>25599.8182</v>
+        <v>17762.4076</v>
       </c>
       <c r="G128" t="n">
-        <v>245590.9983556955</v>
+        <v>193053.0962556955</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5362,28 +5513,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>81.67</v>
+        <v>82.06</v>
       </c>
       <c r="C129" t="n">
-        <v>81.67</v>
+        <v>82.05</v>
       </c>
       <c r="D129" t="n">
-        <v>81.67</v>
+        <v>82.06</v>
       </c>
       <c r="E129" t="n">
-        <v>81.67</v>
+        <v>82.05</v>
       </c>
       <c r="F129" t="n">
-        <v>6692.1496</v>
+        <v>25212.6278</v>
       </c>
       <c r="G129" t="n">
-        <v>245590.9983556955</v>
+        <v>167840.4684556955</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5401,28 +5553,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>81.94</v>
+        <v>82.05</v>
       </c>
       <c r="C130" t="n">
-        <v>81.94</v>
+        <v>82.06</v>
       </c>
       <c r="D130" t="n">
-        <v>81.94</v>
+        <v>82.06</v>
       </c>
       <c r="E130" t="n">
-        <v>81.94</v>
+        <v>82.05</v>
       </c>
       <c r="F130" t="n">
-        <v>5633.547</v>
+        <v>10984.2981</v>
       </c>
       <c r="G130" t="n">
-        <v>251224.5453556955</v>
+        <v>178824.7665556955</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5440,28 +5593,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>82.12</v>
+        <v>82.05</v>
       </c>
       <c r="C131" t="n">
-        <v>82.12</v>
+        <v>82.44</v>
       </c>
       <c r="D131" t="n">
-        <v>82.12</v>
+        <v>82.44</v>
       </c>
       <c r="E131" t="n">
-        <v>82.12</v>
+        <v>82.05</v>
       </c>
       <c r="F131" t="n">
-        <v>1527.057</v>
+        <v>16209.2908</v>
       </c>
       <c r="G131" t="n">
-        <v>252751.6023556955</v>
+        <v>195034.0573556955</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5479,28 +5633,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>82</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>82</v>
+        <v>82.03</v>
       </c>
       <c r="D132" t="n">
-        <v>82</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>82</v>
+        <v>82.03</v>
       </c>
       <c r="F132" t="n">
-        <v>1648</v>
+        <v>8212.7132</v>
       </c>
       <c r="G132" t="n">
-        <v>251103.6023556955</v>
+        <v>186821.3441556955</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5518,28 +5673,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>82</v>
+        <v>82.53</v>
       </c>
       <c r="C133" t="n">
-        <v>82</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>82</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>82</v>
+        <v>82.53</v>
       </c>
       <c r="F133" t="n">
-        <v>2816.7735</v>
+        <v>14870.68074549195</v>
       </c>
       <c r="G133" t="n">
-        <v>251103.6023556955</v>
+        <v>201692.0249011875</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5557,28 +5713,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>82</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>82</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>82</v>
+        <v>82.97</v>
       </c>
       <c r="E134" t="n">
-        <v>82</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>282.5588</v>
+        <v>5698.750711413764</v>
       </c>
       <c r="G134" t="n">
-        <v>251103.6023556955</v>
+        <v>201692.0249011875</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5596,28 +5753,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>81.67</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>81.67</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>81.67</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>81.67</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>5350.988</v>
+        <v>7.714561234329699e-05</v>
       </c>
       <c r="G135" t="n">
-        <v>245752.6143556955</v>
+        <v>201692.0249011875</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5635,28 +5793,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>82</v>
+        <v>82.95</v>
       </c>
       <c r="C136" t="n">
-        <v>82</v>
+        <v>82.95</v>
       </c>
       <c r="D136" t="n">
-        <v>82</v>
+        <v>82.95</v>
       </c>
       <c r="E136" t="n">
-        <v>82</v>
+        <v>82.95</v>
       </c>
       <c r="F136" t="n">
-        <v>1259.7094</v>
+        <v>2411.091018685956</v>
       </c>
       <c r="G136" t="n">
-        <v>247012.3237556955</v>
+        <v>199280.9338825015</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5674,28 +5833,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>82</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>82.23</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>82.23</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>1644.6513</v>
+        <v>3439.5514</v>
       </c>
       <c r="G137" t="n">
-        <v>248656.9750556955</v>
+        <v>195841.3824825015</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5713,28 +5873,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>82.45</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>82.45</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>82.45</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>82.45</v>
+        <v>82.73999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>820.3555</v>
+        <v>120.8605269518975</v>
       </c>
       <c r="G138" t="n">
-        <v>249477.3305556955</v>
+        <v>195962.2430094534</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5752,28 +5913,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>82.23</v>
+        <v>82</v>
       </c>
       <c r="C139" t="n">
-        <v>82.23</v>
+        <v>82</v>
       </c>
       <c r="D139" t="n">
-        <v>82.23</v>
+        <v>82</v>
       </c>
       <c r="E139" t="n">
-        <v>82.23</v>
+        <v>82</v>
       </c>
       <c r="F139" t="n">
-        <v>1469</v>
+        <v>12300</v>
       </c>
       <c r="G139" t="n">
-        <v>248008.3305556955</v>
+        <v>183662.2430094534</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5791,28 +5953,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>82.23</v>
+        <v>82.3</v>
       </c>
       <c r="C140" t="n">
-        <v>82</v>
+        <v>82.3</v>
       </c>
       <c r="D140" t="n">
-        <v>82.23</v>
+        <v>82.3</v>
       </c>
       <c r="E140" t="n">
-        <v>82</v>
+        <v>82.3</v>
       </c>
       <c r="F140" t="n">
-        <v>3720.7386</v>
+        <v>11793.1054</v>
       </c>
       <c r="G140" t="n">
-        <v>244287.5919556955</v>
+        <v>195455.3484094534</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5830,28 +5993,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>81.67</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>81.67</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>9756.869699999999</v>
+        <v>5896</v>
       </c>
       <c r="G141" t="n">
-        <v>234530.7222556955</v>
+        <v>189559.3484094534</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5869,28 +6033,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>81.67</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>81.67</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>81.67</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>81.67</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>7600</v>
+        <v>15500</v>
       </c>
       <c r="G142" t="n">
-        <v>234530.7222556955</v>
+        <v>189559.3484094534</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5908,28 +6073,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>81.89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>81.89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>81.89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>81.89</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>3173.5164</v>
+        <v>61000</v>
       </c>
       <c r="G143" t="n">
-        <v>237704.2386556955</v>
+        <v>189559.3484094534</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5947,28 +6113,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>81.78</v>
+        <v>82</v>
       </c>
       <c r="C144" t="n">
-        <v>81.79000000000001</v>
+        <v>81.81</v>
       </c>
       <c r="D144" t="n">
-        <v>81.79000000000001</v>
+        <v>82</v>
       </c>
       <c r="E144" t="n">
-        <v>81.78</v>
+        <v>81.81</v>
       </c>
       <c r="F144" t="n">
-        <v>8934.732400000001</v>
+        <v>12300</v>
       </c>
       <c r="G144" t="n">
-        <v>228769.5062556955</v>
+        <v>177259.3484094534</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5986,28 +6153,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>81.68000000000001</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>81.67</v>
+        <v>82.62</v>
       </c>
       <c r="D145" t="n">
-        <v>81.68000000000001</v>
+        <v>82.62</v>
       </c>
       <c r="E145" t="n">
-        <v>81.67</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>3339.8888</v>
+        <v>3711.3629</v>
       </c>
       <c r="G145" t="n">
-        <v>225429.6174556955</v>
+        <v>180970.7113094534</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6025,28 +6193,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>82</v>
+        <v>82.17</v>
       </c>
       <c r="C146" t="n">
-        <v>82</v>
+        <v>82.17</v>
       </c>
       <c r="D146" t="n">
-        <v>82</v>
+        <v>82.17</v>
       </c>
       <c r="E146" t="n">
-        <v>82</v>
+        <v>82.17</v>
       </c>
       <c r="F146" t="n">
-        <v>1371.4388</v>
+        <v>3144.691</v>
       </c>
       <c r="G146" t="n">
-        <v>226801.0562556955</v>
+        <v>177826.0203094534</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6064,28 +6233,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>81.98</v>
+        <v>82.17</v>
       </c>
       <c r="C147" t="n">
-        <v>81.88</v>
+        <v>82.17</v>
       </c>
       <c r="D147" t="n">
-        <v>81.98</v>
+        <v>82.17</v>
       </c>
       <c r="E147" t="n">
-        <v>81.88</v>
+        <v>82.17</v>
       </c>
       <c r="F147" t="n">
-        <v>44843.4137</v>
+        <v>2938</v>
       </c>
       <c r="G147" t="n">
-        <v>181957.6425556955</v>
+        <v>177826.0203094534</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6103,28 +6273,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>81.7</v>
+        <v>82.17</v>
       </c>
       <c r="C148" t="n">
-        <v>81.67</v>
+        <v>82.17</v>
       </c>
       <c r="D148" t="n">
-        <v>81.7</v>
+        <v>82.17</v>
       </c>
       <c r="E148" t="n">
-        <v>81.67</v>
+        <v>82.17</v>
       </c>
       <c r="F148" t="n">
-        <v>1592.9476</v>
+        <v>2913.9973</v>
       </c>
       <c r="G148" t="n">
-        <v>180364.6949556955</v>
+        <v>177826.0203094534</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6142,28 +6313,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>81.67</v>
+        <v>82.17</v>
       </c>
       <c r="C149" t="n">
-        <v>81.67</v>
+        <v>82.17</v>
       </c>
       <c r="D149" t="n">
-        <v>81.67</v>
+        <v>82.17</v>
       </c>
       <c r="E149" t="n">
-        <v>81.67</v>
+        <v>82.17</v>
       </c>
       <c r="F149" t="n">
-        <v>2277.8975</v>
+        <v>2363.6471</v>
       </c>
       <c r="G149" t="n">
-        <v>180364.6949556955</v>
+        <v>177826.0203094534</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6181,28 +6353,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>81.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="D150" t="n">
-        <v>81.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="F150" t="n">
-        <v>4407</v>
+        <v>12300</v>
       </c>
       <c r="G150" t="n">
-        <v>175957.6949556955</v>
+        <v>165526.0203094534</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6220,28 +6393,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>81.3</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>81.3</v>
+        <v>81.81</v>
       </c>
       <c r="D151" t="n">
-        <v>81.3</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>81.3</v>
+        <v>81.81</v>
       </c>
       <c r="F151" t="n">
-        <v>1462</v>
+        <v>9441.909600000001</v>
       </c>
       <c r="G151" t="n">
-        <v>177419.6949556955</v>
+        <v>165526.0203094534</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6259,28 +6433,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="C152" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="D152" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="E152" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="F152" t="n">
-        <v>25518.1748</v>
+        <v>36355.3684</v>
       </c>
       <c r="G152" t="n">
-        <v>151901.5201556955</v>
+        <v>165526.0203094534</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6298,28 +6473,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="C153" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="D153" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="E153" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="F153" t="n">
-        <v>8212.713100000001</v>
+        <v>7252.5791</v>
       </c>
       <c r="G153" t="n">
-        <v>151901.5201556955</v>
+        <v>165526.0203094534</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6337,28 +6513,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>81.2</v>
+        <v>81.33</v>
       </c>
       <c r="C154" t="n">
-        <v>81.2</v>
+        <v>81.33</v>
       </c>
       <c r="D154" t="n">
-        <v>81.2</v>
+        <v>81.33</v>
       </c>
       <c r="E154" t="n">
-        <v>81.2</v>
+        <v>81.33</v>
       </c>
       <c r="F154" t="n">
-        <v>8520</v>
+        <v>12300</v>
       </c>
       <c r="G154" t="n">
-        <v>151901.5201556955</v>
+        <v>153226.0203094534</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6376,28 +6553,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>81.2</v>
+        <v>81.22</v>
       </c>
       <c r="C155" t="n">
-        <v>81.2</v>
+        <v>81.11</v>
       </c>
       <c r="D155" t="n">
-        <v>81.2</v>
+        <v>81.22</v>
       </c>
       <c r="E155" t="n">
-        <v>81.2</v>
+        <v>81.11</v>
       </c>
       <c r="F155" t="n">
-        <v>700.6964</v>
+        <v>12350</v>
       </c>
       <c r="G155" t="n">
-        <v>151901.5201556955</v>
+        <v>140876.0203094534</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6415,28 +6593,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="C156" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="D156" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="E156" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="F156" t="n">
-        <v>2370.9841</v>
+        <v>366.7033370003667</v>
       </c>
       <c r="G156" t="n">
-        <v>151901.5201556955</v>
+        <v>141242.7236464538</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6454,38 +6633,37 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>80.7</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="C157" t="n">
-        <v>80.7</v>
+        <v>81.14</v>
       </c>
       <c r="D157" t="n">
-        <v>80.7</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="E157" t="n">
-        <v>80.7</v>
+        <v>81.14</v>
       </c>
       <c r="F157" t="n">
-        <v>3057.3171</v>
+        <v>13500</v>
       </c>
       <c r="G157" t="n">
-        <v>148844.2030556955</v>
+        <v>127742.7236464538</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>81.2</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6495,38 +6673,37 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>80.72</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>80.72</v>
+        <v>81.81</v>
       </c>
       <c r="D158" t="n">
-        <v>80.72</v>
+        <v>81.81</v>
       </c>
       <c r="E158" t="n">
-        <v>80.72</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="F158" t="n">
-        <v>8276.4254</v>
+        <v>11660.6856</v>
       </c>
       <c r="G158" t="n">
-        <v>157120.6284556955</v>
+        <v>139403.4092464538</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>80.7</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6536,38 +6713,37 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="C159" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="D159" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="E159" t="n">
-        <v>81.2</v>
+        <v>81.81</v>
       </c>
       <c r="F159" t="n">
-        <v>642.3264</v>
+        <v>12040.09289817871</v>
       </c>
       <c r="G159" t="n">
-        <v>157762.9548556955</v>
+        <v>139403.4092464538</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>80.72</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6577,38 +6753,37 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>80.73</v>
+        <v>81.81</v>
       </c>
       <c r="C160" t="n">
-        <v>80.73</v>
+        <v>82.12</v>
       </c>
       <c r="D160" t="n">
-        <v>80.73</v>
+        <v>82.12</v>
       </c>
       <c r="E160" t="n">
-        <v>80.73</v>
+        <v>81.81</v>
       </c>
       <c r="F160" t="n">
-        <v>3453.8559</v>
+        <v>15739.18326482093</v>
       </c>
       <c r="G160" t="n">
-        <v>154309.0989556955</v>
+        <v>155142.5925112747</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>81.2</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6618,38 +6793,37 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>80.73</v>
+        <v>82.12</v>
       </c>
       <c r="C161" t="n">
-        <v>80.73</v>
+        <v>82.17</v>
       </c>
       <c r="D161" t="n">
-        <v>80.73</v>
+        <v>82.22</v>
       </c>
       <c r="E161" t="n">
-        <v>80.73</v>
+        <v>82.12</v>
       </c>
       <c r="F161" t="n">
-        <v>55640</v>
+        <v>11854.3367</v>
       </c>
       <c r="G161" t="n">
-        <v>154309.0989556955</v>
+        <v>166996.9292112747</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>80.73</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6659,38 +6833,37 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>80.72</v>
+        <v>82.63</v>
       </c>
       <c r="C162" t="n">
-        <v>80.72</v>
+        <v>82.63</v>
       </c>
       <c r="D162" t="n">
-        <v>80.72</v>
+        <v>82.63</v>
       </c>
       <c r="E162" t="n">
-        <v>80.72</v>
+        <v>82.63</v>
       </c>
       <c r="F162" t="n">
-        <v>176.0795</v>
+        <v>2993</v>
       </c>
       <c r="G162" t="n">
-        <v>154133.0194556955</v>
+        <v>169989.9292112747</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>80.73</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6700,38 +6873,37 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>80.72</v>
+        <v>82.28</v>
       </c>
       <c r="C163" t="n">
-        <v>80.72</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="D163" t="n">
-        <v>80.72</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="E163" t="n">
-        <v>80.72</v>
+        <v>82.28</v>
       </c>
       <c r="F163" t="n">
-        <v>587.9391000000001</v>
+        <v>2612</v>
       </c>
       <c r="G163" t="n">
-        <v>154133.0194556955</v>
+        <v>167377.9292112747</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>80.72</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6741,38 +6913,37 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>81</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C164" t="n">
-        <v>81</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>81</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E164" t="n">
-        <v>81</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>9677.210800000001</v>
+        <v>40651.4049</v>
       </c>
       <c r="G164" t="n">
-        <v>163810.2302556955</v>
+        <v>126726.5243112747</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>80.72</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6782,38 +6953,37 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>81.8</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>81.90000000000001</v>
+        <v>81.73</v>
       </c>
       <c r="D165" t="n">
-        <v>81.90000000000001</v>
+        <v>81.73</v>
       </c>
       <c r="E165" t="n">
-        <v>81.8</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>5677.4584</v>
+        <v>406.1069</v>
       </c>
       <c r="G165" t="n">
-        <v>169487.6886556955</v>
+        <v>127132.6312112747</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>81</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6823,38 +6993,37 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E166" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F166" t="n">
-        <v>2940</v>
+        <v>33592.5097</v>
       </c>
       <c r="G166" t="n">
-        <v>166547.6886556955</v>
+        <v>93540.12151127472</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>81.90000000000001</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6864,38 +7033,37 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>81.90000000000001</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>81.90000000000001</v>
+        <v>82.97</v>
       </c>
       <c r="D167" t="n">
-        <v>81.90000000000001</v>
+        <v>82.97</v>
       </c>
       <c r="E167" t="n">
-        <v>81.90000000000001</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="F167" t="n">
-        <v>4410</v>
+        <v>28155.4881</v>
       </c>
       <c r="G167" t="n">
-        <v>170957.6886556955</v>
+        <v>121695.6096112747</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>81.8</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6905,38 +7073,37 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>81.90000000000001</v>
+        <v>82.87</v>
       </c>
       <c r="C168" t="n">
-        <v>81.90000000000001</v>
+        <v>83.66</v>
       </c>
       <c r="D168" t="n">
-        <v>81.90000000000001</v>
+        <v>83.66</v>
       </c>
       <c r="E168" t="n">
-        <v>81.90000000000001</v>
+        <v>82.87</v>
       </c>
       <c r="F168" t="n">
-        <v>17</v>
+        <v>69886.86948761527</v>
       </c>
       <c r="G168" t="n">
-        <v>170957.6886556955</v>
+        <v>191582.47909889</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>81.90000000000001</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6946,38 +7113,37 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>81.90000000000001</v>
+        <v>82.81</v>
       </c>
       <c r="C169" t="n">
-        <v>82</v>
+        <v>82.81</v>
       </c>
       <c r="D169" t="n">
-        <v>82</v>
+        <v>82.81</v>
       </c>
       <c r="E169" t="n">
-        <v>81.90000000000001</v>
+        <v>82.81</v>
       </c>
       <c r="F169" t="n">
-        <v>4333</v>
+        <v>1568.2131</v>
       </c>
       <c r="G169" t="n">
-        <v>175290.6886556955</v>
+        <v>190014.26599889</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>81.90000000000001</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6987,38 +7153,37 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>81.90000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="C170" t="n">
-        <v>82.06</v>
+        <v>83.16</v>
       </c>
       <c r="D170" t="n">
-        <v>82.06</v>
+        <v>83.16</v>
       </c>
       <c r="E170" t="n">
-        <v>81.90000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="F170" t="n">
-        <v>17762.4076</v>
+        <v>2645</v>
       </c>
       <c r="G170" t="n">
-        <v>193053.0962556955</v>
+        <v>192659.26599889</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>82</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -7028,38 +7193,37 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>82.06</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>82.05</v>
+        <v>83.16</v>
       </c>
       <c r="D171" t="n">
-        <v>82.06</v>
+        <v>83.16</v>
       </c>
       <c r="E171" t="n">
-        <v>82.05</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="F171" t="n">
-        <v>25212.6278</v>
+        <v>2938</v>
       </c>
       <c r="G171" t="n">
-        <v>167840.4684556955</v>
+        <v>192659.26599889</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>82.06</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -7069,28 +7233,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>82.05</v>
+        <v>83.16</v>
       </c>
       <c r="C172" t="n">
-        <v>82.06</v>
+        <v>83.16</v>
       </c>
       <c r="D172" t="n">
-        <v>82.06</v>
+        <v>83.16</v>
       </c>
       <c r="E172" t="n">
-        <v>82.05</v>
+        <v>83.16</v>
       </c>
       <c r="F172" t="n">
-        <v>10984.2981</v>
+        <v>10000</v>
       </c>
       <c r="G172" t="n">
-        <v>178824.7665556955</v>
+        <v>192659.26599889</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7108,38 +7273,37 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>82.05</v>
+        <v>83.16</v>
       </c>
       <c r="C173" t="n">
-        <v>82.44</v>
+        <v>83.16</v>
       </c>
       <c r="D173" t="n">
-        <v>82.44</v>
+        <v>83.16</v>
       </c>
       <c r="E173" t="n">
-        <v>82.05</v>
+        <v>83.16</v>
       </c>
       <c r="F173" t="n">
-        <v>16209.2908</v>
+        <v>5362.8135</v>
       </c>
       <c r="G173" t="n">
-        <v>195034.0573556955</v>
+        <v>192659.26599889</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>82.06</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -7149,38 +7313,37 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>82.40000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="C174" t="n">
-        <v>82.03</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>82.40000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="E174" t="n">
-        <v>82.03</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="F174" t="n">
-        <v>8212.7132</v>
+        <v>3865.9194</v>
       </c>
       <c r="G174" t="n">
-        <v>186821.3441556955</v>
+        <v>188793.34659889</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>82.44</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -7190,38 +7353,37 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>82.53</v>
+        <v>82.95</v>
       </c>
       <c r="C175" t="n">
-        <v>82.95999999999999</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="D175" t="n">
-        <v>82.95999999999999</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="E175" t="n">
-        <v>82.53</v>
+        <v>82.95</v>
       </c>
       <c r="F175" t="n">
-        <v>14870.68074549195</v>
+        <v>13280.4231</v>
       </c>
       <c r="G175" t="n">
-        <v>201692.0249011875</v>
+        <v>202073.76969889</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>82.03</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -7231,38 +7393,37 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>82.95999999999999</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="C176" t="n">
-        <v>82.95999999999999</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>82.97</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>82.95999999999999</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="F176" t="n">
-        <v>5698.750711413764</v>
+        <v>1469</v>
       </c>
       <c r="G176" t="n">
-        <v>201692.0249011875</v>
+        <v>203542.76969889</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>82.95999999999999</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -7272,38 +7433,37 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>82.95999999999999</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="C177" t="n">
-        <v>82.95999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>82.95999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>82.95999999999999</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>7.714561234329699e-05</v>
+        <v>52177</v>
       </c>
       <c r="G177" t="n">
-        <v>201692.0249011875</v>
+        <v>255719.76969889</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>82.95999999999999</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -7313,28 +7473,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>82.95</v>
+        <v>83.69</v>
       </c>
       <c r="C178" t="n">
-        <v>82.95</v>
+        <v>83.75</v>
       </c>
       <c r="D178" t="n">
-        <v>82.95</v>
+        <v>83.75</v>
       </c>
       <c r="E178" t="n">
-        <v>82.95</v>
+        <v>83.69</v>
       </c>
       <c r="F178" t="n">
-        <v>2411.091018685956</v>
+        <v>17209.3915</v>
       </c>
       <c r="G178" t="n">
-        <v>199280.9338825015</v>
+        <v>272929.16119889</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7352,28 +7513,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>82.23999999999999</v>
+        <v>83.89</v>
       </c>
       <c r="C179" t="n">
-        <v>81.90000000000001</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>82.23999999999999</v>
+        <v>84.81</v>
       </c>
       <c r="E179" t="n">
-        <v>81.90000000000001</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>3439.5514</v>
+        <v>80652.8003</v>
       </c>
       <c r="G179" t="n">
-        <v>195841.3824825015</v>
+        <v>192276.36089889</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7391,28 +7553,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>82.73999999999999</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="C180" t="n">
-        <v>82.73999999999999</v>
+        <v>84</v>
       </c>
       <c r="D180" t="n">
-        <v>82.73999999999999</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>82.73999999999999</v>
+        <v>83</v>
       </c>
       <c r="F180" t="n">
-        <v>120.8605269518975</v>
+        <v>17151.911</v>
       </c>
       <c r="G180" t="n">
-        <v>195962.2430094534</v>
+        <v>209428.27189889</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7430,28 +7593,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C181" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D181" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E181" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F181" t="n">
-        <v>12300</v>
+        <v>2256.25</v>
       </c>
       <c r="G181" t="n">
-        <v>183662.2430094534</v>
+        <v>209428.27189889</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7469,28 +7633,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>82.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>82.3</v>
+        <v>84.61</v>
       </c>
       <c r="D182" t="n">
-        <v>82.3</v>
+        <v>84.61</v>
       </c>
       <c r="E182" t="n">
-        <v>82.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F182" t="n">
-        <v>11793.1054</v>
+        <v>827.8916</v>
       </c>
       <c r="G182" t="n">
-        <v>195455.3484094534</v>
+        <v>210256.16349889</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7508,28 +7673,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>82.09999999999999</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="C183" t="n">
-        <v>82.09999999999999</v>
+        <v>84.61</v>
       </c>
       <c r="D183" t="n">
-        <v>82.09999999999999</v>
+        <v>84.61</v>
       </c>
       <c r="E183" t="n">
-        <v>82.09999999999999</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="F183" t="n">
-        <v>5896</v>
+        <v>799.2003</v>
       </c>
       <c r="G183" t="n">
-        <v>189559.3484094534</v>
+        <v>210256.16349889</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7547,28 +7713,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>82.09999999999999</v>
+        <v>84.61</v>
       </c>
       <c r="C184" t="n">
-        <v>82.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="D184" t="n">
-        <v>82.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="E184" t="n">
-        <v>82.09999999999999</v>
+        <v>84.61</v>
       </c>
       <c r="F184" t="n">
-        <v>15500</v>
+        <v>33781.3916</v>
       </c>
       <c r="G184" t="n">
-        <v>189559.3484094534</v>
+        <v>244037.55509889</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7586,2432 +7753,729 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>82.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="C185" t="n">
-        <v>82.09999999999999</v>
+        <v>85.58</v>
       </c>
       <c r="D185" t="n">
-        <v>82.09999999999999</v>
+        <v>85.58</v>
       </c>
       <c r="E185" t="n">
-        <v>82.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="F185" t="n">
-        <v>61000</v>
+        <v>2769.3082</v>
       </c>
       <c r="G185" t="n">
-        <v>189559.3484094534</v>
+        <v>246806.86329889</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>82</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="C186" t="n">
-        <v>81.81</v>
+        <v>85.58</v>
       </c>
       <c r="D186" t="n">
-        <v>82</v>
+        <v>85.58</v>
       </c>
       <c r="E186" t="n">
-        <v>81.81</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="F186" t="n">
-        <v>12300</v>
+        <v>631.79</v>
       </c>
       <c r="G186" t="n">
-        <v>177259.3484094534</v>
+        <v>246806.86329889</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>82.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>82.51000000000001</v>
+        <v>85.48</v>
       </c>
       <c r="C187" t="n">
-        <v>82.62</v>
+        <v>85.36</v>
       </c>
       <c r="D187" t="n">
-        <v>82.62</v>
+        <v>85.58</v>
       </c>
       <c r="E187" t="n">
-        <v>82.51000000000001</v>
+        <v>84.11</v>
       </c>
       <c r="F187" t="n">
-        <v>3711.3629</v>
+        <v>23566.3582</v>
       </c>
       <c r="G187" t="n">
-        <v>180970.7113094534</v>
+        <v>223240.50509889</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>81.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>82.17</v>
+        <v>84.92</v>
       </c>
       <c r="C188" t="n">
-        <v>82.17</v>
+        <v>85.45</v>
       </c>
       <c r="D188" t="n">
-        <v>82.17</v>
+        <v>85.45</v>
       </c>
       <c r="E188" t="n">
-        <v>82.17</v>
+        <v>84.92</v>
       </c>
       <c r="F188" t="n">
-        <v>3144.691</v>
+        <v>21438.891</v>
       </c>
       <c r="G188" t="n">
-        <v>177826.0203094534</v>
+        <v>244679.39609889</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>82.62</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>82.17</v>
+        <v>85.45</v>
       </c>
       <c r="C189" t="n">
-        <v>82.17</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>82.17</v>
+        <v>85.45</v>
       </c>
       <c r="E189" t="n">
-        <v>82.17</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F189" t="n">
-        <v>2938</v>
+        <v>1411.9596</v>
       </c>
       <c r="G189" t="n">
-        <v>177826.0203094534</v>
+        <v>243267.43649889</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>82.17</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C190" t="n">
-        <v>82.17</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D190" t="n">
-        <v>82.17</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="E190" t="n">
-        <v>82.17</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>2913.9973</v>
+        <v>562.3627</v>
       </c>
       <c r="G190" t="n">
-        <v>177826.0203094534</v>
+        <v>243267.43649889</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>82.17</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C191" t="n">
-        <v>82.17</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D191" t="n">
-        <v>82.17</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E191" t="n">
-        <v>82.17</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F191" t="n">
-        <v>2363.6471</v>
+        <v>79.0883</v>
       </c>
       <c r="G191" t="n">
-        <v>177826.0203094534</v>
+        <v>243267.43649889</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>82.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C192" t="n">
-        <v>81.81</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D192" t="n">
-        <v>82.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E192" t="n">
-        <v>81.81</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F192" t="n">
-        <v>12300</v>
+        <v>1372</v>
       </c>
       <c r="G192" t="n">
-        <v>165526.0203094534</v>
+        <v>243267.43649889</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>81.81999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C193" t="n">
-        <v>81.81</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>81.81999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>81.81</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F193" t="n">
-        <v>9441.909600000001</v>
+        <v>2624.4219</v>
       </c>
       <c r="G193" t="n">
-        <v>165526.0203094534</v>
+        <v>243267.43649889</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>81.81</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>81.81</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="D194" t="n">
-        <v>81.81</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E194" t="n">
-        <v>81.81</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F194" t="n">
-        <v>36355.3684</v>
+        <v>11252.6316</v>
       </c>
       <c r="G194" t="n">
-        <v>165526.0203094534</v>
+        <v>243267.43649889</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>81.81</v>
+        <v>85</v>
       </c>
       <c r="C195" t="n">
-        <v>81.81</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="D195" t="n">
-        <v>81.81</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E195" t="n">
-        <v>81.81</v>
+        <v>85</v>
       </c>
       <c r="F195" t="n">
-        <v>7252.5791</v>
+        <v>26687.326</v>
       </c>
       <c r="G195" t="n">
-        <v>165526.0203094534</v>
+        <v>269954.76249889</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>81.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>81.33</v>
+        <v>85.45</v>
       </c>
       <c r="C196" t="n">
-        <v>81.33</v>
+        <v>85.45</v>
       </c>
       <c r="D196" t="n">
-        <v>81.33</v>
+        <v>85.55</v>
       </c>
       <c r="E196" t="n">
-        <v>81.33</v>
+        <v>84.22</v>
       </c>
       <c r="F196" t="n">
-        <v>12300</v>
+        <v>53946.0602</v>
       </c>
       <c r="G196" t="n">
-        <v>153226.0203094534</v>
+        <v>323900.8226988901</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>81.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>81.22</v>
+        <v>85.45</v>
       </c>
       <c r="C197" t="n">
-        <v>81.11</v>
+        <v>84.25</v>
       </c>
       <c r="D197" t="n">
-        <v>81.22</v>
+        <v>85.45</v>
       </c>
       <c r="E197" t="n">
-        <v>81.11</v>
+        <v>84.25</v>
       </c>
       <c r="F197" t="n">
-        <v>12350</v>
+        <v>15288.2441</v>
       </c>
       <c r="G197" t="n">
-        <v>140876.0203094534</v>
+        <v>308612.57859889</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>81.33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>81.81</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C198" t="n">
-        <v>81.81</v>
+        <v>85.47</v>
       </c>
       <c r="D198" t="n">
-        <v>81.81</v>
+        <v>85.55</v>
       </c>
       <c r="E198" t="n">
-        <v>81.81</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="F198" t="n">
-        <v>366.7033370003667</v>
+        <v>15934.40703594389</v>
       </c>
       <c r="G198" t="n">
-        <v>141242.7236464538</v>
+        <v>324546.9856348339</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>81.11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>81.45999999999999</v>
+        <v>85.47</v>
       </c>
       <c r="C199" t="n">
-        <v>81.14</v>
+        <v>85.47</v>
       </c>
       <c r="D199" t="n">
-        <v>81.45999999999999</v>
+        <v>85.47</v>
       </c>
       <c r="E199" t="n">
-        <v>81.14</v>
+        <v>85.47</v>
       </c>
       <c r="F199" t="n">
-        <v>13500</v>
+        <v>7557.94</v>
       </c>
       <c r="G199" t="n">
-        <v>127742.7236464538</v>
+        <v>324546.9856348339</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>81.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>81.70999999999999</v>
+        <v>85.55</v>
       </c>
       <c r="C200" t="n">
-        <v>81.81</v>
+        <v>85.75</v>
       </c>
       <c r="D200" t="n">
-        <v>81.81</v>
+        <v>85.75</v>
       </c>
       <c r="E200" t="n">
-        <v>81.70999999999999</v>
+        <v>85.55</v>
       </c>
       <c r="F200" t="n">
-        <v>11660.6856</v>
+        <v>7292.483664056108</v>
       </c>
       <c r="G200" t="n">
-        <v>139403.4092464538</v>
+        <v>331839.46929889</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>81.14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>81.81</v>
+        <v>85.55</v>
       </c>
       <c r="C201" t="n">
-        <v>81.81</v>
+        <v>85.55</v>
       </c>
       <c r="D201" t="n">
-        <v>81.81</v>
+        <v>85.55</v>
       </c>
       <c r="E201" t="n">
-        <v>81.81</v>
+        <v>85.55</v>
       </c>
       <c r="F201" t="n">
-        <v>12040.09289817871</v>
+        <v>10552.72203594389</v>
       </c>
       <c r="G201" t="n">
-        <v>139403.4092464538</v>
+        <v>321286.7472629462</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>81.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>81.81</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C202" t="n">
-        <v>82.12</v>
+        <v>85.8</v>
       </c>
       <c r="D202" t="n">
-        <v>82.12</v>
+        <v>85.8</v>
       </c>
       <c r="E202" t="n">
-        <v>81.81</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="F202" t="n">
-        <v>15739.18326482093</v>
+        <v>12700.0562</v>
       </c>
       <c r="G202" t="n">
-        <v>155142.5925112747</v>
+        <v>333986.8034629461</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>81.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>82.12</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="C203" t="n">
-        <v>82.17</v>
+        <v>85.11</v>
       </c>
       <c r="D203" t="n">
-        <v>82.22</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>82.12</v>
+        <v>85.11</v>
       </c>
       <c r="F203" t="n">
-        <v>11854.3367</v>
+        <v>21669.0867</v>
       </c>
       <c r="G203" t="n">
-        <v>166996.9292112747</v>
+        <v>312317.7167629462</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>82.12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>82.63</v>
+        <v>85.11</v>
       </c>
       <c r="C204" t="n">
-        <v>82.63</v>
+        <v>85.77</v>
       </c>
       <c r="D204" t="n">
-        <v>82.63</v>
+        <v>85.77</v>
       </c>
       <c r="E204" t="n">
-        <v>82.63</v>
+        <v>85.11</v>
       </c>
       <c r="F204" t="n">
-        <v>2993</v>
+        <v>6202.795</v>
       </c>
       <c r="G204" t="n">
-        <v>169989.9292112747</v>
+        <v>318520.5117629461</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>82.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>82.28</v>
-      </c>
-      <c r="C205" t="n">
-        <v>82.29000000000001</v>
-      </c>
-      <c r="D205" t="n">
-        <v>82.29000000000001</v>
-      </c>
-      <c r="E205" t="n">
-        <v>82.28</v>
-      </c>
-      <c r="F205" t="n">
-        <v>2612</v>
-      </c>
-      <c r="G205" t="n">
-        <v>167377.9292112747</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>82.63</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>82.20999999999999</v>
-      </c>
-      <c r="C206" t="n">
-        <v>81.54000000000001</v>
-      </c>
-      <c r="D206" t="n">
-        <v>82.20999999999999</v>
-      </c>
-      <c r="E206" t="n">
-        <v>81.54000000000001</v>
-      </c>
-      <c r="F206" t="n">
-        <v>40651.4049</v>
-      </c>
-      <c r="G206" t="n">
-        <v>126726.5243112747</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>81.54000000000001</v>
-      </c>
-      <c r="C207" t="n">
-        <v>81.73</v>
-      </c>
-      <c r="D207" t="n">
-        <v>81.73</v>
-      </c>
-      <c r="E207" t="n">
-        <v>81.54000000000001</v>
-      </c>
-      <c r="F207" t="n">
-        <v>406.1069</v>
-      </c>
-      <c r="G207" t="n">
-        <v>127132.6312112747</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>81.54000000000001</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="C208" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="D208" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="E208" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F208" t="n">
-        <v>33592.5097</v>
-      </c>
-      <c r="G208" t="n">
-        <v>93540.12151127472</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>81.73</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>82.29000000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>82.97</v>
-      </c>
-      <c r="D209" t="n">
-        <v>82.97</v>
-      </c>
-      <c r="E209" t="n">
-        <v>82.18000000000001</v>
-      </c>
-      <c r="F209" t="n">
-        <v>28155.4881</v>
-      </c>
-      <c r="G209" t="n">
-        <v>121695.6096112747</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>82.87</v>
-      </c>
-      <c r="C210" t="n">
-        <v>83.66</v>
-      </c>
-      <c r="D210" t="n">
-        <v>83.66</v>
-      </c>
-      <c r="E210" t="n">
-        <v>82.87</v>
-      </c>
-      <c r="F210" t="n">
-        <v>69886.86948761527</v>
-      </c>
-      <c r="G210" t="n">
-        <v>191582.47909889</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>82.97</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>82.81</v>
-      </c>
-      <c r="C211" t="n">
-        <v>82.81</v>
-      </c>
-      <c r="D211" t="n">
-        <v>82.81</v>
-      </c>
-      <c r="E211" t="n">
-        <v>82.81</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1568.2131</v>
-      </c>
-      <c r="G211" t="n">
-        <v>190014.26599889</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>83.66</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="C212" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="D212" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="E212" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="F212" t="n">
-        <v>2645</v>
-      </c>
-      <c r="G212" t="n">
-        <v>192659.26599889</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>83.15000000000001</v>
-      </c>
-      <c r="C213" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="D213" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="E213" t="n">
-        <v>83.15000000000001</v>
-      </c>
-      <c r="F213" t="n">
-        <v>2938</v>
-      </c>
-      <c r="G213" t="n">
-        <v>192659.26599889</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="C214" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="D214" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="E214" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="F214" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G214" t="n">
-        <v>192659.26599889</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="C215" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="D215" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="E215" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="F215" t="n">
-        <v>5362.8135</v>
-      </c>
-      <c r="G215" t="n">
-        <v>192659.26599889</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="C216" t="n">
-        <v>82.93000000000001</v>
-      </c>
-      <c r="D216" t="n">
-        <v>83.16</v>
-      </c>
-      <c r="E216" t="n">
-        <v>82.93000000000001</v>
-      </c>
-      <c r="F216" t="n">
-        <v>3865.9194</v>
-      </c>
-      <c r="G216" t="n">
-        <v>188793.34659889</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>82.95</v>
-      </c>
-      <c r="C217" t="n">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="D217" t="n">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="E217" t="n">
-        <v>82.95</v>
-      </c>
-      <c r="F217" t="n">
-        <v>13280.4231</v>
-      </c>
-      <c r="G217" t="n">
-        <v>202073.76969889</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>83.29000000000001</v>
-      </c>
-      <c r="C218" t="n">
-        <v>83.29000000000001</v>
-      </c>
-      <c r="D218" t="n">
-        <v>83.29000000000001</v>
-      </c>
-      <c r="E218" t="n">
-        <v>83.29000000000001</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1469</v>
-      </c>
-      <c r="G218" t="n">
-        <v>203542.76969889</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="C219" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="D219" t="n">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="E219" t="n">
-        <v>83.04000000000001</v>
-      </c>
-      <c r="F219" t="n">
-        <v>52177</v>
-      </c>
-      <c r="G219" t="n">
-        <v>255719.76969889</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>83.69</v>
-      </c>
-      <c r="C220" t="n">
-        <v>83.75</v>
-      </c>
-      <c r="D220" t="n">
-        <v>83.75</v>
-      </c>
-      <c r="E220" t="n">
-        <v>83.69</v>
-      </c>
-      <c r="F220" t="n">
-        <v>17209.3915</v>
-      </c>
-      <c r="G220" t="n">
-        <v>272929.16119889</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>83.89</v>
-      </c>
-      <c r="C221" t="n">
-        <v>82.98999999999999</v>
-      </c>
-      <c r="D221" t="n">
-        <v>84.81</v>
-      </c>
-      <c r="E221" t="n">
-        <v>82.98999999999999</v>
-      </c>
-      <c r="F221" t="n">
-        <v>80652.8003</v>
-      </c>
-      <c r="G221" t="n">
-        <v>192276.36089889</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>84.70999999999999</v>
-      </c>
-      <c r="C222" t="n">
-        <v>84</v>
-      </c>
-      <c r="D222" t="n">
-        <v>84.70999999999999</v>
-      </c>
-      <c r="E222" t="n">
-        <v>83</v>
-      </c>
-      <c r="F222" t="n">
-        <v>17151.911</v>
-      </c>
-      <c r="G222" t="n">
-        <v>209428.27189889</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>84</v>
-      </c>
-      <c r="C223" t="n">
-        <v>84</v>
-      </c>
-      <c r="D223" t="n">
-        <v>84</v>
-      </c>
-      <c r="E223" t="n">
-        <v>84</v>
-      </c>
-      <c r="F223" t="n">
-        <v>2256.25</v>
-      </c>
-      <c r="G223" t="n">
-        <v>209428.27189889</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="C224" t="n">
-        <v>84.61</v>
-      </c>
-      <c r="D224" t="n">
-        <v>84.61</v>
-      </c>
-      <c r="E224" t="n">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="F224" t="n">
-        <v>827.8916</v>
-      </c>
-      <c r="G224" t="n">
-        <v>210256.16349889</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>84.51000000000001</v>
-      </c>
-      <c r="C225" t="n">
-        <v>84.61</v>
-      </c>
-      <c r="D225" t="n">
-        <v>84.61</v>
-      </c>
-      <c r="E225" t="n">
-        <v>84.51000000000001</v>
-      </c>
-      <c r="F225" t="n">
-        <v>799.2003</v>
-      </c>
-      <c r="G225" t="n">
-        <v>210256.16349889</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>84.61</v>
-      </c>
-      <c r="C226" t="n">
-        <v>85</v>
-      </c>
-      <c r="D226" t="n">
-        <v>85</v>
-      </c>
-      <c r="E226" t="n">
-        <v>84.61</v>
-      </c>
-      <c r="F226" t="n">
-        <v>33781.3916</v>
-      </c>
-      <c r="G226" t="n">
-        <v>244037.55509889</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>85</v>
-      </c>
-      <c r="C227" t="n">
-        <v>85.58</v>
-      </c>
-      <c r="D227" t="n">
-        <v>85.58</v>
-      </c>
-      <c r="E227" t="n">
-        <v>85</v>
-      </c>
-      <c r="F227" t="n">
-        <v>2769.3082</v>
-      </c>
-      <c r="G227" t="n">
-        <v>246806.86329889</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>85.01000000000001</v>
-      </c>
-      <c r="C228" t="n">
-        <v>85.58</v>
-      </c>
-      <c r="D228" t="n">
-        <v>85.58</v>
-      </c>
-      <c r="E228" t="n">
-        <v>85.01000000000001</v>
-      </c>
-      <c r="F228" t="n">
-        <v>631.79</v>
-      </c>
-      <c r="G228" t="n">
-        <v>246806.86329889</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>85.48</v>
-      </c>
-      <c r="C229" t="n">
-        <v>85.36</v>
-      </c>
-      <c r="D229" t="n">
-        <v>85.58</v>
-      </c>
-      <c r="E229" t="n">
-        <v>84.11</v>
-      </c>
-      <c r="F229" t="n">
-        <v>23566.3582</v>
-      </c>
-      <c r="G229" t="n">
-        <v>223240.50509889</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>84.92</v>
-      </c>
-      <c r="C230" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="D230" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="E230" t="n">
-        <v>84.92</v>
-      </c>
-      <c r="F230" t="n">
-        <v>21438.891</v>
-      </c>
-      <c r="G230" t="n">
-        <v>244679.39609889</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="C231" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="D231" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="E231" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1411.9596</v>
-      </c>
-      <c r="G231" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>85.34999999999999</v>
-      </c>
-      <c r="C232" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="D232" t="n">
-        <v>85.34999999999999</v>
-      </c>
-      <c r="E232" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="F232" t="n">
-        <v>562.3627</v>
-      </c>
-      <c r="G232" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="C233" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="D233" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="E233" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="F233" t="n">
-        <v>79.0883</v>
-      </c>
-      <c r="G233" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="C234" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="D234" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="E234" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="F234" t="n">
-        <v>1372</v>
-      </c>
-      <c r="G234" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="C235" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="D235" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="E235" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2624.4219</v>
-      </c>
-      <c r="G235" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="C236" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="D236" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="E236" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="F236" t="n">
-        <v>11252.6316</v>
-      </c>
-      <c r="G236" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>85</v>
-      </c>
-      <c r="C237" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="D237" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="E237" t="n">
-        <v>85</v>
-      </c>
-      <c r="F237" t="n">
-        <v>26687.326</v>
-      </c>
-      <c r="G237" t="n">
-        <v>269954.76249889</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="C238" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="D238" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="E238" t="n">
-        <v>84.22</v>
-      </c>
-      <c r="F238" t="n">
-        <v>53946.0602</v>
-      </c>
-      <c r="G238" t="n">
-        <v>323900.8226988901</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="C239" t="n">
-        <v>84.25</v>
-      </c>
-      <c r="D239" t="n">
-        <v>85.45</v>
-      </c>
-      <c r="E239" t="n">
-        <v>84.25</v>
-      </c>
-      <c r="F239" t="n">
-        <v>15288.2441</v>
-      </c>
-      <c r="G239" t="n">
-        <v>308612.57859889</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>85.34999999999999</v>
-      </c>
-      <c r="C240" t="n">
-        <v>85.47</v>
-      </c>
-      <c r="D240" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="E240" t="n">
-        <v>85.34999999999999</v>
-      </c>
-      <c r="F240" t="n">
-        <v>15934.40703594389</v>
-      </c>
-      <c r="G240" t="n">
-        <v>324546.9856348339</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>85.47</v>
-      </c>
-      <c r="C241" t="n">
-        <v>85.47</v>
-      </c>
-      <c r="D241" t="n">
-        <v>85.47</v>
-      </c>
-      <c r="E241" t="n">
-        <v>85.47</v>
-      </c>
-      <c r="F241" t="n">
-        <v>7557.94</v>
-      </c>
-      <c r="G241" t="n">
-        <v>324546.9856348339</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="C242" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="D242" t="n">
-        <v>85.75</v>
-      </c>
-      <c r="E242" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="F242" t="n">
-        <v>7292.483664056108</v>
-      </c>
-      <c r="G242" t="n">
-        <v>331839.46929889</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="C243" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="D243" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="E243" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="F243" t="n">
-        <v>10552.72203594389</v>
-      </c>
-      <c r="G243" t="n">
-        <v>321286.7472629462</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>85.34999999999999</v>
-      </c>
-      <c r="C244" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="D244" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="E244" t="n">
-        <v>85.34999999999999</v>
-      </c>
-      <c r="F244" t="n">
-        <v>12700.0562</v>
-      </c>
-      <c r="G244" t="n">
-        <v>333986.8034629461</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>85.31999999999999</v>
-      </c>
-      <c r="C245" t="n">
-        <v>85.11</v>
-      </c>
-      <c r="D245" t="n">
-        <v>85.31999999999999</v>
-      </c>
-      <c r="E245" t="n">
-        <v>85.11</v>
-      </c>
-      <c r="F245" t="n">
-        <v>21669.0867</v>
-      </c>
-      <c r="G245" t="n">
-        <v>312317.7167629462</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>85.11</v>
-      </c>
-      <c r="C246" t="n">
-        <v>85.77</v>
-      </c>
-      <c r="D246" t="n">
-        <v>85.77</v>
-      </c>
-      <c r="E246" t="n">
-        <v>85.11</v>
-      </c>
-      <c r="F246" t="n">
-        <v>6202.795</v>
-      </c>
-      <c r="G246" t="n">
-        <v>318520.5117629461</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
+      <c r="N204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-16 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:N275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77.92</v>
+        <v>80.09</v>
       </c>
       <c r="C2" t="n">
-        <v>77.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>77.92</v>
+        <v>80.09</v>
       </c>
       <c r="E2" t="n">
-        <v>77.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>440.4539</v>
+        <v>46.915</v>
       </c>
       <c r="G2" t="n">
-        <v>-196889.1197255329</v>
+        <v>602.0601709812921</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,38 +474,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>77.92</v>
+        <v>80.09</v>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>80.09</v>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>80.09</v>
       </c>
       <c r="E3" t="n">
-        <v>77.92</v>
+        <v>80.09</v>
       </c>
       <c r="F3" t="n">
-        <v>14848.9597</v>
+        <v>936.5546000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-182040.1600255329</v>
+        <v>1538.614770981292</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>77.92</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>79.04000000000001</v>
+        <v>78.41</v>
       </c>
       <c r="D4" t="n">
-        <v>79.04000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>77.8</v>
+        <v>78.41</v>
       </c>
       <c r="F4" t="n">
-        <v>56794.1091</v>
+        <v>2484.6039</v>
       </c>
       <c r="G4" t="n">
-        <v>-125246.0509255329</v>
+        <v>-945.9891290187079</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>79</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>79</v>
+        <v>78.52</v>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>78.52</v>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>78.52</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>78.52</v>
       </c>
       <c r="F5" t="n">
-        <v>9360.6821</v>
+        <v>5164</v>
       </c>
       <c r="G5" t="n">
-        <v>-134606.7330255329</v>
+        <v>4218.010870981292</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>79.04000000000001</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>78.31</v>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>78.31</v>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>78.31</v>
       </c>
       <c r="E6" t="n">
-        <v>79</v>
+        <v>78.31</v>
       </c>
       <c r="F6" t="n">
-        <v>462.1162</v>
+        <v>1280.3265</v>
       </c>
       <c r="G6" t="n">
-        <v>-134606.7330255329</v>
+        <v>2937.684370981292</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -625,11 +607,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -640,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>79</v>
+        <v>78.33</v>
       </c>
       <c r="C7" t="n">
-        <v>80.19</v>
+        <v>78.33</v>
       </c>
       <c r="D7" t="n">
-        <v>80.19</v>
+        <v>78.33</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>78.33</v>
       </c>
       <c r="F7" t="n">
-        <v>107223.2109</v>
+        <v>1470</v>
       </c>
       <c r="G7" t="n">
-        <v>-27383.52212553291</v>
+        <v>4407.684370981292</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -665,11 +643,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -680,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78.63</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>78.62</v>
+        <v>78.52</v>
       </c>
       <c r="D8" t="n">
-        <v>78.63</v>
+        <v>78.52</v>
       </c>
       <c r="E8" t="n">
-        <v>78.62</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>48344.1396</v>
+        <v>25109.0639</v>
       </c>
       <c r="G8" t="n">
-        <v>-75727.6617255329</v>
+        <v>29516.74827098129</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -705,11 +679,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -720,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79.89</v>
+        <v>78.52</v>
       </c>
       <c r="C9" t="n">
-        <v>80.23</v>
+        <v>78.52</v>
       </c>
       <c r="D9" t="n">
-        <v>80.23</v>
+        <v>78.52</v>
       </c>
       <c r="E9" t="n">
-        <v>79.89</v>
+        <v>78.52</v>
       </c>
       <c r="F9" t="n">
-        <v>10152.66312631185</v>
+        <v>3159.2654</v>
       </c>
       <c r="G9" t="n">
-        <v>-65574.99859922106</v>
+        <v>29516.74827098129</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -745,11 +715,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -760,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>80.79000000000001</v>
+        <v>78.52</v>
       </c>
       <c r="C10" t="n">
-        <v>80.79000000000001</v>
+        <v>78.52</v>
       </c>
       <c r="D10" t="n">
-        <v>80.79000000000001</v>
+        <v>78.62</v>
       </c>
       <c r="E10" t="n">
-        <v>80.79000000000001</v>
+        <v>78.52</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>-65563.99859922106</v>
+        <v>29516.74827098129</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -785,11 +751,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -800,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>79.55</v>
+        <v>78.72</v>
       </c>
       <c r="C11" t="n">
-        <v>79.55</v>
+        <v>78.52</v>
       </c>
       <c r="D11" t="n">
-        <v>79.55</v>
+        <v>78.72</v>
       </c>
       <c r="E11" t="n">
-        <v>79.55</v>
+        <v>78.52</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>22849.3721</v>
       </c>
       <c r="G11" t="n">
-        <v>-65574.99859922106</v>
+        <v>29516.74827098129</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -825,11 +787,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -840,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>79.65000000000001</v>
+        <v>78.52</v>
       </c>
       <c r="C12" t="n">
-        <v>79.55</v>
+        <v>78.3</v>
       </c>
       <c r="D12" t="n">
-        <v>79.65000000000001</v>
+        <v>78.52</v>
       </c>
       <c r="E12" t="n">
-        <v>79.55</v>
+        <v>78.3</v>
       </c>
       <c r="F12" t="n">
-        <v>9542.705599999999</v>
+        <v>6564</v>
       </c>
       <c r="G12" t="n">
-        <v>-65574.99859922106</v>
+        <v>22952.74827098129</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -865,11 +823,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -880,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>80.20999999999999</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>80.20999999999999</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>80.20999999999999</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>80.20999999999999</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>4587.8822</v>
+        <v>1036.9911</v>
       </c>
       <c r="G13" t="n">
-        <v>-60987.11639922106</v>
+        <v>23989.73937098129</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -905,11 +859,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -920,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>80.33</v>
+        <v>78.3</v>
       </c>
       <c r="C14" t="n">
-        <v>80.34</v>
+        <v>78.3</v>
       </c>
       <c r="D14" t="n">
-        <v>80.34</v>
+        <v>78.3</v>
       </c>
       <c r="E14" t="n">
-        <v>80.33</v>
+        <v>78.3</v>
       </c>
       <c r="F14" t="n">
-        <v>12428.5407549166</v>
+        <v>39.7917</v>
       </c>
       <c r="G14" t="n">
-        <v>-48558.57564430446</v>
+        <v>23949.94767098129</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -945,11 +895,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -960,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>81</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>81</v>
+        <v>79.23999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>79.23999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>81</v>
+        <v>77.62</v>
       </c>
       <c r="F15" t="n">
-        <v>5638.4485</v>
+        <v>8187.9959</v>
       </c>
       <c r="G15" t="n">
-        <v>-42920.12714430446</v>
+        <v>32137.94357098129</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -985,11 +931,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1000,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>81.06</v>
+        <v>79.08</v>
       </c>
       <c r="C16" t="n">
-        <v>81.06999999999999</v>
+        <v>79.08</v>
       </c>
       <c r="D16" t="n">
-        <v>81.17</v>
+        <v>79.08</v>
       </c>
       <c r="E16" t="n">
-        <v>81.06</v>
+        <v>79.08</v>
       </c>
       <c r="F16" t="n">
-        <v>50137.4453</v>
+        <v>14426.8458</v>
       </c>
       <c r="G16" t="n">
-        <v>7217.318155695539</v>
+        <v>17711.09777098129</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1025,11 +967,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1040,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>81</v>
+        <v>79.06</v>
       </c>
       <c r="C17" t="n">
-        <v>81</v>
+        <v>79.05</v>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>79.06</v>
       </c>
       <c r="E17" t="n">
-        <v>81</v>
+        <v>79.05</v>
       </c>
       <c r="F17" t="n">
-        <v>1623.6333</v>
+        <v>2529.88426791524</v>
       </c>
       <c r="G17" t="n">
-        <v>5593.684855695539</v>
+        <v>15181.21350306605</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1065,11 +1003,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>81.06</v>
+        <v>77.88</v>
       </c>
       <c r="C18" t="n">
-        <v>81.17</v>
+        <v>77.88</v>
       </c>
       <c r="D18" t="n">
-        <v>81.17</v>
+        <v>77.88</v>
       </c>
       <c r="E18" t="n">
-        <v>81.06</v>
+        <v>77.88</v>
       </c>
       <c r="F18" t="n">
-        <v>46167.7839</v>
+        <v>13376.536</v>
       </c>
       <c r="G18" t="n">
-        <v>51761.46875569554</v>
+        <v>1804.67750306605</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1105,11 +1039,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1120,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>81.18000000000001</v>
+        <v>78.23</v>
       </c>
       <c r="C19" t="n">
-        <v>81.18000000000001</v>
+        <v>77.91</v>
       </c>
       <c r="D19" t="n">
-        <v>81.18000000000001</v>
+        <v>78.23</v>
       </c>
       <c r="E19" t="n">
-        <v>81.09999999999999</v>
+        <v>77.91</v>
       </c>
       <c r="F19" t="n">
-        <v>34625.1146</v>
+        <v>23454.6241</v>
       </c>
       <c r="G19" t="n">
-        <v>86386.58335569553</v>
+        <v>25259.30160306605</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1145,11 +1075,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1160,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>81.18000000000001</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>81.18000000000001</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>81.18000000000001</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>81.18000000000001</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>1067.5187</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>86386.58335569553</v>
+        <v>25359.30160306605</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1185,11 +1111,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1200,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>81.25</v>
+        <v>78</v>
       </c>
       <c r="C21" t="n">
-        <v>81.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>81.5</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
-        <v>81.25</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>11267.094</v>
+        <v>34474.2712</v>
       </c>
       <c r="G21" t="n">
-        <v>97653.67735569553</v>
+        <v>-9114.969596933952</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1225,11 +1147,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1240,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>82</v>
+        <v>77.8</v>
       </c>
       <c r="C22" t="n">
-        <v>82.81</v>
+        <v>77.8</v>
       </c>
       <c r="D22" t="n">
-        <v>82.81</v>
+        <v>77.8</v>
       </c>
       <c r="E22" t="n">
-        <v>82</v>
+        <v>77.8</v>
       </c>
       <c r="F22" t="n">
-        <v>21738.93338254546</v>
+        <v>692.8741</v>
       </c>
       <c r="G22" t="n">
-        <v>119392.610738241</v>
+        <v>-9807.843696933953</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1265,11 +1183,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1280,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>82.81</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>83.84999999999999</v>
+        <v>78.28</v>
       </c>
       <c r="D23" t="n">
-        <v>83.84999999999999</v>
+        <v>78.28</v>
       </c>
       <c r="E23" t="n">
-        <v>82.81</v>
+        <v>77.28</v>
       </c>
       <c r="F23" t="n">
-        <v>12647.00411745455</v>
+        <v>36307.9731</v>
       </c>
       <c r="G23" t="n">
-        <v>132039.6148556955</v>
+        <v>26500.12940306605</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1305,11 +1219,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1320,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>83.95</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>84.8</v>
+        <v>77.25</v>
       </c>
       <c r="D24" t="n">
-        <v>84.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>83.95</v>
+        <v>77.25</v>
       </c>
       <c r="F24" t="n">
-        <v>14241.1387</v>
+        <v>14120.3183</v>
       </c>
       <c r="G24" t="n">
-        <v>146280.7535556956</v>
+        <v>12379.81110306605</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1345,11 +1255,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1360,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>84.7</v>
+        <v>77.25</v>
       </c>
       <c r="C25" t="n">
-        <v>85</v>
+        <v>77.25</v>
       </c>
       <c r="D25" t="n">
-        <v>85</v>
+        <v>77.25</v>
       </c>
       <c r="E25" t="n">
-        <v>84.7</v>
+        <v>77.25</v>
       </c>
       <c r="F25" t="n">
-        <v>39763.1169</v>
+        <v>36035.0694</v>
       </c>
       <c r="G25" t="n">
-        <v>186043.8704556955</v>
+        <v>12379.81110306605</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1385,11 +1291,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1400,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>85</v>
+        <v>77.25</v>
       </c>
       <c r="C26" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D26" t="n">
-        <v>85.78</v>
+        <v>77.25</v>
       </c>
       <c r="E26" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F26" t="n">
-        <v>78137.4859</v>
+        <v>7150.8794</v>
       </c>
       <c r="G26" t="n">
-        <v>186043.8704556955</v>
+        <v>5228.93170306605</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1425,11 +1327,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1440,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>85.79000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C27" t="n">
-        <v>84</v>
+        <v>76.8</v>
       </c>
       <c r="D27" t="n">
-        <v>85.79000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E27" t="n">
-        <v>84</v>
+        <v>76.8</v>
       </c>
       <c r="F27" t="n">
-        <v>5669.3928</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>180374.4776556955</v>
+        <v>5208.93170306605</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1465,11 +1363,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1480,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83.06999999999999</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>84</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>84</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>83.06999999999999</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>21573.6391</v>
+        <v>2559.3957</v>
       </c>
       <c r="G28" t="n">
-        <v>180374.4776556955</v>
+        <v>2649.536003066049</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1505,11 +1399,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1520,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>84</v>
+        <v>76.8</v>
       </c>
       <c r="C29" t="n">
-        <v>84</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>84</v>
+        <v>76.8</v>
       </c>
       <c r="E29" t="n">
-        <v>84</v>
+        <v>76.51000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>16239.3372</v>
+        <v>44549.3701</v>
       </c>
       <c r="G29" t="n">
-        <v>180374.4776556955</v>
+        <v>-41899.83409693395</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1545,11 +1435,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1560,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83.23</v>
+        <v>76.8</v>
       </c>
       <c r="C30" t="n">
-        <v>83</v>
+        <v>76.8</v>
       </c>
       <c r="D30" t="n">
-        <v>83.23</v>
+        <v>76.8</v>
       </c>
       <c r="E30" t="n">
-        <v>83</v>
+        <v>76.8</v>
       </c>
       <c r="F30" t="n">
-        <v>51522.0801</v>
+        <v>5195.3579</v>
       </c>
       <c r="G30" t="n">
-        <v>128852.3975556956</v>
+        <v>-36704.47619693395</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1585,11 +1471,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1600,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>83</v>
+        <v>76.8</v>
       </c>
       <c r="C31" t="n">
-        <v>85.53</v>
+        <v>76.8</v>
       </c>
       <c r="D31" t="n">
-        <v>85.53</v>
+        <v>76.8</v>
       </c>
       <c r="E31" t="n">
-        <v>83</v>
+        <v>76.8</v>
       </c>
       <c r="F31" t="n">
-        <v>101859.7627</v>
+        <v>15249.9961</v>
       </c>
       <c r="G31" t="n">
-        <v>230712.1602556956</v>
+        <v>-36704.47619693395</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1625,11 +1507,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1640,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>83.04000000000001</v>
+        <v>76.55</v>
       </c>
       <c r="C32" t="n">
-        <v>83.04000000000001</v>
+        <v>76.36</v>
       </c>
       <c r="D32" t="n">
-        <v>84.04000000000001</v>
+        <v>76.55</v>
       </c>
       <c r="E32" t="n">
-        <v>83.04000000000001</v>
+        <v>76.36</v>
       </c>
       <c r="F32" t="n">
-        <v>38841.0644</v>
+        <v>18484</v>
       </c>
       <c r="G32" t="n">
-        <v>191871.0958556956</v>
+        <v>-55188.47619693395</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1665,11 +1543,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1680,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>82.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C33" t="n">
-        <v>81.7</v>
+        <v>76.8</v>
       </c>
       <c r="D33" t="n">
-        <v>82.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E33" t="n">
-        <v>81.7</v>
+        <v>76.8</v>
       </c>
       <c r="F33" t="n">
-        <v>45351.9508</v>
+        <v>2638.1771</v>
       </c>
       <c r="G33" t="n">
-        <v>146519.1450556956</v>
+        <v>-52550.29909693394</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1705,11 +1579,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1720,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>81.8</v>
+        <v>76.8</v>
       </c>
       <c r="C34" t="n">
-        <v>82.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D34" t="n">
-        <v>82.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="E34" t="n">
-        <v>81.8</v>
+        <v>76.8</v>
       </c>
       <c r="F34" t="n">
-        <v>4001.8583</v>
+        <v>67248.6235</v>
       </c>
       <c r="G34" t="n">
-        <v>150521.0033556956</v>
+        <v>-52550.29909693394</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1745,11 +1615,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1760,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82.20999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="C35" t="n">
-        <v>82.20999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D35" t="n">
-        <v>82.20999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="E35" t="n">
-        <v>82.20999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="F35" t="n">
-        <v>1756.8662</v>
+        <v>188.3856</v>
       </c>
       <c r="G35" t="n">
-        <v>152277.8695556956</v>
+        <v>-52550.29909693394</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1785,11 +1651,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1800,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>82.69</v>
+        <v>76.8</v>
       </c>
       <c r="C36" t="n">
-        <v>82.69</v>
+        <v>77.87</v>
       </c>
       <c r="D36" t="n">
-        <v>82.79000000000001</v>
+        <v>77.87</v>
       </c>
       <c r="E36" t="n">
-        <v>82.69</v>
+        <v>76.8</v>
       </c>
       <c r="F36" t="n">
-        <v>33245.1999</v>
+        <v>6624.262171401053</v>
       </c>
       <c r="G36" t="n">
-        <v>185523.0694556956</v>
+        <v>-45926.03692553289</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1825,11 +1687,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1840,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>83.40000000000001</v>
+        <v>77.63</v>
       </c>
       <c r="C37" t="n">
-        <v>83.40000000000001</v>
+        <v>77.63</v>
       </c>
       <c r="D37" t="n">
-        <v>83.40000000000001</v>
+        <v>77.63</v>
       </c>
       <c r="E37" t="n">
-        <v>83.40000000000001</v>
+        <v>77.63</v>
       </c>
       <c r="F37" t="n">
-        <v>3793.8974</v>
+        <v>58.4969</v>
       </c>
       <c r="G37" t="n">
-        <v>189316.9668556956</v>
+        <v>-45984.53382553289</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1865,11 +1723,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1880,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>83.40000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="C38" t="n">
-        <v>83.40000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="D38" t="n">
-        <v>83.40000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="E38" t="n">
-        <v>83.40000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="F38" t="n">
-        <v>11644.6167</v>
+        <v>8340.7628</v>
       </c>
       <c r="G38" t="n">
-        <v>189316.9668556956</v>
+        <v>-54325.29662553289</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1905,11 +1759,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1920,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83.3</v>
+        <v>77.14</v>
       </c>
       <c r="C39" t="n">
-        <v>83.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D39" t="n">
-        <v>83.40000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="E39" t="n">
-        <v>83.3</v>
+        <v>76.79000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>3597.1224</v>
+        <v>26344.2345</v>
       </c>
       <c r="G39" t="n">
-        <v>189316.9668556956</v>
+        <v>-80669.5311255329</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1945,11 +1795,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1960,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>82.37</v>
+        <v>76.8</v>
       </c>
       <c r="C40" t="n">
-        <v>82.25</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>82.37</v>
+        <v>76.8</v>
       </c>
       <c r="E40" t="n">
-        <v>82.25</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>8265.0479</v>
+        <v>76532.4767</v>
       </c>
       <c r="G40" t="n">
-        <v>181051.9189556956</v>
+        <v>-157202.0078255329</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1985,11 +1831,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2000,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>83.18000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="C41" t="n">
-        <v>83.5</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>83.5</v>
+        <v>76.2</v>
       </c>
       <c r="E41" t="n">
-        <v>83.18000000000001</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>13654.8076</v>
+        <v>18110.9517</v>
       </c>
       <c r="G41" t="n">
-        <v>194706.7265556956</v>
+        <v>-157202.0078255329</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2025,11 +1867,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2040,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>83.5</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>84.09999999999999</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>84.09999999999999</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>83.5</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>3758.0553</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>198464.7818556956</v>
+        <v>-157152.0078255329</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2065,11 +1903,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2080,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>82.5</v>
+        <v>77.14</v>
       </c>
       <c r="C43" t="n">
-        <v>82.25</v>
+        <v>77.14</v>
       </c>
       <c r="D43" t="n">
-        <v>82.5</v>
+        <v>77.14</v>
       </c>
       <c r="E43" t="n">
-        <v>82.25</v>
+        <v>77.14</v>
       </c>
       <c r="F43" t="n">
-        <v>10643.1519</v>
+        <v>11269.0417</v>
       </c>
       <c r="G43" t="n">
-        <v>187821.6299556956</v>
+        <v>-145882.9661255329</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2105,11 +1939,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>82.25</v>
+        <v>77.14</v>
       </c>
       <c r="C44" t="n">
-        <v>83.3</v>
+        <v>77.14</v>
       </c>
       <c r="D44" t="n">
-        <v>83.3</v>
+        <v>77.14</v>
       </c>
       <c r="E44" t="n">
-        <v>82.25</v>
+        <v>77.14</v>
       </c>
       <c r="F44" t="n">
-        <v>75807.2801</v>
+        <v>409.9847</v>
       </c>
       <c r="G44" t="n">
-        <v>263628.9100556956</v>
+        <v>-145882.9661255329</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2145,11 +1975,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2160,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>82.31</v>
+        <v>77.14</v>
       </c>
       <c r="C45" t="n">
-        <v>82.3</v>
+        <v>77.14</v>
       </c>
       <c r="D45" t="n">
-        <v>82.31</v>
+        <v>77.14</v>
       </c>
       <c r="E45" t="n">
-        <v>82.3</v>
+        <v>77.14</v>
       </c>
       <c r="F45" t="n">
-        <v>15541.1866</v>
+        <v>413.9414</v>
       </c>
       <c r="G45" t="n">
-        <v>248087.7234556956</v>
+        <v>-145882.9661255329</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2185,11 +2011,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2200,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>82.3</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>82.98</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>82.98</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>82.3</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>64754.6617</v>
+        <v>310.9302</v>
       </c>
       <c r="G46" t="n">
-        <v>312842.3851556955</v>
+        <v>-145572.0359255329</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2225,11 +2047,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2240,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>82.67</v>
+        <v>77.16</v>
       </c>
       <c r="C47" t="n">
-        <v>82.98999999999999</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>82.98999999999999</v>
+        <v>77.16</v>
       </c>
       <c r="E47" t="n">
-        <v>82.67</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>54100.4155</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="n">
-        <v>366942.8006556956</v>
+        <v>-147572.0359255329</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2265,11 +2083,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2280,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>82.3</v>
+        <v>77.16</v>
       </c>
       <c r="C48" t="n">
-        <v>82.3</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>82.3</v>
+        <v>77.16</v>
       </c>
       <c r="E48" t="n">
-        <v>82.3</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>11102.8264</v>
+        <v>10000</v>
       </c>
       <c r="G48" t="n">
-        <v>355839.9742556955</v>
+        <v>-147572.0359255329</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2305,11 +2119,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2320,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>82.40000000000001</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>82.40000000000001</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>82.40000000000001</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>82.40000000000001</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>5421.6894</v>
+        <v>10308.7026</v>
       </c>
       <c r="G49" t="n">
-        <v>361261.6636556955</v>
+        <v>-147572.0359255329</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2345,11 +2155,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2360,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>82.31999999999999</v>
+        <v>77.78</v>
       </c>
       <c r="C50" t="n">
-        <v>82.31999999999999</v>
+        <v>77.78</v>
       </c>
       <c r="D50" t="n">
-        <v>82.31999999999999</v>
+        <v>77.78</v>
       </c>
       <c r="E50" t="n">
-        <v>82.31999999999999</v>
+        <v>77.78</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>361161.6636556955</v>
+        <v>-147522.0359255329</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2385,11 +2191,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2400,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>82.33</v>
+        <v>77.22</v>
       </c>
       <c r="C51" t="n">
-        <v>82.33</v>
+        <v>77.22</v>
       </c>
       <c r="D51" t="n">
-        <v>82.33</v>
+        <v>77.22</v>
       </c>
       <c r="E51" t="n">
-        <v>82.33</v>
+        <v>77.22</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>13000</v>
       </c>
       <c r="G51" t="n">
-        <v>361261.6636556955</v>
+        <v>-160522.0359255329</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2425,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2440,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>82.31999999999999</v>
+        <v>77.69</v>
       </c>
       <c r="C52" t="n">
-        <v>82.2</v>
+        <v>77.69</v>
       </c>
       <c r="D52" t="n">
-        <v>82.31999999999999</v>
+        <v>77.69</v>
       </c>
       <c r="E52" t="n">
-        <v>82.2</v>
+        <v>77.69</v>
       </c>
       <c r="F52" t="n">
-        <v>463.2864</v>
+        <v>5396.8707</v>
       </c>
       <c r="G52" t="n">
-        <v>360798.3772556955</v>
+        <v>-155125.1652255329</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2465,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2480,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82.2</v>
+        <v>77.69</v>
       </c>
       <c r="C53" t="n">
-        <v>82.2</v>
+        <v>77.69</v>
       </c>
       <c r="D53" t="n">
-        <v>82.2</v>
+        <v>77.69</v>
       </c>
       <c r="E53" t="n">
-        <v>82.2</v>
+        <v>77.69</v>
       </c>
       <c r="F53" t="n">
-        <v>3299.9563</v>
+        <v>632.5177</v>
       </c>
       <c r="G53" t="n">
-        <v>360798.3772556955</v>
+        <v>-155125.1652255329</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2505,11 +2299,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2520,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>82.2</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>82.2</v>
+        <v>77.2</v>
       </c>
       <c r="D54" t="n">
-        <v>82.2</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>82.2</v>
+        <v>77.2</v>
       </c>
       <c r="F54" t="n">
-        <v>5876</v>
+        <v>65513.9285</v>
       </c>
       <c r="G54" t="n">
-        <v>360798.3772556955</v>
+        <v>-220639.0937255329</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2545,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2560,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>82.2</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>82.2</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>82.2</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>82.2</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>2012.9604</v>
+        <v>1435.2462</v>
       </c>
       <c r="G55" t="n">
-        <v>360798.3772556955</v>
+        <v>-222074.3399255329</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2585,11 +2371,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2600,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>81.42</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>81.42</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>81.42</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>81.42</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>5894.633</v>
+        <v>2030.2029</v>
       </c>
       <c r="G56" t="n">
-        <v>354903.7442556956</v>
+        <v>-222074.3399255329</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2625,11 +2407,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2640,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>81.19</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>81.18000000000001</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>81.2</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>81.18000000000001</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>8819.8488</v>
+        <v>6431.4954</v>
       </c>
       <c r="G57" t="n">
-        <v>346083.8954556956</v>
+        <v>-222074.3399255329</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2665,11 +2443,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2680,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>81.31</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>81.31</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>81.31</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>81.31</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1550</v>
+        <v>13659.235</v>
       </c>
       <c r="G58" t="n">
-        <v>347633.8954556956</v>
+        <v>-222074.3399255329</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2705,11 +2479,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2720,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>81.69</v>
+        <v>77.67</v>
       </c>
       <c r="C59" t="n">
-        <v>81.69</v>
+        <v>77.67</v>
       </c>
       <c r="D59" t="n">
-        <v>81.69</v>
+        <v>77.67</v>
       </c>
       <c r="E59" t="n">
-        <v>81.69</v>
+        <v>77.67</v>
       </c>
       <c r="F59" t="n">
-        <v>1469</v>
+        <v>50</v>
       </c>
       <c r="G59" t="n">
-        <v>349102.8954556956</v>
+        <v>-222024.3399255329</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2745,11 +2515,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2760,34 +2526,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>81.5</v>
+        <v>77.44</v>
       </c>
       <c r="C60" t="n">
-        <v>81.5</v>
+        <v>77.3</v>
       </c>
       <c r="D60" t="n">
-        <v>81.5</v>
+        <v>77.44</v>
       </c>
       <c r="E60" t="n">
-        <v>81.5</v>
+        <v>77.3</v>
       </c>
       <c r="F60" t="n">
-        <v>1190.0186</v>
+        <v>50177.6422</v>
       </c>
       <c r="G60" t="n">
-        <v>347912.8768556956</v>
+        <v>-272201.9821255329</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>77.67</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2800,22 +2568,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>81.59</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>81.59</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>81.59</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>81.59</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>636</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>348548.8768556956</v>
+        <v>-272191.9821255329</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2840,30 +2608,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>82.28</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>82.19</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>82.28</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>82.19</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>3383.5756</v>
+        <v>8293.752399999999</v>
       </c>
       <c r="G62" t="n">
-        <v>351932.4524556955</v>
+        <v>-272191.9821255329</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>77.56999999999999</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2880,22 +2650,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>81.5</v>
+        <v>76.3</v>
       </c>
       <c r="C63" t="n">
-        <v>80.7</v>
+        <v>76.3</v>
       </c>
       <c r="D63" t="n">
-        <v>81.5</v>
+        <v>76.3</v>
       </c>
       <c r="E63" t="n">
-        <v>80.7</v>
+        <v>76.3</v>
       </c>
       <c r="F63" t="n">
-        <v>31378.9931</v>
+        <v>3151.8896</v>
       </c>
       <c r="G63" t="n">
-        <v>320553.4593556955</v>
+        <v>-275343.8717255329</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2920,22 +2690,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>80.7</v>
+        <v>76.3</v>
       </c>
       <c r="C64" t="n">
-        <v>81.86</v>
+        <v>76.3</v>
       </c>
       <c r="D64" t="n">
-        <v>81.86</v>
+        <v>76.3</v>
       </c>
       <c r="E64" t="n">
-        <v>80.7</v>
+        <v>76.3</v>
       </c>
       <c r="F64" t="n">
-        <v>413.5043</v>
+        <v>4329.6842</v>
       </c>
       <c r="G64" t="n">
-        <v>320966.9636556955</v>
+        <v>-275343.8717255329</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2960,22 +2730,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>81.28</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>81.39</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>81.39</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>81.28</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>13608.418</v>
+        <v>2426.2476</v>
       </c>
       <c r="G65" t="n">
-        <v>307358.5456556955</v>
+        <v>-272917.6241255329</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3000,30 +2770,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>81.5</v>
+        <v>77.67</v>
       </c>
       <c r="C66" t="n">
-        <v>81.5</v>
+        <v>77.67</v>
       </c>
       <c r="D66" t="n">
-        <v>81.5</v>
+        <v>77.67</v>
       </c>
       <c r="E66" t="n">
-        <v>81.5</v>
+        <v>77.67</v>
       </c>
       <c r="F66" t="n">
-        <v>13629.5986</v>
+        <v>3926.2564</v>
       </c>
       <c r="G66" t="n">
-        <v>320988.1442556955</v>
+        <v>-268991.3677255329</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>77.56999999999999</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -3040,30 +2812,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>81.48999999999999</v>
+        <v>77.77</v>
       </c>
       <c r="C67" t="n">
-        <v>81.48999999999999</v>
+        <v>77.77</v>
       </c>
       <c r="D67" t="n">
-        <v>81.48999999999999</v>
+        <v>77.77</v>
       </c>
       <c r="E67" t="n">
-        <v>81.48999999999999</v>
+        <v>77.77</v>
       </c>
       <c r="F67" t="n">
-        <v>1469</v>
+        <v>797.1457</v>
       </c>
       <c r="G67" t="n">
-        <v>319519.1442556955</v>
+        <v>-268194.2220255329</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>77.67</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -3080,30 +2854,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>81.3</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>81.3</v>
+        <v>77.92</v>
       </c>
       <c r="D68" t="n">
-        <v>81.3</v>
+        <v>77.92</v>
       </c>
       <c r="E68" t="n">
-        <v>81.3</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>21568</v>
+        <v>752.3869999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>297951.1442556955</v>
+        <v>-267441.8350255329</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>77.77</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -3120,30 +2896,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>81.3</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>81.3</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>81.3</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>81.3</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>1768</v>
+        <v>6922.3357</v>
       </c>
       <c r="G69" t="n">
-        <v>297951.1442556955</v>
+        <v>-274364.1707255329</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>77.92</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -3160,30 +2938,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>81.3</v>
+        <v>77.61</v>
       </c>
       <c r="C70" t="n">
-        <v>80.61</v>
+        <v>77.58</v>
       </c>
       <c r="D70" t="n">
-        <v>81.3</v>
+        <v>77.61</v>
       </c>
       <c r="E70" t="n">
-        <v>80.61</v>
+        <v>77.58</v>
       </c>
       <c r="F70" t="n">
-        <v>2819.8822</v>
+        <v>77024.5971</v>
       </c>
       <c r="G70" t="n">
-        <v>295131.2620556955</v>
+        <v>-197339.5736255329</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>77.56999999999999</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3200,22 +2980,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>80.83</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>80.83</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>80.83</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>80.83</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>6565.206</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>301696.4680556955</v>
+        <v>-197329.5736255329</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3240,22 +3020,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>80.62</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>79.51000000000001</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>80.62</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>79.51000000000001</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>40343.2832</v>
+        <v>7</v>
       </c>
       <c r="G72" t="n">
-        <v>261353.1848556955</v>
+        <v>-197329.5736255329</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3280,22 +3060,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>79.81</v>
+        <v>77.92</v>
       </c>
       <c r="C73" t="n">
-        <v>78.73</v>
+        <v>77.92</v>
       </c>
       <c r="D73" t="n">
-        <v>79.81</v>
+        <v>77.92</v>
       </c>
       <c r="E73" t="n">
-        <v>78.73</v>
+        <v>77.92</v>
       </c>
       <c r="F73" t="n">
-        <v>41454.4221</v>
+        <v>440.4539</v>
       </c>
       <c r="G73" t="n">
-        <v>219898.7627556955</v>
+        <v>-196889.1197255329</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3320,30 +3100,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>79.7</v>
+        <v>77.92</v>
       </c>
       <c r="C74" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="D74" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="E74" t="n">
-        <v>79.7</v>
+        <v>77.92</v>
       </c>
       <c r="F74" t="n">
-        <v>163.8079</v>
+        <v>14848.9597</v>
       </c>
       <c r="G74" t="n">
-        <v>220062.5706556955</v>
+        <v>-182040.1600255329</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>77.92</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3360,22 +3142,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>79.7</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>79.7</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>79.7</v>
+        <v>77.8</v>
       </c>
       <c r="F75" t="n">
-        <v>441.9847</v>
+        <v>56794.1091</v>
       </c>
       <c r="G75" t="n">
-        <v>220062.5706556955</v>
+        <v>-125246.0509255329</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3400,30 +3182,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="C76" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="D76" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="E76" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="F76" t="n">
-        <v>33956.3023</v>
+        <v>9360.6821</v>
       </c>
       <c r="G76" t="n">
-        <v>220062.5706556955</v>
+        <v>-134606.7330255329</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>79.04000000000001</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3440,22 +3224,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="C77" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="D77" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="E77" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="F77" t="n">
-        <v>6070.7258</v>
+        <v>462.1162</v>
       </c>
       <c r="G77" t="n">
-        <v>220062.5706556955</v>
+        <v>-134606.7330255329</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3480,22 +3264,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="C78" t="n">
-        <v>79.7</v>
+        <v>80.19</v>
       </c>
       <c r="D78" t="n">
-        <v>79.7</v>
+        <v>80.19</v>
       </c>
       <c r="E78" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="F78" t="n">
-        <v>713.6952</v>
+        <v>107223.2109</v>
       </c>
       <c r="G78" t="n">
-        <v>220062.5706556955</v>
+        <v>-27383.52212553291</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3520,22 +3304,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>79.70999999999999</v>
+        <v>78.63</v>
       </c>
       <c r="C79" t="n">
-        <v>79.7</v>
+        <v>78.62</v>
       </c>
       <c r="D79" t="n">
-        <v>79.70999999999999</v>
+        <v>78.63</v>
       </c>
       <c r="E79" t="n">
-        <v>79.7</v>
+        <v>78.62</v>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>48344.1396</v>
       </c>
       <c r="G79" t="n">
-        <v>220062.5706556955</v>
+        <v>-75727.6617255329</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3560,22 +3344,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>80.42</v>
+        <v>79.89</v>
       </c>
       <c r="C80" t="n">
-        <v>80.42</v>
+        <v>80.23</v>
       </c>
       <c r="D80" t="n">
-        <v>80.42</v>
+        <v>80.23</v>
       </c>
       <c r="E80" t="n">
-        <v>80.42</v>
+        <v>79.89</v>
       </c>
       <c r="F80" t="n">
-        <v>376.0274</v>
+        <v>10152.66312631185</v>
       </c>
       <c r="G80" t="n">
-        <v>220438.5980556955</v>
+        <v>-65574.99859922106</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3600,22 +3384,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>80.68000000000001</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>80.68000000000001</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>80.68000000000001</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>80.68000000000001</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>119.3261</v>
+        <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>220557.9241556955</v>
+        <v>-65563.99859922106</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3640,22 +3424,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>80.42</v>
+        <v>79.55</v>
       </c>
       <c r="C82" t="n">
-        <v>80.70999999999999</v>
+        <v>79.55</v>
       </c>
       <c r="D82" t="n">
-        <v>80.70999999999999</v>
+        <v>79.55</v>
       </c>
       <c r="E82" t="n">
-        <v>80.42</v>
+        <v>79.55</v>
       </c>
       <c r="F82" t="n">
-        <v>621.4373000000001</v>
+        <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>221179.3614556955</v>
+        <v>-65574.99859922106</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3680,22 +3464,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>81.38</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>81.38</v>
+        <v>79.55</v>
       </c>
       <c r="D83" t="n">
-        <v>81.38</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>81.38</v>
+        <v>79.55</v>
       </c>
       <c r="F83" t="n">
-        <v>1494.8151</v>
+        <v>9542.705599999999</v>
       </c>
       <c r="G83" t="n">
-        <v>222674.1765556955</v>
+        <v>-65574.99859922106</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3720,22 +3504,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>81.40000000000001</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>81.67</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>81.67</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>81.40000000000001</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>22916.8218</v>
+        <v>4587.8822</v>
       </c>
       <c r="G84" t="n">
-        <v>245590.9983556955</v>
+        <v>-60987.11639922106</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3760,22 +3544,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>81.77</v>
+        <v>80.33</v>
       </c>
       <c r="C85" t="n">
-        <v>81.67</v>
+        <v>80.34</v>
       </c>
       <c r="D85" t="n">
-        <v>81.77</v>
+        <v>80.34</v>
       </c>
       <c r="E85" t="n">
-        <v>81.67</v>
+        <v>80.33</v>
       </c>
       <c r="F85" t="n">
-        <v>1243.6952</v>
+        <v>12428.5407549166</v>
       </c>
       <c r="G85" t="n">
-        <v>245590.9983556955</v>
+        <v>-48558.57564430446</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3800,22 +3584,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>81.67</v>
+        <v>81</v>
       </c>
       <c r="C86" t="n">
-        <v>81.67</v>
+        <v>81</v>
       </c>
       <c r="D86" t="n">
-        <v>81.67</v>
+        <v>81</v>
       </c>
       <c r="E86" t="n">
-        <v>81.67</v>
+        <v>81</v>
       </c>
       <c r="F86" t="n">
-        <v>25599.8182</v>
+        <v>5638.4485</v>
       </c>
       <c r="G86" t="n">
-        <v>245590.9983556955</v>
+        <v>-42920.12714430446</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3840,22 +3624,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>81.67</v>
+        <v>81.06</v>
       </c>
       <c r="C87" t="n">
-        <v>81.67</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>81.67</v>
+        <v>81.17</v>
       </c>
       <c r="E87" t="n">
-        <v>81.67</v>
+        <v>81.06</v>
       </c>
       <c r="F87" t="n">
-        <v>6692.1496</v>
+        <v>50137.4453</v>
       </c>
       <c r="G87" t="n">
-        <v>245590.9983556955</v>
+        <v>7217.318155695539</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3880,22 +3664,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>81.94</v>
+        <v>81</v>
       </c>
       <c r="C88" t="n">
-        <v>81.94</v>
+        <v>81</v>
       </c>
       <c r="D88" t="n">
-        <v>81.94</v>
+        <v>81</v>
       </c>
       <c r="E88" t="n">
-        <v>81.94</v>
+        <v>81</v>
       </c>
       <c r="F88" t="n">
-        <v>5633.547</v>
+        <v>1623.6333</v>
       </c>
       <c r="G88" t="n">
-        <v>251224.5453556955</v>
+        <v>5593.684855695539</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3920,22 +3704,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>82.12</v>
+        <v>81.06</v>
       </c>
       <c r="C89" t="n">
-        <v>82.12</v>
+        <v>81.17</v>
       </c>
       <c r="D89" t="n">
-        <v>82.12</v>
+        <v>81.17</v>
       </c>
       <c r="E89" t="n">
-        <v>82.12</v>
+        <v>81.06</v>
       </c>
       <c r="F89" t="n">
-        <v>1527.057</v>
+        <v>46167.7839</v>
       </c>
       <c r="G89" t="n">
-        <v>252751.6023556955</v>
+        <v>51761.46875569554</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3960,22 +3744,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>82</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>82</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>82</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>82</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1648</v>
+        <v>34625.1146</v>
       </c>
       <c r="G90" t="n">
-        <v>251103.6023556955</v>
+        <v>86386.58335569553</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4000,22 +3784,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>82</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>82</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>82</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>82</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>2816.7735</v>
+        <v>1067.5187</v>
       </c>
       <c r="G91" t="n">
-        <v>251103.6023556955</v>
+        <v>86386.58335569553</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4040,22 +3824,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>82</v>
+        <v>81.25</v>
       </c>
       <c r="C92" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="D92" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="E92" t="n">
-        <v>82</v>
+        <v>81.25</v>
       </c>
       <c r="F92" t="n">
-        <v>282.5588</v>
+        <v>11267.094</v>
       </c>
       <c r="G92" t="n">
-        <v>251103.6023556955</v>
+        <v>97653.67735569553</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4080,22 +3864,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="C93" t="n">
-        <v>81.67</v>
+        <v>82.81</v>
       </c>
       <c r="D93" t="n">
-        <v>81.67</v>
+        <v>82.81</v>
       </c>
       <c r="E93" t="n">
-        <v>81.67</v>
+        <v>82</v>
       </c>
       <c r="F93" t="n">
-        <v>5350.988</v>
+        <v>21738.93338254546</v>
       </c>
       <c r="G93" t="n">
-        <v>245752.6143556955</v>
+        <v>119392.610738241</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4120,22 +3904,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>82</v>
+        <v>82.81</v>
       </c>
       <c r="C94" t="n">
-        <v>82</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>82</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>82</v>
+        <v>82.81</v>
       </c>
       <c r="F94" t="n">
-        <v>1259.7094</v>
+        <v>12647.00411745455</v>
       </c>
       <c r="G94" t="n">
-        <v>247012.3237556955</v>
+        <v>132039.6148556955</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4160,22 +3944,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>82</v>
+        <v>83.95</v>
       </c>
       <c r="C95" t="n">
-        <v>82.23</v>
+        <v>84.8</v>
       </c>
       <c r="D95" t="n">
-        <v>82.23</v>
+        <v>84.8</v>
       </c>
       <c r="E95" t="n">
-        <v>82</v>
+        <v>83.95</v>
       </c>
       <c r="F95" t="n">
-        <v>1644.6513</v>
+        <v>14241.1387</v>
       </c>
       <c r="G95" t="n">
-        <v>248656.9750556955</v>
+        <v>146280.7535556956</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4200,22 +3984,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>82.45</v>
+        <v>84.7</v>
       </c>
       <c r="C96" t="n">
-        <v>82.45</v>
+        <v>85</v>
       </c>
       <c r="D96" t="n">
-        <v>82.45</v>
+        <v>85</v>
       </c>
       <c r="E96" t="n">
-        <v>82.45</v>
+        <v>84.7</v>
       </c>
       <c r="F96" t="n">
-        <v>820.3555</v>
+        <v>39763.1169</v>
       </c>
       <c r="G96" t="n">
-        <v>249477.3305556955</v>
+        <v>186043.8704556955</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4240,22 +4024,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>82.23</v>
+        <v>85</v>
       </c>
       <c r="C97" t="n">
-        <v>82.23</v>
+        <v>85</v>
       </c>
       <c r="D97" t="n">
-        <v>82.23</v>
+        <v>85.78</v>
       </c>
       <c r="E97" t="n">
-        <v>82.23</v>
+        <v>85</v>
       </c>
       <c r="F97" t="n">
-        <v>1469</v>
+        <v>78137.4859</v>
       </c>
       <c r="G97" t="n">
-        <v>248008.3305556955</v>
+        <v>186043.8704556955</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4280,22 +4064,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>82.23</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D98" t="n">
-        <v>82.23</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F98" t="n">
-        <v>3720.7386</v>
+        <v>5669.3928</v>
       </c>
       <c r="G98" t="n">
-        <v>244287.5919556955</v>
+        <v>180374.4776556955</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4320,22 +4104,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>82</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>81.67</v>
+        <v>84</v>
       </c>
       <c r="D99" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E99" t="n">
-        <v>81.67</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>9756.869699999999</v>
+        <v>21573.6391</v>
       </c>
       <c r="G99" t="n">
-        <v>234530.7222556955</v>
+        <v>180374.4776556955</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4360,22 +4144,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>81.67</v>
+        <v>84</v>
       </c>
       <c r="C100" t="n">
-        <v>81.67</v>
+        <v>84</v>
       </c>
       <c r="D100" t="n">
-        <v>81.67</v>
+        <v>84</v>
       </c>
       <c r="E100" t="n">
-        <v>81.67</v>
+        <v>84</v>
       </c>
       <c r="F100" t="n">
-        <v>7600</v>
+        <v>16239.3372</v>
       </c>
       <c r="G100" t="n">
-        <v>234530.7222556955</v>
+        <v>180374.4776556955</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4400,22 +4184,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>81.89</v>
+        <v>83.23</v>
       </c>
       <c r="C101" t="n">
-        <v>81.89</v>
+        <v>83</v>
       </c>
       <c r="D101" t="n">
-        <v>81.89</v>
+        <v>83.23</v>
       </c>
       <c r="E101" t="n">
-        <v>81.89</v>
+        <v>83</v>
       </c>
       <c r="F101" t="n">
-        <v>3173.5164</v>
+        <v>51522.0801</v>
       </c>
       <c r="G101" t="n">
-        <v>237704.2386556955</v>
+        <v>128852.3975556956</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4440,22 +4224,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>81.78</v>
+        <v>83</v>
       </c>
       <c r="C102" t="n">
-        <v>81.79000000000001</v>
+        <v>85.53</v>
       </c>
       <c r="D102" t="n">
-        <v>81.79000000000001</v>
+        <v>85.53</v>
       </c>
       <c r="E102" t="n">
-        <v>81.78</v>
+        <v>83</v>
       </c>
       <c r="F102" t="n">
-        <v>8934.732400000001</v>
+        <v>101859.7627</v>
       </c>
       <c r="G102" t="n">
-        <v>228769.5062556955</v>
+        <v>230712.1602556956</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4480,22 +4264,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>81.68000000000001</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>81.67</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>81.68000000000001</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>81.67</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>3339.8888</v>
+        <v>38841.0644</v>
       </c>
       <c r="G103" t="n">
-        <v>225429.6174556955</v>
+        <v>191871.0958556956</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4520,22 +4304,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>82</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>82</v>
+        <v>81.7</v>
       </c>
       <c r="D104" t="n">
-        <v>82</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>82</v>
+        <v>81.7</v>
       </c>
       <c r="F104" t="n">
-        <v>1371.4388</v>
+        <v>45351.9508</v>
       </c>
       <c r="G104" t="n">
-        <v>226801.0562556955</v>
+        <v>146519.1450556956</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4560,22 +4344,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>81.98</v>
+        <v>81.8</v>
       </c>
       <c r="C105" t="n">
-        <v>81.88</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>81.98</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>81.88</v>
+        <v>81.8</v>
       </c>
       <c r="F105" t="n">
-        <v>44843.4137</v>
+        <v>4001.8583</v>
       </c>
       <c r="G105" t="n">
-        <v>181957.6425556955</v>
+        <v>150521.0033556956</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4600,22 +4384,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>81.7</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>81.67</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>81.7</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>81.67</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>1592.9476</v>
+        <v>1756.8662</v>
       </c>
       <c r="G106" t="n">
-        <v>180364.6949556955</v>
+        <v>152277.8695556956</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4640,22 +4424,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>81.67</v>
+        <v>82.69</v>
       </c>
       <c r="C107" t="n">
-        <v>81.67</v>
+        <v>82.69</v>
       </c>
       <c r="D107" t="n">
-        <v>81.67</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>81.67</v>
+        <v>82.69</v>
       </c>
       <c r="F107" t="n">
-        <v>2277.8975</v>
+        <v>33245.1999</v>
       </c>
       <c r="G107" t="n">
-        <v>180364.6949556955</v>
+        <v>185523.0694556956</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4680,22 +4464,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>81.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>81.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>81.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>81.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>4407</v>
+        <v>3793.8974</v>
       </c>
       <c r="G108" t="n">
-        <v>175957.6949556955</v>
+        <v>189316.9668556956</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4720,22 +4504,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>81.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>81.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>81.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>81.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>1462</v>
+        <v>11644.6167</v>
       </c>
       <c r="G109" t="n">
-        <v>177419.6949556955</v>
+        <v>189316.9668556956</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4760,22 +4544,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>81.2</v>
+        <v>83.3</v>
       </c>
       <c r="C110" t="n">
-        <v>81.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>81.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>81.2</v>
+        <v>83.3</v>
       </c>
       <c r="F110" t="n">
-        <v>25518.1748</v>
+        <v>3597.1224</v>
       </c>
       <c r="G110" t="n">
-        <v>151901.5201556955</v>
+        <v>189316.9668556956</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4800,22 +4584,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>81.2</v>
+        <v>82.37</v>
       </c>
       <c r="C111" t="n">
-        <v>81.2</v>
+        <v>82.25</v>
       </c>
       <c r="D111" t="n">
-        <v>81.2</v>
+        <v>82.37</v>
       </c>
       <c r="E111" t="n">
-        <v>81.2</v>
+        <v>82.25</v>
       </c>
       <c r="F111" t="n">
-        <v>8212.713100000001</v>
+        <v>8265.0479</v>
       </c>
       <c r="G111" t="n">
-        <v>151901.5201556955</v>
+        <v>181051.9189556956</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4840,22 +4624,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>81.2</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>81.2</v>
+        <v>83.5</v>
       </c>
       <c r="D112" t="n">
-        <v>81.2</v>
+        <v>83.5</v>
       </c>
       <c r="E112" t="n">
-        <v>81.2</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>8520</v>
+        <v>13654.8076</v>
       </c>
       <c r="G112" t="n">
-        <v>151901.5201556955</v>
+        <v>194706.7265556956</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4880,22 +4664,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>81.2</v>
+        <v>83.5</v>
       </c>
       <c r="C113" t="n">
-        <v>81.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>81.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>81.2</v>
+        <v>83.5</v>
       </c>
       <c r="F113" t="n">
-        <v>700.6964</v>
+        <v>3758.0553</v>
       </c>
       <c r="G113" t="n">
-        <v>151901.5201556955</v>
+        <v>198464.7818556956</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4920,22 +4704,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>81.2</v>
+        <v>82.5</v>
       </c>
       <c r="C114" t="n">
-        <v>81.2</v>
+        <v>82.25</v>
       </c>
       <c r="D114" t="n">
-        <v>81.2</v>
+        <v>82.5</v>
       </c>
       <c r="E114" t="n">
-        <v>81.2</v>
+        <v>82.25</v>
       </c>
       <c r="F114" t="n">
-        <v>2370.9841</v>
+        <v>10643.1519</v>
       </c>
       <c r="G114" t="n">
-        <v>151901.5201556955</v>
+        <v>187821.6299556956</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4960,22 +4744,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>80.7</v>
+        <v>82.25</v>
       </c>
       <c r="C115" t="n">
-        <v>80.7</v>
+        <v>83.3</v>
       </c>
       <c r="D115" t="n">
-        <v>80.7</v>
+        <v>83.3</v>
       </c>
       <c r="E115" t="n">
-        <v>80.7</v>
+        <v>82.25</v>
       </c>
       <c r="F115" t="n">
-        <v>3057.3171</v>
+        <v>75807.2801</v>
       </c>
       <c r="G115" t="n">
-        <v>148844.2030556955</v>
+        <v>263628.9100556956</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5000,22 +4784,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>80.72</v>
+        <v>82.31</v>
       </c>
       <c r="C116" t="n">
-        <v>80.72</v>
+        <v>82.3</v>
       </c>
       <c r="D116" t="n">
-        <v>80.72</v>
+        <v>82.31</v>
       </c>
       <c r="E116" t="n">
-        <v>80.72</v>
+        <v>82.3</v>
       </c>
       <c r="F116" t="n">
-        <v>8276.4254</v>
+        <v>15541.1866</v>
       </c>
       <c r="G116" t="n">
-        <v>157120.6284556955</v>
+        <v>248087.7234556956</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5040,22 +4824,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>81.2</v>
+        <v>82.3</v>
       </c>
       <c r="C117" t="n">
-        <v>81.2</v>
+        <v>82.98</v>
       </c>
       <c r="D117" t="n">
-        <v>81.2</v>
+        <v>82.98</v>
       </c>
       <c r="E117" t="n">
-        <v>81.2</v>
+        <v>82.3</v>
       </c>
       <c r="F117" t="n">
-        <v>642.3264</v>
+        <v>64754.6617</v>
       </c>
       <c r="G117" t="n">
-        <v>157762.9548556955</v>
+        <v>312842.3851556955</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5080,22 +4864,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>80.73</v>
+        <v>82.67</v>
       </c>
       <c r="C118" t="n">
-        <v>80.73</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>80.73</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>80.73</v>
+        <v>82.67</v>
       </c>
       <c r="F118" t="n">
-        <v>3453.8559</v>
+        <v>54100.4155</v>
       </c>
       <c r="G118" t="n">
-        <v>154309.0989556955</v>
+        <v>366942.8006556956</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5120,22 +4904,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>80.73</v>
+        <v>82.3</v>
       </c>
       <c r="C119" t="n">
-        <v>80.73</v>
+        <v>82.3</v>
       </c>
       <c r="D119" t="n">
-        <v>80.73</v>
+        <v>82.3</v>
       </c>
       <c r="E119" t="n">
-        <v>80.73</v>
+        <v>82.3</v>
       </c>
       <c r="F119" t="n">
-        <v>55640</v>
+        <v>11102.8264</v>
       </c>
       <c r="G119" t="n">
-        <v>154309.0989556955</v>
+        <v>355839.9742556955</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5160,22 +4944,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>80.72</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>80.72</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>80.72</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>80.72</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>176.0795</v>
+        <v>5421.6894</v>
       </c>
       <c r="G120" t="n">
-        <v>154133.0194556955</v>
+        <v>361261.6636556955</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5200,22 +4984,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>80.72</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>80.72</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>80.72</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>80.72</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>587.9391000000001</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>154133.0194556955</v>
+        <v>361161.6636556955</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5240,22 +5024,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>81</v>
+        <v>82.33</v>
       </c>
       <c r="C122" t="n">
-        <v>81</v>
+        <v>82.33</v>
       </c>
       <c r="D122" t="n">
-        <v>81</v>
+        <v>82.33</v>
       </c>
       <c r="E122" t="n">
-        <v>81</v>
+        <v>82.33</v>
       </c>
       <c r="F122" t="n">
-        <v>9677.210800000001</v>
+        <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>163810.2302556955</v>
+        <v>361261.6636556955</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5280,22 +5064,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>81.8</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="D123" t="n">
-        <v>81.90000000000001</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>81.8</v>
+        <v>82.2</v>
       </c>
       <c r="F123" t="n">
-        <v>5677.4584</v>
+        <v>463.2864</v>
       </c>
       <c r="G123" t="n">
-        <v>169487.6886556955</v>
+        <v>360798.3772556955</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5320,22 +5104,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>81.8</v>
+        <v>82.2</v>
       </c>
       <c r="C124" t="n">
-        <v>81.8</v>
+        <v>82.2</v>
       </c>
       <c r="D124" t="n">
-        <v>81.8</v>
+        <v>82.2</v>
       </c>
       <c r="E124" t="n">
-        <v>81.8</v>
+        <v>82.2</v>
       </c>
       <c r="F124" t="n">
-        <v>2940</v>
+        <v>3299.9563</v>
       </c>
       <c r="G124" t="n">
-        <v>166547.6886556955</v>
+        <v>360798.3772556955</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5360,22 +5144,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C125" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="D125" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="E125" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="F125" t="n">
-        <v>4410</v>
+        <v>5876</v>
       </c>
       <c r="G125" t="n">
-        <v>170957.6886556955</v>
+        <v>360798.3772556955</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5400,22 +5184,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C126" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="D126" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="E126" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>2012.9604</v>
       </c>
       <c r="G126" t="n">
-        <v>170957.6886556955</v>
+        <v>360798.3772556955</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5440,22 +5224,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>81.90000000000001</v>
+        <v>81.42</v>
       </c>
       <c r="C127" t="n">
-        <v>82</v>
+        <v>81.42</v>
       </c>
       <c r="D127" t="n">
-        <v>82</v>
+        <v>81.42</v>
       </c>
       <c r="E127" t="n">
-        <v>81.90000000000001</v>
+        <v>81.42</v>
       </c>
       <c r="F127" t="n">
-        <v>4333</v>
+        <v>5894.633</v>
       </c>
       <c r="G127" t="n">
-        <v>175290.6886556955</v>
+        <v>354903.7442556956</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5480,22 +5264,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>81.90000000000001</v>
+        <v>81.19</v>
       </c>
       <c r="C128" t="n">
-        <v>82.06</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>82.06</v>
+        <v>81.2</v>
       </c>
       <c r="E128" t="n">
-        <v>81.90000000000001</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>17762.4076</v>
+        <v>8819.8488</v>
       </c>
       <c r="G128" t="n">
-        <v>193053.0962556955</v>
+        <v>346083.8954556956</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5520,22 +5304,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>82.06</v>
+        <v>81.31</v>
       </c>
       <c r="C129" t="n">
-        <v>82.05</v>
+        <v>81.31</v>
       </c>
       <c r="D129" t="n">
-        <v>82.06</v>
+        <v>81.31</v>
       </c>
       <c r="E129" t="n">
-        <v>82.05</v>
+        <v>81.31</v>
       </c>
       <c r="F129" t="n">
-        <v>25212.6278</v>
+        <v>1550</v>
       </c>
       <c r="G129" t="n">
-        <v>167840.4684556955</v>
+        <v>347633.8954556956</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5560,22 +5344,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>82.05</v>
+        <v>81.69</v>
       </c>
       <c r="C130" t="n">
-        <v>82.06</v>
+        <v>81.69</v>
       </c>
       <c r="D130" t="n">
-        <v>82.06</v>
+        <v>81.69</v>
       </c>
       <c r="E130" t="n">
-        <v>82.05</v>
+        <v>81.69</v>
       </c>
       <c r="F130" t="n">
-        <v>10984.2981</v>
+        <v>1469</v>
       </c>
       <c r="G130" t="n">
-        <v>178824.7665556955</v>
+        <v>349102.8954556956</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5600,22 +5384,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>82.05</v>
+        <v>81.5</v>
       </c>
       <c r="C131" t="n">
-        <v>82.44</v>
+        <v>81.5</v>
       </c>
       <c r="D131" t="n">
-        <v>82.44</v>
+        <v>81.5</v>
       </c>
       <c r="E131" t="n">
-        <v>82.05</v>
+        <v>81.5</v>
       </c>
       <c r="F131" t="n">
-        <v>16209.2908</v>
+        <v>1190.0186</v>
       </c>
       <c r="G131" t="n">
-        <v>195034.0573556955</v>
+        <v>347912.8768556956</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5640,22 +5424,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>82.40000000000001</v>
+        <v>81.59</v>
       </c>
       <c r="C132" t="n">
-        <v>82.03</v>
+        <v>81.59</v>
       </c>
       <c r="D132" t="n">
-        <v>82.40000000000001</v>
+        <v>81.59</v>
       </c>
       <c r="E132" t="n">
-        <v>82.03</v>
+        <v>81.59</v>
       </c>
       <c r="F132" t="n">
-        <v>8212.7132</v>
+        <v>636</v>
       </c>
       <c r="G132" t="n">
-        <v>186821.3441556955</v>
+        <v>348548.8768556956</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5680,22 +5464,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>82.53</v>
+        <v>82.28</v>
       </c>
       <c r="C133" t="n">
-        <v>82.95999999999999</v>
+        <v>82.19</v>
       </c>
       <c r="D133" t="n">
-        <v>82.95999999999999</v>
+        <v>82.28</v>
       </c>
       <c r="E133" t="n">
-        <v>82.53</v>
+        <v>82.19</v>
       </c>
       <c r="F133" t="n">
-        <v>14870.68074549195</v>
+        <v>3383.5756</v>
       </c>
       <c r="G133" t="n">
-        <v>201692.0249011875</v>
+        <v>351932.4524556955</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5720,22 +5504,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>82.95999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="C134" t="n">
-        <v>82.95999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="D134" t="n">
-        <v>82.97</v>
+        <v>81.5</v>
       </c>
       <c r="E134" t="n">
-        <v>82.95999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="F134" t="n">
-        <v>5698.750711413764</v>
+        <v>31378.9931</v>
       </c>
       <c r="G134" t="n">
-        <v>201692.0249011875</v>
+        <v>320553.4593556955</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5760,22 +5544,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>82.95999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="C135" t="n">
-        <v>82.95999999999999</v>
+        <v>81.86</v>
       </c>
       <c r="D135" t="n">
-        <v>82.95999999999999</v>
+        <v>81.86</v>
       </c>
       <c r="E135" t="n">
-        <v>82.95999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="F135" t="n">
-        <v>7.714561234329699e-05</v>
+        <v>413.5043</v>
       </c>
       <c r="G135" t="n">
-        <v>201692.0249011875</v>
+        <v>320966.9636556955</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5800,22 +5584,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>82.95</v>
+        <v>81.28</v>
       </c>
       <c r="C136" t="n">
-        <v>82.95</v>
+        <v>81.39</v>
       </c>
       <c r="D136" t="n">
-        <v>82.95</v>
+        <v>81.39</v>
       </c>
       <c r="E136" t="n">
-        <v>82.95</v>
+        <v>81.28</v>
       </c>
       <c r="F136" t="n">
-        <v>2411.091018685956</v>
+        <v>13608.418</v>
       </c>
       <c r="G136" t="n">
-        <v>199280.9338825015</v>
+        <v>307358.5456556955</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5840,22 +5624,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>82.23999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="C137" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="D137" t="n">
-        <v>82.23999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="E137" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="F137" t="n">
-        <v>3439.5514</v>
+        <v>13629.5986</v>
       </c>
       <c r="G137" t="n">
-        <v>195841.3824825015</v>
+        <v>320988.1442556955</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5880,22 +5664,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>82.73999999999999</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>82.73999999999999</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>82.73999999999999</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>82.73999999999999</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>120.8605269518975</v>
+        <v>1469</v>
       </c>
       <c r="G138" t="n">
-        <v>195962.2430094534</v>
+        <v>319519.1442556955</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5920,22 +5704,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>82</v>
+        <v>81.3</v>
       </c>
       <c r="C139" t="n">
-        <v>82</v>
+        <v>81.3</v>
       </c>
       <c r="D139" t="n">
-        <v>82</v>
+        <v>81.3</v>
       </c>
       <c r="E139" t="n">
-        <v>82</v>
+        <v>81.3</v>
       </c>
       <c r="F139" t="n">
-        <v>12300</v>
+        <v>21568</v>
       </c>
       <c r="G139" t="n">
-        <v>183662.2430094534</v>
+        <v>297951.1442556955</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5960,22 +5744,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>82.3</v>
+        <v>81.3</v>
       </c>
       <c r="C140" t="n">
-        <v>82.3</v>
+        <v>81.3</v>
       </c>
       <c r="D140" t="n">
-        <v>82.3</v>
+        <v>81.3</v>
       </c>
       <c r="E140" t="n">
-        <v>82.3</v>
+        <v>81.3</v>
       </c>
       <c r="F140" t="n">
-        <v>11793.1054</v>
+        <v>1768</v>
       </c>
       <c r="G140" t="n">
-        <v>195455.3484094534</v>
+        <v>297951.1442556955</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6000,22 +5784,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>82.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="C141" t="n">
-        <v>82.09999999999999</v>
+        <v>80.61</v>
       </c>
       <c r="D141" t="n">
-        <v>82.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="E141" t="n">
-        <v>82.09999999999999</v>
+        <v>80.61</v>
       </c>
       <c r="F141" t="n">
-        <v>5896</v>
+        <v>2819.8822</v>
       </c>
       <c r="G141" t="n">
-        <v>189559.3484094534</v>
+        <v>295131.2620556955</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6040,22 +5824,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>82.09999999999999</v>
+        <v>80.83</v>
       </c>
       <c r="C142" t="n">
-        <v>82.09999999999999</v>
+        <v>80.83</v>
       </c>
       <c r="D142" t="n">
-        <v>82.09999999999999</v>
+        <v>80.83</v>
       </c>
       <c r="E142" t="n">
-        <v>82.09999999999999</v>
+        <v>80.83</v>
       </c>
       <c r="F142" t="n">
-        <v>15500</v>
+        <v>6565.206</v>
       </c>
       <c r="G142" t="n">
-        <v>189559.3484094534</v>
+        <v>301696.4680556955</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6080,22 +5864,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>82.09999999999999</v>
+        <v>80.62</v>
       </c>
       <c r="C143" t="n">
-        <v>82.09999999999999</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>82.09999999999999</v>
+        <v>80.62</v>
       </c>
       <c r="E143" t="n">
-        <v>82.09999999999999</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>61000</v>
+        <v>40343.2832</v>
       </c>
       <c r="G143" t="n">
-        <v>189559.3484094534</v>
+        <v>261353.1848556955</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6120,22 +5904,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>82</v>
+        <v>79.81</v>
       </c>
       <c r="C144" t="n">
-        <v>81.81</v>
+        <v>78.73</v>
       </c>
       <c r="D144" t="n">
-        <v>82</v>
+        <v>79.81</v>
       </c>
       <c r="E144" t="n">
-        <v>81.81</v>
+        <v>78.73</v>
       </c>
       <c r="F144" t="n">
-        <v>12300</v>
+        <v>41454.4221</v>
       </c>
       <c r="G144" t="n">
-        <v>177259.3484094534</v>
+        <v>219898.7627556955</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6160,22 +5944,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>82.51000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="C145" t="n">
-        <v>82.62</v>
+        <v>79.7</v>
       </c>
       <c r="D145" t="n">
-        <v>82.62</v>
+        <v>79.7</v>
       </c>
       <c r="E145" t="n">
-        <v>82.51000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="F145" t="n">
-        <v>3711.3629</v>
+        <v>163.8079</v>
       </c>
       <c r="G145" t="n">
-        <v>180970.7113094534</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6200,22 +5984,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="C146" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="D146" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="E146" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="F146" t="n">
-        <v>3144.691</v>
+        <v>441.9847</v>
       </c>
       <c r="G146" t="n">
-        <v>177826.0203094534</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6240,22 +6024,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="C147" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="D147" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="E147" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="F147" t="n">
-        <v>2938</v>
+        <v>33956.3023</v>
       </c>
       <c r="G147" t="n">
-        <v>177826.0203094534</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6280,22 +6064,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="C148" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="D148" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="E148" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="F148" t="n">
-        <v>2913.9973</v>
+        <v>6070.7258</v>
       </c>
       <c r="G148" t="n">
-        <v>177826.0203094534</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6320,22 +6104,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="C149" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="D149" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="E149" t="n">
-        <v>82.17</v>
+        <v>79.7</v>
       </c>
       <c r="F149" t="n">
-        <v>2363.6471</v>
+        <v>713.6952</v>
       </c>
       <c r="G149" t="n">
-        <v>177826.0203094534</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6360,22 +6144,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>82.09999999999999</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>81.81</v>
+        <v>79.7</v>
       </c>
       <c r="D150" t="n">
-        <v>82.09999999999999</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>81.81</v>
+        <v>79.7</v>
       </c>
       <c r="F150" t="n">
-        <v>12300</v>
+        <v>2000</v>
       </c>
       <c r="G150" t="n">
-        <v>165526.0203094534</v>
+        <v>220062.5706556955</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6400,22 +6184,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>81.81999999999999</v>
+        <v>80.42</v>
       </c>
       <c r="C151" t="n">
-        <v>81.81</v>
+        <v>80.42</v>
       </c>
       <c r="D151" t="n">
-        <v>81.81999999999999</v>
+        <v>80.42</v>
       </c>
       <c r="E151" t="n">
-        <v>81.81</v>
+        <v>80.42</v>
       </c>
       <c r="F151" t="n">
-        <v>9441.909600000001</v>
+        <v>376.0274</v>
       </c>
       <c r="G151" t="n">
-        <v>165526.0203094534</v>
+        <v>220438.5980556955</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6440,22 +6224,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>81.81</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>81.81</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>81.81</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>81.81</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>36355.3684</v>
+        <v>119.3261</v>
       </c>
       <c r="G152" t="n">
-        <v>165526.0203094534</v>
+        <v>220557.9241556955</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6480,22 +6264,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>81.81</v>
+        <v>80.42</v>
       </c>
       <c r="C153" t="n">
-        <v>81.81</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="D153" t="n">
-        <v>81.81</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>81.81</v>
+        <v>80.42</v>
       </c>
       <c r="F153" t="n">
-        <v>7252.5791</v>
+        <v>621.4373000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>165526.0203094534</v>
+        <v>221179.3614556955</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6520,22 +6304,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>81.33</v>
+        <v>81.38</v>
       </c>
       <c r="C154" t="n">
-        <v>81.33</v>
+        <v>81.38</v>
       </c>
       <c r="D154" t="n">
-        <v>81.33</v>
+        <v>81.38</v>
       </c>
       <c r="E154" t="n">
-        <v>81.33</v>
+        <v>81.38</v>
       </c>
       <c r="F154" t="n">
-        <v>12300</v>
+        <v>1494.8151</v>
       </c>
       <c r="G154" t="n">
-        <v>153226.0203094534</v>
+        <v>222674.1765556955</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6560,22 +6344,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>81.22</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C155" t="n">
-        <v>81.11</v>
+        <v>81.67</v>
       </c>
       <c r="D155" t="n">
-        <v>81.22</v>
+        <v>81.67</v>
       </c>
       <c r="E155" t="n">
-        <v>81.11</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>12350</v>
+        <v>22916.8218</v>
       </c>
       <c r="G155" t="n">
-        <v>140876.0203094534</v>
+        <v>245590.9983556955</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6600,22 +6384,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>81.81</v>
+        <v>81.77</v>
       </c>
       <c r="C156" t="n">
-        <v>81.81</v>
+        <v>81.67</v>
       </c>
       <c r="D156" t="n">
-        <v>81.81</v>
+        <v>81.77</v>
       </c>
       <c r="E156" t="n">
-        <v>81.81</v>
+        <v>81.67</v>
       </c>
       <c r="F156" t="n">
-        <v>366.7033370003667</v>
+        <v>1243.6952</v>
       </c>
       <c r="G156" t="n">
-        <v>141242.7236464538</v>
+        <v>245590.9983556955</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6640,22 +6424,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>81.45999999999999</v>
+        <v>81.67</v>
       </c>
       <c r="C157" t="n">
-        <v>81.14</v>
+        <v>81.67</v>
       </c>
       <c r="D157" t="n">
-        <v>81.45999999999999</v>
+        <v>81.67</v>
       </c>
       <c r="E157" t="n">
-        <v>81.14</v>
+        <v>81.67</v>
       </c>
       <c r="F157" t="n">
-        <v>13500</v>
+        <v>25599.8182</v>
       </c>
       <c r="G157" t="n">
-        <v>127742.7236464538</v>
+        <v>245590.9983556955</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6680,22 +6464,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>81.70999999999999</v>
+        <v>81.67</v>
       </c>
       <c r="C158" t="n">
-        <v>81.81</v>
+        <v>81.67</v>
       </c>
       <c r="D158" t="n">
-        <v>81.81</v>
+        <v>81.67</v>
       </c>
       <c r="E158" t="n">
-        <v>81.70999999999999</v>
+        <v>81.67</v>
       </c>
       <c r="F158" t="n">
-        <v>11660.6856</v>
+        <v>6692.1496</v>
       </c>
       <c r="G158" t="n">
-        <v>139403.4092464538</v>
+        <v>245590.9983556955</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6720,22 +6504,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>81.81</v>
+        <v>81.94</v>
       </c>
       <c r="C159" t="n">
-        <v>81.81</v>
+        <v>81.94</v>
       </c>
       <c r="D159" t="n">
-        <v>81.81</v>
+        <v>81.94</v>
       </c>
       <c r="E159" t="n">
-        <v>81.81</v>
+        <v>81.94</v>
       </c>
       <c r="F159" t="n">
-        <v>12040.09289817871</v>
+        <v>5633.547</v>
       </c>
       <c r="G159" t="n">
-        <v>139403.4092464538</v>
+        <v>251224.5453556955</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6760,7 +6544,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>81.81</v>
+        <v>82.12</v>
       </c>
       <c r="C160" t="n">
         <v>82.12</v>
@@ -6769,13 +6553,13 @@
         <v>82.12</v>
       </c>
       <c r="E160" t="n">
-        <v>81.81</v>
+        <v>82.12</v>
       </c>
       <c r="F160" t="n">
-        <v>15739.18326482093</v>
+        <v>1527.057</v>
       </c>
       <c r="G160" t="n">
-        <v>155142.5925112747</v>
+        <v>252751.6023556955</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6800,22 +6584,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>82.12</v>
+        <v>82</v>
       </c>
       <c r="C161" t="n">
-        <v>82.17</v>
+        <v>82</v>
       </c>
       <c r="D161" t="n">
-        <v>82.22</v>
+        <v>82</v>
       </c>
       <c r="E161" t="n">
-        <v>82.12</v>
+        <v>82</v>
       </c>
       <c r="F161" t="n">
-        <v>11854.3367</v>
+        <v>1648</v>
       </c>
       <c r="G161" t="n">
-        <v>166996.9292112747</v>
+        <v>251103.6023556955</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6840,22 +6624,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>82.63</v>
+        <v>82</v>
       </c>
       <c r="C162" t="n">
-        <v>82.63</v>
+        <v>82</v>
       </c>
       <c r="D162" t="n">
-        <v>82.63</v>
+        <v>82</v>
       </c>
       <c r="E162" t="n">
-        <v>82.63</v>
+        <v>82</v>
       </c>
       <c r="F162" t="n">
-        <v>2993</v>
+        <v>2816.7735</v>
       </c>
       <c r="G162" t="n">
-        <v>169989.9292112747</v>
+        <v>251103.6023556955</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6880,22 +6664,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>82.28</v>
+        <v>82</v>
       </c>
       <c r="C163" t="n">
-        <v>82.29000000000001</v>
+        <v>82</v>
       </c>
       <c r="D163" t="n">
-        <v>82.29000000000001</v>
+        <v>82</v>
       </c>
       <c r="E163" t="n">
-        <v>82.28</v>
+        <v>82</v>
       </c>
       <c r="F163" t="n">
-        <v>2612</v>
+        <v>282.5588</v>
       </c>
       <c r="G163" t="n">
-        <v>167377.9292112747</v>
+        <v>251103.6023556955</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6920,22 +6704,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>82.20999999999999</v>
+        <v>81.67</v>
       </c>
       <c r="C164" t="n">
-        <v>81.54000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="D164" t="n">
-        <v>82.20999999999999</v>
+        <v>81.67</v>
       </c>
       <c r="E164" t="n">
-        <v>81.54000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="F164" t="n">
-        <v>40651.4049</v>
+        <v>5350.988</v>
       </c>
       <c r="G164" t="n">
-        <v>126726.5243112747</v>
+        <v>245752.6143556955</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6960,22 +6744,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>81.54000000000001</v>
+        <v>82</v>
       </c>
       <c r="C165" t="n">
-        <v>81.73</v>
+        <v>82</v>
       </c>
       <c r="D165" t="n">
-        <v>81.73</v>
+        <v>82</v>
       </c>
       <c r="E165" t="n">
-        <v>81.54000000000001</v>
+        <v>82</v>
       </c>
       <c r="F165" t="n">
-        <v>406.1069</v>
+        <v>1259.7094</v>
       </c>
       <c r="G165" t="n">
-        <v>127132.6312112747</v>
+        <v>247012.3237556955</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7000,22 +6784,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>81.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="C166" t="n">
-        <v>81.59999999999999</v>
+        <v>82.23</v>
       </c>
       <c r="D166" t="n">
-        <v>81.59999999999999</v>
+        <v>82.23</v>
       </c>
       <c r="E166" t="n">
-        <v>81.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="F166" t="n">
-        <v>33592.5097</v>
+        <v>1644.6513</v>
       </c>
       <c r="G166" t="n">
-        <v>93540.12151127472</v>
+        <v>248656.9750556955</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7040,22 +6824,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>82.29000000000001</v>
+        <v>82.45</v>
       </c>
       <c r="C167" t="n">
-        <v>82.97</v>
+        <v>82.45</v>
       </c>
       <c r="D167" t="n">
-        <v>82.97</v>
+        <v>82.45</v>
       </c>
       <c r="E167" t="n">
-        <v>82.18000000000001</v>
+        <v>82.45</v>
       </c>
       <c r="F167" t="n">
-        <v>28155.4881</v>
+        <v>820.3555</v>
       </c>
       <c r="G167" t="n">
-        <v>121695.6096112747</v>
+        <v>249477.3305556955</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7080,22 +6864,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>82.87</v>
+        <v>82.23</v>
       </c>
       <c r="C168" t="n">
-        <v>83.66</v>
+        <v>82.23</v>
       </c>
       <c r="D168" t="n">
-        <v>83.66</v>
+        <v>82.23</v>
       </c>
       <c r="E168" t="n">
-        <v>82.87</v>
+        <v>82.23</v>
       </c>
       <c r="F168" t="n">
-        <v>69886.86948761527</v>
+        <v>1469</v>
       </c>
       <c r="G168" t="n">
-        <v>191582.47909889</v>
+        <v>248008.3305556955</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7120,22 +6904,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>82.81</v>
+        <v>82.23</v>
       </c>
       <c r="C169" t="n">
-        <v>82.81</v>
+        <v>82</v>
       </c>
       <c r="D169" t="n">
-        <v>82.81</v>
+        <v>82.23</v>
       </c>
       <c r="E169" t="n">
-        <v>82.81</v>
+        <v>82</v>
       </c>
       <c r="F169" t="n">
-        <v>1568.2131</v>
+        <v>3720.7386</v>
       </c>
       <c r="G169" t="n">
-        <v>190014.26599889</v>
+        <v>244287.5919556955</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7160,22 +6944,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>83.16</v>
+        <v>82</v>
       </c>
       <c r="C170" t="n">
-        <v>83.16</v>
+        <v>81.67</v>
       </c>
       <c r="D170" t="n">
-        <v>83.16</v>
+        <v>82</v>
       </c>
       <c r="E170" t="n">
-        <v>83.16</v>
+        <v>81.67</v>
       </c>
       <c r="F170" t="n">
-        <v>2645</v>
+        <v>9756.869699999999</v>
       </c>
       <c r="G170" t="n">
-        <v>192659.26599889</v>
+        <v>234530.7222556955</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7200,22 +6984,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>83.15000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="C171" t="n">
-        <v>83.16</v>
+        <v>81.67</v>
       </c>
       <c r="D171" t="n">
-        <v>83.16</v>
+        <v>81.67</v>
       </c>
       <c r="E171" t="n">
-        <v>83.15000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="F171" t="n">
-        <v>2938</v>
+        <v>7600</v>
       </c>
       <c r="G171" t="n">
-        <v>192659.26599889</v>
+        <v>234530.7222556955</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7240,22 +7024,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>83.16</v>
+        <v>81.89</v>
       </c>
       <c r="C172" t="n">
-        <v>83.16</v>
+        <v>81.89</v>
       </c>
       <c r="D172" t="n">
-        <v>83.16</v>
+        <v>81.89</v>
       </c>
       <c r="E172" t="n">
-        <v>83.16</v>
+        <v>81.89</v>
       </c>
       <c r="F172" t="n">
-        <v>10000</v>
+        <v>3173.5164</v>
       </c>
       <c r="G172" t="n">
-        <v>192659.26599889</v>
+        <v>237704.2386556955</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7280,22 +7064,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>83.16</v>
+        <v>81.78</v>
       </c>
       <c r="C173" t="n">
-        <v>83.16</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>83.16</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="E173" t="n">
-        <v>83.16</v>
+        <v>81.78</v>
       </c>
       <c r="F173" t="n">
-        <v>5362.8135</v>
+        <v>8934.732400000001</v>
       </c>
       <c r="G173" t="n">
-        <v>192659.26599889</v>
+        <v>228769.5062556955</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7320,22 +7104,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>83.16</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>82.93000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="D174" t="n">
-        <v>83.16</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="E174" t="n">
-        <v>82.93000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="F174" t="n">
-        <v>3865.9194</v>
+        <v>3339.8888</v>
       </c>
       <c r="G174" t="n">
-        <v>188793.34659889</v>
+        <v>225429.6174556955</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7360,22 +7144,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>82.95</v>
+        <v>82</v>
       </c>
       <c r="C175" t="n">
-        <v>83.04000000000001</v>
+        <v>82</v>
       </c>
       <c r="D175" t="n">
-        <v>83.04000000000001</v>
+        <v>82</v>
       </c>
       <c r="E175" t="n">
-        <v>82.95</v>
+        <v>82</v>
       </c>
       <c r="F175" t="n">
-        <v>13280.4231</v>
+        <v>1371.4388</v>
       </c>
       <c r="G175" t="n">
-        <v>202073.76969889</v>
+        <v>226801.0562556955</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7400,22 +7184,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>83.29000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="C176" t="n">
-        <v>83.29000000000001</v>
+        <v>81.88</v>
       </c>
       <c r="D176" t="n">
-        <v>83.29000000000001</v>
+        <v>81.98</v>
       </c>
       <c r="E176" t="n">
-        <v>83.29000000000001</v>
+        <v>81.88</v>
       </c>
       <c r="F176" t="n">
-        <v>1469</v>
+        <v>44843.4137</v>
       </c>
       <c r="G176" t="n">
-        <v>203542.76969889</v>
+        <v>181957.6425556955</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7440,22 +7224,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>83.04000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="C177" t="n">
-        <v>83.40000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="D177" t="n">
-        <v>83.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="E177" t="n">
-        <v>83.04000000000001</v>
+        <v>81.67</v>
       </c>
       <c r="F177" t="n">
-        <v>52177</v>
+        <v>1592.9476</v>
       </c>
       <c r="G177" t="n">
-        <v>255719.76969889</v>
+        <v>180364.6949556955</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7480,22 +7264,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>83.69</v>
+        <v>81.67</v>
       </c>
       <c r="C178" t="n">
-        <v>83.75</v>
+        <v>81.67</v>
       </c>
       <c r="D178" t="n">
-        <v>83.75</v>
+        <v>81.67</v>
       </c>
       <c r="E178" t="n">
-        <v>83.69</v>
+        <v>81.67</v>
       </c>
       <c r="F178" t="n">
-        <v>17209.3915</v>
+        <v>2277.8975</v>
       </c>
       <c r="G178" t="n">
-        <v>272929.16119889</v>
+        <v>180364.6949556955</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7520,22 +7304,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>83.89</v>
+        <v>81.2</v>
       </c>
       <c r="C179" t="n">
-        <v>82.98999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="D179" t="n">
-        <v>84.81</v>
+        <v>81.3</v>
       </c>
       <c r="E179" t="n">
-        <v>82.98999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="F179" t="n">
-        <v>80652.8003</v>
+        <v>4407</v>
       </c>
       <c r="G179" t="n">
-        <v>192276.36089889</v>
+        <v>175957.6949556955</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7560,22 +7344,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>84.70999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="C180" t="n">
-        <v>84</v>
+        <v>81.3</v>
       </c>
       <c r="D180" t="n">
-        <v>84.70999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="E180" t="n">
-        <v>83</v>
+        <v>81.3</v>
       </c>
       <c r="F180" t="n">
-        <v>17151.911</v>
+        <v>1462</v>
       </c>
       <c r="G180" t="n">
-        <v>209428.27189889</v>
+        <v>177419.6949556955</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7600,22 +7384,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>84</v>
+        <v>81.2</v>
       </c>
       <c r="C181" t="n">
-        <v>84</v>
+        <v>81.2</v>
       </c>
       <c r="D181" t="n">
-        <v>84</v>
+        <v>81.2</v>
       </c>
       <c r="E181" t="n">
-        <v>84</v>
+        <v>81.2</v>
       </c>
       <c r="F181" t="n">
-        <v>2256.25</v>
+        <v>25518.1748</v>
       </c>
       <c r="G181" t="n">
-        <v>209428.27189889</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7640,22 +7424,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>84.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="C182" t="n">
-        <v>84.61</v>
+        <v>81.2</v>
       </c>
       <c r="D182" t="n">
-        <v>84.61</v>
+        <v>81.2</v>
       </c>
       <c r="E182" t="n">
-        <v>84.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="F182" t="n">
-        <v>827.8916</v>
+        <v>8212.713100000001</v>
       </c>
       <c r="G182" t="n">
-        <v>210256.16349889</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7680,22 +7464,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>84.51000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="C183" t="n">
-        <v>84.61</v>
+        <v>81.2</v>
       </c>
       <c r="D183" t="n">
-        <v>84.61</v>
+        <v>81.2</v>
       </c>
       <c r="E183" t="n">
-        <v>84.51000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="F183" t="n">
-        <v>799.2003</v>
+        <v>8520</v>
       </c>
       <c r="G183" t="n">
-        <v>210256.16349889</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7720,22 +7504,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>84.61</v>
+        <v>81.2</v>
       </c>
       <c r="C184" t="n">
-        <v>85</v>
+        <v>81.2</v>
       </c>
       <c r="D184" t="n">
-        <v>85</v>
+        <v>81.2</v>
       </c>
       <c r="E184" t="n">
-        <v>84.61</v>
+        <v>81.2</v>
       </c>
       <c r="F184" t="n">
-        <v>33781.3916</v>
+        <v>700.6964</v>
       </c>
       <c r="G184" t="n">
-        <v>244037.55509889</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7760,37 +7544,39 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>85</v>
+        <v>81.2</v>
       </c>
       <c r="C185" t="n">
-        <v>85.58</v>
+        <v>81.2</v>
       </c>
       <c r="D185" t="n">
-        <v>85.58</v>
+        <v>81.2</v>
       </c>
       <c r="E185" t="n">
-        <v>85</v>
+        <v>81.2</v>
       </c>
       <c r="F185" t="n">
-        <v>2769.3082</v>
+        <v>2370.9841</v>
       </c>
       <c r="G185" t="n">
-        <v>246806.86329889</v>
+        <v>151901.5201556955</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M185" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
       <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -7798,32 +7584,36 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>85.01000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="C186" t="n">
-        <v>85.58</v>
+        <v>80.7</v>
       </c>
       <c r="D186" t="n">
-        <v>85.58</v>
+        <v>80.7</v>
       </c>
       <c r="E186" t="n">
-        <v>85.01000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="F186" t="n">
-        <v>631.79</v>
+        <v>3057.3171</v>
       </c>
       <c r="G186" t="n">
-        <v>246806.86329889</v>
+        <v>148844.2030556955</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7834,32 +7624,36 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>85.48</v>
+        <v>80.72</v>
       </c>
       <c r="C187" t="n">
-        <v>85.36</v>
+        <v>80.72</v>
       </c>
       <c r="D187" t="n">
-        <v>85.58</v>
+        <v>80.72</v>
       </c>
       <c r="E187" t="n">
-        <v>84.11</v>
+        <v>80.72</v>
       </c>
       <c r="F187" t="n">
-        <v>23566.3582</v>
+        <v>8276.4254</v>
       </c>
       <c r="G187" t="n">
-        <v>223240.50509889</v>
+        <v>157120.6284556955</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7870,32 +7664,36 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>84.92</v>
+        <v>81.2</v>
       </c>
       <c r="C188" t="n">
-        <v>85.45</v>
+        <v>81.2</v>
       </c>
       <c r="D188" t="n">
-        <v>85.45</v>
+        <v>81.2</v>
       </c>
       <c r="E188" t="n">
-        <v>84.92</v>
+        <v>81.2</v>
       </c>
       <c r="F188" t="n">
-        <v>21438.891</v>
+        <v>642.3264</v>
       </c>
       <c r="G188" t="n">
-        <v>244679.39609889</v>
+        <v>157762.9548556955</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7906,32 +7704,36 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>85.45</v>
+        <v>80.73</v>
       </c>
       <c r="C189" t="n">
-        <v>84.90000000000001</v>
+        <v>80.73</v>
       </c>
       <c r="D189" t="n">
-        <v>85.45</v>
+        <v>80.73</v>
       </c>
       <c r="E189" t="n">
-        <v>84.90000000000001</v>
+        <v>80.73</v>
       </c>
       <c r="F189" t="n">
-        <v>1411.9596</v>
+        <v>3453.8559</v>
       </c>
       <c r="G189" t="n">
-        <v>243267.43649889</v>
+        <v>154309.0989556955</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7942,32 +7744,36 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>85.34999999999999</v>
+        <v>80.73</v>
       </c>
       <c r="C190" t="n">
-        <v>84.90000000000001</v>
+        <v>80.73</v>
       </c>
       <c r="D190" t="n">
-        <v>85.34999999999999</v>
+        <v>80.73</v>
       </c>
       <c r="E190" t="n">
-        <v>84.90000000000001</v>
+        <v>80.73</v>
       </c>
       <c r="F190" t="n">
-        <v>562.3627</v>
+        <v>55640</v>
       </c>
       <c r="G190" t="n">
-        <v>243267.43649889</v>
+        <v>154309.0989556955</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7978,32 +7784,36 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>84.90000000000001</v>
+        <v>80.72</v>
       </c>
       <c r="C191" t="n">
-        <v>84.90000000000001</v>
+        <v>80.72</v>
       </c>
       <c r="D191" t="n">
-        <v>84.90000000000001</v>
+        <v>80.72</v>
       </c>
       <c r="E191" t="n">
-        <v>84.90000000000001</v>
+        <v>80.72</v>
       </c>
       <c r="F191" t="n">
-        <v>79.0883</v>
+        <v>176.0795</v>
       </c>
       <c r="G191" t="n">
-        <v>243267.43649889</v>
+        <v>154133.0194556955</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8014,32 +7824,36 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>84.90000000000001</v>
+        <v>80.72</v>
       </c>
       <c r="C192" t="n">
-        <v>84.90000000000001</v>
+        <v>80.72</v>
       </c>
       <c r="D192" t="n">
-        <v>84.90000000000001</v>
+        <v>80.72</v>
       </c>
       <c r="E192" t="n">
-        <v>84.90000000000001</v>
+        <v>80.72</v>
       </c>
       <c r="F192" t="n">
-        <v>1372</v>
+        <v>587.9391000000001</v>
       </c>
       <c r="G192" t="n">
-        <v>243267.43649889</v>
+        <v>154133.0194556955</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8050,32 +7864,36 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>84.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="C193" t="n">
-        <v>84.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D193" t="n">
-        <v>84.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="E193" t="n">
-        <v>84.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="F193" t="n">
-        <v>2624.4219</v>
+        <v>9677.210800000001</v>
       </c>
       <c r="G193" t="n">
-        <v>243267.43649889</v>
+        <v>163810.2302556955</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8086,32 +7904,36 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>84.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="C194" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D194" t="n">
-        <v>84.90000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E194" t="n">
-        <v>84.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="F194" t="n">
-        <v>11252.6316</v>
+        <v>5677.4584</v>
       </c>
       <c r="G194" t="n">
-        <v>243267.43649889</v>
+        <v>169487.6886556955</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8122,32 +7944,36 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>85</v>
+        <v>81.8</v>
       </c>
       <c r="C195" t="n">
-        <v>85.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="D195" t="n">
-        <v>85.40000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="E195" t="n">
-        <v>85</v>
+        <v>81.8</v>
       </c>
       <c r="F195" t="n">
-        <v>26687.326</v>
+        <v>2940</v>
       </c>
       <c r="G195" t="n">
-        <v>269954.76249889</v>
+        <v>166547.6886556955</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8158,32 +7984,36 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>85.45</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C196" t="n">
-        <v>85.45</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D196" t="n">
-        <v>85.55</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E196" t="n">
-        <v>84.22</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F196" t="n">
-        <v>53946.0602</v>
+        <v>4410</v>
       </c>
       <c r="G196" t="n">
-        <v>323900.8226988901</v>
+        <v>170957.6886556955</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8194,32 +8024,36 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>85.45</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C197" t="n">
-        <v>84.25</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>85.45</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="E197" t="n">
-        <v>84.25</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F197" t="n">
-        <v>15288.2441</v>
+        <v>17</v>
       </c>
       <c r="G197" t="n">
-        <v>308612.57859889</v>
+        <v>170957.6886556955</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8230,32 +8064,36 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>85.34999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C198" t="n">
-        <v>85.47</v>
+        <v>82</v>
       </c>
       <c r="D198" t="n">
-        <v>85.55</v>
+        <v>82</v>
       </c>
       <c r="E198" t="n">
-        <v>85.34999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F198" t="n">
-        <v>15934.40703594389</v>
+        <v>4333</v>
       </c>
       <c r="G198" t="n">
-        <v>324546.9856348339</v>
+        <v>175290.6886556955</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8266,32 +8104,36 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>85.47</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C199" t="n">
-        <v>85.47</v>
+        <v>82.06</v>
       </c>
       <c r="D199" t="n">
-        <v>85.47</v>
+        <v>82.06</v>
       </c>
       <c r="E199" t="n">
-        <v>85.47</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F199" t="n">
-        <v>7557.94</v>
+        <v>17762.4076</v>
       </c>
       <c r="G199" t="n">
-        <v>324546.9856348339</v>
+        <v>193053.0962556955</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8302,32 +8144,36 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>85.55</v>
+        <v>82.06</v>
       </c>
       <c r="C200" t="n">
-        <v>85.75</v>
+        <v>82.05</v>
       </c>
       <c r="D200" t="n">
-        <v>85.75</v>
+        <v>82.06</v>
       </c>
       <c r="E200" t="n">
-        <v>85.55</v>
+        <v>82.05</v>
       </c>
       <c r="F200" t="n">
-        <v>7292.483664056108</v>
+        <v>25212.6278</v>
       </c>
       <c r="G200" t="n">
-        <v>331839.46929889</v>
+        <v>167840.4684556955</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8338,32 +8184,36 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>85.55</v>
+        <v>82.05</v>
       </c>
       <c r="C201" t="n">
-        <v>85.55</v>
+        <v>82.06</v>
       </c>
       <c r="D201" t="n">
-        <v>85.55</v>
+        <v>82.06</v>
       </c>
       <c r="E201" t="n">
-        <v>85.55</v>
+        <v>82.05</v>
       </c>
       <c r="F201" t="n">
-        <v>10552.72203594389</v>
+        <v>10984.2981</v>
       </c>
       <c r="G201" t="n">
-        <v>321286.7472629462</v>
+        <v>178824.7665556955</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8374,32 +8224,36 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>85.34999999999999</v>
+        <v>82.05</v>
       </c>
       <c r="C202" t="n">
-        <v>85.8</v>
+        <v>82.44</v>
       </c>
       <c r="D202" t="n">
-        <v>85.8</v>
+        <v>82.44</v>
       </c>
       <c r="E202" t="n">
-        <v>85.34999999999999</v>
+        <v>82.05</v>
       </c>
       <c r="F202" t="n">
-        <v>12700.0562</v>
+        <v>16209.2908</v>
       </c>
       <c r="G202" t="n">
-        <v>333986.8034629461</v>
+        <v>195034.0573556955</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8410,32 +8264,36 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>85.31999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C203" t="n">
-        <v>85.11</v>
+        <v>82.03</v>
       </c>
       <c r="D203" t="n">
-        <v>85.31999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E203" t="n">
-        <v>85.11</v>
+        <v>82.03</v>
       </c>
       <c r="F203" t="n">
-        <v>21669.0867</v>
+        <v>8212.7132</v>
       </c>
       <c r="G203" t="n">
-        <v>312317.7167629462</v>
+        <v>186821.3441556955</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8446,36 +8304,2774 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>85.11</v>
+        <v>82.53</v>
       </c>
       <c r="C204" t="n">
-        <v>85.77</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="D204" t="n">
-        <v>85.77</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="E204" t="n">
-        <v>85.11</v>
+        <v>82.53</v>
       </c>
       <c r="F204" t="n">
-        <v>6202.795</v>
+        <v>14870.68074549195</v>
       </c>
       <c r="G204" t="n">
-        <v>318520.5117629461</v>
+        <v>201692.0249011875</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
       <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="D205" t="n">
+        <v>82.97</v>
+      </c>
+      <c r="E205" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="F205" t="n">
+        <v>5698.750711413764</v>
+      </c>
+      <c r="G205" t="n">
+        <v>201692.0249011875</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="C206" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="D206" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="E206" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="F206" t="n">
+        <v>7.714561234329699e-05</v>
+      </c>
+      <c r="G206" t="n">
+        <v>201692.0249011875</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="C207" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="D207" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="E207" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2411.091018685956</v>
+      </c>
+      <c r="G207" t="n">
+        <v>199280.9338825015</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>82.23999999999999</v>
+      </c>
+      <c r="C208" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D208" t="n">
+        <v>82.23999999999999</v>
+      </c>
+      <c r="E208" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3439.5514</v>
+      </c>
+      <c r="G208" t="n">
+        <v>195841.3824825015</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>82.73999999999999</v>
+      </c>
+      <c r="C209" t="n">
+        <v>82.73999999999999</v>
+      </c>
+      <c r="D209" t="n">
+        <v>82.73999999999999</v>
+      </c>
+      <c r="E209" t="n">
+        <v>82.73999999999999</v>
+      </c>
+      <c r="F209" t="n">
+        <v>120.8605269518975</v>
+      </c>
+      <c r="G209" t="n">
+        <v>195962.2430094534</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>82</v>
+      </c>
+      <c r="C210" t="n">
+        <v>82</v>
+      </c>
+      <c r="D210" t="n">
+        <v>82</v>
+      </c>
+      <c r="E210" t="n">
+        <v>82</v>
+      </c>
+      <c r="F210" t="n">
+        <v>12300</v>
+      </c>
+      <c r="G210" t="n">
+        <v>183662.2430094534</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="C211" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D211" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E211" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F211" t="n">
+        <v>11793.1054</v>
+      </c>
+      <c r="G211" t="n">
+        <v>195455.3484094534</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C212" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D212" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E212" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F212" t="n">
+        <v>5896</v>
+      </c>
+      <c r="G212" t="n">
+        <v>189559.3484094534</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F213" t="n">
+        <v>15500</v>
+      </c>
+      <c r="G213" t="n">
+        <v>189559.3484094534</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C214" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="D214" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E214" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="F214" t="n">
+        <v>61000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>189559.3484094534</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>82</v>
+      </c>
+      <c r="C215" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="D215" t="n">
+        <v>82</v>
+      </c>
+      <c r="E215" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="F215" t="n">
+        <v>12300</v>
+      </c>
+      <c r="G215" t="n">
+        <v>177259.3484094534</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>82.51000000000001</v>
+      </c>
+      <c r="C216" t="n">
+        <v>82.62</v>
+      </c>
+      <c r="D216" t="n">
+        <v>82.62</v>
+      </c>
+      <c r="E216" t="n">
+        <v>82.51000000000001</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3711.3629</v>
+      </c>
+      <c r="G216" t="n">
+        <v>180970.7113094534</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="C217" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="D217" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="E217" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3144.691</v>
+      </c>
+      <c r="G217" t="n">
+        <v>177826.0203094534</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="C218" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="D218" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="E218" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2938</v>
+      </c>
+      <c r="G218" t="n">
+        <v>177826.0203094534</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="C219" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="D219" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="E219" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2913.9973</v>
+      </c>
+      <c r="G219" t="n">
+        <v>177826.0203094534</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="C220" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="D220" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="E220" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2363.6471</v>
+      </c>
+      <c r="G220" t="n">
+        <v>177826.0203094534</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="C221" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="D221" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E221" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="F221" t="n">
+        <v>12300</v>
+      </c>
+      <c r="G221" t="n">
+        <v>165526.0203094534</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="C222" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="D222" t="n">
+        <v>81.81999999999999</v>
+      </c>
+      <c r="E222" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="F222" t="n">
+        <v>9441.909600000001</v>
+      </c>
+      <c r="G222" t="n">
+        <v>165526.0203094534</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="C223" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="D223" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="E223" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="F223" t="n">
+        <v>36355.3684</v>
+      </c>
+      <c r="G223" t="n">
+        <v>165526.0203094534</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="C224" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="D224" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="E224" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="F224" t="n">
+        <v>7252.5791</v>
+      </c>
+      <c r="G224" t="n">
+        <v>165526.0203094534</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>81.33</v>
+      </c>
+      <c r="C225" t="n">
+        <v>81.33</v>
+      </c>
+      <c r="D225" t="n">
+        <v>81.33</v>
+      </c>
+      <c r="E225" t="n">
+        <v>81.33</v>
+      </c>
+      <c r="F225" t="n">
+        <v>12300</v>
+      </c>
+      <c r="G225" t="n">
+        <v>153226.0203094534</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>81.22</v>
+      </c>
+      <c r="C226" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>81.22</v>
+      </c>
+      <c r="E226" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="F226" t="n">
+        <v>12350</v>
+      </c>
+      <c r="G226" t="n">
+        <v>140876.0203094534</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="C227" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="D227" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="E227" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="F227" t="n">
+        <v>366.7033370003667</v>
+      </c>
+      <c r="G227" t="n">
+        <v>141242.7236464538</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>81.45999999999999</v>
+      </c>
+      <c r="C228" t="n">
+        <v>81.14</v>
+      </c>
+      <c r="D228" t="n">
+        <v>81.45999999999999</v>
+      </c>
+      <c r="E228" t="n">
+        <v>81.14</v>
+      </c>
+      <c r="F228" t="n">
+        <v>13500</v>
+      </c>
+      <c r="G228" t="n">
+        <v>127742.7236464538</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="C229" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="D229" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="E229" t="n">
+        <v>81.70999999999999</v>
+      </c>
+      <c r="F229" t="n">
+        <v>11660.6856</v>
+      </c>
+      <c r="G229" t="n">
+        <v>139403.4092464538</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="C230" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="D230" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="E230" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="F230" t="n">
+        <v>12040.09289817871</v>
+      </c>
+      <c r="G230" t="n">
+        <v>139403.4092464538</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="C231" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="D231" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="E231" t="n">
+        <v>81.81</v>
+      </c>
+      <c r="F231" t="n">
+        <v>15739.18326482093</v>
+      </c>
+      <c r="G231" t="n">
+        <v>155142.5925112747</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="C232" t="n">
+        <v>82.17</v>
+      </c>
+      <c r="D232" t="n">
+        <v>82.22</v>
+      </c>
+      <c r="E232" t="n">
+        <v>82.12</v>
+      </c>
+      <c r="F232" t="n">
+        <v>11854.3367</v>
+      </c>
+      <c r="G232" t="n">
+        <v>166996.9292112747</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>82.63</v>
+      </c>
+      <c r="C233" t="n">
+        <v>82.63</v>
+      </c>
+      <c r="D233" t="n">
+        <v>82.63</v>
+      </c>
+      <c r="E233" t="n">
+        <v>82.63</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2993</v>
+      </c>
+      <c r="G233" t="n">
+        <v>169989.9292112747</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>82.28</v>
+      </c>
+      <c r="C234" t="n">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="D234" t="n">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="E234" t="n">
+        <v>82.28</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2612</v>
+      </c>
+      <c r="G234" t="n">
+        <v>167377.9292112747</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="C235" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="D235" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="E235" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="F235" t="n">
+        <v>40651.4049</v>
+      </c>
+      <c r="G235" t="n">
+        <v>126726.5243112747</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="C236" t="n">
+        <v>81.73</v>
+      </c>
+      <c r="D236" t="n">
+        <v>81.73</v>
+      </c>
+      <c r="E236" t="n">
+        <v>81.54000000000001</v>
+      </c>
+      <c r="F236" t="n">
+        <v>406.1069</v>
+      </c>
+      <c r="G236" t="n">
+        <v>127132.6312112747</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="C237" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D237" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="E237" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="F237" t="n">
+        <v>33592.5097</v>
+      </c>
+      <c r="G237" t="n">
+        <v>93540.12151127472</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>82.29000000000001</v>
+      </c>
+      <c r="C238" t="n">
+        <v>82.97</v>
+      </c>
+      <c r="D238" t="n">
+        <v>82.97</v>
+      </c>
+      <c r="E238" t="n">
+        <v>82.18000000000001</v>
+      </c>
+      <c r="F238" t="n">
+        <v>28155.4881</v>
+      </c>
+      <c r="G238" t="n">
+        <v>121695.6096112747</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>82.87</v>
+      </c>
+      <c r="C239" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="D239" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="E239" t="n">
+        <v>82.87</v>
+      </c>
+      <c r="F239" t="n">
+        <v>69886.86948761527</v>
+      </c>
+      <c r="G239" t="n">
+        <v>191582.47909889</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>82.81</v>
+      </c>
+      <c r="C240" t="n">
+        <v>82.81</v>
+      </c>
+      <c r="D240" t="n">
+        <v>82.81</v>
+      </c>
+      <c r="E240" t="n">
+        <v>82.81</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1568.2131</v>
+      </c>
+      <c r="G240" t="n">
+        <v>190014.26599889</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="C241" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="D241" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="E241" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2645</v>
+      </c>
+      <c r="G241" t="n">
+        <v>192659.26599889</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>83.15000000000001</v>
+      </c>
+      <c r="C242" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="D242" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="E242" t="n">
+        <v>83.15000000000001</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2938</v>
+      </c>
+      <c r="G242" t="n">
+        <v>192659.26599889</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="C243" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="D243" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="E243" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="F243" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G243" t="n">
+        <v>192659.26599889</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="C244" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="D244" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="E244" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="F244" t="n">
+        <v>5362.8135</v>
+      </c>
+      <c r="G244" t="n">
+        <v>192659.26599889</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="C245" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="D245" t="n">
+        <v>83.16</v>
+      </c>
+      <c r="E245" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3865.9194</v>
+      </c>
+      <c r="G245" t="n">
+        <v>188793.34659889</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="C246" t="n">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="D246" t="n">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="E246" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="F246" t="n">
+        <v>13280.4231</v>
+      </c>
+      <c r="G246" t="n">
+        <v>202073.76969889</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>83.29000000000001</v>
+      </c>
+      <c r="C247" t="n">
+        <v>83.29000000000001</v>
+      </c>
+      <c r="D247" t="n">
+        <v>83.29000000000001</v>
+      </c>
+      <c r="E247" t="n">
+        <v>83.29000000000001</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1469</v>
+      </c>
+      <c r="G247" t="n">
+        <v>203542.76969889</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="C248" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="D248" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="E248" t="n">
+        <v>83.04000000000001</v>
+      </c>
+      <c r="F248" t="n">
+        <v>52177</v>
+      </c>
+      <c r="G248" t="n">
+        <v>255719.76969889</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="C249" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="D249" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="E249" t="n">
+        <v>83.69</v>
+      </c>
+      <c r="F249" t="n">
+        <v>17209.3915</v>
+      </c>
+      <c r="G249" t="n">
+        <v>272929.16119889</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>83.89</v>
+      </c>
+      <c r="C250" t="n">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="D250" t="n">
+        <v>84.81</v>
+      </c>
+      <c r="E250" t="n">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="F250" t="n">
+        <v>80652.8003</v>
+      </c>
+      <c r="G250" t="n">
+        <v>192276.36089889</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>84.70999999999999</v>
+      </c>
+      <c r="C251" t="n">
+        <v>84</v>
+      </c>
+      <c r="D251" t="n">
+        <v>84.70999999999999</v>
+      </c>
+      <c r="E251" t="n">
+        <v>83</v>
+      </c>
+      <c r="F251" t="n">
+        <v>17151.911</v>
+      </c>
+      <c r="G251" t="n">
+        <v>209428.27189889</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>84</v>
+      </c>
+      <c r="C252" t="n">
+        <v>84</v>
+      </c>
+      <c r="D252" t="n">
+        <v>84</v>
+      </c>
+      <c r="E252" t="n">
+        <v>84</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2256.25</v>
+      </c>
+      <c r="G252" t="n">
+        <v>209428.27189889</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="C253" t="n">
+        <v>84.61</v>
+      </c>
+      <c r="D253" t="n">
+        <v>84.61</v>
+      </c>
+      <c r="E253" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="F253" t="n">
+        <v>827.8916</v>
+      </c>
+      <c r="G253" t="n">
+        <v>210256.16349889</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="C254" t="n">
+        <v>84.61</v>
+      </c>
+      <c r="D254" t="n">
+        <v>84.61</v>
+      </c>
+      <c r="E254" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="F254" t="n">
+        <v>799.2003</v>
+      </c>
+      <c r="G254" t="n">
+        <v>210256.16349889</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>84.61</v>
+      </c>
+      <c r="C255" t="n">
+        <v>85</v>
+      </c>
+      <c r="D255" t="n">
+        <v>85</v>
+      </c>
+      <c r="E255" t="n">
+        <v>84.61</v>
+      </c>
+      <c r="F255" t="n">
+        <v>33781.3916</v>
+      </c>
+      <c r="G255" t="n">
+        <v>244037.55509889</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>85</v>
+      </c>
+      <c r="C256" t="n">
+        <v>85.58</v>
+      </c>
+      <c r="D256" t="n">
+        <v>85.58</v>
+      </c>
+      <c r="E256" t="n">
+        <v>85</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2769.3082</v>
+      </c>
+      <c r="G256" t="n">
+        <v>246806.86329889</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>85.01000000000001</v>
+      </c>
+      <c r="C257" t="n">
+        <v>85.58</v>
+      </c>
+      <c r="D257" t="n">
+        <v>85.58</v>
+      </c>
+      <c r="E257" t="n">
+        <v>85.01000000000001</v>
+      </c>
+      <c r="F257" t="n">
+        <v>631.79</v>
+      </c>
+      <c r="G257" t="n">
+        <v>246806.86329889</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>85.48</v>
+      </c>
+      <c r="C258" t="n">
+        <v>85.36</v>
+      </c>
+      <c r="D258" t="n">
+        <v>85.58</v>
+      </c>
+      <c r="E258" t="n">
+        <v>84.11</v>
+      </c>
+      <c r="F258" t="n">
+        <v>23566.3582</v>
+      </c>
+      <c r="G258" t="n">
+        <v>223240.50509889</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>84.92</v>
+      </c>
+      <c r="C259" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="D259" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="E259" t="n">
+        <v>84.92</v>
+      </c>
+      <c r="F259" t="n">
+        <v>21438.891</v>
+      </c>
+      <c r="G259" t="n">
+        <v>244679.39609889</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="C260" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D260" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="E260" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1411.9596</v>
+      </c>
+      <c r="G260" t="n">
+        <v>243267.43649889</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="C261" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D261" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="E261" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F261" t="n">
+        <v>562.3627</v>
+      </c>
+      <c r="G261" t="n">
+        <v>243267.43649889</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="C262" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D262" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E262" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F262" t="n">
+        <v>79.0883</v>
+      </c>
+      <c r="G262" t="n">
+        <v>243267.43649889</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="C263" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D263" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E263" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1372</v>
+      </c>
+      <c r="G263" t="n">
+        <v>243267.43649889</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="C264" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D264" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E264" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2624.4219</v>
+      </c>
+      <c r="G264" t="n">
+        <v>243267.43649889</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="C265" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="D265" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="E265" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F265" t="n">
+        <v>11252.6316</v>
+      </c>
+      <c r="G265" t="n">
+        <v>243267.43649889</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>85</v>
+      </c>
+      <c r="C266" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="D266" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="E266" t="n">
+        <v>85</v>
+      </c>
+      <c r="F266" t="n">
+        <v>26687.326</v>
+      </c>
+      <c r="G266" t="n">
+        <v>269954.76249889</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="C267" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="D267" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="E267" t="n">
+        <v>84.22</v>
+      </c>
+      <c r="F267" t="n">
+        <v>53946.0602</v>
+      </c>
+      <c r="G267" t="n">
+        <v>323900.8226988901</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="C268" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="D268" t="n">
+        <v>85.45</v>
+      </c>
+      <c r="E268" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="F268" t="n">
+        <v>15288.2441</v>
+      </c>
+      <c r="G268" t="n">
+        <v>308612.57859889</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="C269" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="D269" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="E269" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="F269" t="n">
+        <v>15934.40703594389</v>
+      </c>
+      <c r="G269" t="n">
+        <v>324546.9856348339</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="C270" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="D270" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="E270" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="F270" t="n">
+        <v>7557.94</v>
+      </c>
+      <c r="G270" t="n">
+        <v>324546.9856348339</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="C271" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="D271" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="E271" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="F271" t="n">
+        <v>7292.483664056108</v>
+      </c>
+      <c r="G271" t="n">
+        <v>331839.46929889</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="C272" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="D272" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="E272" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="F272" t="n">
+        <v>10552.72203594389</v>
+      </c>
+      <c r="G272" t="n">
+        <v>321286.7472629462</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="C273" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="D273" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="E273" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="F273" t="n">
+        <v>12700.0562</v>
+      </c>
+      <c r="G273" t="n">
+        <v>333986.8034629461</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="C274" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="D274" t="n">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="E274" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="F274" t="n">
+        <v>21669.0867</v>
+      </c>
+      <c r="G274" t="n">
+        <v>312317.7167629462</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="C275" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="D275" t="n">
+        <v>85.77</v>
+      </c>
+      <c r="E275" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="F275" t="n">
+        <v>6202.795</v>
+      </c>
+      <c r="G275" t="n">
+        <v>318520.5117629461</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-16 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N275"/>
+  <dimension ref="A1:M275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,19 @@
         <v>4218.010870981292</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>78.41</v>
+      </c>
+      <c r="J5" t="n">
+        <v>78.41</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +587,23 @@
         <v>2937.684370981292</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>78.52</v>
+      </c>
+      <c r="J6" t="n">
+        <v>78.41</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +628,23 @@
         <v>4407.684370981292</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>78.31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>78.41</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +669,19 @@
         <v>29516.74827098129</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>78.33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>78.33</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +706,23 @@
         <v>29516.74827098129</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>78.52</v>
+      </c>
+      <c r="J9" t="n">
+        <v>78.33</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +747,23 @@
         <v>29516.74827098129</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>78.52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>78.33</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +790,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +821,21 @@
         <v>22952.74827098129</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.52</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +860,21 @@
         <v>23989.73937098129</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>78.3</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +899,21 @@
         <v>23949.94767098129</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +938,21 @@
         <v>32137.94357098129</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.3</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +979,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +1016,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1053,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1088,21 @@
         <v>25259.30160306605</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>77.88</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1127,21 @@
         <v>25359.30160306605</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>77.91</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1166,21 @@
         <v>-9114.969596933952</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1205,21 @@
         <v>-9807.843696933953</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1246,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1283,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1320,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1357,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1394,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1431,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1466,21 @@
         <v>-41899.83409693395</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1507,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1544,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1581,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1618,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1653,21 @@
         <v>-52550.29909693394</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1692,21 @@
         <v>-52550.29909693394</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1733,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1770,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1807,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1844,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1881,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1918,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1955,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1990,21 @@
         <v>-145882.9661255329</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +2031,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +2066,21 @@
         <v>-145882.9661255329</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>77.14</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2107,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2144,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2181,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2218,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2253,21 @@
         <v>-147522.0359255329</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2292,21 @@
         <v>-160522.0359255329</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>77.78</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2331,21 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>77.22</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2370,21 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>77.69</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2411,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2448,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2485,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2522,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2557,21 @@
         <v>-222074.3399255329</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2596,21 @@
         <v>-222024.3399255329</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,24 +2635,19 @@
         <v>-272201.9821255329</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2588,20 +2674,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2626,24 +2709,19 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,20 +2748,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2710,20 +2785,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2748,22 +2820,21 @@
         <v>-272917.6241255329</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2788,24 +2859,19 @@
         <v>-268991.3677255329</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2830,24 +2896,19 @@
         <v>-268194.2220255329</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2872,24 +2933,19 @@
         <v>-267441.8350255329</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>77.77</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2914,24 +2970,19 @@
         <v>-274364.1707255329</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2956,24 +3007,19 @@
         <v>-197339.5736255329</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3000,20 +3046,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3040,20 +3083,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3080,20 +3120,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3118,24 +3155,21 @@
         <v>-182040.1600255329</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>77.92</v>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3160,22 +3194,21 @@
         <v>-125246.0509255329</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3200,24 +3233,19 @@
         <v>-134606.7330255329</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>79.04000000000001</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3244,20 +3272,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3284,20 +3309,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3324,20 +3346,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3364,20 +3383,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3404,20 +3420,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3444,20 +3457,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3484,20 +3494,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3524,20 +3531,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3564,20 +3568,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3604,20 +3605,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3644,20 +3642,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3684,20 +3679,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3724,20 +3716,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3764,20 +3753,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3804,20 +3790,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3844,20 +3827,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3884,20 +3864,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3924,20 +3901,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3964,20 +3938,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4004,20 +3975,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4044,20 +4012,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4084,20 +4049,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4124,20 +4086,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4164,20 +4123,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4204,20 +4160,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4244,20 +4197,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4284,20 +4234,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4324,20 +4271,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4364,20 +4308,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4404,20 +4345,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4444,20 +4382,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4484,20 +4419,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4524,20 +4456,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4564,20 +4493,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4604,20 +4530,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4644,20 +4567,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4684,20 +4604,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4724,20 +4641,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4764,20 +4678,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4804,20 +4715,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4844,20 +4752,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4884,20 +4789,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4924,20 +4826,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4964,20 +4863,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5004,20 +4900,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5044,20 +4937,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5084,20 +4974,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5124,20 +5011,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5164,20 +5048,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5204,20 +5085,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5244,20 +5122,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5284,20 +5159,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5324,20 +5196,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5364,20 +5233,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5404,20 +5270,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5442,22 +5305,19 @@
         <v>348548.8768556956</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5482,22 +5342,19 @@
         <v>351932.4524556955</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5524,20 +5381,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5564,20 +5418,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5602,22 +5453,19 @@
         <v>307358.5456556955</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5644,20 +5492,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5684,20 +5529,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5724,20 +5566,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5762,22 +5601,19 @@
         <v>297951.1442556955</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5804,20 +5640,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5844,20 +5677,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5884,20 +5714,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5924,20 +5751,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5964,20 +5788,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6004,20 +5825,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6044,20 +5862,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6084,20 +5899,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6124,20 +5936,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6164,20 +5973,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6204,20 +6010,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6244,20 +6047,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6284,20 +6084,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6324,20 +6121,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6364,20 +6158,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6404,20 +6195,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6444,20 +6232,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6484,20 +6269,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6524,20 +6306,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6564,20 +6343,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6604,20 +6380,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6644,20 +6417,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6684,20 +6454,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6724,20 +6491,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6764,20 +6528,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6804,20 +6565,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6844,20 +6602,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6884,20 +6639,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6924,20 +6676,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6962,22 +6711,17 @@
         <v>234530.7222556955</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7002,22 +6746,15 @@
         <v>234530.7222556955</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7042,22 +6779,15 @@
         <v>237704.2386556955</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7082,22 +6812,15 @@
         <v>228769.5062556955</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7122,22 +6845,15 @@
         <v>225429.6174556955</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7164,20 +6880,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7204,20 +6913,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7244,20 +6946,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7282,22 +6977,15 @@
         <v>180364.6949556955</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7322,22 +7010,15 @@
         <v>175957.6949556955</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7362,22 +7043,15 @@
         <v>177419.6949556955</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7402,22 +7076,15 @@
         <v>151901.5201556955</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7442,22 +7109,15 @@
         <v>151901.5201556955</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7484,20 +7144,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7524,20 +7177,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7564,20 +7210,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7604,20 +7243,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7644,20 +7276,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7684,20 +7309,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7724,20 +7342,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7764,20 +7375,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7804,20 +7408,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7844,20 +7441,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7884,20 +7474,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7924,20 +7507,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7964,20 +7540,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8004,20 +7573,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8044,20 +7606,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8084,20 +7639,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8124,20 +7672,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8164,20 +7705,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8204,20 +7738,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8242,22 +7769,15 @@
         <v>195034.0573556955</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8282,22 +7802,15 @@
         <v>186821.3441556955</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8322,22 +7835,15 @@
         <v>201692.0249011875</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8362,22 +7868,15 @@
         <v>201692.0249011875</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8402,22 +7901,15 @@
         <v>201692.0249011875</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8442,22 +7934,15 @@
         <v>199280.9338825015</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8482,22 +7967,15 @@
         <v>195841.3824825015</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8522,22 +8000,15 @@
         <v>195962.2430094534</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8562,22 +8033,15 @@
         <v>183662.2430094534</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8602,22 +8066,15 @@
         <v>195455.3484094534</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8642,22 +8099,15 @@
         <v>189559.3484094534</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8682,22 +8132,15 @@
         <v>189559.3484094534</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8724,20 +8167,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8764,20 +8200,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8804,20 +8233,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8844,20 +8266,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8884,20 +8299,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8924,20 +8332,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8964,20 +8365,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9004,20 +8398,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9042,22 +8429,15 @@
         <v>165526.0203094534</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9082,22 +8462,15 @@
         <v>165526.0203094534</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9124,20 +8497,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9164,20 +8530,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9204,20 +8563,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9244,20 +8596,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9284,20 +8629,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9324,20 +8662,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9364,20 +8695,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9404,20 +8728,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9444,20 +8761,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9484,20 +8794,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9524,20 +8827,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9564,20 +8860,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9604,20 +8893,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9644,20 +8926,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9684,20 +8959,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9724,20 +8992,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9764,20 +9025,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9804,20 +9058,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9844,20 +9091,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9884,20 +9124,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9924,20 +9157,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9962,22 +9188,15 @@
         <v>188793.34659889</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10002,22 +9221,15 @@
         <v>202073.76969889</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10044,20 +9256,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10084,20 +9289,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10124,18 +9322,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L249" t="n">
+        <v>1</v>
       </c>
       <c r="M249" t="inlineStr"/>
-      <c r="N249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10160,18 +9353,15 @@
         <v>192276.36089889</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10196,18 +9386,15 @@
         <v>209428.27189889</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10232,18 +9419,15 @@
         <v>209428.27189889</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10268,18 +9452,15 @@
         <v>210256.16349889</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10304,18 +9485,15 @@
         <v>210256.16349889</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10340,18 +9518,15 @@
         <v>244037.55509889</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10376,18 +9551,15 @@
         <v>246806.86329889</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10412,18 +9584,15 @@
         <v>246806.86329889</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10448,18 +9617,15 @@
         <v>223240.50509889</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10484,18 +9650,15 @@
         <v>244679.39609889</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10520,18 +9683,15 @@
         <v>243267.43649889</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10556,18 +9716,15 @@
         <v>243267.43649889</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10592,18 +9749,15 @@
         <v>243267.43649889</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10628,18 +9782,15 @@
         <v>243267.43649889</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10664,18 +9815,15 @@
         <v>243267.43649889</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10700,18 +9848,15 @@
         <v>243267.43649889</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10736,18 +9881,15 @@
         <v>269954.76249889</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10772,18 +9914,15 @@
         <v>323900.8226988901</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10808,18 +9947,15 @@
         <v>308612.57859889</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10844,18 +9980,15 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10880,18 +10013,15 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10916,18 +10046,15 @@
         <v>331839.46929889</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10952,18 +10079,15 @@
         <v>321286.7472629462</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10990,16 +10114,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>1</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11024,18 +10145,15 @@
         <v>312317.7167629462</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11060,20 +10178,17 @@
         <v>318520.5117629461</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-16 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>4218.010870981292</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>78.41</v>
-      </c>
-      <c r="J5" t="n">
-        <v>78.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>2937.684370981292</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>78.52</v>
-      </c>
-      <c r="J6" t="n">
-        <v>78.41</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,19 +616,11 @@
         <v>4407.684370981292</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>78.31</v>
-      </c>
-      <c r="J7" t="n">
-        <v>78.41</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,14 +649,10 @@
         <v>29516.74827098129</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>78.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>78.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -706,19 +682,11 @@
         <v>29516.74827098129</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>78.52</v>
-      </c>
-      <c r="J9" t="n">
-        <v>78.33</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,19 +715,11 @@
         <v>29516.74827098129</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>78.52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>78.33</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -821,17 +781,11 @@
         <v>22952.74827098129</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>78.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,17 +814,11 @@
         <v>23989.73937098129</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>78.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -899,17 +847,11 @@
         <v>23949.94767098129</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>78.95999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -938,17 +880,11 @@
         <v>32137.94357098129</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>78.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -981,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1018,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1055,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1088,17 +1012,11 @@
         <v>25259.30160306605</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>77.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1127,17 +1045,11 @@
         <v>25359.30160306605</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>77.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1166,17 +1078,11 @@
         <v>-9114.969596933952</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>78.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1205,17 +1111,11 @@
         <v>-9807.843696933953</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>77.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1248,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1285,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1322,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1359,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1396,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1433,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1466,17 +1342,11 @@
         <v>-41899.83409693395</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>76.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1509,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1546,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1583,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1620,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1653,17 +1507,11 @@
         <v>-52550.29909693394</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>76.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1692,17 +1540,11 @@
         <v>-52550.29909693394</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>76.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1735,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1772,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1809,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1846,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1883,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1920,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1957,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1990,17 +1804,11 @@
         <v>-145882.9661255329</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>77.04000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2033,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2066,17 +1870,15 @@
         <v>-145882.9661255329</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>77.14</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="n">
+        <v>77.14</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2105,13 +1907,17 @@
         <v>-145572.0359255329</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>77.14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2142,13 +1948,17 @@
         <v>-147572.0359255329</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>77.79000000000001</v>
+      </c>
+      <c r="J47" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2179,13 +1989,17 @@
         <v>-147572.0359255329</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="J48" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2216,10 +2030,14 @@
         <v>-147572.0359255329</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,12 +2071,14 @@
         <v>-147522.0359255329</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>77.15000000000001</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2292,12 +2112,14 @@
         <v>-160522.0359255329</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>77.78</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2331,12 +2153,14 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>77.22</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,12 +2194,12 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2412,7 +2236,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2449,7 +2275,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,7 +2314,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2523,7 +2353,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2557,12 +2389,12 @@
         <v>-222074.3399255329</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2596,12 +2428,14 @@
         <v>-222024.3399255329</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>76.18000000000001</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,10 +2469,14 @@
         <v>-272201.9821255329</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="J60" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2672,10 +2510,14 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2709,10 +2551,14 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="J62" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,10 +2592,14 @@
         <v>-275343.8717255329</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="J63" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2786,7 +2636,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2820,12 +2672,14 @@
         <v>-272917.6241255329</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>76.3</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2859,10 +2713,14 @@
         <v>-268991.3677255329</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2896,10 +2754,14 @@
         <v>-268194.2220255329</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="J67" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2933,10 +2795,14 @@
         <v>-267441.8350255329</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>77.77</v>
+      </c>
+      <c r="J68" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,10 +2836,14 @@
         <v>-274364.1707255329</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>77.92</v>
+      </c>
+      <c r="J69" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,10 +2877,14 @@
         <v>-197339.5736255329</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3047,7 +2921,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,7 +2960,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3121,7 +2999,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,12 +3035,12 @@
         <v>-182040.1600255329</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3194,12 +3074,12 @@
         <v>-125246.0509255329</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>79</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3236,7 +3116,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,7 +3155,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,7 +3194,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3347,7 +3233,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3384,7 +3272,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,7 +3311,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3458,7 +3350,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3495,7 +3389,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,7 +3428,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3569,7 +3467,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3606,7 +3506,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3643,7 +3545,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,7 +3584,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3717,7 +3623,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3754,7 +3662,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3791,7 +3701,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3828,7 +3740,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,7 +3779,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3902,7 +3818,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3939,7 +3857,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,7 +3896,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4013,7 +3935,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,7 +3974,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4087,7 +4013,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,7 +4052,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4161,7 +4091,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,7 +4130,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,7 +4169,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,7 +4208,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,7 +4247,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,7 +4286,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4383,7 +4325,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4420,7 +4364,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,7 +4403,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,7 +4442,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4531,7 +4481,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4568,7 +4520,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,7 +4559,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,7 +4598,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,7 +4637,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4716,7 +4676,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,7 +4715,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,7 +4754,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,7 +4793,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4864,7 +4832,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,7 +4871,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,7 +4910,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4975,7 +4949,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,7 +4988,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5049,7 +5027,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,7 +5066,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5123,7 +5105,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5160,7 +5144,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5197,7 +5183,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5234,7 +5222,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5271,7 +5261,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,10 +5297,12 @@
         <v>348548.8768556956</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,10 +5336,12 @@
         <v>351932.4524556955</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5382,7 +5378,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5419,7 +5417,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,19 +5453,23 @@
         <v>307358.5456556955</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>77.14</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>1.050094633134561</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.051325807298503</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5494,11 +5498,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5531,11 +5531,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5568,11 +5564,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5601,15 +5593,11 @@
         <v>297951.1442556955</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5642,11 +5630,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5679,11 +5663,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5716,11 +5696,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5753,11 +5729,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5790,11 +5762,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5827,11 +5795,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5864,11 +5828,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5901,11 +5861,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5938,11 +5894,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5975,11 +5927,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6012,11 +5960,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6049,11 +5993,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6086,11 +6026,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6123,11 +6059,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6092,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6197,11 +6125,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6234,11 +6158,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6271,11 +6191,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +6224,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6345,11 +6257,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6382,11 +6290,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6419,11 +6323,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6456,11 +6356,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6493,11 +6389,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6530,11 +6422,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6567,11 +6455,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6604,11 +6488,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6641,11 +6521,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6678,11 +6554,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6711,16 +6583,14 @@
         <v>234530.7222556955</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
       <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -6746,7 +6616,7 @@
         <v>234530.7222556955</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6779,7 +6649,7 @@
         <v>237704.2386556955</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6812,7 +6682,7 @@
         <v>228769.5062556955</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6845,7 +6715,7 @@
         <v>225429.6174556955</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6977,7 +6847,7 @@
         <v>180364.6949556955</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7010,7 +6880,7 @@
         <v>175957.6949556955</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7043,7 +6913,7 @@
         <v>177419.6949556955</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7076,7 +6946,7 @@
         <v>151901.5201556955</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7109,7 +6979,7 @@
         <v>151901.5201556955</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7736,7 +7606,7 @@
         <v>178824.7665556955</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7769,7 +7639,7 @@
         <v>195034.0573556955</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7802,7 +7672,7 @@
         <v>186821.3441556955</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7835,7 +7705,7 @@
         <v>201692.0249011875</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7868,7 +7738,7 @@
         <v>201692.0249011875</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7901,7 +7771,7 @@
         <v>201692.0249011875</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7934,7 +7804,7 @@
         <v>199280.9338825015</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7967,7 +7837,7 @@
         <v>195841.3824825015</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8000,7 +7870,7 @@
         <v>195962.2430094534</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8033,7 +7903,7 @@
         <v>183662.2430094534</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8066,7 +7936,7 @@
         <v>195455.3484094534</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8099,7 +7969,7 @@
         <v>189559.3484094534</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8132,7 +8002,7 @@
         <v>189559.3484094534</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8429,7 +8299,7 @@
         <v>165526.0203094534</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8462,7 +8332,7 @@
         <v>165526.0203094534</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9188,7 +9058,7 @@
         <v>188793.34659889</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9221,7 +9091,7 @@
         <v>202073.76969889</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9353,7 +9223,7 @@
         <v>192276.36089889</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9386,7 +9256,7 @@
         <v>209428.27189889</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9419,7 +9289,7 @@
         <v>209428.27189889</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9452,7 +9322,7 @@
         <v>210256.16349889</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9485,7 +9355,7 @@
         <v>210256.16349889</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9518,7 +9388,7 @@
         <v>244037.55509889</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9551,7 +9421,7 @@
         <v>246806.86329889</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9584,7 +9454,7 @@
         <v>246806.86329889</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9617,7 +9487,7 @@
         <v>223240.50509889</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9650,7 +9520,7 @@
         <v>244679.39609889</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9683,7 +9553,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9716,7 +9586,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9749,7 +9619,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9782,7 +9652,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9815,7 +9685,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9848,7 +9718,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9881,7 +9751,7 @@
         <v>269954.76249889</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9914,7 +9784,7 @@
         <v>323900.8226988901</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9947,7 +9817,7 @@
         <v>308612.57859889</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9980,7 +9850,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10013,7 +9883,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10046,7 +9916,7 @@
         <v>331839.46929889</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10079,7 +9949,7 @@
         <v>321286.7472629462</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10112,7 +9982,7 @@
         <v>333986.8034629461</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10145,7 +10015,7 @@
         <v>312317.7167629462</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10178,7 +10048,7 @@
         <v>318520.5117629461</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10189,6 +10059,6 @@
       <c r="M275" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-16 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1907,11 +1907,9 @@
         <v>-145572.0359255329</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>77.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>77.14</v>
       </c>
@@ -1948,11 +1946,9 @@
         <v>-147572.0359255329</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>77.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>77.14</v>
       </c>
@@ -1989,261 +1985,227 @@
         <v>-147572.0359255329</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>77.15000000000001</v>
       </c>
-      <c r="J48" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K48" t="inlineStr">
+      <c r="C49" t="n">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10308.7026</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-147572.0359255329</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="C50" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="D50" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="E50" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-147522.0359255329</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="C51" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="D51" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="E51" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="F51" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-160522.0359255329</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="C52" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="D52" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="E52" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5396.8707</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-155125.1652255329</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="J52" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="C53" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="D53" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="E53" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="F53" t="n">
+        <v>632.5177</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-155125.1652255329</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>77.69</v>
+      </c>
+      <c r="J53" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="C54" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>65513.9285</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-220639.0937255329</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="C49" t="n">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="D49" t="n">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="E49" t="n">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="F49" t="n">
-        <v>10308.7026</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-147572.0359255329</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="J49" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="C50" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="D50" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="E50" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="F50" t="n">
-        <v>50</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-147522.0359255329</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>77.15000000000001</v>
-      </c>
-      <c r="J50" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="C51" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="D51" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="E51" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="F51" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-160522.0359255329</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="J51" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="C52" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="D52" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="E52" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="F52" t="n">
-        <v>5396.8707</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-155125.1652255329</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="J52" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="C53" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="D53" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="E53" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="F53" t="n">
-        <v>632.5177</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-155125.1652255329</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>77.48999999999999</v>
-      </c>
-      <c r="C54" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>77.48999999999999</v>
-      </c>
-      <c r="E54" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>65513.9285</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-220639.0937255329</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2276,7 +2238,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2311,11 +2273,13 @@
         <v>-222074.3399255329</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>76.18000000000001</v>
+      </c>
       <c r="J56" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2350,11 +2314,13 @@
         <v>-222074.3399255329</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>76.18000000000001</v>
+      </c>
       <c r="J57" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2389,11 +2355,13 @@
         <v>-222074.3399255329</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>76.18000000000001</v>
+      </c>
       <c r="J58" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2434,7 +2402,7 @@
         <v>76.18000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2469,13 +2437,11 @@
         <v>-272201.9821255329</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>77.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2510,13 +2476,11 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>77.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2551,13 +2515,11 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>77.56999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2592,13 +2554,11 @@
         <v>-275343.8717255329</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>77.56999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2637,7 +2597,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2672,13 +2632,11 @@
         <v>-272917.6241255329</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>76.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2713,13 +2671,11 @@
         <v>-268991.3677255329</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>77.56999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2754,13 +2710,11 @@
         <v>-268194.2220255329</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>77.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2795,13 +2749,11 @@
         <v>-267441.8350255329</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>77.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2836,13 +2788,11 @@
         <v>-274364.1707255329</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>77.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2877,13 +2827,11 @@
         <v>-197339.5736255329</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>77.56999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2922,7 +2870,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2961,7 +2909,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3000,7 +2948,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3039,7 +2987,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3078,7 +3026,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3117,7 +3065,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3156,7 +3104,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3195,7 +3143,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3234,7 +3182,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3273,7 +3221,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3312,7 +3260,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3351,7 +3299,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3390,7 +3338,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3429,7 +3377,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3468,7 +3416,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3507,7 +3455,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3546,7 +3494,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3585,7 +3533,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3624,7 +3572,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3663,7 +3611,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3702,7 +3650,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3737,21 +3685,23 @@
         <v>97653.67735569553</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>77.14</v>
+        <v>77.22</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>1.050426055426056</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.051325807298503</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3776,17 +3726,11 @@
         <v>119392.610738241</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3815,17 +3759,11 @@
         <v>132039.6148556955</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3854,17 +3792,11 @@
         <v>146280.7535556956</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3893,17 +3825,11 @@
         <v>186043.8704556955</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3935,14 +3861,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3974,14 +3894,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4013,14 +3927,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4052,14 +3960,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +3993,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4127,17 +4023,11 @@
         <v>230712.1602556956</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4166,17 +4056,11 @@
         <v>191871.0958556956</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4208,14 +4092,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4244,17 +4122,11 @@
         <v>150521.0033556956</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4283,17 +4155,11 @@
         <v>152277.8695556956</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4322,17 +4188,11 @@
         <v>185523.0694556956</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4361,17 +4221,11 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4400,17 +4254,11 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4439,17 +4287,11 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4481,14 +4323,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4520,14 +4356,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4559,14 +4389,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4598,14 +4422,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4637,14 +4455,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4676,14 +4488,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4715,14 +4521,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4754,14 +4554,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4793,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4829,17 +4617,11 @@
         <v>361261.6636556955</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4868,17 +4650,11 @@
         <v>361161.6636556955</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4907,17 +4683,11 @@
         <v>361261.6636556955</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4946,17 +4716,11 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4985,17 +4749,11 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5024,17 +4782,11 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5063,17 +4815,11 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5105,14 +4851,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5144,14 +4884,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5183,14 +4917,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5222,14 +4950,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5261,14 +4983,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5300,14 +5016,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5339,14 +5049,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5378,14 +5082,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5417,14 +5115,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5453,23 +5145,15 @@
         <v>307358.5456556955</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>1.050094633134561</v>
-      </c>
-      <c r="M136" t="n">
-        <v>1.051325807298503</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7606,7 +7290,7 @@
         <v>178824.7665556955</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -9421,7 +9105,7 @@
         <v>246806.86329889</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9487,7 +9171,7 @@
         <v>223240.50509889</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9553,7 +9237,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9586,7 +9270,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9619,7 +9303,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9652,7 +9336,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9685,7 +9369,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9718,7 +9402,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9751,7 +9435,7 @@
         <v>269954.76249889</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9784,7 +9468,7 @@
         <v>323900.8226988901</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9817,7 +9501,7 @@
         <v>308612.57859889</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9850,7 +9534,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9883,7 +9567,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9916,7 +9600,7 @@
         <v>331839.46929889</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9949,7 +9633,7 @@
         <v>321286.7472629462</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9982,7 +9666,7 @@
         <v>333986.8034629461</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10015,7 +9699,7 @@
         <v>312317.7167629462</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10048,7 +9732,7 @@
         <v>318520.5117629461</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10059,6 +9743,6 @@
       <c r="M275" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-16 BackTest CTXC.xlsx
@@ -1870,14 +1870,10 @@
         <v>-145882.9661255329</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>77.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1910,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1949,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2117,14 +2101,10 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="J52" t="n">
-        <v>77.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2154,261 +2134,221 @@
         <v>-155125.1652255329</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>77.69</v>
-      </c>
-      <c r="J53" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="C54" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>65513.9285</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-220639.0937255329</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="E55" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1435.2462</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-222074.3399255329</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="C56" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="E56" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2030.2029</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-222074.3399255329</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="E57" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6431.4954</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-222074.3399255329</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="C58" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13659.235</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-222074.3399255329</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="J58" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="C59" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="D59" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="E59" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="F59" t="n">
+        <v>50</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-222024.3399255329</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>76.18000000000001</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>77.48999999999999</v>
-      </c>
-      <c r="C54" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>77.48999999999999</v>
-      </c>
-      <c r="E54" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>65513.9285</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-220639.0937255329</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="C55" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="D55" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="E55" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1435.2462</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-222074.3399255329</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="C56" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="D56" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="E56" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2030.2029</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-222074.3399255329</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="J56" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="C57" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="D57" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="E57" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6431.4954</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-222074.3399255329</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="J57" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="C58" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="D58" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="E58" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="F58" t="n">
-        <v>13659.235</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-222074.3399255329</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="C59" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="D59" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="E59" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="F59" t="n">
-        <v>50</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-222024.3399255329</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="J59" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2437,15 +2377,17 @@
         <v>-272201.9821255329</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>77.67</v>
+      </c>
       <c r="J60" t="n">
-        <v>77.22</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2476,17 +2418,15 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>77.3</v>
+      </c>
       <c r="J61" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>77.3</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2515,15 +2455,17 @@
         <v>-272191.9821255329</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>77.56999999999999</v>
+      </c>
       <c r="J62" t="n">
-        <v>77.22</v>
+        <v>77.3</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2554,15 +2496,17 @@
         <v>-275343.8717255329</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>77.56999999999999</v>
+      </c>
       <c r="J63" t="n">
-        <v>77.22</v>
+        <v>77.3</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2593,17 +2537,15 @@
         <v>-275343.8717255329</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>76.3</v>
+      </c>
       <c r="J64" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>76.3</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2632,15 +2574,17 @@
         <v>-272917.6241255329</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>76.3</v>
+      </c>
       <c r="J65" t="n">
-        <v>77.22</v>
+        <v>76.3</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2671,15 +2615,17 @@
         <v>-268991.3677255329</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>77.56999999999999</v>
+      </c>
       <c r="J66" t="n">
-        <v>77.22</v>
+        <v>76.3</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2710,17 +2656,15 @@
         <v>-268194.2220255329</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>77.67</v>
+      </c>
       <c r="J67" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>77.67</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2749,15 +2693,17 @@
         <v>-267441.8350255329</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>77.77</v>
+      </c>
       <c r="J68" t="n">
-        <v>77.22</v>
+        <v>77.67</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2788,15 +2734,17 @@
         <v>-274364.1707255329</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>77.92</v>
+      </c>
       <c r="J69" t="n">
-        <v>77.22</v>
+        <v>77.67</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2827,17 +2775,15 @@
         <v>-197339.5736255329</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>77.56999999999999</v>
+      </c>
       <c r="J70" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>77.56999999999999</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2870,11 +2816,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>77.22</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2909,11 +2855,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>77.22</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2947,14 +2893,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2986,14 +2926,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3025,14 +2959,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3064,14 +2992,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3103,14 +3025,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3142,14 +3058,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3181,14 +3091,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3220,14 +3124,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3259,14 +3157,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3298,14 +3190,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3337,14 +3223,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3376,14 +3256,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3415,14 +3289,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3454,14 +3322,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3493,14 +3355,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3532,14 +3388,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3571,14 +3421,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3610,14 +3454,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3649,14 +3487,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3685,23 +3517,15 @@
         <v>97653.67735569553</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>1.050426055426056</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.051325807298503</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3726,7 +3550,7 @@
         <v>119392.610738241</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3759,7 +3583,7 @@
         <v>132039.6148556955</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3792,7 +3616,7 @@
         <v>146280.7535556956</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3825,7 +3649,7 @@
         <v>186043.8704556955</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4023,7 +3847,7 @@
         <v>230712.1602556956</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4056,7 +3880,7 @@
         <v>191871.0958556956</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4122,7 +3946,7 @@
         <v>150521.0033556956</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4155,7 +3979,7 @@
         <v>152277.8695556956</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4188,7 +4012,7 @@
         <v>185523.0694556956</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4221,7 +4045,7 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4254,7 +4078,7 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4287,7 +4111,7 @@
         <v>189316.9668556956</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4617,7 +4441,7 @@
         <v>361261.6636556955</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4650,7 +4474,7 @@
         <v>361161.6636556955</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4683,7 +4507,7 @@
         <v>361261.6636556955</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4716,7 +4540,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4749,7 +4573,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4782,7 +4606,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4815,7 +4639,7 @@
         <v>360798.3772556955</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -9270,7 +9094,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9303,7 +9127,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9336,7 +9160,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9369,7 +9193,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9402,7 +9226,7 @@
         <v>243267.43649889</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9468,7 +9292,7 @@
         <v>323900.8226988901</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9501,7 +9325,7 @@
         <v>308612.57859889</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9534,7 +9358,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9567,7 +9391,7 @@
         <v>324546.9856348339</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9600,7 +9424,7 @@
         <v>331839.46929889</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9633,7 +9457,7 @@
         <v>321286.7472629462</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9666,7 +9490,7 @@
         <v>333986.8034629461</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9699,7 +9523,7 @@
         <v>312317.7167629462</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9732,7 +9556,7 @@
         <v>318520.5117629461</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest CTXC.xlsx
+++ b/BackTest/2020-01-16 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M275"/>
+  <dimension ref="A1:L275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>46.915</v>
       </c>
       <c r="G2" t="n">
-        <v>602.0601709812921</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>936.5546000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>1538.614770981292</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2484.6039</v>
       </c>
       <c r="G4" t="n">
-        <v>-945.9891290187079</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5164</v>
       </c>
       <c r="G5" t="n">
-        <v>4218.010870981292</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1280.3265</v>
       </c>
       <c r="G6" t="n">
-        <v>2937.684370981292</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1470</v>
       </c>
       <c r="G7" t="n">
-        <v>4407.684370981292</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>25109.0639</v>
       </c>
       <c r="G8" t="n">
-        <v>29516.74827098129</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3159.2654</v>
       </c>
       <c r="G9" t="n">
-        <v>29516.74827098129</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>29516.74827098129</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>22849.3721</v>
       </c>
       <c r="G11" t="n">
-        <v>29516.74827098129</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>6564</v>
       </c>
       <c r="G12" t="n">
-        <v>22952.74827098129</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1036.9911</v>
       </c>
       <c r="G13" t="n">
-        <v>23989.73937098129</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>39.7917</v>
       </c>
       <c r="G14" t="n">
-        <v>23949.94767098129</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>8187.9959</v>
       </c>
       <c r="G15" t="n">
-        <v>32137.94357098129</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>14426.8458</v>
       </c>
       <c r="G16" t="n">
-        <v>17711.09777098129</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2529.88426791524</v>
       </c>
       <c r="G17" t="n">
-        <v>15181.21350306605</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>13376.536</v>
       </c>
       <c r="G18" t="n">
-        <v>1804.67750306605</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>23454.6241</v>
       </c>
       <c r="G19" t="n">
-        <v>25259.30160306605</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>25359.30160306605</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>34474.2712</v>
       </c>
       <c r="G21" t="n">
-        <v>-9114.969596933952</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>692.8741</v>
       </c>
       <c r="G22" t="n">
-        <v>-9807.843696933953</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>36307.9731</v>
       </c>
       <c r="G23" t="n">
-        <v>26500.12940306605</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>14120.3183</v>
       </c>
       <c r="G24" t="n">
-        <v>12379.81110306605</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>36035.0694</v>
       </c>
       <c r="G25" t="n">
-        <v>12379.81110306605</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>7150.8794</v>
       </c>
       <c r="G26" t="n">
-        <v>5228.93170306605</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>5208.93170306605</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2559.3957</v>
       </c>
       <c r="G28" t="n">
-        <v>2649.536003066049</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>44549.3701</v>
       </c>
       <c r="G29" t="n">
-        <v>-41899.83409693395</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>5195.3579</v>
       </c>
       <c r="G30" t="n">
-        <v>-36704.47619693395</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>15249.9961</v>
       </c>
       <c r="G31" t="n">
-        <v>-36704.47619693395</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>18484</v>
       </c>
       <c r="G32" t="n">
-        <v>-55188.47619693395</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2638.1771</v>
       </c>
       <c r="G33" t="n">
-        <v>-52550.29909693394</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>67248.6235</v>
       </c>
       <c r="G34" t="n">
-        <v>-52550.29909693394</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>188.3856</v>
       </c>
       <c r="G35" t="n">
-        <v>-52550.29909693394</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>6624.262171401053</v>
       </c>
       <c r="G36" t="n">
-        <v>-45926.03692553289</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>58.4969</v>
       </c>
       <c r="G37" t="n">
-        <v>-45984.53382553289</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>8340.7628</v>
       </c>
       <c r="G38" t="n">
-        <v>-54325.29662553289</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>26344.2345</v>
       </c>
       <c r="G39" t="n">
-        <v>-80669.5311255329</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>76532.4767</v>
       </c>
       <c r="G40" t="n">
-        <v>-157202.0078255329</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>18110.9517</v>
       </c>
       <c r="G41" t="n">
-        <v>-157202.0078255329</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>-157152.0078255329</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>11269.0417</v>
       </c>
       <c r="G43" t="n">
-        <v>-145882.9661255329</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>409.9847</v>
       </c>
       <c r="G44" t="n">
-        <v>-145882.9661255329</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>413.9414</v>
       </c>
       <c r="G45" t="n">
-        <v>-145882.9661255329</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>310.9302</v>
       </c>
       <c r="G46" t="n">
-        <v>-145572.0359255329</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2000</v>
       </c>
       <c r="G47" t="n">
-        <v>-147572.0359255329</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>10000</v>
       </c>
       <c r="G48" t="n">
-        <v>-147572.0359255329</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>10308.7026</v>
       </c>
       <c r="G49" t="n">
-        <v>-147572.0359255329</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>-147522.0359255329</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>13000</v>
       </c>
       <c r="G51" t="n">
-        <v>-160522.0359255329</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>5396.8707</v>
       </c>
       <c r="G52" t="n">
-        <v>-155125.1652255329</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>632.5177</v>
       </c>
       <c r="G53" t="n">
-        <v>-155125.1652255329</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>65513.9285</v>
       </c>
       <c r="G54" t="n">
-        <v>-220639.0937255329</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1435.2462</v>
       </c>
       <c r="G55" t="n">
-        <v>-222074.3399255329</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>2030.2029</v>
       </c>
       <c r="G56" t="n">
-        <v>-222074.3399255329</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>6431.4954</v>
       </c>
       <c r="G57" t="n">
-        <v>-222074.3399255329</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,22 +2123,15 @@
         <v>13659.235</v>
       </c>
       <c r="G58" t="n">
-        <v>-222074.3399255329</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>76.18000000000001</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2333,104 +2153,93 @@
         <v>50</v>
       </c>
       <c r="G59" t="n">
-        <v>-222024.3399255329</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>76.18000000000001</v>
       </c>
       <c r="I59" t="n">
         <v>76.18000000000001</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>77.44</v>
+      </c>
+      <c r="C60" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>77.44</v>
+      </c>
+      <c r="E60" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>50177.6422</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="I60" t="n">
         <v>76.18000000000001</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>77.44</v>
-      </c>
-      <c r="C60" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D60" t="n">
-        <v>77.44</v>
-      </c>
-      <c r="E60" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>50177.6422</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-272201.9821255329</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="D61" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="E61" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
         <v>76.18000000000001</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="C61" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="D61" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="E61" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="F61" t="n">
-        <v>10</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-272191.9821255329</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2452,223 +2261,183 @@
         <v>8293.752399999999</v>
       </c>
       <c r="G62" t="n">
-        <v>-272191.9821255329</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3151.8896</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4329.6842</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>77.56999999999999</v>
       </c>
-      <c r="J62" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
+      <c r="C65" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="D65" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="E65" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2426.2476</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="C66" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="D66" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="E66" t="n">
+        <v>77.67</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3926.2564</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="I66" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>77.77</v>
+      </c>
+      <c r="C67" t="n">
+        <v>77.77</v>
+      </c>
+      <c r="D67" t="n">
+        <v>77.77</v>
+      </c>
+      <c r="E67" t="n">
+        <v>77.77</v>
+      </c>
+      <c r="F67" t="n">
+        <v>797.1457</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
         <v>76.3</v>
       </c>
-      <c r="C63" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="D63" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="E63" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3151.8896</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-275343.8717255329</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="J63" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K63" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="C64" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="D64" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="E64" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="F64" t="n">
-        <v>4329.6842</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-275343.8717255329</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="C65" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="D65" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="E65" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2426.2476</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-272917.6241255329</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="C66" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="D66" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="E66" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3926.2564</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-268991.3677255329</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="J66" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>77.77</v>
-      </c>
-      <c r="C67" t="n">
-        <v>77.77</v>
-      </c>
-      <c r="D67" t="n">
-        <v>77.77</v>
-      </c>
-      <c r="E67" t="n">
-        <v>77.77</v>
-      </c>
-      <c r="F67" t="n">
-        <v>797.1457</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-268194.2220255329</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="J67" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2690,26 +2459,15 @@
         <v>752.3869999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-267441.8350255329</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>77.77</v>
-      </c>
-      <c r="J68" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2731,26 +2489,15 @@
         <v>6922.3357</v>
       </c>
       <c r="G69" t="n">
-        <v>-274364.1707255329</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="J69" t="n">
-        <v>77.67</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2772,22 +2519,15 @@
         <v>77024.5971</v>
       </c>
       <c r="G70" t="n">
-        <v>-197339.5736255329</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2809,24 +2549,15 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-197329.5736255329</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2848,24 +2579,15 @@
         <v>7</v>
       </c>
       <c r="G72" t="n">
-        <v>-197329.5736255329</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>77.56999999999999</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2887,18 +2609,15 @@
         <v>440.4539</v>
       </c>
       <c r="G73" t="n">
-        <v>-196889.1197255329</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2920,18 +2639,15 @@
         <v>14848.9597</v>
       </c>
       <c r="G74" t="n">
-        <v>-182040.1600255329</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2953,18 +2669,15 @@
         <v>56794.1091</v>
       </c>
       <c r="G75" t="n">
-        <v>-125246.0509255329</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2986,18 +2699,15 @@
         <v>9360.6821</v>
       </c>
       <c r="G76" t="n">
-        <v>-134606.7330255329</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3019,18 +2729,15 @@
         <v>462.1162</v>
       </c>
       <c r="G77" t="n">
-        <v>-134606.7330255329</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3052,18 +2759,15 @@
         <v>107223.2109</v>
       </c>
       <c r="G78" t="n">
-        <v>-27383.52212553291</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3085,18 +2789,15 @@
         <v>48344.1396</v>
       </c>
       <c r="G79" t="n">
-        <v>-75727.6617255329</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3118,18 +2819,15 @@
         <v>10152.66312631185</v>
       </c>
       <c r="G80" t="n">
-        <v>-65574.99859922106</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3151,18 +2849,15 @@
         <v>11</v>
       </c>
       <c r="G81" t="n">
-        <v>-65563.99859922106</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3184,18 +2879,15 @@
         <v>11</v>
       </c>
       <c r="G82" t="n">
-        <v>-65574.99859922106</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3217,18 +2909,15 @@
         <v>9542.705599999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-65574.99859922106</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3250,18 +2939,15 @@
         <v>4587.8822</v>
       </c>
       <c r="G84" t="n">
-        <v>-60987.11639922106</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3283,18 +2969,15 @@
         <v>12428.5407549166</v>
       </c>
       <c r="G85" t="n">
-        <v>-48558.57564430446</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3316,18 +2999,15 @@
         <v>5638.4485</v>
       </c>
       <c r="G86" t="n">
-        <v>-42920.12714430446</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3349,18 +3029,15 @@
         <v>50137.4453</v>
       </c>
       <c r="G87" t="n">
-        <v>7217.318155695539</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3382,18 +3059,15 @@
         <v>1623.6333</v>
       </c>
       <c r="G88" t="n">
-        <v>5593.684855695539</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3415,18 +3089,15 @@
         <v>46167.7839</v>
       </c>
       <c r="G89" t="n">
-        <v>51761.46875569554</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3448,18 +3119,15 @@
         <v>34625.1146</v>
       </c>
       <c r="G90" t="n">
-        <v>86386.58335569553</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3481,18 +3149,15 @@
         <v>1067.5187</v>
       </c>
       <c r="G91" t="n">
-        <v>86386.58335569553</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3514,18 +3179,15 @@
         <v>11267.094</v>
       </c>
       <c r="G92" t="n">
-        <v>97653.67735569553</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3547,18 +3209,15 @@
         <v>21738.93338254546</v>
       </c>
       <c r="G93" t="n">
-        <v>119392.610738241</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3580,18 +3239,15 @@
         <v>12647.00411745455</v>
       </c>
       <c r="G94" t="n">
-        <v>132039.6148556955</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3613,18 +3269,15 @@
         <v>14241.1387</v>
       </c>
       <c r="G95" t="n">
-        <v>146280.7535556956</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3646,18 +3299,15 @@
         <v>39763.1169</v>
       </c>
       <c r="G96" t="n">
-        <v>186043.8704556955</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3679,18 +3329,15 @@
         <v>78137.4859</v>
       </c>
       <c r="G97" t="n">
-        <v>186043.8704556955</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3712,18 +3359,15 @@
         <v>5669.3928</v>
       </c>
       <c r="G98" t="n">
-        <v>180374.4776556955</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3745,18 +3389,15 @@
         <v>21573.6391</v>
       </c>
       <c r="G99" t="n">
-        <v>180374.4776556955</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3778,18 +3419,15 @@
         <v>16239.3372</v>
       </c>
       <c r="G100" t="n">
-        <v>180374.4776556955</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3811,18 +3449,15 @@
         <v>51522.0801</v>
       </c>
       <c r="G101" t="n">
-        <v>128852.3975556956</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3844,18 +3479,15 @@
         <v>101859.7627</v>
       </c>
       <c r="G102" t="n">
-        <v>230712.1602556956</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3877,18 +3509,15 @@
         <v>38841.0644</v>
       </c>
       <c r="G103" t="n">
-        <v>191871.0958556956</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3910,18 +3539,15 @@
         <v>45351.9508</v>
       </c>
       <c r="G104" t="n">
-        <v>146519.1450556956</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3943,18 +3569,15 @@
         <v>4001.8583</v>
       </c>
       <c r="G105" t="n">
-        <v>150521.0033556956</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3976,18 +3599,15 @@
         <v>1756.8662</v>
       </c>
       <c r="G106" t="n">
-        <v>152277.8695556956</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4009,18 +3629,15 @@
         <v>33245.1999</v>
       </c>
       <c r="G107" t="n">
-        <v>185523.0694556956</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4042,18 +3659,15 @@
         <v>3793.8974</v>
       </c>
       <c r="G108" t="n">
-        <v>189316.9668556956</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4075,18 +3689,15 @@
         <v>11644.6167</v>
       </c>
       <c r="G109" t="n">
-        <v>189316.9668556956</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4108,18 +3719,15 @@
         <v>3597.1224</v>
       </c>
       <c r="G110" t="n">
-        <v>189316.9668556956</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4141,18 +3749,15 @@
         <v>8265.0479</v>
       </c>
       <c r="G111" t="n">
-        <v>181051.9189556956</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4174,18 +3779,15 @@
         <v>13654.8076</v>
       </c>
       <c r="G112" t="n">
-        <v>194706.7265556956</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4207,18 +3809,15 @@
         <v>3758.0553</v>
       </c>
       <c r="G113" t="n">
-        <v>198464.7818556956</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4240,18 +3839,15 @@
         <v>10643.1519</v>
       </c>
       <c r="G114" t="n">
-        <v>187821.6299556956</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4273,18 +3869,15 @@
         <v>75807.2801</v>
       </c>
       <c r="G115" t="n">
-        <v>263628.9100556956</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4306,18 +3899,15 @@
         <v>15541.1866</v>
       </c>
       <c r="G116" t="n">
-        <v>248087.7234556956</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4339,18 +3929,15 @@
         <v>64754.6617</v>
       </c>
       <c r="G117" t="n">
-        <v>312842.3851556955</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4372,18 +3959,15 @@
         <v>54100.4155</v>
       </c>
       <c r="G118" t="n">
-        <v>366942.8006556956</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4405,18 +3989,15 @@
         <v>11102.8264</v>
       </c>
       <c r="G119" t="n">
-        <v>355839.9742556955</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4438,18 +4019,15 @@
         <v>5421.6894</v>
       </c>
       <c r="G120" t="n">
-        <v>361261.6636556955</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4471,18 +4049,15 @@
         <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>361161.6636556955</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4504,18 +4079,15 @@
         <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>361261.6636556955</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4537,18 +4109,15 @@
         <v>463.2864</v>
       </c>
       <c r="G123" t="n">
-        <v>360798.3772556955</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4570,18 +4139,15 @@
         <v>3299.9563</v>
       </c>
       <c r="G124" t="n">
-        <v>360798.3772556955</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4603,18 +4169,15 @@
         <v>5876</v>
       </c>
       <c r="G125" t="n">
-        <v>360798.3772556955</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4636,18 +4199,15 @@
         <v>2012.9604</v>
       </c>
       <c r="G126" t="n">
-        <v>360798.3772556955</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4669,18 +4229,15 @@
         <v>5894.633</v>
       </c>
       <c r="G127" t="n">
-        <v>354903.7442556956</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4702,18 +4259,15 @@
         <v>8819.8488</v>
       </c>
       <c r="G128" t="n">
-        <v>346083.8954556956</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4735,18 +4289,15 @@
         <v>1550</v>
       </c>
       <c r="G129" t="n">
-        <v>347633.8954556956</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4768,18 +4319,15 @@
         <v>1469</v>
       </c>
       <c r="G130" t="n">
-        <v>349102.8954556956</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4801,18 +4349,15 @@
         <v>1190.0186</v>
       </c>
       <c r="G131" t="n">
-        <v>347912.8768556956</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4834,18 +4379,15 @@
         <v>636</v>
       </c>
       <c r="G132" t="n">
-        <v>348548.8768556956</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4867,18 +4409,15 @@
         <v>3383.5756</v>
       </c>
       <c r="G133" t="n">
-        <v>351932.4524556955</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4900,18 +4439,15 @@
         <v>31378.9931</v>
       </c>
       <c r="G134" t="n">
-        <v>320553.4593556955</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4933,18 +4469,15 @@
         <v>413.5043</v>
       </c>
       <c r="G135" t="n">
-        <v>320966.9636556955</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4966,18 +4499,15 @@
         <v>13608.418</v>
       </c>
       <c r="G136" t="n">
-        <v>307358.5456556955</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4999,18 +4529,15 @@
         <v>13629.5986</v>
       </c>
       <c r="G137" t="n">
-        <v>320988.1442556955</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5032,18 +4559,15 @@
         <v>1469</v>
       </c>
       <c r="G138" t="n">
-        <v>319519.1442556955</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5065,18 +4589,15 @@
         <v>21568</v>
       </c>
       <c r="G139" t="n">
-        <v>297951.1442556955</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5098,18 +4619,15 @@
         <v>1768</v>
       </c>
       <c r="G140" t="n">
-        <v>297951.1442556955</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5131,18 +4649,15 @@
         <v>2819.8822</v>
       </c>
       <c r="G141" t="n">
-        <v>295131.2620556955</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5164,18 +4679,15 @@
         <v>6565.206</v>
       </c>
       <c r="G142" t="n">
-        <v>301696.4680556955</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5197,18 +4709,15 @@
         <v>40343.2832</v>
       </c>
       <c r="G143" t="n">
-        <v>261353.1848556955</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5230,18 +4739,15 @@
         <v>41454.4221</v>
       </c>
       <c r="G144" t="n">
-        <v>219898.7627556955</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5263,18 +4769,15 @@
         <v>163.8079</v>
       </c>
       <c r="G145" t="n">
-        <v>220062.5706556955</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5296,18 +4799,15 @@
         <v>441.9847</v>
       </c>
       <c r="G146" t="n">
-        <v>220062.5706556955</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5329,18 +4829,15 @@
         <v>33956.3023</v>
       </c>
       <c r="G147" t="n">
-        <v>220062.5706556955</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5362,18 +4859,15 @@
         <v>6070.7258</v>
       </c>
       <c r="G148" t="n">
-        <v>220062.5706556955</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5395,18 +4889,15 @@
         <v>713.6952</v>
       </c>
       <c r="G149" t="n">
-        <v>220062.5706556955</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5428,18 +4919,15 @@
         <v>2000</v>
       </c>
       <c r="G150" t="n">
-        <v>220062.5706556955</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5461,18 +4949,15 @@
         <v>376.0274</v>
       </c>
       <c r="G151" t="n">
-        <v>220438.5980556955</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5494,18 +4979,15 @@
         <v>119.3261</v>
       </c>
       <c r="G152" t="n">
-        <v>220557.9241556955</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5527,18 +5009,15 @@
         <v>621.4373000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>221179.3614556955</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5560,18 +5039,15 @@
         <v>1494.8151</v>
       </c>
       <c r="G154" t="n">
-        <v>222674.1765556955</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5593,18 +5069,15 @@
         <v>22916.8218</v>
       </c>
       <c r="G155" t="n">
-        <v>245590.9983556955</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5626,18 +5099,15 @@
         <v>1243.6952</v>
       </c>
       <c r="G156" t="n">
-        <v>245590.9983556955</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5659,18 +5129,15 @@
         <v>25599.8182</v>
       </c>
       <c r="G157" t="n">
-        <v>245590.9983556955</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5692,18 +5159,15 @@
         <v>6692.1496</v>
       </c>
       <c r="G158" t="n">
-        <v>245590.9983556955</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5725,18 +5189,15 @@
         <v>5633.547</v>
       </c>
       <c r="G159" t="n">
-        <v>251224.5453556955</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5758,18 +5219,15 @@
         <v>1527.057</v>
       </c>
       <c r="G160" t="n">
-        <v>252751.6023556955</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5791,18 +5249,15 @@
         <v>1648</v>
       </c>
       <c r="G161" t="n">
-        <v>251103.6023556955</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5824,18 +5279,15 @@
         <v>2816.7735</v>
       </c>
       <c r="G162" t="n">
-        <v>251103.6023556955</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5857,18 +5309,15 @@
         <v>282.5588</v>
       </c>
       <c r="G163" t="n">
-        <v>251103.6023556955</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5890,18 +5339,15 @@
         <v>5350.988</v>
       </c>
       <c r="G164" t="n">
-        <v>245752.6143556955</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5923,18 +5369,15 @@
         <v>1259.7094</v>
       </c>
       <c r="G165" t="n">
-        <v>247012.3237556955</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5956,18 +5399,15 @@
         <v>1644.6513</v>
       </c>
       <c r="G166" t="n">
-        <v>248656.9750556955</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5989,18 +5429,15 @@
         <v>820.3555</v>
       </c>
       <c r="G167" t="n">
-        <v>249477.3305556955</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6022,18 +5459,15 @@
         <v>1469</v>
       </c>
       <c r="G168" t="n">
-        <v>248008.3305556955</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6055,18 +5489,15 @@
         <v>3720.7386</v>
       </c>
       <c r="G169" t="n">
-        <v>244287.5919556955</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6088,18 +5519,15 @@
         <v>9756.869699999999</v>
       </c>
       <c r="G170" t="n">
-        <v>234530.7222556955</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6121,18 +5549,15 @@
         <v>7600</v>
       </c>
       <c r="G171" t="n">
-        <v>234530.7222556955</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6154,18 +5579,15 @@
         <v>3173.5164</v>
       </c>
       <c r="G172" t="n">
-        <v>237704.2386556955</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6187,18 +5609,15 @@
         <v>8934.732400000001</v>
       </c>
       <c r="G173" t="n">
-        <v>228769.5062556955</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6220,18 +5639,15 @@
         <v>3339.8888</v>
       </c>
       <c r="G174" t="n">
-        <v>225429.6174556955</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6253,18 +5669,15 @@
         <v>1371.4388</v>
       </c>
       <c r="G175" t="n">
-        <v>226801.0562556955</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6286,18 +5699,15 @@
         <v>44843.4137</v>
       </c>
       <c r="G176" t="n">
-        <v>181957.6425556955</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6319,18 +5729,15 @@
         <v>1592.9476</v>
       </c>
       <c r="G177" t="n">
-        <v>180364.6949556955</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6352,18 +5759,15 @@
         <v>2277.8975</v>
       </c>
       <c r="G178" t="n">
-        <v>180364.6949556955</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6385,18 +5789,15 @@
         <v>4407</v>
       </c>
       <c r="G179" t="n">
-        <v>175957.6949556955</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6418,18 +5819,15 @@
         <v>1462</v>
       </c>
       <c r="G180" t="n">
-        <v>177419.6949556955</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6451,18 +5849,15 @@
         <v>25518.1748</v>
       </c>
       <c r="G181" t="n">
-        <v>151901.5201556955</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6484,18 +5879,15 @@
         <v>8212.713100000001</v>
       </c>
       <c r="G182" t="n">
-        <v>151901.5201556955</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6517,18 +5909,15 @@
         <v>8520</v>
       </c>
       <c r="G183" t="n">
-        <v>151901.5201556955</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6550,18 +5939,15 @@
         <v>700.6964</v>
       </c>
       <c r="G184" t="n">
-        <v>151901.5201556955</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6583,18 +5969,15 @@
         <v>2370.9841</v>
       </c>
       <c r="G185" t="n">
-        <v>151901.5201556955</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6616,18 +5999,15 @@
         <v>3057.3171</v>
       </c>
       <c r="G186" t="n">
-        <v>148844.2030556955</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6649,18 +6029,15 @@
         <v>8276.4254</v>
       </c>
       <c r="G187" t="n">
-        <v>157120.6284556955</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6682,18 +6059,15 @@
         <v>642.3264</v>
       </c>
       <c r="G188" t="n">
-        <v>157762.9548556955</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6715,18 +6089,15 @@
         <v>3453.8559</v>
       </c>
       <c r="G189" t="n">
-        <v>154309.0989556955</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6748,18 +6119,15 @@
         <v>55640</v>
       </c>
       <c r="G190" t="n">
-        <v>154309.0989556955</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6781,18 +6149,15 @@
         <v>176.0795</v>
       </c>
       <c r="G191" t="n">
-        <v>154133.0194556955</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6814,18 +6179,15 @@
         <v>587.9391000000001</v>
       </c>
       <c r="G192" t="n">
-        <v>154133.0194556955</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6847,18 +6209,15 @@
         <v>9677.210800000001</v>
       </c>
       <c r="G193" t="n">
-        <v>163810.2302556955</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6880,18 +6239,15 @@
         <v>5677.4584</v>
       </c>
       <c r="G194" t="n">
-        <v>169487.6886556955</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6913,18 +6269,15 @@
         <v>2940</v>
       </c>
       <c r="G195" t="n">
-        <v>166547.6886556955</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6946,18 +6299,15 @@
         <v>4410</v>
       </c>
       <c r="G196" t="n">
-        <v>170957.6886556955</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6979,18 +6329,15 @@
         <v>17</v>
       </c>
       <c r="G197" t="n">
-        <v>170957.6886556955</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7012,18 +6359,15 @@
         <v>4333</v>
       </c>
       <c r="G198" t="n">
-        <v>175290.6886556955</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7045,18 +6389,15 @@
         <v>17762.4076</v>
       </c>
       <c r="G199" t="n">
-        <v>193053.0962556955</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7078,18 +6419,15 @@
         <v>25212.6278</v>
       </c>
       <c r="G200" t="n">
-        <v>167840.4684556955</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7111,18 +6449,15 @@
         <v>10984.2981</v>
       </c>
       <c r="G201" t="n">
-        <v>178824.7665556955</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7144,18 +6479,15 @@
         <v>16209.2908</v>
       </c>
       <c r="G202" t="n">
-        <v>195034.0573556955</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7177,18 +6509,15 @@
         <v>8212.7132</v>
       </c>
       <c r="G203" t="n">
-        <v>186821.3441556955</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7210,18 +6539,15 @@
         <v>14870.68074549195</v>
       </c>
       <c r="G204" t="n">
-        <v>201692.0249011875</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7243,18 +6569,15 @@
         <v>5698.750711413764</v>
       </c>
       <c r="G205" t="n">
-        <v>201692.0249011875</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7276,18 +6599,15 @@
         <v>7.714561234329699e-05</v>
       </c>
       <c r="G206" t="n">
-        <v>201692.0249011875</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7309,18 +6629,15 @@
         <v>2411.091018685956</v>
       </c>
       <c r="G207" t="n">
-        <v>199280.9338825015</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7342,18 +6659,15 @@
         <v>3439.5514</v>
       </c>
       <c r="G208" t="n">
-        <v>195841.3824825015</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7375,18 +6689,15 @@
         <v>120.8605269518975</v>
       </c>
       <c r="G209" t="n">
-        <v>195962.2430094534</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7408,18 +6719,15 @@
         <v>12300</v>
       </c>
       <c r="G210" t="n">
-        <v>183662.2430094534</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7441,18 +6749,15 @@
         <v>11793.1054</v>
       </c>
       <c r="G211" t="n">
-        <v>195455.3484094534</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7474,18 +6779,15 @@
         <v>5896</v>
       </c>
       <c r="G212" t="n">
-        <v>189559.3484094534</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7507,18 +6809,15 @@
         <v>15500</v>
       </c>
       <c r="G213" t="n">
-        <v>189559.3484094534</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7540,18 +6839,15 @@
         <v>61000</v>
       </c>
       <c r="G214" t="n">
-        <v>189559.3484094534</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7573,18 +6869,15 @@
         <v>12300</v>
       </c>
       <c r="G215" t="n">
-        <v>177259.3484094534</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7606,18 +6899,15 @@
         <v>3711.3629</v>
       </c>
       <c r="G216" t="n">
-        <v>180970.7113094534</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7639,18 +6929,15 @@
         <v>3144.691</v>
       </c>
       <c r="G217" t="n">
-        <v>177826.0203094534</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7672,18 +6959,15 @@
         <v>2938</v>
       </c>
       <c r="G218" t="n">
-        <v>177826.0203094534</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7705,18 +6989,15 @@
         <v>2913.9973</v>
       </c>
       <c r="G219" t="n">
-        <v>177826.0203094534</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7738,18 +7019,15 @@
         <v>2363.6471</v>
       </c>
       <c r="G220" t="n">
-        <v>177826.0203094534</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7771,18 +7049,15 @@
         <v>12300</v>
       </c>
       <c r="G221" t="n">
-        <v>165526.0203094534</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7804,18 +7079,15 @@
         <v>9441.909600000001</v>
       </c>
       <c r="G222" t="n">
-        <v>165526.0203094534</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7837,18 +7109,15 @@
         <v>36355.3684</v>
       </c>
       <c r="G223" t="n">
-        <v>165526.0203094534</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7870,18 +7139,15 @@
         <v>7252.5791</v>
       </c>
       <c r="G224" t="n">
-        <v>165526.0203094534</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7903,18 +7169,15 @@
         <v>12300</v>
       </c>
       <c r="G225" t="n">
-        <v>153226.0203094534</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7936,18 +7199,15 @@
         <v>12350</v>
       </c>
       <c r="G226" t="n">
-        <v>140876.0203094534</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7969,18 +7229,15 @@
         <v>366.7033370003667</v>
       </c>
       <c r="G227" t="n">
-        <v>141242.7236464538</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8002,18 +7259,15 @@
         <v>13500</v>
       </c>
       <c r="G228" t="n">
-        <v>127742.7236464538</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8035,18 +7289,15 @@
         <v>11660.6856</v>
       </c>
       <c r="G229" t="n">
-        <v>139403.4092464538</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8068,18 +7319,15 @@
         <v>12040.09289817871</v>
       </c>
       <c r="G230" t="n">
-        <v>139403.4092464538</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8101,18 +7349,15 @@
         <v>15739.18326482093</v>
       </c>
       <c r="G231" t="n">
-        <v>155142.5925112747</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8134,18 +7379,15 @@
         <v>11854.3367</v>
       </c>
       <c r="G232" t="n">
-        <v>166996.9292112747</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8167,18 +7409,15 @@
         <v>2993</v>
       </c>
       <c r="G233" t="n">
-        <v>169989.9292112747</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8200,18 +7439,15 @@
         <v>2612</v>
       </c>
       <c r="G234" t="n">
-        <v>167377.9292112747</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8233,18 +7469,15 @@
         <v>40651.4049</v>
       </c>
       <c r="G235" t="n">
-        <v>126726.5243112747</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8266,18 +7499,15 @@
         <v>406.1069</v>
       </c>
       <c r="G236" t="n">
-        <v>127132.6312112747</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8299,18 +7529,15 @@
         <v>33592.5097</v>
       </c>
       <c r="G237" t="n">
-        <v>93540.12151127472</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8332,18 +7559,15 @@
         <v>28155.4881</v>
       </c>
       <c r="G238" t="n">
-        <v>121695.6096112747</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8365,18 +7589,15 @@
         <v>69886.86948761527</v>
       </c>
       <c r="G239" t="n">
-        <v>191582.47909889</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8398,18 +7619,15 @@
         <v>1568.2131</v>
       </c>
       <c r="G240" t="n">
-        <v>190014.26599889</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8431,18 +7649,15 @@
         <v>2645</v>
       </c>
       <c r="G241" t="n">
-        <v>192659.26599889</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8464,18 +7679,15 @@
         <v>2938</v>
       </c>
       <c r="G242" t="n">
-        <v>192659.26599889</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8497,18 +7709,15 @@
         <v>10000</v>
       </c>
       <c r="G243" t="n">
-        <v>192659.26599889</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8530,18 +7739,15 @@
         <v>5362.8135</v>
       </c>
       <c r="G244" t="n">
-        <v>192659.26599889</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8563,18 +7769,15 @@
         <v>3865.9194</v>
       </c>
       <c r="G245" t="n">
-        <v>188793.34659889</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8596,18 +7799,15 @@
         <v>13280.4231</v>
       </c>
       <c r="G246" t="n">
-        <v>202073.76969889</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8629,18 +7829,15 @@
         <v>1469</v>
       </c>
       <c r="G247" t="n">
-        <v>203542.76969889</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8662,18 +7859,15 @@
         <v>52177</v>
       </c>
       <c r="G248" t="n">
-        <v>255719.76969889</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8695,18 +7889,15 @@
         <v>17209.3915</v>
       </c>
       <c r="G249" t="n">
-        <v>272929.16119889</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8728,18 +7919,15 @@
         <v>80652.8003</v>
       </c>
       <c r="G250" t="n">
-        <v>192276.36089889</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8761,18 +7949,15 @@
         <v>17151.911</v>
       </c>
       <c r="G251" t="n">
-        <v>209428.27189889</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8794,18 +7979,15 @@
         <v>2256.25</v>
       </c>
       <c r="G252" t="n">
-        <v>209428.27189889</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8827,18 +8009,15 @@
         <v>827.8916</v>
       </c>
       <c r="G253" t="n">
-        <v>210256.16349889</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8860,18 +8039,15 @@
         <v>799.2003</v>
       </c>
       <c r="G254" t="n">
-        <v>210256.16349889</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8893,18 +8069,15 @@
         <v>33781.3916</v>
       </c>
       <c r="G255" t="n">
-        <v>244037.55509889</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8926,18 +8099,15 @@
         <v>2769.3082</v>
       </c>
       <c r="G256" t="n">
-        <v>246806.86329889</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8959,18 +8129,15 @@
         <v>631.79</v>
       </c>
       <c r="G257" t="n">
-        <v>246806.86329889</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8992,18 +8159,15 @@
         <v>23566.3582</v>
       </c>
       <c r="G258" t="n">
-        <v>223240.50509889</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9025,18 +8189,15 @@
         <v>21438.891</v>
       </c>
       <c r="G259" t="n">
-        <v>244679.39609889</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9058,18 +8219,15 @@
         <v>1411.9596</v>
       </c>
       <c r="G260" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9091,18 +8249,15 @@
         <v>562.3627</v>
       </c>
       <c r="G261" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9124,18 +8279,15 @@
         <v>79.0883</v>
       </c>
       <c r="G262" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9157,18 +8309,15 @@
         <v>1372</v>
       </c>
       <c r="G263" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9190,18 +8339,15 @@
         <v>2624.4219</v>
       </c>
       <c r="G264" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H264" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9223,18 +8369,15 @@
         <v>11252.6316</v>
       </c>
       <c r="G265" t="n">
-        <v>243267.43649889</v>
-      </c>
-      <c r="H265" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9256,18 +8399,15 @@
         <v>26687.326</v>
       </c>
       <c r="G266" t="n">
-        <v>269954.76249889</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9289,18 +8429,15 @@
         <v>53946.0602</v>
       </c>
       <c r="G267" t="n">
-        <v>323900.8226988901</v>
-      </c>
-      <c r="H267" t="n">
         <v>2</v>
       </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9322,18 +8459,15 @@
         <v>15288.2441</v>
       </c>
       <c r="G268" t="n">
-        <v>308612.57859889</v>
-      </c>
-      <c r="H268" t="n">
         <v>2</v>
       </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9355,18 +8489,15 @@
         <v>15934.40703594389</v>
       </c>
       <c r="G269" t="n">
-        <v>324546.9856348339</v>
-      </c>
-      <c r="H269" t="n">
         <v>2</v>
       </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9388,18 +8519,15 @@
         <v>7557.94</v>
       </c>
       <c r="G270" t="n">
-        <v>324546.9856348339</v>
-      </c>
-      <c r="H270" t="n">
         <v>2</v>
       </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9421,18 +8549,15 @@
         <v>7292.483664056108</v>
       </c>
       <c r="G271" t="n">
-        <v>331839.46929889</v>
-      </c>
-      <c r="H271" t="n">
         <v>2</v>
       </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9454,18 +8579,15 @@
         <v>10552.72203594389</v>
       </c>
       <c r="G272" t="n">
-        <v>321286.7472629462</v>
-      </c>
-      <c r="H272" t="n">
         <v>2</v>
       </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9487,18 +8609,15 @@
         <v>12700.0562</v>
       </c>
       <c r="G273" t="n">
-        <v>333986.8034629461</v>
-      </c>
-      <c r="H273" t="n">
         <v>2</v>
       </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9520,18 +8639,15 @@
         <v>21669.0867</v>
       </c>
       <c r="G274" t="n">
-        <v>312317.7167629462</v>
-      </c>
-      <c r="H274" t="n">
         <v>2</v>
       </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9553,18 +8669,15 @@
         <v>6202.795</v>
       </c>
       <c r="G275" t="n">
-        <v>318520.5117629461</v>
-      </c>
-      <c r="H275" t="n">
         <v>2</v>
       </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
